--- a/Documentation/FHF_TestCases.xlsx
+++ b/Documentation/FHF_TestCases.xlsx
@@ -1,13 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Semester9\SEP490\fu-house-finder\Documentation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72492EC9-DCDF-49A9-9AB5-E3C295DD69E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="TestCases" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,8 +24,79 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+  <si>
+    <t>Project Name</t>
+  </si>
+  <si>
+    <t>Module Name</t>
+  </si>
+  <si>
+    <t>Created By</t>
+  </si>
+  <si>
+    <t>Creation Date</t>
+  </si>
+  <si>
+    <t>Reviewed By</t>
+  </si>
+  <si>
+    <t>Reviewed Date</t>
+  </si>
+  <si>
+    <t>Test Scenario ID</t>
+  </si>
+  <si>
+    <t>Test Scenario Description</t>
+  </si>
+  <si>
+    <t>Test Case ID</t>
+  </si>
+  <si>
+    <t>Test Case Description</t>
+  </si>
+  <si>
+    <t>Preconditions</t>
+  </si>
+  <si>
+    <t>Post Conditions</t>
+  </si>
+  <si>
+    <t>Expected Result</t>
+  </si>
+  <si>
+    <t>Actual Result</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Executed By</t>
+  </si>
+  <si>
+    <t>Executed Date</t>
+  </si>
+  <si>
+    <t>Comments (if any)</t>
+  </si>
+  <si>
+    <t>FU House Finder</t>
+  </si>
+  <si>
+    <t>Filter Houses</t>
+  </si>
+  <si>
+    <t>GiangNT</t>
+  </si>
+  <si>
+    <t>HuyenBN</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -29,12 +106,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -49,8 +132,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +415,116 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>44603</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>44692</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Documentation/FHF_TestCases.xlsx
+++ b/Documentation/FHF_TestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Semester9\SEP490\fu-house-finder\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72492EC9-DCDF-49A9-9AB5-E3C295DD69E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5DCE3D5-722A-471E-B3C3-495A357947D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="48">
   <si>
     <t>Project Name</t>
   </si>
@@ -91,14 +91,132 @@
   </si>
   <si>
     <t>HuyenBN</t>
+  </si>
+  <si>
+    <t>Verify the Search by Name functionality of Home Page</t>
+  </si>
+  <si>
+    <t>TC_FHF_SearchName_001</t>
+  </si>
+  <si>
+    <t>TC_FHF_SearchName_002</t>
+  </si>
+  <si>
+    <t>TC_FHF_SearchName_003</t>
+  </si>
+  <si>
+    <t>TC_FHF_SearchName_004</t>
+  </si>
+  <si>
+    <t>Enter valid house name &amp; click Search button</t>
+  </si>
+  <si>
+    <t>Enter invalid house name &amp; click Search button</t>
+  </si>
+  <si>
+    <t>Enter valid house name &amp; press Enter</t>
+  </si>
+  <si>
+    <t>Enter invalid house name &amp; press Enter</t>
+  </si>
+  <si>
+    <t>Test Steps</t>
+  </si>
+  <si>
+    <t>1. Enter valid house name
+2. Click on Search button</t>
+  </si>
+  <si>
+    <t>1. Enter invalid house name
+2. Click on Search button</t>
+  </si>
+  <si>
+    <t>1. Enter valid house name
+2. Press Enter key</t>
+  </si>
+  <si>
+    <t>1. Enter invalid house name
+2. Press Enter key</t>
+  </si>
+  <si>
+    <t>Valid URL
+Test Data</t>
+  </si>
+  <si>
+    <t>Test Data</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">House name: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tâm</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">House name: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>qwerty</t>
+    </r>
+  </si>
+  <si>
+    <t>TS_FHF_Filter_001</t>
+  </si>
+  <si>
+    <t>User see Houses with the name searched</t>
+  </si>
+  <si>
+    <t>System displays 
+the list of Houses containing the searched value</t>
+  </si>
+  <si>
+    <t>User see no House</t>
+  </si>
+  <si>
+    <t>System displays a message indicating that there are no Houses containing the searched value</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>No comments</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -120,7 +238,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -128,14 +246,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -416,29 +554,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.21875" customWidth="1"/>
+    <col min="3" max="3" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.44140625" customWidth="1"/>
+    <col min="5" max="5" width="24.109375" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.77734375" customWidth="1"/>
+    <col min="10" max="10" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -446,7 +586,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -454,7 +594,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -462,7 +602,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -470,7 +610,7 @@
         <v>44603</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -478,7 +618,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -486,7 +626,7 @@
         <v>44692</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -500,31 +640,344 @@
         <v>9</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="M8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="N8" s="1" t="s">
         <v>17</v>
       </c>
+    </row>
+    <row r="9" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="5">
+        <v>44631</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Documentation/FHF_TestCases.xlsx
+++ b/Documentation/FHF_TestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Semester9\SEP490\fu-house-finder\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5DCE3D5-722A-471E-B3C3-495A357947D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F6B2B56-74A4-40E9-A366-F59AF68B85C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="47">
   <si>
     <t>Project Name</t>
   </si>
@@ -94,18 +94,6 @@
   </si>
   <si>
     <t>Verify the Search by Name functionality of Home Page</t>
-  </si>
-  <si>
-    <t>TC_FHF_SearchName_001</t>
-  </si>
-  <si>
-    <t>TC_FHF_SearchName_002</t>
-  </si>
-  <si>
-    <t>TC_FHF_SearchName_003</t>
-  </si>
-  <si>
-    <t>TC_FHF_SearchName_004</t>
   </si>
   <si>
     <t>Enter valid house name &amp; click Search button</t>
@@ -197,17 +185,26 @@
     <t>Pass</t>
   </si>
   <si>
-    <t>Fail</t>
-  </si>
-  <si>
     <t>No comments</t>
+  </si>
+  <si>
+    <t>TC_FHF_Filter_SearchName_001</t>
+  </si>
+  <si>
+    <t>TC_FHF_Filter_SearchName_002</t>
+  </si>
+  <si>
+    <t>TC_FHF_Filter_SearchName_003</t>
+  </si>
+  <si>
+    <t>TC_FHF_Filter_SearchName_004</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,6 +216,13 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -265,15 +269,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -556,22 +562,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" topLeftCell="C7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10:N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.21875" customWidth="1"/>
-    <col min="3" max="3" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.77734375" customWidth="1"/>
     <col min="4" max="4" width="22.44140625" customWidth="1"/>
     <col min="5" max="5" width="24.109375" customWidth="1"/>
     <col min="6" max="6" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.77734375" customWidth="1"/>
-    <col min="10" max="10" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.77734375" customWidth="1"/>
+    <col min="9" max="10" width="20.77734375" customWidth="1"/>
     <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.77734375" bestFit="1" customWidth="1"/>
@@ -627,80 +632,82 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="1" t="s">
+      <c r="E8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H8" s="1" t="s">
+      <c r="G8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="K8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="L8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="M8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="N8" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="E9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="G9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="J9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K9" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>20</v>
@@ -709,112 +716,140 @@
         <v>44631</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="E10" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H10" s="4" t="s">
-        <v>43</v>
-      </c>
       <c r="I10" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" s="5">
+        <v>44631</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="11" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="E11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" s="4" t="s">
+      <c r="H11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="J11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K11" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="L11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M11" s="5">
+        <v>44631</v>
+      </c>
+      <c r="N11" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
     </row>
     <row r="12" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="E12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G12" s="4" t="s">
+      <c r="H12" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H12" s="4" t="s">
-        <v>43</v>
-      </c>
       <c r="I12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12" s="5">
+        <v>44631</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>

--- a/Documentation/FHF_TestCases.xlsx
+++ b/Documentation/FHF_TestCases.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Semester9\SEP490\fu-house-finder\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F6B2B56-74A4-40E9-A366-F59AF68B85C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F1EFA51-616B-4439-B44F-9E6AD054D63F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="TestCases" sheetId="1" r:id="rId1"/>
+    <sheet name="Home Page" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>

--- a/Documentation/FHF_TestCases.xlsx
+++ b/Documentation/FHF_TestCases.xlsx
@@ -8,24 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Semester9\SEP490\fu-house-finder\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F1EFA51-616B-4439-B44F-9E6AD054D63F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{019968D3-C097-4237-87E9-1C400F79DB78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Home Page" sheetId="1" r:id="rId1"/>
+    <sheet name="Cover" sheetId="2" r:id="rId1"/>
+    <sheet name="Home Page" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="59">
   <si>
     <t>Project Name</t>
   </si>
@@ -198,6 +207,42 @@
   </si>
   <si>
     <t>TC_FHF_Filter_SearchName_004</t>
+  </si>
+  <si>
+    <t>Project Code</t>
+  </si>
+  <si>
+    <t>INTEGRATION TEST CASE</t>
+  </si>
+  <si>
+    <t>FHF</t>
+  </si>
+  <si>
+    <t>31/10/2022</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>*A, M, D</t>
+  </si>
+  <si>
+    <t>In charge</t>
+  </si>
+  <si>
+    <t>Change Description</t>
+  </si>
+  <si>
+    <t>Record of changes</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Untested</t>
+  </si>
+  <si>
+    <t>Number of Test cases</t>
   </si>
 </sst>
 </file>
@@ -295,6 +340,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1341120</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFFEF5C6-55A5-5688-9EBF-11AB8AA3A27B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="190500"/>
+          <a:ext cx="2438400" cy="1341120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -559,123 +659,247 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F31288BE-C39C-4126-8684-B1EA1FAE63A5}">
+  <dimension ref="B2:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10:N12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.21875" customWidth="1"/>
-    <col min="3" max="3" width="27.77734375" customWidth="1"/>
-    <col min="4" max="4" width="22.44140625" customWidth="1"/>
-    <col min="5" max="5" width="24.109375" customWidth="1"/>
-    <col min="6" max="6" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.77734375" customWidth="1"/>
-    <col min="9" max="10" width="20.77734375" customWidth="1"/>
-    <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" customWidth="1"/>
+    <col min="9" max="10" width="20.7109375" customWidth="1"/>
+    <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2">
+        <v>44603</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2">
+        <v>44692</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>44603</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2">
-        <v>44692</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="M8" s="5">
+        <v>44631</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>36</v>
       </c>
@@ -683,28 +907,28 @@
         <v>22</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>32</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K9" s="6" t="s">
         <v>41</v>
@@ -719,7 +943,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>36</v>
       </c>
@@ -727,28 +951,28 @@
         <v>22</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>32</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K10" s="6" t="s">
         <v>41</v>
@@ -763,7 +987,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>36</v>
       </c>
@@ -771,28 +995,28 @@
         <v>22</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>32</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K11" s="6" t="s">
         <v>41</v>
@@ -807,51 +1031,23 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="72" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M12" s="5">
-        <v>44631</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -867,7 +1063,7 @@
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -883,7 +1079,7 @@
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -899,7 +1095,7 @@
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -915,7 +1111,7 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -931,7 +1127,7 @@
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -947,7 +1143,7 @@
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -963,7 +1159,7 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -979,7 +1175,7 @@
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -995,22 +1191,6 @@
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Documentation/FHF_TestCases.xlsx
+++ b/Documentation/FHF_TestCases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Semester9\SEP490\fu-house-finder\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{019968D3-C097-4237-87E9-1C400F79DB78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C05E848-6018-4FA2-A7FB-B9B5AE8DB1DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="61">
   <si>
     <t>Project Name</t>
   </si>
@@ -91,9 +91,6 @@
   </si>
   <si>
     <t>FU House Finder</t>
-  </si>
-  <si>
-    <t>Filter Houses</t>
   </si>
   <si>
     <t>GiangNT</t>
@@ -175,9 +172,6 @@
     </r>
   </si>
   <si>
-    <t>TS_FHF_Filter_001</t>
-  </si>
-  <si>
     <t>User see Houses with the name searched</t>
   </si>
   <si>
@@ -197,18 +191,6 @@
     <t>No comments</t>
   </si>
   <si>
-    <t>TC_FHF_Filter_SearchName_001</t>
-  </si>
-  <si>
-    <t>TC_FHF_Filter_SearchName_002</t>
-  </si>
-  <si>
-    <t>TC_FHF_Filter_SearchName_003</t>
-  </si>
-  <si>
-    <t>TC_FHF_Filter_SearchName_004</t>
-  </si>
-  <si>
     <t>Project Code</t>
   </si>
   <si>
@@ -243,13 +225,37 @@
   </si>
   <si>
     <t>Number of Test cases</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Create Document</t>
+  </si>
+  <si>
+    <t>Home Page</t>
+  </si>
+  <si>
+    <t>TS_FHF_Home_001</t>
+  </si>
+  <si>
+    <t>TC_FHF_Home_SearchName_001</t>
+  </si>
+  <si>
+    <t>TC_FHF_Home_SearchName_002</t>
+  </si>
+  <si>
+    <t>TC_FHF_Home_SearchName_003</t>
+  </si>
+  <si>
+    <t>TC_FHF_Home_SearchName_004</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -272,8 +278,41 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="5" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -286,8 +325,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -310,11 +355,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -325,6 +450,34 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -352,8 +505,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1047750</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>1341120</xdr:rowOff>
     </xdr:to>
@@ -660,77 +813,180 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F31288BE-C39C-4126-8684-B1EA1FAE63A5}">
-  <dimension ref="B2:G9"/>
+  <dimension ref="B2:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="32.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F2" t="s">
+    <row r="2" spans="2:6" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="13" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="20">
+        <v>44603</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="15" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" t="s">
-        <v>54</v>
-      </c>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="20"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="15"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="20"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="15"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="20"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="15"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="20"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="15"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="20"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="15"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="20"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="15"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="20"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="15"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="20"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="15"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="20"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="15"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="20"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="15"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="20"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="15"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="21"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -738,25 +994,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:I2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" customWidth="1"/>
+    <col min="5" max="5" width="26" customWidth="1"/>
     <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" customWidth="1"/>
-    <col min="9" max="10" width="20.7109375" customWidth="1"/>
-    <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5703125" customWidth="1"/>
+    <col min="10" max="10" width="22.42578125" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -764,7 +1021,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -772,19 +1029,19 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H2" t="s">
-        <v>58</v>
+        <v>19</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -794,13 +1051,25 @@
       <c r="B3" s="2">
         <v>44603</v>
       </c>
+      <c r="E3" s="18">
+        <v>4</v>
+      </c>
+      <c r="F3" s="18">
+        <v>0</v>
+      </c>
+      <c r="G3" s="18">
+        <v>0</v>
+      </c>
+      <c r="H3" s="18">
+        <v>4</v>
+      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -825,13 +1094,13 @@
         <v>9</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>11</v>
@@ -857,178 +1126,178 @@
     </row>
     <row r="8" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="J8" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M8" s="5">
         <v>44631</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K9" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="I9" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>41</v>
-      </c>
       <c r="L9" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M9" s="5">
         <v>44631</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="J10" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M10" s="5">
         <v>44631</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>32</v>
-      </c>
       <c r="G11" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K11" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="I11" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>41</v>
-      </c>
       <c r="L11" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M11" s="5">
         <v>44631</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">

--- a/Documentation/FHF_TestCases.xlsx
+++ b/Documentation/FHF_TestCases.xlsx
@@ -8,13 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Semester9\SEP490\fu-house-finder\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C05E848-6018-4FA2-A7FB-B9B5AE8DB1DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C898893C-1FEB-4541-B5CA-1CCA2197A509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="891" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="2" r:id="rId1"/>
     <sheet name="Home Page" sheetId="1" r:id="rId2"/>
+    <sheet name="House Detail" sheetId="3" r:id="rId3"/>
+    <sheet name="Room Detail" sheetId="4" r:id="rId4"/>
+    <sheet name="(Landlord) Manage Houses" sheetId="5" r:id="rId5"/>
+    <sheet name="(Landlord) Manage Rooms" sheetId="8" r:id="rId6"/>
+    <sheet name="(Staff) Dashboard" sheetId="9" r:id="rId7"/>
+    <sheet name="(Staff) Manage Landlords" sheetId="10" r:id="rId8"/>
+    <sheet name="(Staff) List Houses" sheetId="11" r:id="rId9"/>
+    <sheet name="(Staff) Manage Reports" sheetId="12" r:id="rId10"/>
+    <sheet name="(Staff) Manage Orders" sheetId="13" r:id="rId11"/>
+    <sheet name="(Staff) Manage Sign up Requests" sheetId="14" r:id="rId12"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="72">
   <si>
     <t>Project Name</t>
   </si>
@@ -250,12 +260,45 @@
   <si>
     <t>TC_FHF_Home_SearchName_004</t>
   </si>
+  <si>
+    <t>House Detail</t>
+  </si>
+  <si>
+    <t>KienNT</t>
+  </si>
+  <si>
+    <t>Room Detail</t>
+  </si>
+  <si>
+    <t>Manage Houses</t>
+  </si>
+  <si>
+    <t>ThongPQ</t>
+  </si>
+  <si>
+    <t>Manage Reports</t>
+  </si>
+  <si>
+    <t>Manage Orders</t>
+  </si>
+  <si>
+    <t>15/11/2022</t>
+  </si>
+  <si>
+    <t>20/11/2022</t>
+  </si>
+  <si>
+    <t>16/11/2022</t>
+  </si>
+  <si>
+    <t>21/11/2022</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -306,6 +349,14 @@
       <b/>
       <i/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="30"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -439,7 +490,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -462,11 +513,10 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -477,6 +527,24 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -506,9 +574,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1047750</xdr:colOff>
+      <xdr:colOff>617220</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>1341120</xdr:rowOff>
+      <xdr:rowOff>1108330</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -537,8 +605,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="190500"/>
-          <a:ext cx="2438400" cy="1341120"/>
+          <a:off x="609600" y="182880"/>
+          <a:ext cx="2049780" cy="1108330"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -815,26 +883,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F31288BE-C39C-4126-8684-B1EA1FAE63A5}">
   <dimension ref="B2:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="20.85546875" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="32.28515625" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.88671875" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="32.33203125" customWidth="1"/>
+    <col min="6" max="6" width="16.88671875" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E2" t="s">
+    <row r="2" spans="2:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D2" s="21" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
         <v>0</v>
       </c>
@@ -849,7 +917,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" s="8" t="s">
         <v>41</v>
       </c>
@@ -864,12 +932,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="10" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="11" t="s">
         <v>45</v>
       </c>
@@ -883,105 +951,83 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="20" t="s">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="14" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="20">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="19">
         <v>44603</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="14" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="20"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="15"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="20"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="15"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="20"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="15"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="20"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="15"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="20"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="15"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="20"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="15"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="20"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="15"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="20"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="15"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="20"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="15"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="20"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="15"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="20"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="15"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="21"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="17"/>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="19"/>
+      <c r="E12" s="14"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="19"/>
+      <c r="E13" s="14"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B14" s="19"/>
+      <c r="E14" s="14"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B15" s="19"/>
+      <c r="E15" s="14"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B16" s="19"/>
+      <c r="E16" s="14"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="19"/>
+      <c r="E17" s="14"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18" s="19"/>
+      <c r="E18" s="14"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="19"/>
+      <c r="E19" s="14"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="19"/>
+      <c r="E20" s="14"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="19"/>
+      <c r="E21" s="14"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="19"/>
+      <c r="E22" s="14"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B23" s="20"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -990,97 +1036,101 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA5AA972-DFB1-40B4-AEFA-DB3883430545}">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.5703125" customWidth="1"/>
-    <col min="10" max="10" width="22.42578125" customWidth="1"/>
-    <col min="11" max="11" width="8.140625" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5546875" customWidth="1"/>
+    <col min="10" max="10" width="22.44140625" customWidth="1"/>
+    <col min="11" max="11" width="8.109375" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="18" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2">
-        <v>44603</v>
-      </c>
-      <c r="E3" s="18">
-        <v>4</v>
-      </c>
-      <c r="F3" s="18">
+      <c r="B3" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="17">
+        <f>COUNTIF(K8:K11,"Pass")</f>
         <v>0</v>
       </c>
-      <c r="G3" s="18">
+      <c r="F3" s="17">
+        <f>COUNTIF(K8:K11,"Fail")</f>
         <v>0</v>
       </c>
-      <c r="H3" s="18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G3" s="17">
+        <f>COUNTIF(K8:K11,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="17">
+        <f>COUNTA(K8:K11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2">
-        <v>44692</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
@@ -1124,183 +1174,71 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M8" s="5">
-        <v>44631</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="75" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M9" s="5">
-        <v>44631</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M10" s="5">
-        <v>44631</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="75" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M11" s="5">
-        <v>44631</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -1316,7 +1254,7 @@
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1332,7 +1270,7 @@
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1348,7 +1286,7 @@
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1364,7 +1302,7 @@
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1380,7 +1318,7 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1396,7 +1334,7 @@
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1412,7 +1350,7 @@
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1428,7 +1366,7 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1444,7 +1382,7 @@
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1462,6 +1400,2017 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{724366A5-878B-4ED6-A78B-66A2030F69F2}">
+  <dimension ref="A1:N21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" customWidth="1"/>
+    <col min="5" max="5" width="26" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5546875" customWidth="1"/>
+    <col min="10" max="10" width="22.44140625" customWidth="1"/>
+    <col min="11" max="11" width="8.109375" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="17">
+        <f>COUNTIF(K8:K11,"Pass")</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="17">
+        <f>COUNTIF(K8:K11,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="17">
+        <f>COUNTIF(K8:K11,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="17">
+        <f>COUNTA(K8:K11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5D15423-BFD1-49B1-9AC6-A93AC985919D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" customWidth="1"/>
+    <col min="5" max="5" width="26" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5546875" customWidth="1"/>
+    <col min="10" max="10" width="22.44140625" customWidth="1"/>
+    <col min="11" max="11" width="8.109375" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2">
+        <v>44603</v>
+      </c>
+      <c r="E3" s="17">
+        <f>COUNTIF(K8:K11,"Pass")</f>
+        <v>4</v>
+      </c>
+      <c r="F3" s="17">
+        <f>COUNTIF(K8:K11,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="17">
+        <f>COUNTIF(K8:K11,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="17">
+        <f>COUNTA(K8:K11)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2">
+        <v>44692</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="L8" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" s="26">
+        <v>44631</v>
+      </c>
+      <c r="N8" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="A9" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="K9" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="L9" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" s="26">
+        <v>44631</v>
+      </c>
+      <c r="N9" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="J10" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="K10" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="L10" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" s="26">
+        <v>44631</v>
+      </c>
+      <c r="N10" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="A11" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="K11" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="L11" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" s="26">
+        <v>44631</v>
+      </c>
+      <c r="N11" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{390F2A9F-4E2C-4E2F-ABD3-049540B295E0}">
+  <dimension ref="A1:N21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" customWidth="1"/>
+    <col min="5" max="5" width="26" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5546875" customWidth="1"/>
+    <col min="10" max="10" width="22.44140625" customWidth="1"/>
+    <col min="11" max="11" width="8.109375" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2">
+        <v>44753</v>
+      </c>
+      <c r="E3" s="17">
+        <f>COUNTIF(K8:K11,"Pass")</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="17">
+        <f>COUNTIF(K8:K11,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="17">
+        <f>COUNTIF(K8:K11,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="17">
+        <f>COUNTA(K8:K11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2">
+        <v>44845</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F9DAF7B-F216-485C-A737-CE6543350613}">
+  <dimension ref="A1:N21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" customWidth="1"/>
+    <col min="5" max="5" width="26" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5546875" customWidth="1"/>
+    <col min="10" max="10" width="22.44140625" customWidth="1"/>
+    <col min="11" max="11" width="8.109375" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2">
+        <v>44815</v>
+      </c>
+      <c r="E3" s="17">
+        <f>COUNTIF(K8:K11,"Pass")</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="17">
+        <f>COUNTIF(K8:K11,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="17">
+        <f>COUNTIF(K8:K11,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="17">
+        <f>COUNTA(K8:K11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2">
+        <v>44845</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFAD3FF7-16E1-4231-B6B4-F5A8EE2491F1}">
+  <dimension ref="A1:N21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" customWidth="1"/>
+    <col min="5" max="5" width="26" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5546875" customWidth="1"/>
+    <col min="10" max="10" width="22.44140625" customWidth="1"/>
+    <col min="11" max="11" width="8.109375" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2">
+        <v>44845</v>
+      </c>
+      <c r="E3" s="17">
+        <f>COUNTIF(K8:K11,"Pass")</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="17">
+        <f>COUNTIF(K8:K11,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="17">
+        <f>COUNTIF(K8:K11,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="17">
+        <f>COUNTA(K8:K11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2">
+        <v>44906</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCE6BAC9-101B-4E92-9129-5215F08B3B25}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6700F7F-1AC6-48E9-B606-49A22884B31C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8BA7C9D-4811-4DBD-A294-1765E19BD7AB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2560414D-76E7-40C1-9529-E439F49BDB5A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Documentation/FHF_TestCases.xlsx
+++ b/Documentation/FHF_TestCases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Semester9\SEP490\fu-house-finder\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C898893C-1FEB-4541-B5CA-1CCA2197A509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C288DFE-6C7B-41DC-B017-4E482FDB6A0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="891" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="891" firstSheet="7" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="2" r:id="rId1"/>
@@ -25,6 +25,8 @@
     <sheet name="(Staff) Manage Reports" sheetId="12" r:id="rId10"/>
     <sheet name="(Staff) Manage Orders" sheetId="13" r:id="rId11"/>
     <sheet name="(Staff) Manage Sign up Requests" sheetId="14" r:id="rId12"/>
+    <sheet name="Login" sheetId="15" r:id="rId13"/>
+    <sheet name="(Landlord) Upload House Info" sheetId="16" r:id="rId14"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -44,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="75">
   <si>
     <t>Project Name</t>
   </si>
@@ -292,6 +294,15 @@
   </si>
   <si>
     <t>21/11/2022</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>AnNT</t>
+  </si>
+  <si>
+    <t>13/11/2022</t>
   </si>
 </sst>
 </file>
@@ -1041,7 +1052,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1784,11 +1795,392 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89A783D3-2F75-4808-BD69-9252C407DFB4}">
+  <dimension ref="A1:N21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" customWidth="1"/>
+    <col min="5" max="5" width="26" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5546875" customWidth="1"/>
+    <col min="10" max="10" width="22.44140625" customWidth="1"/>
+    <col min="11" max="11" width="8.109375" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="17">
+        <f>COUNTIF(K8:K11,"Pass")</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="17">
+        <f>COUNTIF(K8:K11,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="17">
+        <f>COUNTIF(K8:K11,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="17">
+        <f>COUNTA(K8:K11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40266175-311B-4BE6-A383-6E85CEC9752E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R24" sqref="R24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -2269,7 +2661,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="A1:XFD1048576"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2636,7 +3028,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="A1:XFD1048576"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3003,7 +3395,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="A1:XFD1048576"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Documentation/FHF_TestCases.xlsx
+++ b/Documentation/FHF_TestCases.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Semester9\SEP490\fu-house-finder\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SEP490\fu-house-finder\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C288DFE-6C7B-41DC-B017-4E482FDB6A0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="891" firstSheet="7" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580" tabRatio="891" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="2" r:id="rId1"/>
@@ -28,7 +27,7 @@
     <sheet name="Login" sheetId="15" r:id="rId13"/>
     <sheet name="(Landlord) Upload House Info" sheetId="16" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -46,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="198">
   <si>
     <t>Project Name</t>
   </si>
@@ -304,11 +303,393 @@
   <si>
     <t>13/11/2022</t>
   </si>
+  <si>
+    <t>TS_FHF_HouseDetail_001</t>
+  </si>
+  <si>
+    <t>1. Do not login the system
+2. Open report modal
+3. Input data
+4. Click on report button</t>
+  </si>
+  <si>
+    <t>Click report button when not logged in</t>
+  </si>
+  <si>
+    <t>TS_FHF_HouseDetail_002</t>
+  </si>
+  <si>
+    <t>TC_FHF_HouseDetail_ShowAlert_001</t>
+  </si>
+  <si>
+    <t>TC_FHF_HouseDetail_ShowAlert_002</t>
+  </si>
+  <si>
+    <t>Click report button when  logged in</t>
+  </si>
+  <si>
+    <t>Disable report button when input is empty</t>
+  </si>
+  <si>
+    <t>User see the hidden button and cannot click</t>
+  </si>
+  <si>
+    <t>System disables report button</t>
+  </si>
+  <si>
+    <t>1. Open report modal
+2. Leave the input box empty</t>
+  </si>
+  <si>
+    <t>1. Login the system
+2. Open report modal
+3. Input data
+4. Click on report button</t>
+  </si>
+  <si>
+    <t>User see success alert when click report button</t>
+  </si>
+  <si>
+    <t>System shows the warning alert</t>
+  </si>
+  <si>
+    <t>User see warning alert when click report button</t>
+  </si>
+  <si>
+    <t>System shows the success alert</t>
+  </si>
+  <si>
+    <t>TS_FHF_HouseDetail_003</t>
+  </si>
+  <si>
+    <t>Verify the show success alert  functionality of House Detail</t>
+  </si>
+  <si>
+    <t>Verify the show warning alert  functionality of House Detail</t>
+  </si>
+  <si>
+    <t>Verify the cancel report  functionality of House Detail</t>
+  </si>
+  <si>
+    <t>Verify the validation  functionality of House Detail</t>
+  </si>
+  <si>
+    <t>TC_FHF_HouseDetail_CancelReport_001</t>
+  </si>
+  <si>
+    <t>Click cancel button</t>
+  </si>
+  <si>
+    <t>1. Open report modal
+2. Click on cancel button</t>
+  </si>
+  <si>
+    <t>User see report modal close immediately</t>
+  </si>
+  <si>
+    <t>System closes the report modal</t>
+  </si>
+  <si>
+    <t>TS_FHF_HouseDetail_004</t>
+  </si>
+  <si>
+    <t>TS_FHF_HouseDetail_005</t>
+  </si>
+  <si>
+    <t>TC_FHF_HouseDetail_ShowHouseImage_001</t>
+  </si>
+  <si>
+    <t>User see image of house</t>
+  </si>
+  <si>
+    <t>System shows the image of house</t>
+  </si>
+  <si>
+    <t>Load page</t>
+  </si>
+  <si>
+    <t>1. Load page</t>
+  </si>
+  <si>
+    <t>TS_FHF_HouseDetail_006</t>
+  </si>
+  <si>
+    <t>Verify the show image of house functionality of House Detail</t>
+  </si>
+  <si>
+    <t>Verify the detail landlord of house functionality of House Detail</t>
+  </si>
+  <si>
+    <t>TC_FHF_HouseDetail_ShowLandlord_001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User see detail information of landlord </t>
+  </si>
+  <si>
+    <t>System shows the detail information of landlord</t>
+  </si>
+  <si>
+    <t>TS_FHF_HouseDetail_007</t>
+  </si>
+  <si>
+    <t>Verify the information of house functionality of House Detail</t>
+  </si>
+  <si>
+    <t>System shows the detail information of this house</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User see detail information of this house </t>
+  </si>
+  <si>
+    <t>TS_FHF_HouseDetail_008</t>
+  </si>
+  <si>
+    <t>Verify the location of house functionality of House Detail</t>
+  </si>
+  <si>
+    <t>TC_FHF_HouseDetail_ShowLocation_001</t>
+  </si>
+  <si>
+    <t>TC_FHF_HouseDetail_ShowInformation_001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User see location of house </t>
+  </si>
+  <si>
+    <t xml:space="preserve">System shows the location of house </t>
+  </si>
+  <si>
+    <t>Verify the rate of house functionality of House Detail</t>
+  </si>
+  <si>
+    <t>TS_FHF_HouseDetail_009</t>
+  </si>
+  <si>
+    <t>TC_FHF_HouseDetail_ShowRate_001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User see rates and comments of house </t>
+  </si>
+  <si>
+    <t xml:space="preserve">System shows rates and comments of house </t>
+  </si>
+  <si>
+    <t>TS_FHF_HouseDetail_010</t>
+  </si>
+  <si>
+    <t>Show report button when input is not empty</t>
+  </si>
+  <si>
+    <t>User see the button and can click</t>
+  </si>
+  <si>
+    <t>System shows report button</t>
+  </si>
+  <si>
+    <t>TS_FHF_HouseDetail_011</t>
+  </si>
+  <si>
+    <t>TC_FHF_HouseDetail_ReportValidation_001</t>
+  </si>
+  <si>
+    <t>TC_FHF_HouseDetail_ReportValidation_002</t>
+  </si>
+  <si>
+    <t>Disable rate button when input is empty</t>
+  </si>
+  <si>
+    <t>1. Leave the input box empty</t>
+  </si>
+  <si>
+    <t>System disables rate button</t>
+  </si>
+  <si>
+    <t>TC_FHF_HouseDetail_RateValidation_002</t>
+  </si>
+  <si>
+    <t>Show rate button when input is not empty</t>
+  </si>
+  <si>
+    <t>1. Input into the input box empty</t>
+  </si>
+  <si>
+    <t>System shows rate button</t>
+  </si>
+  <si>
+    <t>TS_FHF_HouseDetail_012</t>
+  </si>
+  <si>
+    <t>TC_FHF_HouseDetail_RateValidation_001</t>
+  </si>
+  <si>
+    <t>1. Open report modal
+2. Input into the input box empty</t>
+  </si>
+  <si>
+    <t>TS_FHF_HouseDetail_013</t>
+  </si>
+  <si>
+    <t>TC_FHF_HouseDetail_ShowRateAlert_001</t>
+  </si>
+  <si>
+    <t>TS_FHF_HouseDetail_014</t>
+  </si>
+  <si>
+    <t>TC_FHF_HouseDetail_ShowRateAlert_002</t>
+  </si>
+  <si>
+    <t>Click rate button when not logged in</t>
+  </si>
+  <si>
+    <t>Click rate button when  logged in</t>
+  </si>
+  <si>
+    <t>1. Do not login the system
+2. Input data
+3. Click on rate button</t>
+  </si>
+  <si>
+    <t>1. Login the system
+2. Input data
+3. Click on rate button</t>
+  </si>
+  <si>
+    <t>User see success alert when click rate button</t>
+  </si>
+  <si>
+    <t>User see warning alert when click rate button</t>
+  </si>
+  <si>
+    <t>TC_FHF_HouseDetail_ShowTotallyAvailableRoom_001</t>
+  </si>
+  <si>
+    <t>TS_FHF_HouseDetail_015</t>
+  </si>
+  <si>
+    <t>TS_FHF_HouseDetail_016</t>
+  </si>
+  <si>
+    <t>TS_FHF_HouseDetail_017</t>
+  </si>
+  <si>
+    <t>TS_FHF_HouseDetail_018</t>
+  </si>
+  <si>
+    <t>Verify the show totally available room of house functionality of House Detail</t>
+  </si>
+  <si>
+    <t>Verify the show partially available room of house functionality of House Detail</t>
+  </si>
+  <si>
+    <t>Verify the show available slot of house functionality of House Detail</t>
+  </si>
+  <si>
+    <t>User see partially available room</t>
+  </si>
+  <si>
+    <t>User see totally available room</t>
+  </si>
+  <si>
+    <t>System shows the partially available room</t>
+  </si>
+  <si>
+    <t>System shows partially available room</t>
+  </si>
+  <si>
+    <t>TC_FHF_HouseDetail_ShowAvailableSlot_001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">System shows available slot </t>
+  </si>
+  <si>
+    <t xml:space="preserve">User seeavailable slot </t>
+  </si>
+  <si>
+    <t>TC_FHF_HouseDetail_ShowListAvailableRoom_001</t>
+  </si>
+  <si>
+    <t>Verify the show list available room of house functionality of House Detail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User see list available room </t>
+  </si>
+  <si>
+    <t xml:space="preserve">System shows the list available room </t>
+  </si>
+  <si>
+    <t xml:space="preserve">System shows list available room </t>
+  </si>
+  <si>
+    <t>System shows totally available room</t>
+  </si>
+  <si>
+    <t>System shows the totally available room</t>
+  </si>
+  <si>
+    <t>TC_FHF_HouseDetail_ShowPartiallyAvailableRoom_001</t>
+  </si>
+  <si>
+    <t>TS_FHF_HouseDetail_019</t>
+  </si>
+  <si>
+    <t>Verify the show tooltip of house functionality of House Detail</t>
+  </si>
+  <si>
+    <t>TC_FHF_HouseDetail_ShowTooltip_001</t>
+  </si>
+  <si>
+    <t>Hover icon in list room</t>
+  </si>
+  <si>
+    <t>TS_FHF_HouseDetail_020</t>
+  </si>
+  <si>
+    <t>Verify the navigate to room detail of house functionality of House Detail</t>
+  </si>
+  <si>
+    <t>User navigate to room detail</t>
+  </si>
+  <si>
+    <t>System navigates to room detail</t>
+  </si>
+  <si>
+    <t>Click row of table</t>
+  </si>
+  <si>
+    <t>1. Click row of table</t>
+  </si>
+  <si>
+    <t>1. Hover icon in list room</t>
+  </si>
+  <si>
+    <t>TC_FHF_HouseDetail_Navigate_001</t>
+  </si>
+  <si>
+    <t>Verify the back to previous of house functionality of House Detail</t>
+  </si>
+  <si>
+    <t>TC_FHF_HouseDetail_Back_001</t>
+  </si>
+  <si>
+    <t>Click link on top of page</t>
+  </si>
+  <si>
+    <t>1. Click link on top of page</t>
+  </si>
+  <si>
+    <t>User back to previous page</t>
+  </si>
+  <si>
+    <t>System backs to previous page</t>
+  </si>
+  <si>
+    <t>TS_FHF_HouseDetail_021</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -501,7 +882,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -556,6 +937,15 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -891,29 +1281,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F31288BE-C39C-4126-8684-B1EA1FAE63A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="20.88671875" customWidth="1"/>
-    <col min="3" max="3" width="18.5546875" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="32.33203125" customWidth="1"/>
-    <col min="6" max="6" width="16.88671875" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.90625" customWidth="1"/>
+    <col min="3" max="3" width="18.54296875" customWidth="1"/>
+    <col min="4" max="4" width="15.36328125" customWidth="1"/>
+    <col min="5" max="5" width="32.36328125" customWidth="1"/>
+    <col min="6" max="6" width="16.90625" customWidth="1"/>
+    <col min="7" max="7" width="10.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6" ht="91.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D2" s="21" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B4" s="8" t="s">
         <v>0</v>
       </c>
@@ -928,7 +1318,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B5" s="8" t="s">
         <v>41</v>
       </c>
@@ -943,12 +1333,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B8" s="10" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B9" s="11" t="s">
         <v>45</v>
       </c>
@@ -962,7 +1352,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B10" s="19" t="s">
         <v>44</v>
       </c>
@@ -976,7 +1366,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B11" s="19">
         <v>44603</v>
       </c>
@@ -990,51 +1380,51 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B12" s="19"/>
       <c r="E12" s="14"/>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B13" s="19"/>
       <c r="E13" s="14"/>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B14" s="19"/>
       <c r="E14" s="14"/>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B15" s="19"/>
       <c r="E15" s="14"/>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B16" s="19"/>
       <c r="E16" s="14"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B17" s="19"/>
       <c r="E17" s="14"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B18" s="19"/>
       <c r="E18" s="14"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B19" s="19"/>
       <c r="E19" s="14"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B20" s="19"/>
       <c r="E20" s="14"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B21" s="19"/>
       <c r="E21" s="14"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B22" s="19"/>
       <c r="E22" s="14"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B23" s="20"/>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
@@ -1048,32 +1438,32 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA5AA972-DFB1-40B4-AEFA-DB3883430545}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" customWidth="1"/>
+    <col min="1" max="1" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.36328125" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.5546875" customWidth="1"/>
-    <col min="10" max="10" width="22.44140625" customWidth="1"/>
-    <col min="11" max="11" width="8.109375" customWidth="1"/>
-    <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.54296875" customWidth="1"/>
+    <col min="10" max="10" width="22.453125" customWidth="1"/>
+    <col min="11" max="11" width="8.08984375" customWidth="1"/>
+    <col min="12" max="12" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1081,7 +1471,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1101,7 +1491,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1125,7 +1515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1133,7 +1523,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1141,7 +1531,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
@@ -1185,7 +1575,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -1201,7 +1591,7 @@
       <c r="M8" s="5"/>
       <c r="N8" s="3"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -1217,7 +1607,7 @@
       <c r="M9" s="5"/>
       <c r="N9" s="3"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -1233,7 +1623,7 @@
       <c r="M10" s="5"/>
       <c r="N10" s="3"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -1249,7 +1639,7 @@
       <c r="M11" s="5"/>
       <c r="N11" s="3"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -1265,7 +1655,7 @@
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1281,7 +1671,7 @@
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1297,7 +1687,7 @@
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1313,7 +1703,7 @@
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1329,7 +1719,7 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1345,7 +1735,7 @@
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1361,7 +1751,7 @@
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1377,7 +1767,7 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1393,7 +1783,7 @@
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1415,32 +1805,32 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{724366A5-878B-4ED6-A78B-66A2030F69F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" customWidth="1"/>
+    <col min="1" max="1" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.36328125" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.5546875" customWidth="1"/>
-    <col min="10" max="10" width="22.44140625" customWidth="1"/>
-    <col min="11" max="11" width="8.109375" customWidth="1"/>
-    <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.54296875" customWidth="1"/>
+    <col min="10" max="10" width="22.453125" customWidth="1"/>
+    <col min="11" max="11" width="8.08984375" customWidth="1"/>
+    <col min="12" max="12" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1448,7 +1838,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1468,7 +1858,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1492,7 +1882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1500,7 +1890,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1508,7 +1898,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
@@ -1552,7 +1942,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -1568,7 +1958,7 @@
       <c r="M8" s="5"/>
       <c r="N8" s="3"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -1584,7 +1974,7 @@
       <c r="M9" s="5"/>
       <c r="N9" s="3"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -1600,7 +1990,7 @@
       <c r="M10" s="5"/>
       <c r="N10" s="3"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -1616,7 +2006,7 @@
       <c r="M11" s="5"/>
       <c r="N11" s="3"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -1632,7 +2022,7 @@
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1648,7 +2038,7 @@
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1664,7 +2054,7 @@
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1680,7 +2070,7 @@
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1696,7 +2086,7 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1712,7 +2102,7 @@
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1728,7 +2118,7 @@
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1744,7 +2134,7 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1760,7 +2150,7 @@
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1782,46 +2172,46 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5D15423-BFD1-49B1-9AC6-A93AC985919D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89A783D3-2F75-4808-BD69-9252C407DFB4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" customWidth="1"/>
+    <col min="1" max="1" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.36328125" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.5546875" customWidth="1"/>
-    <col min="10" max="10" width="22.44140625" customWidth="1"/>
-    <col min="11" max="11" width="8.109375" customWidth="1"/>
-    <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.54296875" customWidth="1"/>
+    <col min="10" max="10" width="22.453125" customWidth="1"/>
+    <col min="11" max="11" width="8.08984375" customWidth="1"/>
+    <col min="12" max="12" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1829,7 +2219,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1849,7 +2239,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1873,7 +2263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1881,7 +2271,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1889,7 +2279,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
@@ -1933,7 +2323,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -1949,7 +2339,7 @@
       <c r="M8" s="5"/>
       <c r="N8" s="3"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -1965,7 +2355,7 @@
       <c r="M9" s="5"/>
       <c r="N9" s="3"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -1981,7 +2371,7 @@
       <c r="M10" s="5"/>
       <c r="N10" s="3"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -1997,7 +2387,7 @@
       <c r="M11" s="5"/>
       <c r="N11" s="3"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -2013,7 +2403,7 @@
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -2029,7 +2419,7 @@
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -2045,7 +2435,7 @@
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -2061,7 +2451,7 @@
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -2077,7 +2467,7 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -2093,7 +2483,7 @@
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -2109,7 +2499,7 @@
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -2125,7 +2515,7 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -2141,7 +2531,7 @@
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -2163,46 +2553,46 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40266175-311B-4BE6-A383-6E85CEC9752E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" customWidth="1"/>
+    <col min="1" max="1" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.36328125" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.5546875" customWidth="1"/>
-    <col min="10" max="10" width="22.44140625" customWidth="1"/>
-    <col min="11" max="11" width="8.109375" customWidth="1"/>
-    <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.54296875" customWidth="1"/>
+    <col min="10" max="10" width="22.453125" customWidth="1"/>
+    <col min="11" max="11" width="8.08984375" customWidth="1"/>
+    <col min="12" max="12" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2210,7 +2600,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2230,7 +2620,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2254,7 +2644,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -2262,7 +2652,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -2270,7 +2660,7 @@
         <v>44692</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
@@ -2314,7 +2704,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A8" s="23" t="s">
         <v>56</v>
       </c>
@@ -2358,7 +2748,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A9" s="23" t="s">
         <v>56</v>
       </c>
@@ -2402,7 +2792,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A10" s="23" t="s">
         <v>56</v>
       </c>
@@ -2446,7 +2836,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A11" s="23" t="s">
         <v>56</v>
       </c>
@@ -2490,7 +2880,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -2506,7 +2896,7 @@
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -2522,7 +2912,7 @@
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -2538,7 +2928,7 @@
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -2554,7 +2944,7 @@
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -2570,7 +2960,7 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -2586,7 +2976,7 @@
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -2602,7 +2992,7 @@
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -2618,7 +3008,7 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -2634,7 +3024,7 @@
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -2657,40 +3047,982 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{390F2A9F-4E2C-4E2F-ABD3-049540B295E0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="22.08984375" customWidth="1"/>
+    <col min="2" max="2" width="24.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.36328125" customWidth="1"/>
+    <col min="5" max="5" width="26" customWidth="1"/>
+    <col min="6" max="6" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.54296875" customWidth="1"/>
+    <col min="10" max="10" width="22.453125" customWidth="1"/>
+    <col min="11" max="11" width="8.08984375" customWidth="1"/>
+    <col min="12" max="12" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2">
+        <v>44753</v>
+      </c>
+      <c r="E3" s="17">
+        <f>COUNTIF(K8:K28,"Pass")</f>
+        <v>21</v>
+      </c>
+      <c r="F3" s="17">
+        <f>COUNTIF(K8:K28,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="17">
+        <f>COUNTIF(K8:K28,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="17">
+        <f>COUNTA(K8:K28)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2">
+        <v>44845</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="27" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A8" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="I8" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="K8" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="L8" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="M8" s="26"/>
+      <c r="N8" s="23"/>
+    </row>
+    <row r="9" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="I9" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="J9" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="K9" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="L9" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="M9" s="26"/>
+      <c r="N9" s="23"/>
+    </row>
+    <row r="10" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="I10" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J10" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="K10" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="L10" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="M10" s="26"/>
+      <c r="N10" s="23"/>
+    </row>
+    <row r="11" spans="1:14" s="27" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A11" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="I11" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="J11" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="K11" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="L11" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="M11" s="26"/>
+      <c r="N11" s="23"/>
+    </row>
+    <row r="12" spans="1:14" s="27" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="I12" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="J12" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="K12" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="L12" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="M12" s="26"/>
+      <c r="N12" s="23"/>
+    </row>
+    <row r="13" spans="1:14" s="28" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="I13" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="J13" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="K13" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="L13" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+    </row>
+    <row r="14" spans="1:14" s="28" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="I14" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="J14" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="K14" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="L14" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+    </row>
+    <row r="15" spans="1:14" s="28" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="I15" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="J15" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="K15" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="L15" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+    </row>
+    <row r="16" spans="1:14" s="28" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="I16" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="J16" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="K16" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="L16" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+    </row>
+    <row r="17" spans="1:14" s="28" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="I17" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="J17" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="K17" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="L17" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+    </row>
+    <row r="18" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="F18" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="I18" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="J18" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="K18" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="L18" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="M18" s="26"/>
+      <c r="N18" s="23"/>
+    </row>
+    <row r="19" spans="1:14" s="27" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A19" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="F19" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="I19" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="J19" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="K19" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="L19" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="M19" s="26"/>
+      <c r="N19" s="23"/>
+    </row>
+    <row r="20" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="F20" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="I20" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="J20" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="K20" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="L20" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="M20" s="26"/>
+      <c r="N20" s="23"/>
+    </row>
+    <row r="21" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="F21" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="I21" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="J21" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="K21" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="L21" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="M21" s="26"/>
+      <c r="N21" s="23"/>
+    </row>
+    <row r="22" spans="1:14" s="28" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="F22" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="I22" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="J22" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="K22" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="L22" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="M22" s="24"/>
+      <c r="N22" s="24"/>
+    </row>
+    <row r="23" spans="1:14" s="28" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="F23" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="I23" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="J23" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="K23" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="L23" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24"/>
+    </row>
+    <row r="24" spans="1:14" s="28" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="F24" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="I24" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="J24" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="K24" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="L24" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="M24" s="24"/>
+      <c r="N24" s="24"/>
+    </row>
+    <row r="25" spans="1:14" s="28" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="F25" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="I25" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="J25" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="K25" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="L25" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+    </row>
+    <row r="26" spans="1:14" s="28" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="F26" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="I26" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="J26" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="K26" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="L26" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24"/>
+    </row>
+    <row r="27" spans="1:14" s="28" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="E27" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="F27" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="I27" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="J27" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="K27" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="L27" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
+    </row>
+    <row r="28" spans="1:14" s="28" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="E28" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="F28" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="I28" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="J28" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="K28" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="L28" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="M28" s="24"/>
+      <c r="N28" s="24"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" customWidth="1"/>
+    <col min="1" max="1" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.36328125" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.5546875" customWidth="1"/>
-    <col min="10" max="10" width="22.44140625" customWidth="1"/>
-    <col min="11" max="11" width="8.109375" customWidth="1"/>
-    <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.54296875" customWidth="1"/>
+    <col min="10" max="10" width="22.453125" customWidth="1"/>
+    <col min="11" max="11" width="8.08984375" customWidth="1"/>
+    <col min="12" max="12" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2710,12 +4042,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>44753</v>
+        <v>44815</v>
       </c>
       <c r="E3" s="17">
         <f>COUNTIF(K8:K11,"Pass")</f>
@@ -2734,7 +4066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -2742,7 +4074,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -2750,7 +4082,7 @@
         <v>44845</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
@@ -2794,7 +4126,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -2810,7 +4142,7 @@
       <c r="M8" s="5"/>
       <c r="N8" s="3"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -2826,7 +4158,7 @@
       <c r="M9" s="5"/>
       <c r="N9" s="3"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -2842,7 +4174,7 @@
       <c r="M10" s="5"/>
       <c r="N10" s="3"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -2858,7 +4190,7 @@
       <c r="M11" s="5"/>
       <c r="N11" s="3"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -2874,7 +4206,7 @@
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -2890,7 +4222,7 @@
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -2906,7 +4238,7 @@
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -2922,7 +4254,7 @@
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -2938,7 +4270,7 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -2954,7 +4286,7 @@
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -2970,7 +4302,7 @@
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -2986,7 +4318,7 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -3002,7 +4334,7 @@
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -3023,46 +4355,46 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F9DAF7B-F216-485C-A737-CE6543350613}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" customWidth="1"/>
+    <col min="1" max="1" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.36328125" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.5546875" customWidth="1"/>
-    <col min="10" max="10" width="22.44140625" customWidth="1"/>
-    <col min="11" max="11" width="8.109375" customWidth="1"/>
-    <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.54296875" customWidth="1"/>
+    <col min="10" max="10" width="22.453125" customWidth="1"/>
+    <col min="11" max="11" width="8.08984375" customWidth="1"/>
+    <col min="12" max="12" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>39</v>
@@ -3077,12 +4409,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>44815</v>
+        <v>44845</v>
       </c>
       <c r="E3" s="17">
         <f>COUNTIF(K8:K11,"Pass")</f>
@@ -3101,7 +4433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -3109,15 +4441,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>44845</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+        <v>44906</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
@@ -3161,7 +4493,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -3177,7 +4509,7 @@
       <c r="M8" s="5"/>
       <c r="N8" s="3"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -3193,7 +4525,7 @@
       <c r="M9" s="5"/>
       <c r="N9" s="3"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -3209,7 +4541,7 @@
       <c r="M10" s="5"/>
       <c r="N10" s="3"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -3225,7 +4557,7 @@
       <c r="M11" s="5"/>
       <c r="N11" s="3"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -3241,7 +4573,7 @@
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -3257,7 +4589,7 @@
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -3273,7 +4605,7 @@
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -3289,7 +4621,7 @@
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -3305,7 +4637,7 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -3321,7 +4653,7 @@
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -3337,7 +4669,7 @@
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -3353,7 +4685,7 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -3369,7 +4701,7 @@
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -3390,418 +4722,51 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFAD3FF7-16E1-4231-B6B4-F5A8EE2491F1}">
-  <dimension ref="A1:N21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" customWidth="1"/>
-    <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.5546875" customWidth="1"/>
-    <col min="10" max="10" width="22.44140625" customWidth="1"/>
-    <col min="11" max="11" width="8.109375" customWidth="1"/>
-    <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2">
-        <v>44845</v>
-      </c>
-      <c r="E3" s="17">
-        <f>COUNTIF(K8:K11,"Pass")</f>
-        <v>0</v>
-      </c>
-      <c r="F3" s="17">
-        <f>COUNTIF(K8:K11,"Fail")</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="17">
-        <f>COUNTIF(K8:K11,"Untested")</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="17">
-        <f>COUNTA(K8:K11)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="2">
-        <v>44906</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="N7" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCE6BAC9-101B-4E92-9129-5215F08B3B25}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6700F7F-1AC6-48E9-B606-49A22884B31C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8BA7C9D-4811-4DBD-A294-1765E19BD7AB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2560414D-76E7-40C1-9529-E439F49BDB5A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documentation/FHF_TestCases.xlsx
+++ b/Documentation/FHF_TestCases.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="213">
   <si>
     <t>Project Name</t>
   </si>
@@ -665,9 +665,6 @@
     <t>TC_FHF_HouseDetail_Navigate_001</t>
   </si>
   <si>
-    <t>Verify the back to previous of house functionality of House Detail</t>
-  </si>
-  <si>
     <t>TC_FHF_HouseDetail_Back_001</t>
   </si>
   <si>
@@ -684,6 +681,54 @@
   </si>
   <si>
     <t>TS_FHF_HouseDetail_021</t>
+  </si>
+  <si>
+    <t>User see images of room</t>
+  </si>
+  <si>
+    <t>System shows the images of room</t>
+  </si>
+  <si>
+    <t>Verify the show image of room functionality of Room Detail</t>
+  </si>
+  <si>
+    <t>TC_FHF_RoomDetail_ShowRoomImage_001</t>
+  </si>
+  <si>
+    <t>Verify the show information of room functionality of Room Detail</t>
+  </si>
+  <si>
+    <t>TC_FHF_RoomDetail_ShowRoomInformation_001</t>
+  </si>
+  <si>
+    <t>User see information of room</t>
+  </si>
+  <si>
+    <t>System shows the information of room</t>
+  </si>
+  <si>
+    <t>TS_FHF_RoomDetail_001</t>
+  </si>
+  <si>
+    <t>TS_FHF_RoomDetail_002</t>
+  </si>
+  <si>
+    <t>TS_FHF_RoomDetail_003</t>
+  </si>
+  <si>
+    <t>Verify the detail landlord of house functionality of Room Detail</t>
+  </si>
+  <si>
+    <t>TC_FHF_RoomDetail_ShowLandlord_001</t>
+  </si>
+  <si>
+    <t>Verify the back to previous of page functionality of Room Detail</t>
+  </si>
+  <si>
+    <t>TC_FHF_RoomDetail_Back_001</t>
+  </si>
+  <si>
+    <t>Verify the back to previous of page functionality of House Detail</t>
   </si>
 </sst>
 </file>
@@ -3050,8 +3095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3946,32 +3991,32 @@
     </row>
     <row r="28" spans="1:14" s="28" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A28" s="24" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B28" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="C28" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="D28" s="24" t="s">
         <v>192</v>
       </c>
-      <c r="D28" s="24" t="s">
+      <c r="E28" s="24" t="s">
         <v>193</v>
-      </c>
-      <c r="E28" s="24" t="s">
-        <v>194</v>
       </c>
       <c r="F28" s="24" t="s">
         <v>31</v>
       </c>
       <c r="G28" s="24"/>
       <c r="H28" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="I28" s="24" t="s">
         <v>195</v>
       </c>
-      <c r="I28" s="24" t="s">
-        <v>196</v>
-      </c>
       <c r="J28" s="24" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K28" s="29" t="s">
         <v>39</v>
@@ -3992,8 +4037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4051,7 +4096,7 @@
       </c>
       <c r="E3" s="17">
         <f>COUNTIF(K8:K11,"Pass")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F3" s="17">
         <f>COUNTIF(K8:K11,"Fail")</f>
@@ -4063,7 +4108,7 @@
       </c>
       <c r="H3" s="17">
         <f>COUNTA(K8:K11)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
@@ -4126,69 +4171,157 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="3"/>
+    <row r="8" spans="1:14" s="28" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="I8" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="J8" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="K8" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="L8" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+    </row>
+    <row r="9" spans="1:14" s="28" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="I9" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="J9" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="K9" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="L9" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+    </row>
+    <row r="10" spans="1:14" s="28" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="I10" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="J10" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="K10" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="L10" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
+    </row>
+    <row r="11" spans="1:14" s="28" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="I11" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="J11" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="K11" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="L11" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>

--- a/Documentation/FHF_TestCases.xlsx
+++ b/Documentation/FHF_TestCases.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580" tabRatio="891" activeTab="2"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580" tabRatio="891" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="2" r:id="rId1"/>
@@ -3095,7 +3095,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
@@ -4037,8 +4037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Documentation/FHF_TestCases.xlsx
+++ b/Documentation/FHF_TestCases.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580" tabRatio="891" activeTab="3"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580" tabRatio="891" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="2" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="301">
   <si>
     <t>Project Name</t>
   </si>
@@ -729,6 +729,271 @@
   </si>
   <si>
     <t>Verify the back to previous of page functionality of House Detail</t>
+  </si>
+  <si>
+    <t>TS_FHF_ListLandlords_001</t>
+  </si>
+  <si>
+    <t>TS_FHF_ListLandlords_002</t>
+  </si>
+  <si>
+    <t>TS_FHF_ListLandlords_003</t>
+  </si>
+  <si>
+    <t>TS_FHF_ListLandlords_004</t>
+  </si>
+  <si>
+    <t>TS_FHF_ListLandlords_005</t>
+  </si>
+  <si>
+    <t>TS_FHF_ListLandlords_006</t>
+  </si>
+  <si>
+    <t>TS_FHF_ListLandlords_007</t>
+  </si>
+  <si>
+    <t>Verify the show total house functionality of List Landlords</t>
+  </si>
+  <si>
+    <t>TC_FHF_ListLandlords_ShowTotalHouse_001</t>
+  </si>
+  <si>
+    <t>Verify the show available house functionality of List Landlords</t>
+  </si>
+  <si>
+    <t>System shows number of total house</t>
+  </si>
+  <si>
+    <t>System shows number of available house</t>
+  </si>
+  <si>
+    <t>User see number of total house</t>
+  </si>
+  <si>
+    <t>User see number of available house</t>
+  </si>
+  <si>
+    <t>TC_FHF_ListLandlords_ShowAvailableHouse_001</t>
+  </si>
+  <si>
+    <t>Verify the show total room functionality of List Landlords</t>
+  </si>
+  <si>
+    <t>User see number of total room</t>
+  </si>
+  <si>
+    <t>System shows number of total room</t>
+  </si>
+  <si>
+    <t>TC_FHF_ListLandlords_ShowTotalRoom_001</t>
+  </si>
+  <si>
+    <t>Verify the show available room functionality of List Landlords</t>
+  </si>
+  <si>
+    <t>User see number of available room</t>
+  </si>
+  <si>
+    <t>System shows number of available room</t>
+  </si>
+  <si>
+    <t>TC_FHF_ListLandlords_ShowAvailableRoom_001</t>
+  </si>
+  <si>
+    <t>TC_FHF_ListLandlords_ShowTotalCapacity_001</t>
+  </si>
+  <si>
+    <t>Verify the show total capacity functionality of List Landlords</t>
+  </si>
+  <si>
+    <t>User see number of total capacity</t>
+  </si>
+  <si>
+    <t>System shows number of total capacity</t>
+  </si>
+  <si>
+    <t>TC_FHF_ListLandlords_ShowAvailableCapacity_001</t>
+  </si>
+  <si>
+    <t>Verify the show available capacity functionality of List Landlords</t>
+  </si>
+  <si>
+    <t>User see number of available capacity</t>
+  </si>
+  <si>
+    <t>System shows number of available capacity</t>
+  </si>
+  <si>
+    <t>TC_FHF_ListLandlords_ShowListLandlords_001</t>
+  </si>
+  <si>
+    <t>Verify the list landlords functionality of List Landlords</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User see list landlords </t>
+  </si>
+  <si>
+    <t>System shows the list landlords</t>
+  </si>
+  <si>
+    <t>TS_FHF_ListLandlords_008</t>
+  </si>
+  <si>
+    <t>Verify the show total house of each landlord functionality of List Landlords</t>
+  </si>
+  <si>
+    <t>User see number of total house of each landlord</t>
+  </si>
+  <si>
+    <t>System shows number of total house of each landlord</t>
+  </si>
+  <si>
+    <t>TC_FHF_ListLandlords_ShowTotalHouse_002</t>
+  </si>
+  <si>
+    <t>Verify the show total room of each landlord functionality of List Landlords</t>
+  </si>
+  <si>
+    <t>User see number of total room of each landlord</t>
+  </si>
+  <si>
+    <t>System shows number of total room of each landlord</t>
+  </si>
+  <si>
+    <t>TC_FHF_ListLandlords_ShowTotalRoom_002</t>
+  </si>
+  <si>
+    <t>TS_FHF_ListLandlords_009</t>
+  </si>
+  <si>
+    <t>User see number of available room of each landlord</t>
+  </si>
+  <si>
+    <t>System shows number of available room of each landlord</t>
+  </si>
+  <si>
+    <t>Verify the show available room of each landlord functionality of List Landlords</t>
+  </si>
+  <si>
+    <t>TC_FHF_ListLandlords_ShowAvailableRoom_002</t>
+  </si>
+  <si>
+    <t>TS_FHF_ListLandlords_010</t>
+  </si>
+  <si>
+    <t>TS_FHF_ListLandlords_011</t>
+  </si>
+  <si>
+    <t>TS_FHF_ListLandlords_012</t>
+  </si>
+  <si>
+    <t>TS_FHF_ListLandlords_013</t>
+  </si>
+  <si>
+    <t>TS_FHF_ListLandlords_014</t>
+  </si>
+  <si>
+    <t>Verify the Search by Name functionality of List Landlords</t>
+  </si>
+  <si>
+    <t>TC_FHF_ListLandlords_SearchName_004</t>
+  </si>
+  <si>
+    <t>TC_FHF_ListLandlords_SearchName_001</t>
+  </si>
+  <si>
+    <t>TC_FHF_ListLandlords_SearchName_002</t>
+  </si>
+  <si>
+    <t>TC_FHF_ListLandlords_SearchName_003</t>
+  </si>
+  <si>
+    <t>System displays a message indicating that there are no Landlords containing the searched value</t>
+  </si>
+  <si>
+    <t>System displays 
+the list of Landlords containing the searched value</t>
+  </si>
+  <si>
+    <t>TS_FHF_ListLandlords_015</t>
+  </si>
+  <si>
+    <t>TS_FHF_ListLandlords_016</t>
+  </si>
+  <si>
+    <t>Verify the show tooltip of house functionality of List Landlords</t>
+  </si>
+  <si>
+    <t>Verify the navigate to room detail of house functionality of List Landlords</t>
+  </si>
+  <si>
+    <t>TC_FHF_ListLandlords_ShowTooltip_001</t>
+  </si>
+  <si>
+    <t>TC_FHF_ListLandlords_Navigate_001</t>
+  </si>
+  <si>
+    <t>Hover icon in list landlords</t>
+  </si>
+  <si>
+    <t>User see description of this icon</t>
+  </si>
+  <si>
+    <t>System shows the description of this icon</t>
+  </si>
+  <si>
+    <t>TS_FHF_HouseDetail_022</t>
+  </si>
+  <si>
+    <t>Verify the show phone number functionality of House Detail</t>
+  </si>
+  <si>
+    <t>TC_FHF_HouseDetail_ShowPhoneNumber_001</t>
+  </si>
+  <si>
+    <t>Click show phone number button</t>
+  </si>
+  <si>
+    <t>1. Click show phone number button</t>
+  </si>
+  <si>
+    <t>User see the phone number of the landlord</t>
+  </si>
+  <si>
+    <t>System shows the phone number of the landlord</t>
+  </si>
+  <si>
+    <t>TS_FHF_HouseDetail_023</t>
+  </si>
+  <si>
+    <t>Verify the navigate to landlord facebook functionality of House Detail</t>
+  </si>
+  <si>
+    <t>TC_FHF_HouseDetail_Navigate_002</t>
+  </si>
+  <si>
+    <t>Click link facebook of landlord</t>
+  </si>
+  <si>
+    <t>1. Click link facebook of landlord</t>
+  </si>
+  <si>
+    <t>User navigate to landlord facebook</t>
+  </si>
+  <si>
+    <t>System navigates to landlord facebook</t>
+  </si>
+  <si>
+    <t>TS_FHF_ListLandlords_017</t>
+  </si>
+  <si>
+    <t>Verify the navigate to landlord facebook functionality of List Landlords</t>
+  </si>
+  <si>
+    <t>TC_FHF_ListLandlords_Navigate_002</t>
+  </si>
+  <si>
+    <t>TS_FHF_RoomDetail_004</t>
   </si>
 </sst>
 </file>
@@ -927,7 +1192,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -987,9 +1252,15 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2615,8 +2886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3093,10 +3364,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N28"/>
+  <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:XFD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3419,7 +3690,7 @@
       <c r="M12" s="26"/>
       <c r="N12" s="23"/>
     </row>
-    <row r="13" spans="1:14" s="28" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" s="29" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A13" s="24" t="s">
         <v>108</v>
       </c>
@@ -3448,7 +3719,7 @@
       <c r="J13" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="K13" s="29" t="s">
+      <c r="K13" s="30" t="s">
         <v>39</v>
       </c>
       <c r="L13" s="24" t="s">
@@ -3457,7 +3728,7 @@
       <c r="M13" s="24"/>
       <c r="N13" s="24"/>
     </row>
-    <row r="14" spans="1:14" s="28" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" s="29" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A14" s="24" t="s">
         <v>114</v>
       </c>
@@ -3486,7 +3757,7 @@
       <c r="J14" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="K14" s="29" t="s">
+      <c r="K14" s="30" t="s">
         <v>39</v>
       </c>
       <c r="L14" s="24" t="s">
@@ -3495,7 +3766,7 @@
       <c r="M14" s="24"/>
       <c r="N14" s="24"/>
     </row>
-    <row r="15" spans="1:14" s="28" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" s="29" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A15" s="24" t="s">
         <v>118</v>
       </c>
@@ -3524,7 +3795,7 @@
       <c r="J15" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="K15" s="29" t="s">
+      <c r="K15" s="30" t="s">
         <v>39</v>
       </c>
       <c r="L15" s="24" t="s">
@@ -3533,7 +3804,7 @@
       <c r="M15" s="24"/>
       <c r="N15" s="24"/>
     </row>
-    <row r="16" spans="1:14" s="28" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" s="29" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="24" t="s">
         <v>125</v>
       </c>
@@ -3562,7 +3833,7 @@
       <c r="J16" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="K16" s="29" t="s">
+      <c r="K16" s="30" t="s">
         <v>39</v>
       </c>
       <c r="L16" s="24" t="s">
@@ -3571,7 +3842,7 @@
       <c r="M16" s="24"/>
       <c r="N16" s="24"/>
     </row>
-    <row r="17" spans="1:14" s="28" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" s="29" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="24" t="s">
         <v>129</v>
       </c>
@@ -3600,7 +3871,7 @@
       <c r="J17" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="K17" s="29" t="s">
+      <c r="K17" s="30" t="s">
         <v>39</v>
       </c>
       <c r="L17" s="24" t="s">
@@ -3761,7 +4032,7 @@
       <c r="M21" s="26"/>
       <c r="N21" s="23"/>
     </row>
-    <row r="22" spans="1:14" s="28" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" s="29" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A22" s="24" t="s">
         <v>157</v>
       </c>
@@ -3790,7 +4061,7 @@
       <c r="J22" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="K22" s="29" t="s">
+      <c r="K22" s="30" t="s">
         <v>39</v>
       </c>
       <c r="L22" s="24" t="s">
@@ -3799,7 +4070,7 @@
       <c r="M22" s="24"/>
       <c r="N22" s="24"/>
     </row>
-    <row r="23" spans="1:14" s="28" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" s="29" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A23" s="24" t="s">
         <v>158</v>
       </c>
@@ -3828,7 +4099,7 @@
       <c r="J23" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="K23" s="29" t="s">
+      <c r="K23" s="30" t="s">
         <v>39</v>
       </c>
       <c r="L23" s="24" t="s">
@@ -3837,7 +4108,7 @@
       <c r="M23" s="24"/>
       <c r="N23" s="24"/>
     </row>
-    <row r="24" spans="1:14" s="28" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" s="29" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A24" s="24" t="s">
         <v>159</v>
       </c>
@@ -3866,7 +4137,7 @@
       <c r="J24" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="K24" s="29" t="s">
+      <c r="K24" s="30" t="s">
         <v>39</v>
       </c>
       <c r="L24" s="24" t="s">
@@ -3875,7 +4146,7 @@
       <c r="M24" s="24"/>
       <c r="N24" s="24"/>
     </row>
-    <row r="25" spans="1:14" s="28" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" s="29" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A25" s="24" t="s">
         <v>160</v>
       </c>
@@ -3904,7 +4175,7 @@
       <c r="J25" s="24" t="s">
         <v>175</v>
       </c>
-      <c r="K25" s="29" t="s">
+      <c r="K25" s="30" t="s">
         <v>39</v>
       </c>
       <c r="L25" s="24" t="s">
@@ -3913,7 +4184,7 @@
       <c r="M25" s="24"/>
       <c r="N25" s="24"/>
     </row>
-    <row r="26" spans="1:14" s="28" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" s="29" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A26" s="24" t="s">
         <v>179</v>
       </c>
@@ -3934,15 +4205,15 @@
       </c>
       <c r="G26" s="24"/>
       <c r="H26" s="24" t="s">
-        <v>173</v>
+        <v>281</v>
       </c>
       <c r="I26" s="24" t="s">
-        <v>174</v>
+        <v>282</v>
       </c>
       <c r="J26" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="K26" s="29" t="s">
+        <v>282</v>
+      </c>
+      <c r="K26" s="30" t="s">
         <v>39</v>
       </c>
       <c r="L26" s="24" t="s">
@@ -3951,7 +4222,7 @@
       <c r="M26" s="24"/>
       <c r="N26" s="24"/>
     </row>
-    <row r="27" spans="1:14" s="28" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" s="29" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A27" s="24" t="s">
         <v>183</v>
       </c>
@@ -3980,7 +4251,7 @@
       <c r="J27" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="K27" s="29" t="s">
+      <c r="K27" s="30" t="s">
         <v>39</v>
       </c>
       <c r="L27" s="24" t="s">
@@ -3989,7 +4260,7 @@
       <c r="M27" s="24"/>
       <c r="N27" s="24"/>
     </row>
-    <row r="28" spans="1:14" s="28" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" s="29" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A28" s="24" t="s">
         <v>196</v>
       </c>
@@ -4018,7 +4289,7 @@
       <c r="J28" s="24" t="s">
         <v>195</v>
       </c>
-      <c r="K28" s="29" t="s">
+      <c r="K28" s="30" t="s">
         <v>39</v>
       </c>
       <c r="L28" s="24" t="s">
@@ -4026,6 +4297,82 @@
       </c>
       <c r="M28" s="24"/>
       <c r="N28" s="24"/>
+    </row>
+    <row r="29" spans="1:14" s="29" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="24" t="s">
+        <v>283</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>284</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>285</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>286</v>
+      </c>
+      <c r="E29" s="24" t="s">
+        <v>287</v>
+      </c>
+      <c r="F29" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24" t="s">
+        <v>288</v>
+      </c>
+      <c r="I29" s="24" t="s">
+        <v>289</v>
+      </c>
+      <c r="J29" s="24" t="s">
+        <v>289</v>
+      </c>
+      <c r="K29" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="L29" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="M29" s="24"/>
+      <c r="N29" s="24"/>
+    </row>
+    <row r="30" spans="1:14" s="29" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="D30" s="24" t="s">
+        <v>293</v>
+      </c>
+      <c r="E30" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="F30" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24" t="s">
+        <v>295</v>
+      </c>
+      <c r="I30" s="24" t="s">
+        <v>296</v>
+      </c>
+      <c r="J30" s="24" t="s">
+        <v>296</v>
+      </c>
+      <c r="K30" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="L30" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="M30" s="24"/>
+      <c r="N30" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4037,8 +4384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4171,7 +4518,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="28" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" s="29" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="24" t="s">
         <v>205</v>
       </c>
@@ -4200,7 +4547,7 @@
       <c r="J8" s="24" t="s">
         <v>198</v>
       </c>
-      <c r="K8" s="29" t="s">
+      <c r="K8" s="30" t="s">
         <v>39</v>
       </c>
       <c r="L8" s="24" t="s">
@@ -4209,7 +4556,7 @@
       <c r="M8" s="24"/>
       <c r="N8" s="24"/>
     </row>
-    <row r="9" spans="1:14" s="28" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" s="29" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="24" t="s">
         <v>206</v>
       </c>
@@ -4238,7 +4585,7 @@
       <c r="J9" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="K9" s="29" t="s">
+      <c r="K9" s="30" t="s">
         <v>39</v>
       </c>
       <c r="L9" s="24" t="s">
@@ -4247,7 +4594,7 @@
       <c r="M9" s="24"/>
       <c r="N9" s="24"/>
     </row>
-    <row r="10" spans="1:14" s="28" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" s="29" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" s="24" t="s">
         <v>207</v>
       </c>
@@ -4276,7 +4623,7 @@
       <c r="J10" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="K10" s="29" t="s">
+      <c r="K10" s="30" t="s">
         <v>39</v>
       </c>
       <c r="L10" s="24" t="s">
@@ -4285,9 +4632,9 @@
       <c r="M10" s="24"/>
       <c r="N10" s="24"/>
     </row>
-    <row r="11" spans="1:14" s="28" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" s="29" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11" s="24" t="s">
-        <v>101</v>
+        <v>300</v>
       </c>
       <c r="B11" s="24" t="s">
         <v>210</v>
@@ -4314,7 +4661,7 @@
       <c r="J11" s="24" t="s">
         <v>195</v>
       </c>
-      <c r="K11" s="29" t="s">
+      <c r="K11" s="30" t="s">
         <v>39</v>
       </c>
       <c r="L11" s="24" t="s">
@@ -4883,12 +5230,813 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.36328125" customWidth="1"/>
+    <col min="5" max="5" width="26" customWidth="1"/>
+    <col min="6" max="6" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.54296875" customWidth="1"/>
+    <col min="10" max="10" width="22.453125" customWidth="1"/>
+    <col min="11" max="11" width="8.08984375" customWidth="1"/>
+    <col min="12" max="12" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2">
+        <v>44845</v>
+      </c>
+      <c r="E3" s="17">
+        <f>COUNTIF(K8:K11,"Pass")</f>
+        <v>4</v>
+      </c>
+      <c r="F3" s="17">
+        <f>COUNTIF(K8:K11,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="17">
+        <f>COUNTIF(K8:K11,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="17">
+        <f>COUNTA(K8:K11)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2">
+        <v>44906</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="29" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="I8" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="J8" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="K8" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="L8" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+    </row>
+    <row r="9" spans="1:14" s="29" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="I9" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="J9" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="K9" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="L9" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+    </row>
+    <row r="10" spans="1:14" s="29" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="I10" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="J10" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="K10" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="L10" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
+    </row>
+    <row r="11" spans="1:14" s="29" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="I11" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="J11" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="K11" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="L11" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+    </row>
+    <row r="12" spans="1:14" s="29" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>236</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24" t="s">
+        <v>238</v>
+      </c>
+      <c r="I12" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="J12" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="K12" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="L12" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+    </row>
+    <row r="13" spans="1:14" s="29" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="I13" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="J13" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="K13" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="L13" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+    </row>
+    <row r="14" spans="1:14" s="29" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="I14" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="J14" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="K14" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="L14" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+    </row>
+    <row r="15" spans="1:14" s="29" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A15" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="I15" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="J15" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="K15" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="L15" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+    </row>
+    <row r="16" spans="1:14" s="29" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A16" s="24" t="s">
+        <v>257</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="I16" s="24" t="s">
+        <v>255</v>
+      </c>
+      <c r="J16" s="24" t="s">
+        <v>255</v>
+      </c>
+      <c r="K16" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="L16" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+    </row>
+    <row r="17" spans="1:14" s="29" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A17" s="24" t="s">
+        <v>262</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>260</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>261</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24" t="s">
+        <v>258</v>
+      </c>
+      <c r="I17" s="24" t="s">
+        <v>259</v>
+      </c>
+      <c r="J17" s="24" t="s">
+        <v>259</v>
+      </c>
+      <c r="K17" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="L17" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+    </row>
+    <row r="18" spans="1:14" s="28" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A18" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>267</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="I18" s="24" t="s">
+        <v>273</v>
+      </c>
+      <c r="J18" s="24" t="s">
+        <v>273</v>
+      </c>
+      <c r="K18" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="L18" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="M18" s="31">
+        <v>44631</v>
+      </c>
+      <c r="N18" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" s="28" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>267</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="I19" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="J19" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="K19" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="L19" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="M19" s="31">
+        <v>44631</v>
+      </c>
+      <c r="N19" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" s="28" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A20" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>267</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="I20" s="24" t="s">
+        <v>273</v>
+      </c>
+      <c r="J20" s="24" t="s">
+        <v>273</v>
+      </c>
+      <c r="K20" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="L20" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="M20" s="31">
+        <v>44631</v>
+      </c>
+      <c r="N20" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" s="28" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="24" t="s">
+        <v>266</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>267</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="I21" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="J21" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="K21" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="L21" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="M21" s="31">
+        <v>44631</v>
+      </c>
+      <c r="N21" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" s="29" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>276</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>278</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>280</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="F22" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24" t="s">
+        <v>281</v>
+      </c>
+      <c r="I22" s="24" t="s">
+        <v>282</v>
+      </c>
+      <c r="J22" s="24" t="s">
+        <v>282</v>
+      </c>
+      <c r="K22" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="L22" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="M22" s="24"/>
+      <c r="N22" s="24"/>
+    </row>
+    <row r="23" spans="1:14" s="29" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>277</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>279</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="F23" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="I23" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="J23" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="K23" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="L23" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24"/>
+    </row>
+    <row r="24" spans="1:14" s="29" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A24" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>298</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>299</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>293</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="F24" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24" t="s">
+        <v>295</v>
+      </c>
+      <c r="I24" s="24" t="s">
+        <v>296</v>
+      </c>
+      <c r="J24" s="24" t="s">
+        <v>296</v>
+      </c>
+      <c r="K24" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="L24" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="M24" s="24"/>
+      <c r="N24" s="24"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Documentation/FHF_TestCases.xlsx
+++ b/Documentation/FHF_TestCases.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580" tabRatio="891" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580" tabRatio="891" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="2" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="358">
   <si>
     <t>Project Name</t>
   </si>
@@ -994,6 +994,177 @@
   </si>
   <si>
     <t>TS_FHF_RoomDetail_004</t>
+  </si>
+  <si>
+    <t>System navigates to list houses of this landlord</t>
+  </si>
+  <si>
+    <t>Verify the show total house functionality of List Houses</t>
+  </si>
+  <si>
+    <t>Verify the show available house functionality of List Houses</t>
+  </si>
+  <si>
+    <t>Verify the show total room functionality of List Houses</t>
+  </si>
+  <si>
+    <t>Verify the show available room functionality of List Houses</t>
+  </si>
+  <si>
+    <t>Verify the show total capacity functionality of List Houses</t>
+  </si>
+  <si>
+    <t>Verify the show available capacity functionality of List Houses</t>
+  </si>
+  <si>
+    <t>Verify the list landlords functionality of List Houses</t>
+  </si>
+  <si>
+    <t>Verify the Search by Name functionality of List Houses</t>
+  </si>
+  <si>
+    <t>Verify the show tooltip of house functionality of List Houses</t>
+  </si>
+  <si>
+    <t>TS_FHF_ListHouses_016</t>
+  </si>
+  <si>
+    <t>TS_FHF_ListHouses_015</t>
+  </si>
+  <si>
+    <t>TS_FHF_ListHouses_014</t>
+  </si>
+  <si>
+    <t>TS_FHF_ListHouses_013</t>
+  </si>
+  <si>
+    <t>TS_FHF_ListHouses_012</t>
+  </si>
+  <si>
+    <t>TS_FHF_ListHouses_011</t>
+  </si>
+  <si>
+    <t>TS_FHF_ListHouses_010</t>
+  </si>
+  <si>
+    <t>TS_FHF_ListHouses_009</t>
+  </si>
+  <si>
+    <t>TS_FHF_ListHouses_008</t>
+  </si>
+  <si>
+    <t>TS_FHF_ListHouses_007</t>
+  </si>
+  <si>
+    <t>TS_FHF_ListHouses_006</t>
+  </si>
+  <si>
+    <t>TS_FHF_ListHouses_005</t>
+  </si>
+  <si>
+    <t>TS_FHF_ListHouses_004</t>
+  </si>
+  <si>
+    <t>TS_FHF_ListHouses_003</t>
+  </si>
+  <si>
+    <t>TS_FHF_ListHouses_002</t>
+  </si>
+  <si>
+    <t>TS_FHF_ListHouses_001</t>
+  </si>
+  <si>
+    <t>TC_FHF_ListHouses_ShowTotalHouse_001</t>
+  </si>
+  <si>
+    <t>TC_FHF_ListHouses_ShowAvailableHouse_001</t>
+  </si>
+  <si>
+    <t>TC_FHF_ListHouses_ShowTotalRoom_001</t>
+  </si>
+  <si>
+    <t>TC_FHF_ListHouses_ShowAvailableRoom_001</t>
+  </si>
+  <si>
+    <t>TC_FHF_ListHouses_ShowTotalCapacity_001</t>
+  </si>
+  <si>
+    <t>TC_FHF_ListHouses_ShowAvailableCapacity_001</t>
+  </si>
+  <si>
+    <t>TC_FHF_ListHouses_ShowListHouses_001</t>
+  </si>
+  <si>
+    <t>TC_FHF_ListHouses_SearchName_001</t>
+  </si>
+  <si>
+    <t>TC_FHF_ListHouses_SearchName_002</t>
+  </si>
+  <si>
+    <t>TC_FHF_ListHouses_SearchName_003</t>
+  </si>
+  <si>
+    <t>TC_FHF_ListHouses_SearchName_004</t>
+  </si>
+  <si>
+    <t>TC_FHF_ListHouses_ShowTooltip_001</t>
+  </si>
+  <si>
+    <t>TC_FHF_ListHouses_Navigate_001</t>
+  </si>
+  <si>
+    <t>Verify the show totally available room of each house functionality of List Houses</t>
+  </si>
+  <si>
+    <t>User see number of totally available room of each house</t>
+  </si>
+  <si>
+    <t>System shows number of totally available room of each house</t>
+  </si>
+  <si>
+    <t>Verify the show partially available room of each house functionality of List Houses</t>
+  </si>
+  <si>
+    <t>User see number of partially available room of each house</t>
+  </si>
+  <si>
+    <t>System shows number of partially available room of each house</t>
+  </si>
+  <si>
+    <t>Verify the show available capacity of each house functionality of List Houses</t>
+  </si>
+  <si>
+    <t>User see number of available capacity of each house</t>
+  </si>
+  <si>
+    <t>System shows number of available capacity of each house</t>
+  </si>
+  <si>
+    <t>TC_FHF_ListHouses_ShowTotallyAvailableRoom_001</t>
+  </si>
+  <si>
+    <t>TC_FHF_ListHouses_ShowPartiallyAvailableRoom_001</t>
+  </si>
+  <si>
+    <t>Hover icon in list houses</t>
+  </si>
+  <si>
+    <t>1. Hover icon in list houses</t>
+  </si>
+  <si>
+    <t>1. Hover icon in list landlords</t>
+  </si>
+  <si>
+    <t>Verify the navigate to house detail of house functionality of List Houses</t>
+  </si>
+  <si>
+    <t>User navigate to house detail</t>
+  </si>
+  <si>
+    <t>System navigates to house detail</t>
+  </si>
+  <si>
+    <t>User navigate to list houses of this landlord</t>
   </si>
 </sst>
 </file>
@@ -5232,8 +5403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5290,20 +5461,20 @@
         <v>44845</v>
       </c>
       <c r="E3" s="17">
-        <f>COUNTIF(K8:K11,"Pass")</f>
-        <v>4</v>
+        <f>COUNTIF(K8:K24,"Pass")</f>
+        <v>17</v>
       </c>
       <c r="F3" s="17">
-        <f>COUNTIF(K8:K11,"Fail")</f>
+        <f>COUNTIF(K8:K24,"Fail")</f>
         <v>0</v>
       </c>
       <c r="G3" s="17">
-        <f>COUNTIF(K8:K11,"Untested")</f>
+        <f>COUNTIF(K8:K24,"Untested")</f>
         <v>0</v>
       </c>
       <c r="H3" s="17">
-        <f>COUNTA(K8:K11)</f>
-        <v>4</v>
+        <f>COUNTA(K8:K24)</f>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
@@ -5936,7 +6107,7 @@
         <v>280</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>189</v>
+        <v>353</v>
       </c>
       <c r="F22" s="24" t="s">
         <v>31</v>
@@ -5981,13 +6152,13 @@
       </c>
       <c r="G23" s="24"/>
       <c r="H23" s="24" t="s">
-        <v>185</v>
+        <v>357</v>
       </c>
       <c r="I23" s="24" t="s">
-        <v>186</v>
+        <v>301</v>
       </c>
       <c r="J23" s="24" t="s">
-        <v>186</v>
+        <v>301</v>
       </c>
       <c r="K23" s="30" t="s">
         <v>39</v>
@@ -6043,12 +6214,775 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.36328125" customWidth="1"/>
+    <col min="5" max="5" width="26" customWidth="1"/>
+    <col min="6" max="6" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.54296875" customWidth="1"/>
+    <col min="10" max="10" width="22.453125" customWidth="1"/>
+    <col min="11" max="11" width="8.08984375" customWidth="1"/>
+    <col min="12" max="12" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2">
+        <v>44876</v>
+      </c>
+      <c r="E3" s="17">
+        <f>COUNTIF(K8:K23,"Pass")</f>
+        <v>16</v>
+      </c>
+      <c r="F3" s="17">
+        <f>COUNTIF(K8:K23,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="17">
+        <f>COUNTIF(K8:K23,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="17">
+        <f>COUNTA(K8:K23)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2">
+        <v>44906</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="29" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="24" t="s">
+        <v>326</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>302</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>327</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="I8" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="J8" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="K8" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="L8" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+    </row>
+    <row r="9" spans="1:14" s="29" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="24" t="s">
+        <v>325</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>303</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>328</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="I9" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="J9" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="K9" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="L9" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+    </row>
+    <row r="10" spans="1:14" s="29" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="24" t="s">
+        <v>324</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>304</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>329</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="I10" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="J10" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="K10" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="L10" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
+    </row>
+    <row r="11" spans="1:14" s="29" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="24" t="s">
+        <v>323</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="I11" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="J11" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="K11" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="L11" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+    </row>
+    <row r="12" spans="1:14" s="29" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="24" t="s">
+        <v>322</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>331</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24" t="s">
+        <v>238</v>
+      </c>
+      <c r="I12" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="J12" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="K12" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="L12" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+    </row>
+    <row r="13" spans="1:14" s="29" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="24" t="s">
+        <v>321</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>307</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>332</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="I13" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="J13" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="K13" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="L13" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+    </row>
+    <row r="14" spans="1:14" s="29" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14" s="24" t="s">
+        <v>320</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>308</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>333</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="I14" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="J14" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="K14" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="L14" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+    </row>
+    <row r="15" spans="1:14" s="29" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A15" s="24" t="s">
+        <v>319</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>340</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>349</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24" t="s">
+        <v>341</v>
+      </c>
+      <c r="I15" s="24" t="s">
+        <v>342</v>
+      </c>
+      <c r="J15" s="24" t="s">
+        <v>342</v>
+      </c>
+      <c r="K15" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="L15" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+    </row>
+    <row r="16" spans="1:14" s="29" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="24" t="s">
+        <v>318</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>346</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>332</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24" t="s">
+        <v>347</v>
+      </c>
+      <c r="I16" s="24" t="s">
+        <v>348</v>
+      </c>
+      <c r="J16" s="24" t="s">
+        <v>348</v>
+      </c>
+      <c r="K16" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="L16" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+    </row>
+    <row r="17" spans="1:14" s="29" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A17" s="24" t="s">
+        <v>317</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>343</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>350</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24" t="s">
+        <v>344</v>
+      </c>
+      <c r="I17" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="J17" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="K17" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="L17" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+    </row>
+    <row r="18" spans="1:14" s="28" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A18" s="24" t="s">
+        <v>316</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>334</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="I18" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="J18" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="K18" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="L18" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="M18" s="31">
+        <v>44631</v>
+      </c>
+      <c r="N18" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" s="28" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>335</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="I19" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="J19" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="K19" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="L19" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="M19" s="31">
+        <v>44631</v>
+      </c>
+      <c r="N19" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" s="28" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A20" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>336</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="I20" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="J20" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="K20" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="L20" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="M20" s="31">
+        <v>44631</v>
+      </c>
+      <c r="N20" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" s="28" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="24" t="s">
+        <v>313</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>337</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="I21" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="J21" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="K21" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="L21" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="M21" s="31">
+        <v>44631</v>
+      </c>
+      <c r="N21" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" s="29" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="24" t="s">
+        <v>312</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>310</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>338</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>351</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>352</v>
+      </c>
+      <c r="F22" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24" t="s">
+        <v>281</v>
+      </c>
+      <c r="I22" s="24" t="s">
+        <v>282</v>
+      </c>
+      <c r="J22" s="24" t="s">
+        <v>282</v>
+      </c>
+      <c r="K22" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="L22" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="M22" s="24"/>
+      <c r="N22" s="24"/>
+    </row>
+    <row r="23" spans="1:14" s="29" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="24" t="s">
+        <v>311</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>354</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>339</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="F23" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24" t="s">
+        <v>355</v>
+      </c>
+      <c r="I23" s="24" t="s">
+        <v>356</v>
+      </c>
+      <c r="J23" s="24" t="s">
+        <v>356</v>
+      </c>
+      <c r="K23" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="L23" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Documentation/FHF_TestCases.xlsx
+++ b/Documentation/FHF_TestCases.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580" tabRatio="891" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580" tabRatio="891" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="2" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="360">
   <si>
     <t>Project Name</t>
   </si>
@@ -1165,6 +1165,12 @@
   </si>
   <si>
     <t>User navigate to list houses of this landlord</t>
+  </si>
+  <si>
+    <t>(Staff) List Houses</t>
+  </si>
+  <si>
+    <t>(Staff) List Landlords</t>
   </si>
 </sst>
 </file>
@@ -5403,8 +5409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5430,7 +5436,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>63</v>
+        <v>359</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
@@ -6216,8 +6222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6243,7 +6249,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>63</v>
+        <v>358</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">

--- a/Documentation/FHF_TestCases.xlsx
+++ b/Documentation/FHF_TestCases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Semester9\SEP490\fu-house-finder\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E363A3B-53D5-44DA-A972-B3679714EE79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF8B292-0314-48C4-8814-776CF43488D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="891" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="891" firstSheet="5" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="371">
   <si>
     <t>Project Name</t>
   </si>
@@ -261,16 +261,7 @@
     <t>Room Detail</t>
   </si>
   <si>
-    <t>Manage Houses</t>
-  </si>
-  <si>
     <t>ThongPQ</t>
-  </si>
-  <si>
-    <t>Manage Reports</t>
-  </si>
-  <si>
-    <t>Manage Orders</t>
   </si>
   <si>
     <t>Login</t>
@@ -1145,9 +1136,6 @@
     <t>(Staff) List Houses</t>
   </si>
   <si>
-    <t>(Staff) List Landlords</t>
-  </si>
-  <si>
     <t>24/10/2022</t>
   </si>
   <si>
@@ -1172,9 +1160,6 @@
     <t>30/10/2022</t>
   </si>
   <si>
-    <t>Upload House Info</t>
-  </si>
-  <si>
     <t>Staff Dashboard</t>
   </si>
   <si>
@@ -1194,6 +1179,24 @@
   </si>
   <si>
     <t>(Staff) Manage Sign up Request</t>
+  </si>
+  <si>
+    <t>(Staff) Manage Landlords</t>
+  </si>
+  <si>
+    <t>(Landlord) Manage Houses</t>
+  </si>
+  <si>
+    <t>(Landlord) Manage Rooms</t>
+  </si>
+  <si>
+    <t>(Staff) Manage Reports</t>
+  </si>
+  <si>
+    <t>(Staff) Manage Orders</t>
+  </si>
+  <si>
+    <t>(Landlord) Upload House Info</t>
   </si>
 </sst>
 </file>
@@ -1800,7 +1803,7 @@
   <dimension ref="B2:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1845,7 +1848,7 @@
         <v>3</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
@@ -1869,7 +1872,7 @@
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="18" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C10" t="s">
         <v>52</v>
@@ -1883,7 +1886,7 @@
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="18" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C11" t="s">
         <v>52</v>
@@ -1896,20 +1899,60 @@
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="18"/>
-      <c r="E12" s="13"/>
+      <c r="B12" s="18" t="s">
+        <v>355</v>
+      </c>
+      <c r="C12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="18"/>
-      <c r="E13" s="13"/>
+      <c r="B13" s="18" t="s">
+        <v>354</v>
+      </c>
+      <c r="C13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="18"/>
-      <c r="E14" s="13"/>
+      <c r="B14" s="18" t="s">
+        <v>360</v>
+      </c>
+      <c r="C14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="18"/>
-      <c r="E15" s="13"/>
+      <c r="B15" s="18" t="s">
+        <v>362</v>
+      </c>
+      <c r="C15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>349</v>
+      </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="18"/>
@@ -1957,7 +2000,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1983,7 +2026,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>65</v>
+        <v>368</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -2011,7 +2054,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="E3" s="16">
         <f>COUNTIF(K8:K11,"Pass")</f>
@@ -2043,7 +2086,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -2324,7 +2367,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2350,7 +2393,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>66</v>
+        <v>369</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -2378,7 +2421,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="E3" s="16">
         <f>COUNTIF(K8:K11,"Pass")</f>
@@ -2410,7 +2453,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -2717,7 +2760,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -2745,7 +2788,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="E3" s="16">
         <f>COUNTIF(K8:K11,"Pass")</f>
@@ -2777,7 +2820,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -3084,7 +3127,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -3092,7 +3135,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>39</v>
@@ -3112,7 +3155,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E3" s="16">
         <f>COUNTIF(K8:K11,"Pass")</f>
@@ -3144,7 +3187,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -3424,8 +3467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3451,7 +3494,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -3459,7 +3502,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>39</v>
@@ -3479,7 +3522,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E3" s="16">
         <f>COUNTIF(K8:K11,"Pass")</f>
@@ -3511,7 +3554,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -3791,7 +3834,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -3846,7 +3889,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="E3" s="16">
         <f>COUNTIF(K8:K11,"Pass")</f>
@@ -3878,7 +3921,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -4326,7 +4369,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="E3" s="16">
         <f>COUNTIF(K8:K28,"Pass")</f>
@@ -4358,7 +4401,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -4407,32 +4450,32 @@
     </row>
     <row r="8" spans="1:14" s="26" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F8" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G8" s="23"/>
       <c r="H8" s="23" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I8" s="23" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J8" s="23" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K8" s="24" t="s">
         <v>39</v>
@@ -4445,32 +4488,32 @@
     </row>
     <row r="9" spans="1:14" s="26" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D9" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="23" t="s">
         <v>76</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>79</v>
       </c>
       <c r="F9" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G9" s="23"/>
       <c r="H9" s="23" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I9" s="23" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J9" s="23" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K9" s="24" t="s">
         <v>39</v>
@@ -4483,32 +4526,32 @@
     </row>
     <row r="10" spans="1:14" s="26" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F10" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G10" s="23"/>
       <c r="H10" s="23" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I10" s="23" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="J10" s="23" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="K10" s="24" t="s">
         <v>39</v>
@@ -4521,32 +4564,32 @@
     </row>
     <row r="11" spans="1:14" s="26" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F11" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G11" s="23"/>
       <c r="H11" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="I11" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="I11" s="23" t="s">
-        <v>84</v>
-      </c>
       <c r="J11" s="23" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K11" s="24" t="s">
         <v>39</v>
@@ -4559,32 +4602,32 @@
     </row>
     <row r="12" spans="1:14" s="26" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B12" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="C12" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>91</v>
-      </c>
       <c r="E12" s="23" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F12" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G12" s="23"/>
       <c r="H12" s="23" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I12" s="23" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J12" s="23" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="K12" s="24" t="s">
         <v>39</v>
@@ -4597,32 +4640,32 @@
     </row>
     <row r="13" spans="1:14" s="28" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C13" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="D13" s="23" t="s">
-        <v>100</v>
-      </c>
       <c r="E13" s="23" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F13" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G13" s="23"/>
       <c r="H13" s="23" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I13" s="23" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J13" s="23" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="K13" s="29" t="s">
         <v>39</v>
@@ -4635,32 +4678,32 @@
     </row>
     <row r="14" spans="1:14" s="28" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F14" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G14" s="23"/>
       <c r="H14" s="23" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I14" s="23" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="J14" s="23" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="K14" s="29" t="s">
         <v>39</v>
@@ -4673,32 +4716,32 @@
     </row>
     <row r="15" spans="1:14" s="28" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="C15" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="B15" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>115</v>
-      </c>
       <c r="D15" s="23" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F15" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G15" s="23"/>
       <c r="H15" s="23" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I15" s="23" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="J15" s="23" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="K15" s="29" t="s">
         <v>39</v>
@@ -4711,32 +4754,32 @@
     </row>
     <row r="16" spans="1:14" s="28" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F16" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G16" s="23"/>
       <c r="H16" s="23" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I16" s="23" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="J16" s="23" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="K16" s="29" t="s">
         <v>39</v>
@@ -4749,32 +4792,32 @@
     </row>
     <row r="17" spans="1:14" s="28" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F17" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G17" s="23"/>
       <c r="H17" s="23" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I17" s="23" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="J17" s="23" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="K17" s="29" t="s">
         <v>39</v>
@@ -4787,32 +4830,32 @@
     </row>
     <row r="18" spans="1:14" s="26" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="D18" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="B18" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="D18" s="23" t="s">
-        <v>130</v>
-      </c>
       <c r="E18" s="23" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F18" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G18" s="23"/>
       <c r="H18" s="23" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I18" s="23" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="J18" s="23" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K18" s="24" t="s">
         <v>39</v>
@@ -4825,32 +4868,32 @@
     </row>
     <row r="19" spans="1:14" s="26" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F19" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G19" s="23"/>
       <c r="H19" s="23" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I19" s="23" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="J19" s="23" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K19" s="24" t="s">
         <v>39</v>
@@ -4863,32 +4906,32 @@
     </row>
     <row r="20" spans="1:14" s="26" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C20" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="D20" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="D20" s="23" t="s">
-        <v>144</v>
-      </c>
       <c r="E20" s="23" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F20" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G20" s="23"/>
       <c r="H20" s="23" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="I20" s="23" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J20" s="23" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K20" s="24" t="s">
         <v>39</v>
@@ -4901,32 +4944,32 @@
     </row>
     <row r="21" spans="1:14" s="26" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="D21" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="B21" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="D21" s="23" t="s">
-        <v>145</v>
-      </c>
       <c r="E21" s="23" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F21" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G21" s="23"/>
       <c r="H21" s="23" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="I21" s="23" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="J21" s="23" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K21" s="24" t="s">
         <v>39</v>
@@ -4939,32 +4982,32 @@
     </row>
     <row r="22" spans="1:14" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F22" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G22" s="23"/>
       <c r="H22" s="23" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I22" s="23" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="J22" s="23" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="K22" s="29" t="s">
         <v>39</v>
@@ -4977,32 +5020,32 @@
     </row>
     <row r="23" spans="1:14" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E23" s="23" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F23" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G23" s="23"/>
       <c r="H23" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="I23" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="J23" s="23" t="s">
         <v>158</v>
-      </c>
-      <c r="I23" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="J23" s="23" t="s">
-        <v>161</v>
       </c>
       <c r="K23" s="29" t="s">
         <v>39</v>
@@ -5015,32 +5058,32 @@
     </row>
     <row r="24" spans="1:14" s="28" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E24" s="23" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F24" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G24" s="23"/>
       <c r="H24" s="23" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="I24" s="23" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J24" s="23" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K24" s="29" t="s">
         <v>39</v>
@@ -5053,32 +5096,32 @@
     </row>
     <row r="25" spans="1:14" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E25" s="23" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F25" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G25" s="23"/>
       <c r="H25" s="23" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="I25" s="23" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="J25" s="23" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="K25" s="29" t="s">
         <v>39</v>
@@ -5091,32 +5134,32 @@
     </row>
     <row r="26" spans="1:14" s="28" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="D26" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="B26" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="C26" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="D26" s="23" t="s">
-        <v>176</v>
-      </c>
       <c r="E26" s="23" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F26" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G26" s="23"/>
       <c r="H26" s="23" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="I26" s="23" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="J26" s="23" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="K26" s="29" t="s">
         <v>39</v>
@@ -5129,32 +5172,32 @@
     </row>
     <row r="27" spans="1:14" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="23" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B27" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="D27" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="C27" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="D27" s="23" t="s">
-        <v>181</v>
-      </c>
       <c r="E27" s="23" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F27" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G27" s="23"/>
       <c r="H27" s="23" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="I27" s="23" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="J27" s="23" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="K27" s="29" t="s">
         <v>39</v>
@@ -5167,32 +5210,32 @@
     </row>
     <row r="28" spans="1:14" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="23" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E28" s="23" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F28" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G28" s="23"/>
       <c r="H28" s="23" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I28" s="23" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="J28" s="23" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="K28" s="29" t="s">
         <v>39</v>
@@ -5205,32 +5248,32 @@
     </row>
     <row r="29" spans="1:14" s="28" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>275</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="D29" s="23" t="s">
         <v>277</v>
       </c>
-      <c r="B29" s="23" t="s">
+      <c r="E29" s="23" t="s">
         <v>278</v>
-      </c>
-      <c r="C29" s="23" t="s">
-        <v>279</v>
-      </c>
-      <c r="D29" s="23" t="s">
-        <v>280</v>
-      </c>
-      <c r="E29" s="23" t="s">
-        <v>281</v>
       </c>
       <c r="F29" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G29" s="23"/>
       <c r="H29" s="23" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="I29" s="23" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="J29" s="23" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="K29" s="29" t="s">
         <v>39</v>
@@ -5243,32 +5286,32 @@
     </row>
     <row r="30" spans="1:14" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="23" t="s">
+        <v>281</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>282</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>283</v>
+      </c>
+      <c r="D30" s="23" t="s">
         <v>284</v>
       </c>
-      <c r="B30" s="23" t="s">
+      <c r="E30" s="23" t="s">
         <v>285</v>
-      </c>
-      <c r="C30" s="23" t="s">
-        <v>286</v>
-      </c>
-      <c r="D30" s="23" t="s">
-        <v>287</v>
-      </c>
-      <c r="E30" s="23" t="s">
-        <v>288</v>
       </c>
       <c r="F30" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G30" s="23"/>
       <c r="H30" s="23" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="I30" s="23" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="J30" s="23" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="K30" s="29" t="s">
         <v>39</v>
@@ -5290,7 +5333,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5344,7 +5387,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="E3" s="16">
         <f>COUNTIF(K8:K11,"Pass")</f>
@@ -5376,7 +5419,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -5425,32 +5468,32 @@
     </row>
     <row r="8" spans="1:14" s="28" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F8" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G8" s="23"/>
       <c r="H8" s="23" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I8" s="23" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="J8" s="23" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="K8" s="29" t="s">
         <v>39</v>
@@ -5463,32 +5506,32 @@
     </row>
     <row r="9" spans="1:14" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F9" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G9" s="23"/>
       <c r="H9" s="23" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="I9" s="23" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="J9" s="23" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="K9" s="29" t="s">
         <v>39</v>
@@ -5501,32 +5544,32 @@
     </row>
     <row r="10" spans="1:14" s="28" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F10" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G10" s="23"/>
       <c r="H10" s="23" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I10" s="23" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="J10" s="23" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="K10" s="29" t="s">
         <v>39</v>
@@ -5539,32 +5582,32 @@
     </row>
     <row r="11" spans="1:14" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F11" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G11" s="23"/>
       <c r="H11" s="23" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I11" s="23" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="J11" s="23" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="K11" s="29" t="s">
         <v>39</v>
@@ -5745,7 +5788,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="C7" sqref="C6:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5771,7 +5814,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>63</v>
+        <v>366</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -5779,7 +5822,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>39</v>
@@ -5799,7 +5842,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="E3" s="16">
         <f>COUNTIF(K8:K11,"Pass")</f>
@@ -5831,7 +5874,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -6112,7 +6155,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6138,7 +6181,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>63</v>
+        <v>367</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -6146,7 +6189,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>39</v>
@@ -6166,7 +6209,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="E3" s="16">
         <f>COUNTIF(K8:K11,"Pass")</f>
@@ -6198,7 +6241,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -6505,7 +6548,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -6565,7 +6608,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -6846,7 +6889,7 @@
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6872,7 +6915,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -6900,7 +6943,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="E3" s="16">
         <f>COUNTIF(K8:K24,"Pass")</f>
@@ -6932,7 +6975,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -6981,32 +7024,32 @@
     </row>
     <row r="8" spans="1:14" s="28" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F8" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G8" s="23"/>
       <c r="H8" s="23" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="I8" s="23" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="J8" s="23" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="K8" s="29" t="s">
         <v>39</v>
@@ -7019,32 +7062,32 @@
     </row>
     <row r="9" spans="1:14" s="28" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F9" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G9" s="23"/>
       <c r="H9" s="23" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="I9" s="23" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="J9" s="23" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="K9" s="29" t="s">
         <v>39</v>
@@ -7057,32 +7100,32 @@
     </row>
     <row r="10" spans="1:14" s="28" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B10" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="C10" s="23" t="s">
         <v>222</v>
       </c>
-      <c r="C10" s="23" t="s">
-        <v>225</v>
-      </c>
       <c r="D10" s="23" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F10" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G10" s="23"/>
       <c r="H10" s="23" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="I10" s="23" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="J10" s="23" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="K10" s="29" t="s">
         <v>39</v>
@@ -7095,32 +7138,32 @@
     </row>
     <row r="11" spans="1:14" s="28" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B11" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="C11" s="23" t="s">
         <v>226</v>
       </c>
-      <c r="C11" s="23" t="s">
-        <v>229</v>
-      </c>
       <c r="D11" s="23" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F11" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G11" s="23"/>
       <c r="H11" s="23" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="I11" s="23" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="J11" s="23" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="K11" s="29" t="s">
         <v>39</v>
@@ -7133,32 +7176,32 @@
     </row>
     <row r="12" spans="1:14" s="28" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F12" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G12" s="23"/>
       <c r="H12" s="23" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="I12" s="23" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="J12" s="23" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="K12" s="29" t="s">
         <v>39</v>
@@ -7171,32 +7214,32 @@
     </row>
     <row r="13" spans="1:14" s="28" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F13" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G13" s="23"/>
       <c r="H13" s="23" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="I13" s="23" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="J13" s="23" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="K13" s="29" t="s">
         <v>39</v>
@@ -7209,32 +7252,32 @@
     </row>
     <row r="14" spans="1:14" s="28" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F14" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G14" s="23"/>
       <c r="H14" s="23" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="I14" s="23" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="J14" s="23" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="K14" s="29" t="s">
         <v>39</v>
@@ -7247,32 +7290,32 @@
     </row>
     <row r="15" spans="1:14" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B15" s="23" t="s">
+        <v>240</v>
+      </c>
+      <c r="C15" s="23" t="s">
         <v>243</v>
       </c>
-      <c r="C15" s="23" t="s">
-        <v>246</v>
-      </c>
       <c r="D15" s="23" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F15" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G15" s="23"/>
       <c r="H15" s="23" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="I15" s="23" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="J15" s="23" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="K15" s="29" t="s">
         <v>39</v>
@@ -7285,32 +7328,32 @@
     </row>
     <row r="16" spans="1:14" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B16" s="23" t="s">
+        <v>244</v>
+      </c>
+      <c r="C16" s="23" t="s">
         <v>247</v>
       </c>
-      <c r="C16" s="23" t="s">
-        <v>250</v>
-      </c>
       <c r="D16" s="23" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F16" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G16" s="23"/>
       <c r="H16" s="23" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="I16" s="23" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="J16" s="23" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="K16" s="29" t="s">
         <v>39</v>
@@ -7323,32 +7366,32 @@
     </row>
     <row r="17" spans="1:14" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F17" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G17" s="23"/>
       <c r="H17" s="23" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="I17" s="23" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="J17" s="23" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="K17" s="29" t="s">
         <v>39</v>
@@ -7361,13 +7404,13 @@
     </row>
     <row r="18" spans="1:14" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D18" s="23" t="s">
         <v>22</v>
@@ -7385,10 +7428,10 @@
         <v>35</v>
       </c>
       <c r="I18" s="23" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="J18" s="23" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="K18" s="29" t="s">
         <v>39</v>
@@ -7405,13 +7448,13 @@
     </row>
     <row r="19" spans="1:14" s="27" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="B19" s="23" t="s">
         <v>258</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="C19" s="23" t="s">
         <v>261</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>264</v>
       </c>
       <c r="D19" s="23" t="s">
         <v>23</v>
@@ -7429,10 +7472,10 @@
         <v>37</v>
       </c>
       <c r="I19" s="23" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="J19" s="23" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="K19" s="29" t="s">
         <v>39</v>
@@ -7449,13 +7492,13 @@
     </row>
     <row r="20" spans="1:14" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D20" s="23" t="s">
         <v>24</v>
@@ -7473,10 +7516,10 @@
         <v>35</v>
       </c>
       <c r="I20" s="23" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="J20" s="23" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="K20" s="29" t="s">
         <v>39</v>
@@ -7493,13 +7536,13 @@
     </row>
     <row r="21" spans="1:14" s="27" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D21" s="23" t="s">
         <v>25</v>
@@ -7517,10 +7560,10 @@
         <v>37</v>
       </c>
       <c r="I21" s="23" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="J21" s="23" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="K21" s="29" t="s">
         <v>39</v>
@@ -7537,32 +7580,32 @@
     </row>
     <row r="22" spans="1:14" s="28" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F22" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G22" s="23"/>
       <c r="H22" s="23" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="I22" s="23" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="J22" s="23" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="K22" s="29" t="s">
         <v>39</v>
@@ -7575,32 +7618,32 @@
     </row>
     <row r="23" spans="1:14" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E23" s="23" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F23" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G23" s="23"/>
       <c r="H23" s="23" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="I23" s="23" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J23" s="23" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="K23" s="29" t="s">
         <v>39</v>
@@ -7613,32 +7656,32 @@
     </row>
     <row r="24" spans="1:14" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E24" s="23" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F24" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G24" s="23"/>
       <c r="H24" s="23" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="I24" s="23" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="J24" s="23" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="K24" s="29" t="s">
         <v>39</v>
@@ -7685,7 +7728,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -7713,7 +7756,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="E3" s="16">
         <f>COUNTIF(K8:K23,"Pass")</f>
@@ -7745,7 +7788,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -7794,32 +7837,32 @@
     </row>
     <row r="8" spans="1:14" s="28" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F8" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G8" s="23"/>
       <c r="H8" s="23" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="I8" s="23" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="J8" s="23" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="K8" s="29" t="s">
         <v>39</v>
@@ -7832,32 +7875,32 @@
     </row>
     <row r="9" spans="1:14" s="28" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
+        <v>316</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>294</v>
+      </c>
+      <c r="C9" s="23" t="s">
         <v>319</v>
       </c>
-      <c r="B9" s="23" t="s">
-        <v>297</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>322</v>
-      </c>
       <c r="D9" s="23" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F9" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G9" s="23"/>
       <c r="H9" s="23" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="I9" s="23" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="J9" s="23" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="K9" s="29" t="s">
         <v>39</v>
@@ -7870,32 +7913,32 @@
     </row>
     <row r="10" spans="1:14" s="28" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F10" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G10" s="23"/>
       <c r="H10" s="23" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="I10" s="23" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="J10" s="23" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="K10" s="29" t="s">
         <v>39</v>
@@ -7908,32 +7951,32 @@
     </row>
     <row r="11" spans="1:14" s="28" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F11" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G11" s="23"/>
       <c r="H11" s="23" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="I11" s="23" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="J11" s="23" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="K11" s="29" t="s">
         <v>39</v>
@@ -7946,32 +7989,32 @@
     </row>
     <row r="12" spans="1:14" s="28" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F12" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G12" s="23"/>
       <c r="H12" s="23" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="I12" s="23" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="J12" s="23" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="K12" s="29" t="s">
         <v>39</v>
@@ -7984,32 +8027,32 @@
     </row>
     <row r="13" spans="1:14" s="28" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F13" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G13" s="23"/>
       <c r="H13" s="23" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="I13" s="23" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="J13" s="23" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="K13" s="29" t="s">
         <v>39</v>
@@ -8022,32 +8065,32 @@
     </row>
     <row r="14" spans="1:14" s="28" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F14" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G14" s="23"/>
       <c r="H14" s="23" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="I14" s="23" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="J14" s="23" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="K14" s="29" t="s">
         <v>39</v>
@@ -8060,32 +8103,32 @@
     </row>
     <row r="15" spans="1:14" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F15" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G15" s="23"/>
       <c r="H15" s="23" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="I15" s="23" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="J15" s="23" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="K15" s="29" t="s">
         <v>39</v>
@@ -8098,32 +8141,32 @@
     </row>
     <row r="16" spans="1:14" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F16" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G16" s="23"/>
       <c r="H16" s="23" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="I16" s="23" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="J16" s="23" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="K16" s="29" t="s">
         <v>39</v>
@@ -8136,32 +8179,32 @@
     </row>
     <row r="17" spans="1:14" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F17" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G17" s="23"/>
       <c r="H17" s="23" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="I17" s="23" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="J17" s="23" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="K17" s="29" t="s">
         <v>39</v>
@@ -8174,13 +8217,13 @@
     </row>
     <row r="18" spans="1:14" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D18" s="23" t="s">
         <v>22</v>
@@ -8218,13 +8261,13 @@
     </row>
     <row r="19" spans="1:14" s="27" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D19" s="23" t="s">
         <v>23</v>
@@ -8262,13 +8305,13 @@
     </row>
     <row r="20" spans="1:14" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D20" s="23" t="s">
         <v>24</v>
@@ -8306,13 +8349,13 @@
     </row>
     <row r="21" spans="1:14" s="27" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D21" s="23" t="s">
         <v>25</v>
@@ -8350,32 +8393,32 @@
     </row>
     <row r="22" spans="1:14" s="28" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="F22" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G22" s="23"/>
       <c r="H22" s="23" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="I22" s="23" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="J22" s="23" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="K22" s="29" t="s">
         <v>39</v>
@@ -8388,32 +8431,32 @@
     </row>
     <row r="23" spans="1:14" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E23" s="23" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F23" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G23" s="23"/>
       <c r="H23" s="23" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="I23" s="23" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="J23" s="23" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="K23" s="29" t="s">
         <v>39</v>

--- a/Documentation/FHF_TestCases.xlsx
+++ b/Documentation/FHF_TestCases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Semester9\SEP490\fu-house-finder\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF8B292-0314-48C4-8814-776CF43488D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF0F0B2-B586-42F0-B65E-9687DC2E19EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="891" firstSheet="5" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="891" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="374">
   <si>
     <t>Project Name</t>
   </si>
@@ -1142,9 +1142,6 @@
     <t>25/10/2022</t>
   </si>
   <si>
-    <t>25/11/2022</t>
-  </si>
-  <si>
     <t>29/10/2022</t>
   </si>
   <si>
@@ -1197,6 +1194,18 @@
   </si>
   <si>
     <t>(Landlord) Upload House Info</t>
+  </si>
+  <si>
+    <t>No Comments</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>House Detail, Room Detail</t>
+  </si>
+  <si>
+    <t>(Staff) Manage Landlords, List Houses</t>
   </si>
 </sst>
 </file>
@@ -1395,7 +1404,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1447,9 +1456,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1463,8 +1469,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1800,10 +1810,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:F23"/>
+  <dimension ref="B2:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1811,7 +1821,7 @@
     <col min="2" max="2" width="20.85546875" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="32.42578125" customWidth="1"/>
+    <col min="5" max="5" width="34.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.85546875" customWidth="1"/>
     <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1900,7 +1910,7 @@
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="18" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C12" t="s">
         <v>52</v>
@@ -1914,7 +1924,7 @@
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="18" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C13" t="s">
         <v>52</v>
@@ -1928,21 +1938,21 @@
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="18" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>371</v>
       </c>
       <c r="D14" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="18" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C15" t="s">
         <v>52</v>
@@ -1951,16 +1961,36 @@
         <v>61</v>
       </c>
       <c r="E15" s="13" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="18" t="s">
+        <v>361</v>
+      </c>
+      <c r="C16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="13" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="18"/>
-      <c r="E16" s="13"/>
-    </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="18"/>
-      <c r="E17" s="13"/>
+      <c r="B17" s="18" t="s">
+        <v>360</v>
+      </c>
+      <c r="C17" t="s">
+        <v>371</v>
+      </c>
+      <c r="D17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="18"/>
@@ -1983,10 +2013,14 @@
       <c r="E22" s="13"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="19"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="15"/>
+      <c r="B23" s="18"/>
+      <c r="E23" s="13"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="19"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2026,7 +2060,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -2054,7 +2088,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E3" s="16">
         <f>COUNTIF(K8:K11,"Pass")</f>
@@ -2086,7 +2120,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -2393,7 +2427,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -2421,7 +2455,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E3" s="16">
         <f>COUNTIF(K8:K11,"Pass")</f>
@@ -2453,7 +2487,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -2760,7 +2794,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -2788,7 +2822,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E3" s="16">
         <f>COUNTIF(K8:K11,"Pass")</f>
@@ -2820,7 +2854,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -3155,7 +3189,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E3" s="16">
         <f>COUNTIF(K8:K11,"Pass")</f>
@@ -3187,7 +3221,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -3467,7 +3501,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -3494,7 +3528,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -3522,7 +3556,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E3" s="16">
         <f>COUNTIF(K8:K11,"Pass")</f>
@@ -3554,7 +3588,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -3835,7 +3869,1597 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="M4" sqref="M4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+    <col min="5" max="5" width="26" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5703125" customWidth="1"/>
+    <col min="10" max="10" width="22.42578125" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>351</v>
+      </c>
+      <c r="E3" s="16">
+        <f>COUNTIF(K8:K11,"Pass")</f>
+        <v>4</v>
+      </c>
+      <c r="F3" s="16">
+        <f>COUNTIF(K8:K11,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="16">
+        <f>COUNTIF(K8:K11,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="16">
+        <f>COUNTA(K8:K11)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L8" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" s="29" t="s">
+        <v>351</v>
+      </c>
+      <c r="N8" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="K9" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L9" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" s="29" t="s">
+        <v>351</v>
+      </c>
+      <c r="N9" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="J10" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="K10" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L10" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" s="29" t="s">
+        <v>351</v>
+      </c>
+      <c r="N10" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="K11" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L11" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" s="29" t="s">
+        <v>351</v>
+      </c>
+      <c r="N11" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:N30"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+    <col min="5" max="5" width="26" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5703125" customWidth="1"/>
+    <col min="10" max="10" width="22.42578125" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>354</v>
+      </c>
+      <c r="E3" s="16">
+        <f>COUNTIF(K8:K30,"Pass")</f>
+        <v>23</v>
+      </c>
+      <c r="F3" s="16">
+        <f>COUNTIF(K8:K30,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="16">
+        <f>COUNTIF(K8:K30,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="16">
+        <f>COUNTA(K8:K30)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="25" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="I8" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="J8" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="K8" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L8" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="M8" s="29" t="s">
+        <v>354</v>
+      </c>
+      <c r="N8" s="22" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="I9" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J9" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="K9" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L9" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="M9" s="29" t="s">
+        <v>354</v>
+      </c>
+      <c r="N9" s="22" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="I10" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="J10" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="K10" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L10" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="M10" s="29" t="s">
+        <v>354</v>
+      </c>
+      <c r="N10" s="22" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="25" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="I11" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="J11" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="K11" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L11" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="M11" s="29" t="s">
+        <v>354</v>
+      </c>
+      <c r="N11" s="22" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="I12" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="J12" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="K12" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L12" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="M12" s="29" t="s">
+        <v>354</v>
+      </c>
+      <c r="N12" s="22" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="27" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="I13" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="J13" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="K13" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="L13" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="M13" s="29" t="s">
+        <v>354</v>
+      </c>
+      <c r="N13" s="22" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" s="27" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="I14" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="J14" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="K14" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="L14" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="M14" s="29" t="s">
+        <v>354</v>
+      </c>
+      <c r="N14" s="22" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="27" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="I15" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="J15" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="K15" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="L15" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="M15" s="29" t="s">
+        <v>354</v>
+      </c>
+      <c r="N15" s="22" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" s="27" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="I16" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="J16" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="K16" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="L16" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="M16" s="29" t="s">
+        <v>354</v>
+      </c>
+      <c r="N16" s="22" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" s="27" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="I17" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="J17" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="K17" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="L17" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="M17" s="29" t="s">
+        <v>354</v>
+      </c>
+      <c r="N17" s="22" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="I18" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="J18" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="K18" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L18" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="M18" s="29" t="s">
+        <v>354</v>
+      </c>
+      <c r="N18" s="22" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="I19" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="J19" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="K19" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L19" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="M19" s="29" t="s">
+        <v>354</v>
+      </c>
+      <c r="N19" s="22" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="I20" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="J20" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="K20" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L20" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="M20" s="29" t="s">
+        <v>354</v>
+      </c>
+      <c r="N20" s="22" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="I21" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="J21" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="K21" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L21" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="M21" s="29" t="s">
+        <v>354</v>
+      </c>
+      <c r="N21" s="22" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="I22" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="J22" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="K22" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="L22" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="M22" s="29" t="s">
+        <v>354</v>
+      </c>
+      <c r="N22" s="22" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="I23" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="J23" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="K23" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="L23" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="M23" s="29" t="s">
+        <v>354</v>
+      </c>
+      <c r="N23" s="22" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" s="27" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="F24" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="I24" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="J24" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="K24" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="L24" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="M24" s="29" t="s">
+        <v>354</v>
+      </c>
+      <c r="N24" s="22" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A25" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="F25" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="I25" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="J25" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="K25" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="L25" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="M25" s="29" t="s">
+        <v>354</v>
+      </c>
+      <c r="N25" s="22" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" s="27" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="F26" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="I26" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="J26" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="K26" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="L26" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="M26" s="29" t="s">
+        <v>354</v>
+      </c>
+      <c r="N26" s="22" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A27" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="E27" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="F27" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="I27" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="J27" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="K27" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="L27" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="M27" s="29" t="s">
+        <v>354</v>
+      </c>
+      <c r="N27" s="22" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A28" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="F28" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="I28" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="J28" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="K28" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="L28" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="M28" s="29" t="s">
+        <v>354</v>
+      </c>
+      <c r="N28" s="22" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" s="27" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>275</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>277</v>
+      </c>
+      <c r="E29" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="F29" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23" t="s">
+        <v>279</v>
+      </c>
+      <c r="I29" s="23" t="s">
+        <v>280</v>
+      </c>
+      <c r="J29" s="23" t="s">
+        <v>280</v>
+      </c>
+      <c r="K29" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="L29" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="M29" s="29" t="s">
+        <v>354</v>
+      </c>
+      <c r="N29" s="22" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A30" s="23" t="s">
+        <v>281</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>282</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>283</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>284</v>
+      </c>
+      <c r="E30" s="23" t="s">
+        <v>285</v>
+      </c>
+      <c r="F30" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="I30" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="J30" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="K30" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="L30" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="M30" s="29" t="s">
+        <v>354</v>
+      </c>
+      <c r="N30" s="22" t="s">
+        <v>370</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:N22"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3861,7 +5485,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -3869,7 +5493,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>39</v>
@@ -3889,7 +5513,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E3" s="16">
         <f>COUNTIF(K8:K11,"Pass")</f>
@@ -3913,7 +5537,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -3921,7 +5545,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -3968,1505 +5592,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="I8" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="J8" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="K8" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="L8" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="M8" s="25">
-        <v>44631</v>
-      </c>
-      <c r="N8" s="22" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="75" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="I9" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="J9" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="K9" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="L9" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="M9" s="25">
-        <v>44631</v>
-      </c>
-      <c r="N9" s="22" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="I10" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="J10" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="K10" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="L10" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="M10" s="25">
-        <v>44631</v>
-      </c>
-      <c r="N10" s="22" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="75" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="H11" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="I11" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="J11" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="K11" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="L11" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="M11" s="25">
-        <v>44631</v>
-      </c>
-      <c r="N11" s="22" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:N30"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" customWidth="1"/>
-    <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.5703125" customWidth="1"/>
-    <col min="10" max="10" width="22.42578125" customWidth="1"/>
-    <col min="11" max="11" width="8.140625" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>355</v>
-      </c>
-      <c r="E3" s="16">
-        <f>COUNTIF(K8:K28,"Pass")</f>
-        <v>21</v>
-      </c>
-      <c r="F3" s="16">
-        <f>COUNTIF(K8:K28,"Fail")</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="16">
-        <f>COUNTIF(K8:K28,"Untested")</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="16">
-        <f>COUNTA(K8:K28)</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" s="26" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="F8" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="I8" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="J8" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="K8" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="L8" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="M8" s="25"/>
-      <c r="N8" s="22"/>
-    </row>
-    <row r="9" spans="1:14" s="26" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="I9" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="J9" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="K9" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="L9" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="M9" s="25"/>
-      <c r="N9" s="22"/>
-    </row>
-    <row r="10" spans="1:14" s="26" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="F10" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="I10" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="J10" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="K10" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="L10" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="M10" s="25"/>
-      <c r="N10" s="22"/>
-    </row>
-    <row r="11" spans="1:14" s="26" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="F11" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="I11" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="J11" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="K11" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="L11" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="M11" s="25"/>
-      <c r="N11" s="22"/>
-    </row>
-    <row r="12" spans="1:14" s="26" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="F12" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="I12" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="J12" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="K12" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="L12" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="M12" s="25"/>
-      <c r="N12" s="22"/>
-    </row>
-    <row r="13" spans="1:14" s="28" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="B13" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="F13" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="I13" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="J13" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="K13" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="L13" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-    </row>
-    <row r="14" spans="1:14" s="28" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="E14" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="F14" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="I14" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="J14" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="K14" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="L14" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-    </row>
-    <row r="15" spans="1:14" s="28" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="F15" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="I15" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="J15" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="K15" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="L15" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-    </row>
-    <row r="16" spans="1:14" s="28" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="B16" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="D16" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="E16" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="F16" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="I16" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="J16" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="K16" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="L16" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-    </row>
-    <row r="17" spans="1:14" s="28" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="B17" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="D17" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="E17" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="F17" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="I17" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="J17" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="K17" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="L17" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-    </row>
-    <row r="18" spans="1:14" s="26" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="B18" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="D18" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="E18" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="F18" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="I18" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="J18" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="K18" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="L18" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="M18" s="25"/>
-      <c r="N18" s="22"/>
-    </row>
-    <row r="19" spans="1:14" s="26" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="B19" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="E19" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="F19" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="I19" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="J19" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="K19" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="L19" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="M19" s="25"/>
-      <c r="N19" s="22"/>
-    </row>
-    <row r="20" spans="1:14" s="26" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="B20" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="D20" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="E20" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="F20" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="I20" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="J20" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="K20" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="L20" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="M20" s="25"/>
-      <c r="N20" s="22"/>
-    </row>
-    <row r="21" spans="1:14" s="26" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="B21" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="D21" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="E21" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="F21" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="I21" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="J21" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="K21" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="L21" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="M21" s="25"/>
-      <c r="N21" s="22"/>
-    </row>
-    <row r="22" spans="1:14" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="B22" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="C22" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="D22" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="E22" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="F22" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="I22" s="23" t="s">
-        <v>168</v>
-      </c>
-      <c r="J22" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="K22" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="L22" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-    </row>
-    <row r="23" spans="1:14" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="B23" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>169</v>
-      </c>
-      <c r="D23" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="E23" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="F23" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="I23" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="J23" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="K23" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="L23" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="M23" s="23"/>
-      <c r="N23" s="23"/>
-    </row>
-    <row r="24" spans="1:14" s="28" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="B24" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="D24" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="E24" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="F24" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="I24" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="J24" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="K24" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="L24" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="M24" s="23"/>
-      <c r="N24" s="23"/>
-    </row>
-    <row r="25" spans="1:14" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A25" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="B25" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="C25" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="D25" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="E25" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="F25" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="I25" s="23" t="s">
-        <v>165</v>
-      </c>
-      <c r="J25" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="K25" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="L25" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="M25" s="23"/>
-      <c r="N25" s="23"/>
-    </row>
-    <row r="26" spans="1:14" s="28" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="23" t="s">
-        <v>170</v>
-      </c>
-      <c r="B26" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="C26" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="D26" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="E26" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="F26" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23" t="s">
-        <v>272</v>
-      </c>
-      <c r="I26" s="23" t="s">
-        <v>273</v>
-      </c>
-      <c r="J26" s="23" t="s">
-        <v>273</v>
-      </c>
-      <c r="K26" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="L26" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="M26" s="23"/>
-      <c r="N26" s="23"/>
-    </row>
-    <row r="27" spans="1:14" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A27" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="B27" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="C27" s="23" t="s">
-        <v>181</v>
-      </c>
-      <c r="D27" s="23" t="s">
-        <v>178</v>
-      </c>
-      <c r="E27" s="23" t="s">
-        <v>179</v>
-      </c>
-      <c r="F27" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="I27" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="J27" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="K27" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="L27" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="M27" s="23"/>
-      <c r="N27" s="23"/>
-    </row>
-    <row r="28" spans="1:14" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A28" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="B28" s="23" t="s">
-        <v>203</v>
-      </c>
-      <c r="C28" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="D28" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="E28" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="F28" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="I28" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="J28" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="K28" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="L28" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="M28" s="23"/>
-      <c r="N28" s="23"/>
-    </row>
-    <row r="29" spans="1:14" s="28" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="23" t="s">
-        <v>274</v>
-      </c>
-      <c r="B29" s="23" t="s">
-        <v>275</v>
-      </c>
-      <c r="C29" s="23" t="s">
-        <v>276</v>
-      </c>
-      <c r="D29" s="23" t="s">
-        <v>277</v>
-      </c>
-      <c r="E29" s="23" t="s">
-        <v>278</v>
-      </c>
-      <c r="F29" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23" t="s">
-        <v>279</v>
-      </c>
-      <c r="I29" s="23" t="s">
-        <v>280</v>
-      </c>
-      <c r="J29" s="23" t="s">
-        <v>280</v>
-      </c>
-      <c r="K29" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="L29" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="M29" s="23"/>
-      <c r="N29" s="23"/>
-    </row>
-    <row r="30" spans="1:14" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A30" s="23" t="s">
-        <v>281</v>
-      </c>
-      <c r="B30" s="23" t="s">
-        <v>282</v>
-      </c>
-      <c r="C30" s="23" t="s">
-        <v>283</v>
-      </c>
-      <c r="D30" s="23" t="s">
-        <v>284</v>
-      </c>
-      <c r="E30" s="23" t="s">
-        <v>285</v>
-      </c>
-      <c r="F30" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23" t="s">
-        <v>286</v>
-      </c>
-      <c r="I30" s="23" t="s">
-        <v>287</v>
-      </c>
-      <c r="J30" s="23" t="s">
-        <v>287</v>
-      </c>
-      <c r="K30" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="L30" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="M30" s="23"/>
-      <c r="N30" s="23"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:N21"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" customWidth="1"/>
-    <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.5703125" customWidth="1"/>
-    <col min="10" max="10" width="22.42578125" customWidth="1"/>
-    <col min="11" max="11" width="8.140625" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>354</v>
-      </c>
-      <c r="E3" s="16">
-        <f>COUNTIF(K8:K11,"Pass")</f>
-        <v>4</v>
-      </c>
-      <c r="F3" s="16">
-        <f>COUNTIF(K8:K11,"Fail")</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="16">
-        <f>COUNTIF(K8:K11,"Untested")</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="16">
-        <f>COUNTA(K8:K11)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" s="28" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" s="27" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
         <v>196</v>
       </c>
@@ -5495,16 +5621,20 @@
       <c r="J8" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="K8" s="29" t="s">
+      <c r="K8" s="28" t="s">
         <v>39</v>
       </c>
       <c r="L8" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-    </row>
-    <row r="9" spans="1:14" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="M8" s="30" t="s">
+        <v>353</v>
+      </c>
+      <c r="N8" s="23" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
         <v>197</v>
       </c>
@@ -5533,16 +5663,20 @@
       <c r="J9" s="23" t="s">
         <v>195</v>
       </c>
-      <c r="K9" s="29" t="s">
+      <c r="K9" s="28" t="s">
         <v>39</v>
       </c>
       <c r="L9" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-    </row>
-    <row r="10" spans="1:14" s="28" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="M9" s="30" t="s">
+        <v>353</v>
+      </c>
+      <c r="N9" s="23" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="27" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
         <v>198</v>
       </c>
@@ -5571,16 +5705,20 @@
       <c r="J10" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="K10" s="29" t="s">
+      <c r="K10" s="28" t="s">
         <v>39</v>
       </c>
       <c r="L10" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-    </row>
-    <row r="11" spans="1:14" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="M10" s="30" t="s">
+        <v>353</v>
+      </c>
+      <c r="N10" s="23" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
         <v>291</v>
       </c>
@@ -5609,174 +5747,194 @@
       <c r="J11" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="K11" s="29" t="s">
+      <c r="K11" s="28" t="s">
         <v>39</v>
       </c>
       <c r="L11" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
+      <c r="M11" s="30" t="s">
+        <v>353</v>
+      </c>
+      <c r="N11" s="23" t="s">
+        <v>370</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
+      <c r="A12" s="31"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
+      <c r="A13" s="31"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
+      <c r="A14" s="31"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
+      <c r="A15" s="31"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
+      <c r="A16" s="31"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
+      <c r="A18" s="31"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
+      <c r="A19" s="31"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
+      <c r="A20" s="31"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
+      <c r="A21" s="31"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="31"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5814,7 +5972,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -5842,7 +6000,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E3" s="16">
         <f>COUNTIF(K8:K11,"Pass")</f>
@@ -5874,7 +6032,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -6181,7 +6339,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -6209,7 +6367,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E3" s="16">
         <f>COUNTIF(K8:K11,"Pass")</f>
@@ -6241,7 +6399,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -6522,7 +6680,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6548,7 +6706,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -6608,7 +6766,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -6889,7 +7047,7 @@
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6915,7 +7073,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -6943,7 +7101,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E3" s="16">
         <f>COUNTIF(K8:K24,"Pass")</f>
@@ -6975,7 +7133,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -7022,7 +7180,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="28" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" s="27" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
         <v>204</v>
       </c>
@@ -7051,16 +7209,20 @@
       <c r="J8" s="23" t="s">
         <v>214</v>
       </c>
-      <c r="K8" s="29" t="s">
+      <c r="K8" s="28" t="s">
         <v>39</v>
       </c>
       <c r="L8" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-    </row>
-    <row r="9" spans="1:14" s="28" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="M8" s="30" t="s">
+        <v>359</v>
+      </c>
+      <c r="N8" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="27" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
         <v>205</v>
       </c>
@@ -7089,16 +7251,20 @@
       <c r="J9" s="23" t="s">
         <v>215</v>
       </c>
-      <c r="K9" s="29" t="s">
+      <c r="K9" s="28" t="s">
         <v>39</v>
       </c>
       <c r="L9" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-    </row>
-    <row r="10" spans="1:14" s="28" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="M9" s="30" t="s">
+        <v>359</v>
+      </c>
+      <c r="N9" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="27" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
         <v>206</v>
       </c>
@@ -7127,16 +7293,20 @@
       <c r="J10" s="23" t="s">
         <v>221</v>
       </c>
-      <c r="K10" s="29" t="s">
+      <c r="K10" s="28" t="s">
         <v>39</v>
       </c>
       <c r="L10" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-    </row>
-    <row r="11" spans="1:14" s="28" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="M10" s="30" t="s">
+        <v>359</v>
+      </c>
+      <c r="N10" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="27" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
         <v>207</v>
       </c>
@@ -7165,16 +7335,20 @@
       <c r="J11" s="23" t="s">
         <v>225</v>
       </c>
-      <c r="K11" s="29" t="s">
+      <c r="K11" s="28" t="s">
         <v>39</v>
       </c>
       <c r="L11" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-    </row>
-    <row r="12" spans="1:14" s="28" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="M11" s="30" t="s">
+        <v>359</v>
+      </c>
+      <c r="N11" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="27" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
         <v>208</v>
       </c>
@@ -7203,16 +7377,20 @@
       <c r="J12" s="23" t="s">
         <v>230</v>
       </c>
-      <c r="K12" s="29" t="s">
+      <c r="K12" s="28" t="s">
         <v>39</v>
       </c>
       <c r="L12" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-    </row>
-    <row r="13" spans="1:14" s="28" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="M12" s="30" t="s">
+        <v>359</v>
+      </c>
+      <c r="N12" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="27" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
         <v>209</v>
       </c>
@@ -7241,16 +7419,20 @@
       <c r="J13" s="23" t="s">
         <v>234</v>
       </c>
-      <c r="K13" s="29" t="s">
+      <c r="K13" s="28" t="s">
         <v>39</v>
       </c>
       <c r="L13" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-    </row>
-    <row r="14" spans="1:14" s="28" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="M13" s="30" t="s">
+        <v>359</v>
+      </c>
+      <c r="N13" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" s="27" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
         <v>210</v>
       </c>
@@ -7279,16 +7461,20 @@
       <c r="J14" s="23" t="s">
         <v>238</v>
       </c>
-      <c r="K14" s="29" t="s">
+      <c r="K14" s="28" t="s">
         <v>39</v>
       </c>
       <c r="L14" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-    </row>
-    <row r="15" spans="1:14" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="M14" s="30" t="s">
+        <v>359</v>
+      </c>
+      <c r="N14" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
         <v>239</v>
       </c>
@@ -7317,16 +7503,20 @@
       <c r="J15" s="23" t="s">
         <v>242</v>
       </c>
-      <c r="K15" s="29" t="s">
+      <c r="K15" s="28" t="s">
         <v>39</v>
       </c>
       <c r="L15" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-    </row>
-    <row r="16" spans="1:14" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="M15" s="30" t="s">
+        <v>359</v>
+      </c>
+      <c r="N15" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
         <v>248</v>
       </c>
@@ -7355,16 +7545,20 @@
       <c r="J16" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="K16" s="29" t="s">
+      <c r="K16" s="28" t="s">
         <v>39</v>
       </c>
       <c r="L16" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-    </row>
-    <row r="17" spans="1:14" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="M16" s="30" t="s">
+        <v>359</v>
+      </c>
+      <c r="N16" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
         <v>253</v>
       </c>
@@ -7393,16 +7587,20 @@
       <c r="J17" s="23" t="s">
         <v>250</v>
       </c>
-      <c r="K17" s="29" t="s">
+      <c r="K17" s="28" t="s">
         <v>39</v>
       </c>
       <c r="L17" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-    </row>
-    <row r="18" spans="1:14" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="M17" s="30" t="s">
+        <v>359</v>
+      </c>
+      <c r="N17" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" s="26" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
         <v>254</v>
       </c>
@@ -7433,20 +7631,20 @@
       <c r="J18" s="23" t="s">
         <v>264</v>
       </c>
-      <c r="K18" s="29" t="s">
+      <c r="K18" s="28" t="s">
         <v>39</v>
       </c>
       <c r="L18" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="M18" s="30">
-        <v>44631</v>
+      <c r="M18" s="30" t="s">
+        <v>359</v>
       </c>
       <c r="N18" s="23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:14" s="27" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" s="26" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
         <v>255</v>
       </c>
@@ -7477,20 +7675,20 @@
       <c r="J19" s="23" t="s">
         <v>263</v>
       </c>
-      <c r="K19" s="29" t="s">
+      <c r="K19" s="28" t="s">
         <v>39</v>
       </c>
       <c r="L19" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="M19" s="30">
-        <v>44631</v>
+      <c r="M19" s="30" t="s">
+        <v>359</v>
       </c>
       <c r="N19" s="23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:14" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" s="26" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
         <v>256</v>
       </c>
@@ -7521,20 +7719,20 @@
       <c r="J20" s="23" t="s">
         <v>264</v>
       </c>
-      <c r="K20" s="29" t="s">
+      <c r="K20" s="28" t="s">
         <v>39</v>
       </c>
       <c r="L20" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="M20" s="30">
-        <v>44631</v>
+      <c r="M20" s="30" t="s">
+        <v>359</v>
       </c>
       <c r="N20" s="23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:14" s="27" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" s="26" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
         <v>257</v>
       </c>
@@ -7565,20 +7763,20 @@
       <c r="J21" s="23" t="s">
         <v>263</v>
       </c>
-      <c r="K21" s="29" t="s">
+      <c r="K21" s="28" t="s">
         <v>39</v>
       </c>
       <c r="L21" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="M21" s="30">
-        <v>44631</v>
+      <c r="M21" s="30" t="s">
+        <v>359</v>
       </c>
       <c r="N21" s="23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:14" s="28" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" s="27" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
         <v>265</v>
       </c>
@@ -7607,16 +7805,20 @@
       <c r="J22" s="23" t="s">
         <v>273</v>
       </c>
-      <c r="K22" s="29" t="s">
+      <c r="K22" s="28" t="s">
         <v>39</v>
       </c>
       <c r="L22" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-    </row>
-    <row r="23" spans="1:14" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="M22" s="30" t="s">
+        <v>359</v>
+      </c>
+      <c r="N22" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="s">
         <v>266</v>
       </c>
@@ -7645,16 +7847,20 @@
       <c r="J23" s="23" t="s">
         <v>292</v>
       </c>
-      <c r="K23" s="29" t="s">
+      <c r="K23" s="28" t="s">
         <v>39</v>
       </c>
       <c r="L23" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="M23" s="23"/>
-      <c r="N23" s="23"/>
-    </row>
-    <row r="24" spans="1:14" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="M23" s="30" t="s">
+        <v>359</v>
+      </c>
+      <c r="N23" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
         <v>288</v>
       </c>
@@ -7683,14 +7889,18 @@
       <c r="J24" s="23" t="s">
         <v>287</v>
       </c>
-      <c r="K24" s="29" t="s">
+      <c r="K24" s="28" t="s">
         <v>39</v>
       </c>
       <c r="L24" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="M24" s="23"/>
-      <c r="N24" s="23"/>
+      <c r="M24" s="30" t="s">
+        <v>359</v>
+      </c>
+      <c r="N24" s="23" t="s">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7702,7 +7912,7 @@
   <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7756,7 +7966,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E3" s="16">
         <f>COUNTIF(K8:K23,"Pass")</f>
@@ -7788,7 +7998,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -7835,7 +8045,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="28" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" s="27" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
         <v>317</v>
       </c>
@@ -7864,16 +8074,20 @@
       <c r="J8" s="23" t="s">
         <v>214</v>
       </c>
-      <c r="K8" s="29" t="s">
+      <c r="K8" s="28" t="s">
         <v>39</v>
       </c>
       <c r="L8" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-    </row>
-    <row r="9" spans="1:14" s="28" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="M8" s="30" t="s">
+        <v>361</v>
+      </c>
+      <c r="N8" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="27" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
         <v>316</v>
       </c>
@@ -7902,16 +8116,20 @@
       <c r="J9" s="23" t="s">
         <v>215</v>
       </c>
-      <c r="K9" s="29" t="s">
+      <c r="K9" s="28" t="s">
         <v>39</v>
       </c>
       <c r="L9" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-    </row>
-    <row r="10" spans="1:14" s="28" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="M9" s="30" t="s">
+        <v>361</v>
+      </c>
+      <c r="N9" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="27" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
         <v>315</v>
       </c>
@@ -7940,16 +8158,20 @@
       <c r="J10" s="23" t="s">
         <v>221</v>
       </c>
-      <c r="K10" s="29" t="s">
+      <c r="K10" s="28" t="s">
         <v>39</v>
       </c>
       <c r="L10" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-    </row>
-    <row r="11" spans="1:14" s="28" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="M10" s="30" t="s">
+        <v>361</v>
+      </c>
+      <c r="N10" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="27" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
         <v>314</v>
       </c>
@@ -7978,16 +8200,20 @@
       <c r="J11" s="23" t="s">
         <v>225</v>
       </c>
-      <c r="K11" s="29" t="s">
+      <c r="K11" s="28" t="s">
         <v>39</v>
       </c>
       <c r="L11" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-    </row>
-    <row r="12" spans="1:14" s="28" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="M11" s="30" t="s">
+        <v>361</v>
+      </c>
+      <c r="N11" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="27" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
         <v>313</v>
       </c>
@@ -8016,16 +8242,20 @@
       <c r="J12" s="23" t="s">
         <v>230</v>
       </c>
-      <c r="K12" s="29" t="s">
+      <c r="K12" s="28" t="s">
         <v>39</v>
       </c>
       <c r="L12" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-    </row>
-    <row r="13" spans="1:14" s="28" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="M12" s="30" t="s">
+        <v>361</v>
+      </c>
+      <c r="N12" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="27" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
         <v>312</v>
       </c>
@@ -8054,16 +8284,20 @@
       <c r="J13" s="23" t="s">
         <v>234</v>
       </c>
-      <c r="K13" s="29" t="s">
+      <c r="K13" s="28" t="s">
         <v>39</v>
       </c>
       <c r="L13" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-    </row>
-    <row r="14" spans="1:14" s="28" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="M13" s="30" t="s">
+        <v>361</v>
+      </c>
+      <c r="N13" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" s="27" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
         <v>311</v>
       </c>
@@ -8092,16 +8326,20 @@
       <c r="J14" s="23" t="s">
         <v>238</v>
       </c>
-      <c r="K14" s="29" t="s">
+      <c r="K14" s="28" t="s">
         <v>39</v>
       </c>
       <c r="L14" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-    </row>
-    <row r="15" spans="1:14" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="M14" s="30" t="s">
+        <v>361</v>
+      </c>
+      <c r="N14" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
         <v>310</v>
       </c>
@@ -8130,16 +8368,20 @@
       <c r="J15" s="23" t="s">
         <v>333</v>
       </c>
-      <c r="K15" s="29" t="s">
+      <c r="K15" s="28" t="s">
         <v>39</v>
       </c>
       <c r="L15" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-    </row>
-    <row r="16" spans="1:14" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="M15" s="30" t="s">
+        <v>361</v>
+      </c>
+      <c r="N15" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
         <v>309</v>
       </c>
@@ -8168,16 +8410,20 @@
       <c r="J16" s="23" t="s">
         <v>339</v>
       </c>
-      <c r="K16" s="29" t="s">
+      <c r="K16" s="28" t="s">
         <v>39</v>
       </c>
       <c r="L16" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-    </row>
-    <row r="17" spans="1:14" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="M16" s="30" t="s">
+        <v>361</v>
+      </c>
+      <c r="N16" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
         <v>308</v>
       </c>
@@ -8206,16 +8452,20 @@
       <c r="J17" s="23" t="s">
         <v>336</v>
       </c>
-      <c r="K17" s="29" t="s">
+      <c r="K17" s="28" t="s">
         <v>39</v>
       </c>
       <c r="L17" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-    </row>
-    <row r="18" spans="1:14" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="M17" s="30" t="s">
+        <v>361</v>
+      </c>
+      <c r="N17" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" s="26" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
         <v>307</v>
       </c>
@@ -8246,20 +8496,20 @@
       <c r="J18" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="K18" s="29" t="s">
+      <c r="K18" s="28" t="s">
         <v>39</v>
       </c>
       <c r="L18" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="M18" s="30">
-        <v>44631</v>
+      <c r="M18" s="30" t="s">
+        <v>361</v>
       </c>
       <c r="N18" s="23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:14" s="27" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" s="26" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
         <v>306</v>
       </c>
@@ -8290,20 +8540,20 @@
       <c r="J19" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="K19" s="29" t="s">
+      <c r="K19" s="28" t="s">
         <v>39</v>
       </c>
       <c r="L19" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="M19" s="30">
-        <v>44631</v>
+      <c r="M19" s="30" t="s">
+        <v>361</v>
       </c>
       <c r="N19" s="23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:14" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" s="26" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
         <v>305</v>
       </c>
@@ -8334,20 +8584,20 @@
       <c r="J20" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="K20" s="29" t="s">
+      <c r="K20" s="28" t="s">
         <v>39</v>
       </c>
       <c r="L20" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="M20" s="30">
-        <v>44631</v>
+      <c r="M20" s="30" t="s">
+        <v>361</v>
       </c>
       <c r="N20" s="23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:14" s="27" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" s="26" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
         <v>304</v>
       </c>
@@ -8378,20 +8628,20 @@
       <c r="J21" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="K21" s="29" t="s">
+      <c r="K21" s="28" t="s">
         <v>39</v>
       </c>
       <c r="L21" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="M21" s="30">
-        <v>44631</v>
+      <c r="M21" s="30" t="s">
+        <v>361</v>
       </c>
       <c r="N21" s="23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:14" s="28" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" s="27" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
         <v>303</v>
       </c>
@@ -8420,16 +8670,20 @@
       <c r="J22" s="23" t="s">
         <v>273</v>
       </c>
-      <c r="K22" s="29" t="s">
+      <c r="K22" s="28" t="s">
         <v>39</v>
       </c>
       <c r="L22" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-    </row>
-    <row r="23" spans="1:14" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="M22" s="30" t="s">
+        <v>361</v>
+      </c>
+      <c r="N22" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="s">
         <v>302</v>
       </c>
@@ -8458,14 +8712,18 @@
       <c r="J23" s="23" t="s">
         <v>347</v>
       </c>
-      <c r="K23" s="29" t="s">
+      <c r="K23" s="28" t="s">
         <v>39</v>
       </c>
       <c r="L23" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="M23" s="23"/>
-      <c r="N23" s="23"/>
+      <c r="M23" s="30" t="s">
+        <v>361</v>
+      </c>
+      <c r="N23" s="23" t="s">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation/FHF_TestCases.xlsx
+++ b/Documentation/FHF_TestCases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Semester9\SEP490\fu-house-finder\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF0F0B2-B586-42F0-B65E-9687DC2E19EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72160088-8E01-47E0-9538-BCCE13A7CEBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="891" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="891" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="389">
   <si>
     <t>Project Name</t>
   </si>
@@ -1206,6 +1206,53 @@
   </si>
   <si>
     <t>(Staff) Manage Landlords, List Houses</t>
+  </si>
+  <si>
+    <t>TS_FHF_StaffDashboard_001</t>
+  </si>
+  <si>
+    <t>User Logged in as Staff</t>
+  </si>
+  <si>
+    <t>System displays sum of houses, landlords, capacity &amp; regions</t>
+  </si>
+  <si>
+    <t>TS_FHF_StaffDashboard_002</t>
+  </si>
+  <si>
+    <t>Verify the Numerical Statistics Report functionality of Staff Dashboard</t>
+  </si>
+  <si>
+    <t>Enter the Page to see Numerical Statistics Report</t>
+  </si>
+  <si>
+    <t>1. Enter the Staff Dashboard Page
+2. Scroll down to see the Numerical Statistics Reports</t>
+  </si>
+  <si>
+    <t>User see all Numerical Statistics Reports</t>
+  </si>
+  <si>
+    <t>Verify the Graphical Statistics Report functionality of Staff Dashboard</t>
+  </si>
+  <si>
+    <t>TC_FHF_StaffDashboard_NumericReport_001</t>
+  </si>
+  <si>
+    <t>TC_FHF_StaffDashboard_GraphicReport_001</t>
+  </si>
+  <si>
+    <t>Enter the Page to see Graphical Statistics Report</t>
+  </si>
+  <si>
+    <t>1. Enter the Staff Dashboard Page
+2. Scroll down to see the Graphical Statistics Reports</t>
+  </si>
+  <si>
+    <t>User see all Graphical Statistics Reports</t>
+  </si>
+  <si>
+    <t>System displays graphical statistics of houses, rooms, capacity, landlords, orders &amp; reports</t>
   </si>
 </sst>
 </file>
@@ -1404,7 +1451,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1475,6 +1522,21 @@
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1812,8 +1874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3869,7 +3931,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4349,12 +4411,12 @@
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.42578125" customWidth="1"/>
@@ -5459,7 +5521,7 @@
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6679,13 +6741,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.42578125" customWidth="1"/>
@@ -6738,7 +6800,7 @@
       </c>
       <c r="E3" s="16">
         <f>COUNTIF(K8:K11,"Pass")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F3" s="16">
         <f>COUNTIF(K8:K11,"Fail")</f>
@@ -6750,7 +6812,7 @@
       </c>
       <c r="H3" s="16">
         <f>COUNTA(K8:K11)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -6813,229 +6875,281 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="2"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="2"/>
+    <row r="8" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
+        <v>374</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>378</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>383</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>379</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>380</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>375</v>
+      </c>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23" t="s">
+        <v>381</v>
+      </c>
+      <c r="I8" s="23" t="s">
+        <v>376</v>
+      </c>
+      <c r="J8" s="23" t="s">
+        <v>376</v>
+      </c>
+      <c r="K8" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L8" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" s="29">
+        <v>44907</v>
+      </c>
+      <c r="N8" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
+        <v>377</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>382</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>384</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>385</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>386</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>375</v>
+      </c>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23" t="s">
+        <v>387</v>
+      </c>
+      <c r="I9" s="23" t="s">
+        <v>388</v>
+      </c>
+      <c r="J9" s="23" t="s">
+        <v>388</v>
+      </c>
+      <c r="K9" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L9" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" s="29">
+        <v>44907</v>
+      </c>
+      <c r="N9" s="22" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="2"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="32"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="2"/>
+      <c r="A11" s="32"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="32"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
+      <c r="A12" s="31"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
+      <c r="A13" s="31"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
+      <c r="A14" s="31"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
+      <c r="A15" s="31"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
+      <c r="A16" s="31"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
+      <c r="A18" s="31"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
+      <c r="A19" s="31"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
+      <c r="A20" s="31"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
+      <c r="A21" s="31"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7046,7 +7160,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>

--- a/Documentation/FHF_TestCases.xlsx
+++ b/Documentation/FHF_TestCases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Semester9\SEP490\fu-house-finder\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72160088-8E01-47E0-9538-BCCE13A7CEBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9E0DC0C-6CED-4967-95FD-A8BA335DFAC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="891" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="891" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="390">
   <si>
     <t>Project Name</t>
   </si>
@@ -1253,6 +1253,9 @@
   </si>
   <si>
     <t>System displays graphical statistics of houses, rooms, capacity, landlords, orders &amp; reports</t>
+  </si>
+  <si>
+    <t>(Staff) Dashboard</t>
   </si>
 </sst>
 </file>
@@ -1872,10 +1875,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:F24"/>
+  <dimension ref="B2:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2013,22 +2016,22 @@
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="18" t="s">
-        <v>359</v>
+      <c r="B15" s="18">
+        <v>44907</v>
       </c>
       <c r="C15" t="s">
         <v>52</v>
       </c>
       <c r="D15" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>364</v>
+        <v>389</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="18" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C16" t="s">
         <v>52</v>
@@ -2037,26 +2040,36 @@
         <v>61</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>349</v>
+        <v>364</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="18" t="s">
+        <v>361</v>
+      </c>
+      <c r="C17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="18" t="s">
         <v>360</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>371</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D18" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E18" s="13" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="18"/>
-      <c r="E18" s="13"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="18"/>
@@ -2079,10 +2092,14 @@
       <c r="E23" s="13"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="19"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="15"/>
+      <c r="B24" s="18"/>
+      <c r="E24" s="13"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="19"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6741,7 +6758,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>

--- a/Documentation/FHF_TestCases.xlsx
+++ b/Documentation/FHF_TestCases.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Semester9\SEP490\fu-house-finder\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SEP490\fu-house-finder\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9E0DC0C-6CED-4967-95FD-A8BA335DFAC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="891" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="891" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="2" r:id="rId1"/>
@@ -28,7 +27,7 @@
     <sheet name="Login" sheetId="15" r:id="rId13"/>
     <sheet name="(Landlord) Upload House Info" sheetId="16" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="406">
   <si>
     <t>Project Name</t>
   </si>
@@ -455,12 +454,6 @@
     <t>TS_FHF_HouseDetail_011</t>
   </si>
   <si>
-    <t>TC_FHF_HouseDetail_ReportValidation_001</t>
-  </si>
-  <si>
-    <t>TC_FHF_HouseDetail_ReportValidation_002</t>
-  </si>
-  <si>
     <t>Disable rate button when input is empty</t>
   </si>
   <si>
@@ -486,10 +479,6 @@
   </si>
   <si>
     <t>TC_FHF_HouseDetail_RateValidation_001</t>
-  </si>
-  <si>
-    <t>1. Open report modal
-2. Input into the input box empty</t>
   </si>
   <si>
     <t>TS_FHF_HouseDetail_013</t>
@@ -1256,12 +1245,102 @@
   </si>
   <si>
     <t>(Staff) Dashboard</t>
+  </si>
+  <si>
+    <t>Report content: nhà trọ sai thông tin</t>
+  </si>
+  <si>
+    <t>1. Open report modal
+2. Input into the input box</t>
+  </si>
+  <si>
+    <t>TC_FHF_HouseDetail_ReportValid_001</t>
+  </si>
+  <si>
+    <t>TC_FHF_HouseDetail_ReportInvalid_001</t>
+  </si>
+  <si>
+    <t>Enter valid landlord name &amp; click Search button</t>
+  </si>
+  <si>
+    <t>Enter invalid landlord name &amp; click Search button</t>
+  </si>
+  <si>
+    <t>1. Enter invalid landlord name
+2. Click on Search button</t>
+  </si>
+  <si>
+    <t>1. Enter valid landlord name
+2. Click on Search button</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Landlord name: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>qwerty</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Landlord name: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tâm</t>
+    </r>
+  </si>
+  <si>
+    <t>User see Landlords with the name searched</t>
+  </si>
+  <si>
+    <t>User see no Landlord</t>
+  </si>
+  <si>
+    <t>Access to previous page
+Test Data</t>
+  </si>
+  <si>
+    <t>Access to previous page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Access to previous page
+</t>
+  </si>
+  <si>
+    <t>1. Enter valid landlord name
+2. Press Enter key</t>
+  </si>
+  <si>
+    <t>1. Enter invalid landlord name
+2. Press Enter key</t>
+  </si>
+  <si>
+    <t>Enter invalid landlord name &amp; press Enter</t>
+  </si>
+  <si>
+    <t>Enter valid landlord name &amp; press Enter</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1874,29 +1953,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="20.85546875" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.81640625" customWidth="1"/>
+    <col min="3" max="3" width="18.54296875" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
+    <col min="5" max="5" width="34.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.81640625" customWidth="1"/>
+    <col min="7" max="7" width="10.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="91.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" ht="91.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D2" s="20" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
@@ -1911,7 +1990,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B5" s="7" t="s">
         <v>41</v>
       </c>
@@ -1923,15 +2002,15 @@
         <v>3</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B8" s="9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B9" s="10" t="s">
         <v>44</v>
       </c>
@@ -1945,9 +2024,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B10" s="18" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C10" t="s">
         <v>52</v>
@@ -1959,9 +2038,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B11" s="18" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C11" t="s">
         <v>52</v>
@@ -1973,9 +2052,9 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B12" s="18" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C12" t="s">
         <v>52</v>
@@ -1987,9 +2066,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B13" s="18" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C13" t="s">
         <v>52</v>
@@ -2001,21 +2080,21 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B14" s="18" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C14" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D14" t="s">
         <v>19</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B15" s="18">
         <v>44907</v>
       </c>
@@ -2026,12 +2105,12 @@
         <v>19</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B16" s="18" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C16" t="s">
         <v>52</v>
@@ -2040,12 +2119,12 @@
         <v>61</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B17" s="18" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C17" t="s">
         <v>52</v>
@@ -2054,48 +2133,48 @@
         <v>61</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B18" s="18" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C18" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D18" t="s">
         <v>19</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B19" s="18"/>
       <c r="E19" s="13"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B20" s="18"/>
       <c r="E20" s="13"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B21" s="18"/>
       <c r="E21" s="13"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B22" s="18"/>
       <c r="E22" s="13"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B23" s="18"/>
       <c r="E23" s="13"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B24" s="18"/>
       <c r="E24" s="13"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B25" s="19"/>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
@@ -2109,40 +2188,40 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.453125" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.5703125" customWidth="1"/>
-    <col min="10" max="10" width="22.42578125" customWidth="1"/>
-    <col min="11" max="11" width="8.140625" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.54296875" customWidth="1"/>
+    <col min="10" max="10" width="22.453125" customWidth="1"/>
+    <col min="11" max="11" width="8.1796875" customWidth="1"/>
+    <col min="12" max="12" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2162,12 +2241,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E3" s="16">
         <f>COUNTIF(K8:K11,"Pass")</f>
@@ -2186,7 +2265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -2194,15 +2273,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -2246,7 +2325,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -2262,7 +2341,7 @@
       <c r="M8" s="4"/>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -2278,7 +2357,7 @@
       <c r="M9" s="4"/>
       <c r="N9" s="2"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -2294,7 +2373,7 @@
       <c r="M10" s="4"/>
       <c r="N10" s="2"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -2310,7 +2389,7 @@
       <c r="M11" s="4"/>
       <c r="N11" s="2"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -2326,7 +2405,7 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -2342,7 +2421,7 @@
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -2358,7 +2437,7 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -2374,7 +2453,7 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -2390,7 +2469,7 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -2406,7 +2485,7 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -2422,7 +2501,7 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -2438,7 +2517,7 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -2454,7 +2533,7 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -2476,40 +2555,40 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.453125" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.5703125" customWidth="1"/>
-    <col min="10" max="10" width="22.42578125" customWidth="1"/>
-    <col min="11" max="11" width="8.140625" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.54296875" customWidth="1"/>
+    <col min="10" max="10" width="22.453125" customWidth="1"/>
+    <col min="11" max="11" width="8.1796875" customWidth="1"/>
+    <col min="12" max="12" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2529,12 +2608,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E3" s="16">
         <f>COUNTIF(K8:K11,"Pass")</f>
@@ -2553,7 +2632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -2561,15 +2640,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -2613,7 +2692,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -2629,7 +2708,7 @@
       <c r="M8" s="4"/>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -2645,7 +2724,7 @@
       <c r="M9" s="4"/>
       <c r="N9" s="2"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -2661,7 +2740,7 @@
       <c r="M10" s="4"/>
       <c r="N10" s="2"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -2677,7 +2756,7 @@
       <c r="M11" s="4"/>
       <c r="N11" s="2"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -2693,7 +2772,7 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -2709,7 +2788,7 @@
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -2725,7 +2804,7 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -2741,7 +2820,7 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -2757,7 +2836,7 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -2773,7 +2852,7 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -2789,7 +2868,7 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -2805,7 +2884,7 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -2821,7 +2900,7 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -2843,40 +2922,40 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.453125" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.5703125" customWidth="1"/>
-    <col min="10" max="10" width="22.42578125" customWidth="1"/>
-    <col min="11" max="11" width="8.140625" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.54296875" customWidth="1"/>
+    <col min="10" max="10" width="22.453125" customWidth="1"/>
+    <col min="11" max="11" width="8.1796875" customWidth="1"/>
+    <col min="12" max="12" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2896,12 +2975,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E3" s="16">
         <f>COUNTIF(K8:K11,"Pass")</f>
@@ -2920,7 +2999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -2928,15 +3007,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -2980,7 +3059,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -2996,7 +3075,7 @@
       <c r="M8" s="4"/>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -3012,7 +3091,7 @@
       <c r="M9" s="4"/>
       <c r="N9" s="2"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -3028,7 +3107,7 @@
       <c r="M10" s="4"/>
       <c r="N10" s="2"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -3044,7 +3123,7 @@
       <c r="M11" s="4"/>
       <c r="N11" s="2"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -3060,7 +3139,7 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -3076,7 +3155,7 @@
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -3092,7 +3171,7 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -3108,7 +3187,7 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -3124,7 +3203,7 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -3140,7 +3219,7 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -3156,7 +3235,7 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -3172,7 +3251,7 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -3188,7 +3267,7 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -3210,32 +3289,32 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.453125" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.5703125" customWidth="1"/>
-    <col min="10" max="10" width="22.42578125" customWidth="1"/>
-    <col min="11" max="11" width="8.140625" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.54296875" customWidth="1"/>
+    <col min="10" max="10" width="22.453125" customWidth="1"/>
+    <col min="11" max="11" width="8.1796875" customWidth="1"/>
+    <col min="12" max="12" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3243,7 +3322,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -3263,12 +3342,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E3" s="16">
         <f>COUNTIF(K8:K11,"Pass")</f>
@@ -3287,7 +3366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -3295,15 +3374,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -3347,7 +3426,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -3363,7 +3442,7 @@
       <c r="M8" s="4"/>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -3379,7 +3458,7 @@
       <c r="M9" s="4"/>
       <c r="N9" s="2"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -3395,7 +3474,7 @@
       <c r="M10" s="4"/>
       <c r="N10" s="2"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -3411,7 +3490,7 @@
       <c r="M11" s="4"/>
       <c r="N11" s="2"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -3427,7 +3506,7 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -3443,7 +3522,7 @@
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -3459,7 +3538,7 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -3475,7 +3554,7 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -3491,7 +3570,7 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -3507,7 +3586,7 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -3523,7 +3602,7 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -3539,7 +3618,7 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -3555,7 +3634,7 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -3577,40 +3656,40 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.453125" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.5703125" customWidth="1"/>
-    <col min="10" max="10" width="22.42578125" customWidth="1"/>
-    <col min="11" max="11" width="8.140625" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.54296875" customWidth="1"/>
+    <col min="10" max="10" width="22.453125" customWidth="1"/>
+    <col min="11" max="11" width="8.1796875" customWidth="1"/>
+    <col min="12" max="12" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -3630,12 +3709,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E3" s="16">
         <f>COUNTIF(K8:K11,"Pass")</f>
@@ -3654,7 +3733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -3662,15 +3741,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -3714,7 +3793,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -3730,7 +3809,7 @@
       <c r="M8" s="4"/>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -3746,7 +3825,7 @@
       <c r="M9" s="4"/>
       <c r="N9" s="2"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -3762,7 +3841,7 @@
       <c r="M10" s="4"/>
       <c r="N10" s="2"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -3778,7 +3857,7 @@
       <c r="M11" s="4"/>
       <c r="N11" s="2"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -3794,7 +3873,7 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -3810,7 +3889,7 @@
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -3826,7 +3905,7 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -3842,7 +3921,7 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -3858,7 +3937,7 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -3874,7 +3953,7 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -3890,7 +3969,7 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -3906,7 +3985,7 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -3922,7 +4001,7 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -3944,32 +4023,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.453125" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.5703125" customWidth="1"/>
-    <col min="10" max="10" width="22.42578125" customWidth="1"/>
-    <col min="11" max="11" width="8.140625" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.54296875" customWidth="1"/>
+    <col min="10" max="10" width="22.453125" customWidth="1"/>
+    <col min="11" max="11" width="8.1796875" customWidth="1"/>
+    <col min="12" max="12" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3977,7 +4056,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -3997,12 +4076,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E3" s="16">
         <f>COUNTIF(K8:K11,"Pass")</f>
@@ -4021,7 +4100,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -4029,15 +4108,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -4081,7 +4160,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A8" s="22" t="s">
         <v>55</v>
       </c>
@@ -4119,13 +4198,13 @@
         <v>19</v>
       </c>
       <c r="M8" s="29" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="N8" s="22" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A9" s="22" t="s">
         <v>55</v>
       </c>
@@ -4163,13 +4242,13 @@
         <v>19</v>
       </c>
       <c r="M9" s="29" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="N9" s="22" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A10" s="22" t="s">
         <v>55</v>
       </c>
@@ -4207,13 +4286,13 @@
         <v>19</v>
       </c>
       <c r="M10" s="29" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="N10" s="22" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A11" s="22" t="s">
         <v>55</v>
       </c>
@@ -4251,13 +4330,13 @@
         <v>19</v>
       </c>
       <c r="M11" s="29" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="N11" s="22" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -4273,7 +4352,7 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -4289,7 +4368,7 @@
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -4305,7 +4384,7 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -4321,7 +4400,7 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -4337,7 +4416,7 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -4353,7 +4432,7 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -4369,7 +4448,7 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -4385,7 +4464,7 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -4401,7 +4480,7 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -4424,32 +4503,32 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+    <col min="1" max="1" width="23.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.453125" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.5703125" customWidth="1"/>
-    <col min="10" max="10" width="22.42578125" customWidth="1"/>
-    <col min="11" max="11" width="8.140625" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.54296875" customWidth="1"/>
+    <col min="10" max="10" width="22.453125" customWidth="1"/>
+    <col min="11" max="11" width="8.1796875" customWidth="1"/>
+    <col min="12" max="12" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -4457,7 +4536,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -4477,12 +4556,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E3" s="16">
         <f>COUNTIF(K8:K30,"Pass")</f>
@@ -4501,7 +4580,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -4509,15 +4588,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -4536,9 +4615,7 @@
       <c r="F7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="G7" s="6"/>
       <c r="H7" s="6" t="s">
         <v>11</v>
       </c>
@@ -4561,7 +4638,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="25" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" s="25" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A8" s="22" t="s">
         <v>66</v>
       </c>
@@ -4578,9 +4655,11 @@
         <v>67</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="23"/>
+        <v>399</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>387</v>
+      </c>
       <c r="H8" s="23" t="s">
         <v>80</v>
       </c>
@@ -4597,13 +4676,13 @@
         <v>61</v>
       </c>
       <c r="M8" s="29" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="N8" s="22" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="25" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="22" t="s">
         <v>69</v>
       </c>
@@ -4611,7 +4690,7 @@
         <v>86</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>125</v>
+        <v>390</v>
       </c>
       <c r="D9" s="23" t="s">
         <v>73</v>
@@ -4620,7 +4699,7 @@
         <v>76</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>31</v>
+        <v>400</v>
       </c>
       <c r="G9" s="23"/>
       <c r="H9" s="23" t="s">
@@ -4639,13 +4718,13 @@
         <v>61</v>
       </c>
       <c r="M9" s="29" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="N9" s="22" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="25" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" s="22" t="s">
         <v>82</v>
       </c>
@@ -4653,18 +4732,20 @@
         <v>86</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>126</v>
+        <v>389</v>
       </c>
       <c r="D10" s="23" t="s">
         <v>121</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>136</v>
+        <v>388</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="23"/>
+        <v>399</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>387</v>
+      </c>
       <c r="H10" s="23" t="s">
         <v>122</v>
       </c>
@@ -4681,13 +4762,13 @@
         <v>61</v>
       </c>
       <c r="M10" s="29" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="N10" s="22" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" s="25" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="25" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A11" s="22" t="s">
         <v>92</v>
       </c>
@@ -4704,7 +4785,7 @@
         <v>77</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>31</v>
+        <v>400</v>
       </c>
       <c r="G11" s="23"/>
       <c r="H11" s="23" t="s">
@@ -4723,13 +4804,13 @@
         <v>61</v>
       </c>
       <c r="M11" s="29" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="N11" s="22" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="25" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="22" t="s">
         <v>93</v>
       </c>
@@ -4746,7 +4827,7 @@
         <v>89</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>31</v>
+        <v>400</v>
       </c>
       <c r="G12" s="23"/>
       <c r="H12" s="23" t="s">
@@ -4765,13 +4846,13 @@
         <v>61</v>
       </c>
       <c r="M12" s="29" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="N12" s="22" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" s="27" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A13" s="23" t="s">
         <v>99</v>
       </c>
@@ -4788,7 +4869,7 @@
         <v>98</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>31</v>
+        <v>401</v>
       </c>
       <c r="G13" s="23"/>
       <c r="H13" s="23" t="s">
@@ -4807,13 +4888,13 @@
         <v>61</v>
       </c>
       <c r="M13" s="29" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="N13" s="22" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" s="27" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A14" s="23" t="s">
         <v>105</v>
       </c>
@@ -4830,7 +4911,7 @@
         <v>98</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>31</v>
+        <v>401</v>
       </c>
       <c r="G14" s="23"/>
       <c r="H14" s="23" t="s">
@@ -4849,13 +4930,13 @@
         <v>61</v>
       </c>
       <c r="M14" s="29" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="N14" s="22" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" s="27" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A15" s="23" t="s">
         <v>109</v>
       </c>
@@ -4872,7 +4953,7 @@
         <v>98</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>31</v>
+        <v>401</v>
       </c>
       <c r="G15" s="23"/>
       <c r="H15" s="23" t="s">
@@ -4891,13 +4972,13 @@
         <v>61</v>
       </c>
       <c r="M15" s="29" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="N15" s="22" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" s="27" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" s="27" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="23" t="s">
         <v>116</v>
       </c>
@@ -4914,7 +4995,7 @@
         <v>98</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>31</v>
+        <v>401</v>
       </c>
       <c r="G16" s="23"/>
       <c r="H16" s="23" t="s">
@@ -4933,13 +5014,13 @@
         <v>61</v>
       </c>
       <c r="M16" s="29" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="N16" s="22" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" s="27" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" s="27" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="23" t="s">
         <v>120</v>
       </c>
@@ -4956,7 +5037,7 @@
         <v>98</v>
       </c>
       <c r="F17" s="23" t="s">
-        <v>31</v>
+        <v>401</v>
       </c>
       <c r="G17" s="23"/>
       <c r="H17" s="23" t="s">
@@ -4975,13 +5056,13 @@
         <v>61</v>
       </c>
       <c r="M17" s="29" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="N17" s="22" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" s="25" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A18" s="22" t="s">
         <v>124</v>
       </c>
@@ -4989,26 +5070,26 @@
         <v>86</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F18" s="23" t="s">
-        <v>31</v>
+        <v>401</v>
       </c>
       <c r="G18" s="23"/>
       <c r="H18" s="23" t="s">
         <v>74</v>
       </c>
       <c r="I18" s="23" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J18" s="23" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K18" s="24" t="s">
         <v>39</v>
@@ -5017,40 +5098,40 @@
         <v>61</v>
       </c>
       <c r="M18" s="29" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="N18" s="22" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" s="25" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="22" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B19" s="23" t="s">
         <v>86</v>
       </c>
       <c r="C19" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="E19" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="D19" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="E19" s="23" t="s">
-        <v>132</v>
-      </c>
       <c r="F19" s="23" t="s">
-        <v>31</v>
+        <v>401</v>
       </c>
       <c r="G19" s="23"/>
       <c r="H19" s="23" t="s">
         <v>122</v>
       </c>
       <c r="I19" s="23" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J19" s="23" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K19" s="24" t="s">
         <v>39</v>
@@ -5059,34 +5140,34 @@
         <v>61</v>
       </c>
       <c r="M19" s="29" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="N19" s="22" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" s="25" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A20" s="22" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B20" s="23" t="s">
         <v>84</v>
       </c>
       <c r="C20" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="D20" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="D20" s="23" t="s">
-        <v>141</v>
-      </c>
       <c r="E20" s="23" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F20" s="23" t="s">
-        <v>31</v>
+        <v>401</v>
       </c>
       <c r="G20" s="23"/>
       <c r="H20" s="23" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I20" s="23" t="s">
         <v>79</v>
@@ -5101,34 +5182,34 @@
         <v>61</v>
       </c>
       <c r="M20" s="29" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="N20" s="22" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" s="25" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A21" s="22" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B21" s="23" t="s">
         <v>83</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E21" s="23" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F21" s="23" t="s">
-        <v>31</v>
+        <v>401</v>
       </c>
       <c r="G21" s="23"/>
       <c r="H21" s="23" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I21" s="23" t="s">
         <v>81</v>
@@ -5143,21 +5224,21 @@
         <v>61</v>
       </c>
       <c r="M21" s="29" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="N21" s="22" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A22" s="23" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D22" s="23" t="s">
         <v>97</v>
@@ -5166,17 +5247,17 @@
         <v>98</v>
       </c>
       <c r="F22" s="23" t="s">
-        <v>31</v>
+        <v>401</v>
       </c>
       <c r="G22" s="23"/>
       <c r="H22" s="23" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I22" s="23" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="J22" s="23" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="K22" s="28" t="s">
         <v>39</v>
@@ -5185,21 +5266,21 @@
         <v>61</v>
       </c>
       <c r="M22" s="29" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="N22" s="22" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A23" s="23" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D23" s="23" t="s">
         <v>97</v>
@@ -5208,17 +5289,17 @@
         <v>98</v>
       </c>
       <c r="F23" s="23" t="s">
-        <v>31</v>
+        <v>401</v>
       </c>
       <c r="G23" s="23"/>
       <c r="H23" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="I23" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="J23" s="23" t="s">
         <v>155</v>
-      </c>
-      <c r="I23" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="J23" s="23" t="s">
-        <v>158</v>
       </c>
       <c r="K23" s="28" t="s">
         <v>39</v>
@@ -5227,21 +5308,21 @@
         <v>61</v>
       </c>
       <c r="M23" s="29" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="N23" s="22" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" s="27" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A24" s="23" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D24" s="23" t="s">
         <v>97</v>
@@ -5250,17 +5331,17 @@
         <v>98</v>
       </c>
       <c r="F24" s="23" t="s">
-        <v>31</v>
+        <v>401</v>
       </c>
       <c r="G24" s="23"/>
       <c r="H24" s="23" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I24" s="23" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="J24" s="23" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="K24" s="28" t="s">
         <v>39</v>
@@ -5269,21 +5350,21 @@
         <v>61</v>
       </c>
       <c r="M24" s="29" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="N24" s="22" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A25" s="23" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D25" s="23" t="s">
         <v>97</v>
@@ -5292,17 +5373,17 @@
         <v>98</v>
       </c>
       <c r="F25" s="23" t="s">
-        <v>31</v>
+        <v>401</v>
       </c>
       <c r="G25" s="23"/>
       <c r="H25" s="23" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="I25" s="23" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="J25" s="23" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="K25" s="28" t="s">
         <v>39</v>
@@ -5311,40 +5392,40 @@
         <v>61</v>
       </c>
       <c r="M25" s="29" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="N25" s="22" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" s="27" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A26" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="D26" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="B26" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="C26" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="D26" s="23" t="s">
-        <v>173</v>
-      </c>
       <c r="E26" s="23" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F26" s="23" t="s">
-        <v>31</v>
+        <v>401</v>
       </c>
       <c r="G26" s="23"/>
       <c r="H26" s="23" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="I26" s="23" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="J26" s="23" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="K26" s="28" t="s">
         <v>39</v>
@@ -5353,40 +5434,40 @@
         <v>61</v>
       </c>
       <c r="M26" s="29" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="N26" s="22" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A27" s="23" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B27" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="D27" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="C27" s="23" t="s">
-        <v>181</v>
-      </c>
-      <c r="D27" s="23" t="s">
-        <v>178</v>
-      </c>
       <c r="E27" s="23" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F27" s="23" t="s">
-        <v>31</v>
+        <v>401</v>
       </c>
       <c r="G27" s="23"/>
       <c r="H27" s="23" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="I27" s="23" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="J27" s="23" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="K27" s="28" t="s">
         <v>39</v>
@@ -5395,40 +5476,40 @@
         <v>61</v>
       </c>
       <c r="M27" s="29" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="N27" s="22" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A28" s="23" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E28" s="23" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F28" s="23" t="s">
-        <v>31</v>
+        <v>401</v>
       </c>
       <c r="G28" s="23"/>
       <c r="H28" s="23" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="I28" s="23" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="J28" s="23" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="K28" s="28" t="s">
         <v>39</v>
@@ -5437,40 +5518,40 @@
         <v>61</v>
       </c>
       <c r="M28" s="29" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="N28" s="22" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" s="27" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A29" s="23" t="s">
+        <v>271</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="D29" s="23" t="s">
         <v>274</v>
       </c>
-      <c r="B29" s="23" t="s">
+      <c r="E29" s="23" t="s">
         <v>275</v>
       </c>
-      <c r="C29" s="23" t="s">
-        <v>276</v>
-      </c>
-      <c r="D29" s="23" t="s">
-        <v>277</v>
-      </c>
-      <c r="E29" s="23" t="s">
-        <v>278</v>
-      </c>
       <c r="F29" s="23" t="s">
-        <v>31</v>
+        <v>401</v>
       </c>
       <c r="G29" s="23"/>
       <c r="H29" s="23" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="I29" s="23" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="J29" s="23" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="K29" s="28" t="s">
         <v>39</v>
@@ -5479,40 +5560,40 @@
         <v>61</v>
       </c>
       <c r="M29" s="29" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="N29" s="22" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A30" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>279</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>280</v>
+      </c>
+      <c r="D30" s="23" t="s">
         <v>281</v>
       </c>
-      <c r="B30" s="23" t="s">
+      <c r="E30" s="23" t="s">
         <v>282</v>
       </c>
-      <c r="C30" s="23" t="s">
-        <v>283</v>
-      </c>
-      <c r="D30" s="23" t="s">
-        <v>284</v>
-      </c>
-      <c r="E30" s="23" t="s">
-        <v>285</v>
-      </c>
       <c r="F30" s="23" t="s">
-        <v>31</v>
+        <v>401</v>
       </c>
       <c r="G30" s="23"/>
       <c r="H30" s="23" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="I30" s="23" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="J30" s="23" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="K30" s="28" t="s">
         <v>39</v>
@@ -5521,10 +5602,10 @@
         <v>61</v>
       </c>
       <c r="M30" s="29" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="N30" s="22" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>
@@ -5534,32 +5615,32 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.453125" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.5703125" customWidth="1"/>
-    <col min="10" max="10" width="22.42578125" customWidth="1"/>
-    <col min="11" max="11" width="8.140625" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.54296875" customWidth="1"/>
+    <col min="10" max="10" width="22.453125" customWidth="1"/>
+    <col min="11" max="11" width="8.1796875" customWidth="1"/>
+    <col min="12" max="12" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -5567,7 +5648,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -5587,12 +5668,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E3" s="16">
         <f>COUNTIF(K8:K11,"Pass")</f>
@@ -5611,7 +5692,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -5619,15 +5700,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -5671,15 +5752,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="27" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="23" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D8" s="23" t="s">
         <v>97</v>
@@ -5688,17 +5769,17 @@
         <v>98</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>31</v>
+        <v>400</v>
       </c>
       <c r="G8" s="23"/>
       <c r="H8" s="23" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I8" s="23" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="J8" s="23" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="K8" s="28" t="s">
         <v>39</v>
@@ -5707,21 +5788,21 @@
         <v>61</v>
       </c>
       <c r="M8" s="30" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="N8" s="23" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="23" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D9" s="23" t="s">
         <v>97</v>
@@ -5730,17 +5811,17 @@
         <v>98</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>31</v>
+        <v>400</v>
       </c>
       <c r="G9" s="23"/>
       <c r="H9" s="23" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I9" s="23" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J9" s="23" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="K9" s="28" t="s">
         <v>39</v>
@@ -5749,21 +5830,21 @@
         <v>61</v>
       </c>
       <c r="M9" s="30" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="N9" s="23" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" s="27" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" s="23" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D10" s="23" t="s">
         <v>97</v>
@@ -5772,7 +5853,7 @@
         <v>98</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>31</v>
+        <v>400</v>
       </c>
       <c r="G10" s="23"/>
       <c r="H10" s="23" t="s">
@@ -5791,40 +5872,40 @@
         <v>61</v>
       </c>
       <c r="M10" s="30" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="N10" s="23" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11" s="23" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>31</v>
+        <v>400</v>
       </c>
       <c r="G11" s="23"/>
       <c r="H11" s="23" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="I11" s="23" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="J11" s="23" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="K11" s="28" t="s">
         <v>39</v>
@@ -5833,13 +5914,13 @@
         <v>61</v>
       </c>
       <c r="M11" s="30" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="N11" s="23" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="31"/>
       <c r="B12" s="31"/>
       <c r="C12" s="31"/>
@@ -5855,7 +5936,7 @@
       <c r="M12" s="31"/>
       <c r="N12" s="31"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="31"/>
       <c r="B13" s="31"/>
       <c r="C13" s="31"/>
@@ -5871,7 +5952,7 @@
       <c r="M13" s="31"/>
       <c r="N13" s="31"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="31"/>
       <c r="B14" s="31"/>
       <c r="C14" s="31"/>
@@ -5887,7 +5968,7 @@
       <c r="M14" s="31"/>
       <c r="N14" s="31"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="31"/>
       <c r="B15" s="31"/>
       <c r="C15" s="31"/>
@@ -5903,7 +5984,7 @@
       <c r="M15" s="31"/>
       <c r="N15" s="31"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="31"/>
       <c r="B16" s="31"/>
       <c r="C16" s="31"/>
@@ -5919,7 +6000,7 @@
       <c r="M16" s="31"/>
       <c r="N16" s="31"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="31"/>
       <c r="B17" s="31"/>
       <c r="C17" s="31"/>
@@ -5935,7 +6016,7 @@
       <c r="M17" s="31"/>
       <c r="N17" s="31"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="31"/>
       <c r="B18" s="31"/>
       <c r="C18" s="31"/>
@@ -5951,7 +6032,7 @@
       <c r="M18" s="31"/>
       <c r="N18" s="31"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="31"/>
       <c r="B19" s="31"/>
       <c r="C19" s="31"/>
@@ -5967,7 +6048,7 @@
       <c r="M19" s="31"/>
       <c r="N19" s="31"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="31"/>
       <c r="B20" s="31"/>
       <c r="C20" s="31"/>
@@ -5983,7 +6064,7 @@
       <c r="M20" s="31"/>
       <c r="N20" s="31"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="31"/>
       <c r="B21" s="31"/>
       <c r="C21" s="31"/>
@@ -5999,7 +6080,7 @@
       <c r="M21" s="31"/>
       <c r="N21" s="31"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" s="31"/>
       <c r="B22" s="31"/>
       <c r="C22" s="31"/>
@@ -6021,40 +6102,40 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C6:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.453125" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.5703125" customWidth="1"/>
-    <col min="10" max="10" width="22.42578125" customWidth="1"/>
-    <col min="11" max="11" width="8.140625" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.54296875" customWidth="1"/>
+    <col min="10" max="10" width="22.453125" customWidth="1"/>
+    <col min="11" max="11" width="8.1796875" customWidth="1"/>
+    <col min="12" max="12" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -6074,12 +6155,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E3" s="16">
         <f>COUNTIF(K8:K11,"Pass")</f>
@@ -6098,7 +6179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -6106,15 +6187,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -6158,7 +6239,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -6174,7 +6255,7 @@
       <c r="M8" s="4"/>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -6190,7 +6271,7 @@
       <c r="M9" s="4"/>
       <c r="N9" s="2"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -6206,7 +6287,7 @@
       <c r="M10" s="4"/>
       <c r="N10" s="2"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -6222,7 +6303,7 @@
       <c r="M11" s="4"/>
       <c r="N11" s="2"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -6238,7 +6319,7 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -6254,7 +6335,7 @@
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -6270,7 +6351,7 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -6286,7 +6367,7 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -6302,7 +6383,7 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -6318,7 +6399,7 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -6334,7 +6415,7 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -6350,7 +6431,7 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -6366,7 +6447,7 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -6388,40 +6469,40 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.453125" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.5703125" customWidth="1"/>
-    <col min="10" max="10" width="22.42578125" customWidth="1"/>
-    <col min="11" max="11" width="8.140625" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.54296875" customWidth="1"/>
+    <col min="10" max="10" width="22.453125" customWidth="1"/>
+    <col min="11" max="11" width="8.1796875" customWidth="1"/>
+    <col min="12" max="12" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -6441,12 +6522,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E3" s="16">
         <f>COUNTIF(K8:K11,"Pass")</f>
@@ -6465,7 +6546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -6473,15 +6554,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -6525,7 +6606,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -6541,7 +6622,7 @@
       <c r="M8" s="4"/>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -6557,7 +6638,7 @@
       <c r="M9" s="4"/>
       <c r="N9" s="2"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -6573,7 +6654,7 @@
       <c r="M10" s="4"/>
       <c r="N10" s="2"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -6589,7 +6670,7 @@
       <c r="M11" s="4"/>
       <c r="N11" s="2"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -6605,7 +6686,7 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -6621,7 +6702,7 @@
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -6637,7 +6718,7 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -6653,7 +6734,7 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -6669,7 +6750,7 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -6685,7 +6766,7 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -6701,7 +6782,7 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -6717,7 +6798,7 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -6733,7 +6814,7 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -6755,40 +6836,40 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+    <col min="1" max="1" width="26.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.453125" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.5703125" customWidth="1"/>
-    <col min="10" max="10" width="22.42578125" customWidth="1"/>
-    <col min="11" max="11" width="8.140625" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.54296875" customWidth="1"/>
+    <col min="10" max="10" width="22.453125" customWidth="1"/>
+    <col min="11" max="11" width="8.1796875" customWidth="1"/>
+    <col min="12" max="12" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -6808,7 +6889,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -6832,7 +6913,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -6840,15 +6921,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -6892,34 +6973,34 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A8" s="22" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G8" s="23"/>
       <c r="H8" s="23" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="I8" s="23" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="J8" s="23" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="K8" s="24" t="s">
         <v>39</v>
@@ -6934,34 +7015,34 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A9" s="22" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B9" s="23" t="s">
+        <v>379</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>381</v>
+      </c>
+      <c r="D9" s="23" t="s">
         <v>382</v>
       </c>
-      <c r="C9" s="23" t="s">
-        <v>384</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>385</v>
-      </c>
       <c r="E9" s="23" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G9" s="23"/>
       <c r="H9" s="23" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="I9" s="23" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="J9" s="23" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="K9" s="24" t="s">
         <v>39</v>
@@ -6976,7 +7057,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="32"/>
       <c r="B10" s="33"/>
       <c r="C10" s="33"/>
@@ -6992,7 +7073,7 @@
       <c r="M10" s="35"/>
       <c r="N10" s="32"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="32"/>
       <c r="B11" s="33"/>
       <c r="C11" s="33"/>
@@ -7008,7 +7089,7 @@
       <c r="M11" s="35"/>
       <c r="N11" s="32"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="31"/>
       <c r="B12" s="31"/>
       <c r="C12" s="31"/>
@@ -7024,7 +7105,7 @@
       <c r="M12" s="31"/>
       <c r="N12" s="31"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="31"/>
       <c r="B13" s="31"/>
       <c r="C13" s="31"/>
@@ -7040,7 +7121,7 @@
       <c r="M13" s="31"/>
       <c r="N13" s="31"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="31"/>
       <c r="B14" s="31"/>
       <c r="C14" s="31"/>
@@ -7056,7 +7137,7 @@
       <c r="M14" s="31"/>
       <c r="N14" s="31"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="31"/>
       <c r="B15" s="31"/>
       <c r="C15" s="31"/>
@@ -7072,7 +7153,7 @@
       <c r="M15" s="31"/>
       <c r="N15" s="31"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="31"/>
       <c r="B16" s="31"/>
       <c r="C16" s="31"/>
@@ -7088,7 +7169,7 @@
       <c r="M16" s="31"/>
       <c r="N16" s="31"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="31"/>
       <c r="B17" s="31"/>
       <c r="C17" s="31"/>
@@ -7104,7 +7185,7 @@
       <c r="M17" s="31"/>
       <c r="N17" s="31"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="31"/>
       <c r="B18" s="31"/>
       <c r="C18" s="31"/>
@@ -7120,7 +7201,7 @@
       <c r="M18" s="31"/>
       <c r="N18" s="31"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="31"/>
       <c r="B19" s="31"/>
       <c r="C19" s="31"/>
@@ -7136,7 +7217,7 @@
       <c r="M19" s="31"/>
       <c r="N19" s="31"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="31"/>
       <c r="B20" s="31"/>
       <c r="C20" s="31"/>
@@ -7152,7 +7233,7 @@
       <c r="M20" s="31"/>
       <c r="N20" s="31"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="31"/>
       <c r="B21" s="31"/>
       <c r="C21" s="31"/>
@@ -7174,40 +7255,40 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.453125" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.5703125" customWidth="1"/>
-    <col min="10" max="10" width="22.42578125" customWidth="1"/>
-    <col min="11" max="11" width="8.140625" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.54296875" customWidth="1"/>
+    <col min="10" max="10" width="22.453125" customWidth="1"/>
+    <col min="11" max="11" width="8.1796875" customWidth="1"/>
+    <col min="12" max="12" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -7227,12 +7308,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E3" s="16">
         <f>COUNTIF(K8:K24,"Pass")</f>
@@ -7251,7 +7332,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -7259,15 +7340,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -7286,9 +7367,7 @@
       <c r="F7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="G7" s="6"/>
       <c r="H7" s="6" t="s">
         <v>11</v>
       </c>
@@ -7311,15 +7390,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="27" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="23" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D8" s="23" t="s">
         <v>97</v>
@@ -7328,17 +7407,17 @@
         <v>98</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>31</v>
+        <v>401</v>
       </c>
       <c r="G8" s="23"/>
       <c r="H8" s="23" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I8" s="23" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="J8" s="23" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="K8" s="28" t="s">
         <v>39</v>
@@ -7347,21 +7426,21 @@
         <v>61</v>
       </c>
       <c r="M8" s="30" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="N8" s="23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="27" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="23" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D9" s="23" t="s">
         <v>97</v>
@@ -7370,17 +7449,17 @@
         <v>98</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>31</v>
+        <v>401</v>
       </c>
       <c r="G9" s="23"/>
       <c r="H9" s="23" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="I9" s="23" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="J9" s="23" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="K9" s="28" t="s">
         <v>39</v>
@@ -7389,21 +7468,21 @@
         <v>61</v>
       </c>
       <c r="M9" s="30" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="N9" s="23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="27" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" s="23" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B10" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="C10" s="23" t="s">
         <v>219</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>222</v>
       </c>
       <c r="D10" s="23" t="s">
         <v>97</v>
@@ -7412,17 +7491,17 @@
         <v>98</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>31</v>
+        <v>401</v>
       </c>
       <c r="G10" s="23"/>
       <c r="H10" s="23" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="I10" s="23" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="J10" s="23" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="K10" s="28" t="s">
         <v>39</v>
@@ -7431,21 +7510,21 @@
         <v>61</v>
       </c>
       <c r="M10" s="30" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="N10" s="23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="27" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11" s="23" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B11" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="C11" s="23" t="s">
         <v>223</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>226</v>
       </c>
       <c r="D11" s="23" t="s">
         <v>97</v>
@@ -7454,17 +7533,17 @@
         <v>98</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>31</v>
+        <v>401</v>
       </c>
       <c r="G11" s="23"/>
       <c r="H11" s="23" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I11" s="23" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="J11" s="23" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="K11" s="28" t="s">
         <v>39</v>
@@ -7473,21 +7552,21 @@
         <v>61</v>
       </c>
       <c r="M11" s="30" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="N11" s="23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="27" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12" s="23" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D12" s="23" t="s">
         <v>97</v>
@@ -7496,17 +7575,17 @@
         <v>98</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>31</v>
+        <v>401</v>
       </c>
       <c r="G12" s="23"/>
       <c r="H12" s="23" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="I12" s="23" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J12" s="23" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="K12" s="28" t="s">
         <v>39</v>
@@ -7515,21 +7594,21 @@
         <v>61</v>
       </c>
       <c r="M12" s="30" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="N12" s="23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="27" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A13" s="23" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D13" s="23" t="s">
         <v>97</v>
@@ -7538,17 +7617,17 @@
         <v>98</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>31</v>
+        <v>401</v>
       </c>
       <c r="G13" s="23"/>
       <c r="H13" s="23" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="I13" s="23" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="J13" s="23" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="K13" s="28" t="s">
         <v>39</v>
@@ -7557,21 +7636,21 @@
         <v>61</v>
       </c>
       <c r="M13" s="30" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="N13" s="23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="27" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A14" s="23" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D14" s="23" t="s">
         <v>97</v>
@@ -7580,17 +7659,17 @@
         <v>98</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>31</v>
+        <v>401</v>
       </c>
       <c r="G14" s="23"/>
       <c r="H14" s="23" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="I14" s="23" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="J14" s="23" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="K14" s="28" t="s">
         <v>39</v>
@@ -7599,21 +7678,21 @@
         <v>61</v>
       </c>
       <c r="M14" s="30" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="N14" s="23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" s="27" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A15" s="23" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B15" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="C15" s="23" t="s">
         <v>240</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>243</v>
       </c>
       <c r="D15" s="23" t="s">
         <v>97</v>
@@ -7622,17 +7701,17 @@
         <v>98</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>31</v>
+        <v>401</v>
       </c>
       <c r="G15" s="23"/>
       <c r="H15" s="23" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="I15" s="23" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="J15" s="23" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="K15" s="28" t="s">
         <v>39</v>
@@ -7641,21 +7720,21 @@
         <v>61</v>
       </c>
       <c r="M15" s="30" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="N15" s="23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" s="27" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A16" s="23" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B16" s="23" t="s">
+        <v>241</v>
+      </c>
+      <c r="C16" s="23" t="s">
         <v>244</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>247</v>
       </c>
       <c r="D16" s="23" t="s">
         <v>97</v>
@@ -7664,17 +7743,17 @@
         <v>98</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>31</v>
+        <v>401</v>
       </c>
       <c r="G16" s="23"/>
       <c r="H16" s="23" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="I16" s="23" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="J16" s="23" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="K16" s="28" t="s">
         <v>39</v>
@@ -7683,21 +7762,21 @@
         <v>61</v>
       </c>
       <c r="M16" s="30" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="N16" s="23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:14" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" s="27" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A17" s="23" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D17" s="23" t="s">
         <v>97</v>
@@ -7706,17 +7785,17 @@
         <v>98</v>
       </c>
       <c r="F17" s="23" t="s">
-        <v>31</v>
+        <v>401</v>
       </c>
       <c r="G17" s="23"/>
       <c r="H17" s="23" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="I17" s="23" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="J17" s="23" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="K17" s="28" t="s">
         <v>39</v>
@@ -7725,42 +7804,42 @@
         <v>61</v>
       </c>
       <c r="M17" s="30" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="N17" s="23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:14" s="26" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" s="26" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A18" s="23" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>22</v>
+        <v>391</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>27</v>
+        <v>394</v>
       </c>
       <c r="F18" s="23" t="s">
-        <v>31</v>
+        <v>399</v>
       </c>
       <c r="G18" s="23" t="s">
-        <v>33</v>
+        <v>396</v>
       </c>
       <c r="H18" s="23" t="s">
-        <v>35</v>
+        <v>397</v>
       </c>
       <c r="I18" s="23" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="J18" s="23" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="K18" s="28" t="s">
         <v>39</v>
@@ -7769,42 +7848,42 @@
         <v>61</v>
       </c>
       <c r="M18" s="30" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="N18" s="23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:14" s="26" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" s="26" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A19" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="B19" s="23" t="s">
         <v>255</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="C19" s="23" t="s">
         <v>258</v>
       </c>
-      <c r="C19" s="23" t="s">
-        <v>261</v>
-      </c>
       <c r="D19" s="23" t="s">
-        <v>23</v>
+        <v>392</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>28</v>
+        <v>393</v>
       </c>
       <c r="F19" s="23" t="s">
-        <v>31</v>
+        <v>399</v>
       </c>
       <c r="G19" s="23" t="s">
-        <v>34</v>
+        <v>395</v>
       </c>
       <c r="H19" s="23" t="s">
-        <v>37</v>
+        <v>398</v>
       </c>
       <c r="I19" s="23" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="J19" s="23" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="K19" s="28" t="s">
         <v>39</v>
@@ -7813,42 +7892,42 @@
         <v>61</v>
       </c>
       <c r="M19" s="30" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="N19" s="23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:14" s="26" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" s="26" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A20" s="23" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>24</v>
+        <v>405</v>
       </c>
       <c r="E20" s="23" t="s">
-        <v>29</v>
+        <v>402</v>
       </c>
       <c r="F20" s="23" t="s">
-        <v>31</v>
+        <v>399</v>
       </c>
       <c r="G20" s="23" t="s">
-        <v>33</v>
+        <v>396</v>
       </c>
       <c r="H20" s="23" t="s">
-        <v>35</v>
+        <v>397</v>
       </c>
       <c r="I20" s="23" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="J20" s="23" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="K20" s="28" t="s">
         <v>39</v>
@@ -7857,42 +7936,42 @@
         <v>61</v>
       </c>
       <c r="M20" s="30" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="N20" s="23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:14" s="26" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" s="26" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A21" s="23" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>25</v>
+        <v>404</v>
       </c>
       <c r="E21" s="23" t="s">
-        <v>30</v>
+        <v>403</v>
       </c>
       <c r="F21" s="23" t="s">
-        <v>31</v>
+        <v>399</v>
       </c>
       <c r="G21" s="23" t="s">
-        <v>34</v>
+        <v>395</v>
       </c>
       <c r="H21" s="23" t="s">
-        <v>37</v>
+        <v>398</v>
       </c>
       <c r="I21" s="23" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="J21" s="23" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="K21" s="28" t="s">
         <v>39</v>
@@ -7901,40 +7980,40 @@
         <v>61</v>
       </c>
       <c r="M21" s="30" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="N21" s="23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:14" s="27" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A22" s="23" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="F22" s="23" t="s">
-        <v>31</v>
+        <v>401</v>
       </c>
       <c r="G22" s="23"/>
       <c r="H22" s="23" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="I22" s="23" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="J22" s="23" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="K22" s="28" t="s">
         <v>39</v>
@@ -7943,40 +8022,40 @@
         <v>61</v>
       </c>
       <c r="M22" s="30" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="N22" s="23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:14" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A23" s="23" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E23" s="23" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F23" s="23" t="s">
-        <v>31</v>
+        <v>401</v>
       </c>
       <c r="G23" s="23"/>
       <c r="H23" s="23" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="I23" s="23" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J23" s="23" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="K23" s="28" t="s">
         <v>39</v>
@@ -7985,40 +8064,40 @@
         <v>61</v>
       </c>
       <c r="M23" s="30" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="N23" s="23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:14" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" s="27" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A24" s="23" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E24" s="23" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F24" s="23" t="s">
-        <v>31</v>
+        <v>401</v>
       </c>
       <c r="G24" s="23"/>
       <c r="H24" s="23" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="I24" s="23" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="J24" s="23" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="K24" s="28" t="s">
         <v>39</v>
@@ -8027,7 +8106,7 @@
         <v>61</v>
       </c>
       <c r="M24" s="30" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="N24" s="23" t="s">
         <v>40</v>
@@ -8039,40 +8118,40 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.453125" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.5703125" customWidth="1"/>
-    <col min="10" max="10" width="22.42578125" customWidth="1"/>
-    <col min="11" max="11" width="8.140625" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.54296875" customWidth="1"/>
+    <col min="10" max="10" width="22.453125" customWidth="1"/>
+    <col min="11" max="11" width="8.1796875" customWidth="1"/>
+    <col min="12" max="12" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -8092,12 +8171,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E3" s="16">
         <f>COUNTIF(K8:K23,"Pass")</f>
@@ -8116,7 +8195,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -8124,15 +8203,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -8151,9 +8230,7 @@
       <c r="F7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="G7" s="6"/>
       <c r="H7" s="6" t="s">
         <v>11</v>
       </c>
@@ -8176,15 +8253,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="27" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" s="27" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="23" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D8" s="23" t="s">
         <v>97</v>
@@ -8193,17 +8270,17 @@
         <v>98</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>31</v>
+        <v>401</v>
       </c>
       <c r="G8" s="23"/>
       <c r="H8" s="23" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I8" s="23" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="J8" s="23" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="K8" s="28" t="s">
         <v>39</v>
@@ -8212,21 +8289,21 @@
         <v>61</v>
       </c>
       <c r="M8" s="30" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="N8" s="23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="27" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="23" t="s">
+        <v>313</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>291</v>
+      </c>
+      <c r="C9" s="23" t="s">
         <v>316</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>294</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>319</v>
       </c>
       <c r="D9" s="23" t="s">
         <v>97</v>
@@ -8235,17 +8312,17 @@
         <v>98</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>31</v>
+        <v>401</v>
       </c>
       <c r="G9" s="23"/>
       <c r="H9" s="23" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="I9" s="23" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="J9" s="23" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="K9" s="28" t="s">
         <v>39</v>
@@ -8254,21 +8331,21 @@
         <v>61</v>
       </c>
       <c r="M9" s="30" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="N9" s="23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="27" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" s="27" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="23" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D10" s="23" t="s">
         <v>97</v>
@@ -8277,17 +8354,17 @@
         <v>98</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>31</v>
+        <v>401</v>
       </c>
       <c r="G10" s="23"/>
       <c r="H10" s="23" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="I10" s="23" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="J10" s="23" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="K10" s="28" t="s">
         <v>39</v>
@@ -8296,21 +8373,21 @@
         <v>61</v>
       </c>
       <c r="M10" s="30" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="N10" s="23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="27" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11" s="23" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D11" s="23" t="s">
         <v>97</v>
@@ -8319,17 +8396,17 @@
         <v>98</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>31</v>
+        <v>401</v>
       </c>
       <c r="G11" s="23"/>
       <c r="H11" s="23" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I11" s="23" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="J11" s="23" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="K11" s="28" t="s">
         <v>39</v>
@@ -8338,21 +8415,21 @@
         <v>61</v>
       </c>
       <c r="M11" s="30" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="N11" s="23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="27" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12" s="23" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D12" s="23" t="s">
         <v>97</v>
@@ -8361,17 +8438,17 @@
         <v>98</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>31</v>
+        <v>401</v>
       </c>
       <c r="G12" s="23"/>
       <c r="H12" s="23" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="I12" s="23" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J12" s="23" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="K12" s="28" t="s">
         <v>39</v>
@@ -8380,21 +8457,21 @@
         <v>61</v>
       </c>
       <c r="M12" s="30" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="N12" s="23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="27" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A13" s="23" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D13" s="23" t="s">
         <v>97</v>
@@ -8403,17 +8480,17 @@
         <v>98</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>31</v>
+        <v>401</v>
       </c>
       <c r="G13" s="23"/>
       <c r="H13" s="23" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="I13" s="23" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="J13" s="23" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="K13" s="28" t="s">
         <v>39</v>
@@ -8422,21 +8499,21 @@
         <v>61</v>
       </c>
       <c r="M13" s="30" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="N13" s="23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="27" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" s="27" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="23" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D14" s="23" t="s">
         <v>97</v>
@@ -8445,17 +8522,17 @@
         <v>98</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>31</v>
+        <v>401</v>
       </c>
       <c r="G14" s="23"/>
       <c r="H14" s="23" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="I14" s="23" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="J14" s="23" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="K14" s="28" t="s">
         <v>39</v>
@@ -8464,21 +8541,21 @@
         <v>61</v>
       </c>
       <c r="M14" s="30" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="N14" s="23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" s="27" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A15" s="23" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D15" s="23" t="s">
         <v>97</v>
@@ -8487,17 +8564,17 @@
         <v>98</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>31</v>
+        <v>401</v>
       </c>
       <c r="G15" s="23"/>
       <c r="H15" s="23" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="I15" s="23" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="J15" s="23" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="K15" s="28" t="s">
         <v>39</v>
@@ -8506,21 +8583,21 @@
         <v>61</v>
       </c>
       <c r="M15" s="30" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="N15" s="23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A16" s="23" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D16" s="23" t="s">
         <v>97</v>
@@ -8529,17 +8606,17 @@
         <v>98</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>31</v>
+        <v>401</v>
       </c>
       <c r="G16" s="23"/>
       <c r="H16" s="23" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="I16" s="23" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="J16" s="23" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="K16" s="28" t="s">
         <v>39</v>
@@ -8548,21 +8625,21 @@
         <v>61</v>
       </c>
       <c r="M16" s="30" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="N16" s="23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:14" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" s="27" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A17" s="23" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D17" s="23" t="s">
         <v>97</v>
@@ -8571,17 +8648,17 @@
         <v>98</v>
       </c>
       <c r="F17" s="23" t="s">
-        <v>31</v>
+        <v>401</v>
       </c>
       <c r="G17" s="23"/>
       <c r="H17" s="23" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="I17" s="23" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="J17" s="23" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="K17" s="28" t="s">
         <v>39</v>
@@ -8590,21 +8667,21 @@
         <v>61</v>
       </c>
       <c r="M17" s="30" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="N17" s="23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:14" s="26" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" s="26" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A18" s="23" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D18" s="23" t="s">
         <v>22</v>
@@ -8613,7 +8690,7 @@
         <v>27</v>
       </c>
       <c r="F18" s="23" t="s">
-        <v>31</v>
+        <v>399</v>
       </c>
       <c r="G18" s="23" t="s">
         <v>33</v>
@@ -8634,21 +8711,21 @@
         <v>61</v>
       </c>
       <c r="M18" s="30" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="N18" s="23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:14" s="26" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" s="26" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A19" s="23" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D19" s="23" t="s">
         <v>23</v>
@@ -8657,7 +8734,7 @@
         <v>28</v>
       </c>
       <c r="F19" s="23" t="s">
-        <v>31</v>
+        <v>399</v>
       </c>
       <c r="G19" s="23" t="s">
         <v>34</v>
@@ -8678,21 +8755,21 @@
         <v>61</v>
       </c>
       <c r="M19" s="30" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="N19" s="23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:14" s="26" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" s="26" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A20" s="23" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D20" s="23" t="s">
         <v>24</v>
@@ -8701,7 +8778,7 @@
         <v>29</v>
       </c>
       <c r="F20" s="23" t="s">
-        <v>31</v>
+        <v>399</v>
       </c>
       <c r="G20" s="23" t="s">
         <v>33</v>
@@ -8722,21 +8799,21 @@
         <v>61</v>
       </c>
       <c r="M20" s="30" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="N20" s="23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:14" s="26" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" s="26" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A21" s="23" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D21" s="23" t="s">
         <v>25</v>
@@ -8745,7 +8822,7 @@
         <v>30</v>
       </c>
       <c r="F21" s="23" t="s">
-        <v>31</v>
+        <v>399</v>
       </c>
       <c r="G21" s="23" t="s">
         <v>34</v>
@@ -8766,40 +8843,40 @@
         <v>61</v>
       </c>
       <c r="M21" s="30" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="N21" s="23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:14" s="27" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A22" s="23" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F22" s="23" t="s">
-        <v>31</v>
+        <v>401</v>
       </c>
       <c r="G22" s="23"/>
       <c r="H22" s="23" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="I22" s="23" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="J22" s="23" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="K22" s="28" t="s">
         <v>39</v>
@@ -8808,40 +8885,40 @@
         <v>61</v>
       </c>
       <c r="M22" s="30" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="N22" s="23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:14" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A23" s="23" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E23" s="23" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F23" s="23" t="s">
-        <v>31</v>
+        <v>401</v>
       </c>
       <c r="G23" s="23"/>
       <c r="H23" s="23" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="I23" s="23" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="J23" s="23" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="K23" s="28" t="s">
         <v>39</v>
@@ -8850,7 +8927,7 @@
         <v>61</v>
       </c>
       <c r="M23" s="30" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="N23" s="23" t="s">
         <v>40</v>

--- a/Documentation/FHF_TestCases.xlsx
+++ b/Documentation/FHF_TestCases.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="891" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="891"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="2" r:id="rId1"/>
@@ -1956,8 +1956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F25"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8121,7 +8121,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>

--- a/Documentation/FHF_TestCases.xlsx
+++ b/Documentation/FHF_TestCases.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="891"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="891" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="407">
   <si>
     <t>Project Name</t>
   </si>
@@ -336,9 +336,6 @@
     <t>Verify the cancel report  functionality of House Detail</t>
   </si>
   <si>
-    <t>Verify the validation  functionality of House Detail</t>
-  </si>
-  <si>
     <t>TC_FHF_HouseDetail_CancelReport_001</t>
   </si>
   <si>
@@ -467,9 +464,6 @@
   </si>
   <si>
     <t>Show rate button when input is not empty</t>
-  </si>
-  <si>
-    <t>1. Input into the input box empty</t>
   </si>
   <si>
     <t>System shows rate button</t>
@@ -870,15 +864,6 @@
 the list of Landlords containing the searched value</t>
   </si>
   <si>
-    <t>TS_FHF_ListLandlords_015</t>
-  </si>
-  <si>
-    <t>TS_FHF_ListLandlords_016</t>
-  </si>
-  <si>
-    <t>Verify the show tooltip of house functionality of List Landlords</t>
-  </si>
-  <si>
     <t>Verify the navigate to room detail of house functionality of List Landlords</t>
   </si>
   <si>
@@ -939,9 +924,6 @@
     <t>System navigates to landlord facebook</t>
   </si>
   <si>
-    <t>TS_FHF_ListLandlords_017</t>
-  </si>
-  <si>
     <t>Verify the navigate to landlord facebook functionality of List Landlords</t>
   </si>
   <si>
@@ -976,18 +958,6 @@
   </si>
   <si>
     <t>Verify the Search by Name functionality of List Houses</t>
-  </si>
-  <si>
-    <t>Verify the show tooltip of house functionality of List Houses</t>
-  </si>
-  <si>
-    <t>TS_FHF_ListHouses_016</t>
-  </si>
-  <si>
-    <t>TS_FHF_ListHouses_015</t>
-  </si>
-  <si>
-    <t>TS_FHF_ListHouses_014</t>
   </si>
   <si>
     <t>TS_FHF_ListHouses_013</t>
@@ -1312,17 +1282,6 @@
     <t>User see no Landlord</t>
   </si>
   <si>
-    <t>Access to previous page
-Test Data</t>
-  </si>
-  <si>
-    <t>Access to previous page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Access to previous page
-</t>
-  </si>
-  <si>
     <t>1. Enter valid landlord name
 2. Press Enter key</t>
   </si>
@@ -1335,6 +1294,52 @@
   </si>
   <si>
     <t>Enter valid landlord name &amp; press Enter</t>
+  </si>
+  <si>
+    <t>Comment: nhà trọ tốt</t>
+  </si>
+  <si>
+    <t>1. Input into the input box</t>
+  </si>
+  <si>
+    <t>Verify the report validation  functionality of House Detail</t>
+  </si>
+  <si>
+    <t>Verify the report invalidation  functionality of House Detail</t>
+  </si>
+  <si>
+    <t>Verify the rate validation  functionality of House Detail</t>
+  </si>
+  <si>
+    <t>Verify the rate invalidation  functionality of House Detail</t>
+  </si>
+  <si>
+    <t>Verify the show icon tooltip functionality of List Landlords</t>
+  </si>
+  <si>
+    <t>Verify the show icon tooltip functionality of List Houses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Access to dashboard page
+</t>
+  </si>
+  <si>
+    <t>Access to dashboard page
+Test Data</t>
+  </si>
+  <si>
+    <t>Access to house detail page</t>
+  </si>
+  <si>
+    <t>Access to home page
+Test Data</t>
+  </si>
+  <si>
+    <t>Access to home page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Access to home page
+</t>
   </si>
 </sst>
 </file>
@@ -1956,7 +1961,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
@@ -2002,7 +2007,7 @@
         <v>3</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.35">
@@ -2026,7 +2031,7 @@
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B10" s="18" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="C10" t="s">
         <v>52</v>
@@ -2040,7 +2045,7 @@
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B11" s="18" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="C11" t="s">
         <v>52</v>
@@ -2054,7 +2059,7 @@
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B12" s="18" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="C12" t="s">
         <v>52</v>
@@ -2068,7 +2073,7 @@
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B13" s="18" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="C13" t="s">
         <v>52</v>
@@ -2082,16 +2087,16 @@
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B14" s="18" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="C14" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="D14" t="s">
         <v>19</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.35">
@@ -2105,12 +2110,12 @@
         <v>19</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B16" s="18" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="C16" t="s">
         <v>52</v>
@@ -2119,12 +2124,12 @@
         <v>61</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B17" s="18" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="C17" t="s">
         <v>52</v>
@@ -2133,21 +2138,21 @@
         <v>61</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B18" s="18" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="C18" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="D18" t="s">
         <v>19</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.35">
@@ -2218,7 +2223,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
@@ -2246,7 +2251,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="E3" s="16">
         <f>COUNTIF(K8:K11,"Pass")</f>
@@ -2278,7 +2283,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
@@ -2585,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
@@ -2613,7 +2618,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="E3" s="16">
         <f>COUNTIF(K8:K11,"Pass")</f>
@@ -2645,7 +2650,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
@@ -2952,7 +2957,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
@@ -2980,7 +2985,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="E3" s="16">
         <f>COUNTIF(K8:K11,"Pass")</f>
@@ -3012,7 +3017,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
@@ -3347,7 +3352,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="E3" s="16">
         <f>COUNTIF(K8:K11,"Pass")</f>
@@ -3379,7 +3384,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
@@ -3686,7 +3691,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
@@ -3714,7 +3719,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="E3" s="16">
         <f>COUNTIF(K8:K11,"Pass")</f>
@@ -3746,7 +3751,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
@@ -4026,8 +4031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4081,7 +4086,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="E3" s="16">
         <f>COUNTIF(K8:K11,"Pass")</f>
@@ -4113,7 +4118,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
@@ -4198,7 +4203,7 @@
         <v>19</v>
       </c>
       <c r="M8" s="29" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="N8" s="22" t="s">
         <v>40</v>
@@ -4242,7 +4247,7 @@
         <v>19</v>
       </c>
       <c r="M9" s="29" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="N9" s="22" t="s">
         <v>40</v>
@@ -4286,7 +4291,7 @@
         <v>19</v>
       </c>
       <c r="M10" s="29" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="N10" s="22" t="s">
         <v>40</v>
@@ -4330,7 +4335,7 @@
         <v>19</v>
       </c>
       <c r="M11" s="29" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="N11" s="22" t="s">
         <v>40</v>
@@ -4506,8 +4511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4561,7 +4566,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="E3" s="16">
         <f>COUNTIF(K8:K30,"Pass")</f>
@@ -4593,7 +4598,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
@@ -4615,7 +4620,9 @@
       <c r="F7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="6"/>
+      <c r="G7" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="H7" s="6" t="s">
         <v>11</v>
       </c>
@@ -4655,10 +4662,10 @@
         <v>67</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="G8" s="23" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="H8" s="23" t="s">
         <v>80</v>
@@ -4676,10 +4683,10 @@
         <v>61</v>
       </c>
       <c r="M8" s="29" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="N8" s="22" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
     </row>
     <row r="9" spans="1:14" s="25" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
@@ -4687,10 +4694,10 @@
         <v>69</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>86</v>
+        <v>395</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="D9" s="23" t="s">
         <v>73</v>
@@ -4699,7 +4706,7 @@
         <v>76</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="G9" s="23"/>
       <c r="H9" s="23" t="s">
@@ -4718,10 +4725,10 @@
         <v>61</v>
       </c>
       <c r="M9" s="29" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="N9" s="22" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
     </row>
     <row r="10" spans="1:14" s="25" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
@@ -4729,31 +4736,31 @@
         <v>82</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>86</v>
+        <v>396</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="D10" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>378</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>377</v>
+      </c>
+      <c r="H10" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="E10" s="23" t="s">
-        <v>388</v>
-      </c>
-      <c r="F10" s="23" t="s">
-        <v>399</v>
-      </c>
-      <c r="G10" s="23" t="s">
-        <v>387</v>
-      </c>
-      <c r="H10" s="23" t="s">
+      <c r="I10" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="I10" s="23" t="s">
-        <v>123</v>
-      </c>
       <c r="J10" s="23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K10" s="24" t="s">
         <v>39</v>
@@ -4762,15 +4769,15 @@
         <v>61</v>
       </c>
       <c r="M10" s="29" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="N10" s="22" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
     </row>
     <row r="11" spans="1:14" s="25" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A11" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B11" s="23" t="s">
         <v>83</v>
@@ -4785,9 +4792,11 @@
         <v>77</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>400</v>
-      </c>
-      <c r="G11" s="23"/>
+        <v>404</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>377</v>
+      </c>
       <c r="H11" s="23" t="s">
         <v>78</v>
       </c>
@@ -4804,40 +4813,40 @@
         <v>61</v>
       </c>
       <c r="M11" s="29" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="N11" s="22" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
     </row>
     <row r="12" spans="1:14" s="25" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B12" s="23" t="s">
         <v>85</v>
       </c>
       <c r="C12" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="E12" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="E12" s="23" t="s">
-        <v>89</v>
-      </c>
       <c r="F12" s="23" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="G12" s="23"/>
       <c r="H12" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="I12" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="I12" s="23" t="s">
-        <v>91</v>
-      </c>
       <c r="J12" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K12" s="24" t="s">
         <v>39</v>
@@ -4846,40 +4855,40 @@
         <v>61</v>
       </c>
       <c r="M12" s="29" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="N12" s="22" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
     </row>
     <row r="13" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A13" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="B13" s="23" t="s">
-        <v>100</v>
-      </c>
       <c r="C13" s="23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D13" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E13" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="E13" s="23" t="s">
-        <v>98</v>
-      </c>
       <c r="F13" s="23" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="G13" s="23"/>
       <c r="H13" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="I13" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="I13" s="23" t="s">
-        <v>96</v>
-      </c>
       <c r="J13" s="23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K13" s="28" t="s">
         <v>39</v>
@@ -4888,40 +4897,40 @@
         <v>61</v>
       </c>
       <c r="M13" s="29" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="N13" s="22" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
     </row>
     <row r="14" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A14" s="23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B14" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="C14" s="23" t="s">
-        <v>102</v>
-      </c>
       <c r="D14" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E14" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="E14" s="23" t="s">
-        <v>98</v>
-      </c>
       <c r="F14" s="23" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="G14" s="23"/>
       <c r="H14" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="I14" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="I14" s="23" t="s">
-        <v>104</v>
-      </c>
       <c r="J14" s="23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K14" s="28" t="s">
         <v>39</v>
@@ -4930,40 +4939,40 @@
         <v>61</v>
       </c>
       <c r="M14" s="29" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="N14" s="22" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
     </row>
     <row r="15" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A15" s="23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D15" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="E15" s="23" t="s">
-        <v>98</v>
-      </c>
       <c r="F15" s="23" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="G15" s="23"/>
       <c r="H15" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I15" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J15" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K15" s="28" t="s">
         <v>39</v>
@@ -4972,40 +4981,40 @@
         <v>61</v>
       </c>
       <c r="M15" s="29" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="N15" s="22" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
     </row>
     <row r="16" spans="1:14" s="27" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B16" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="C16" s="23" t="s">
-        <v>111</v>
-      </c>
       <c r="D16" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E16" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="E16" s="23" t="s">
-        <v>98</v>
-      </c>
       <c r="F16" s="23" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="G16" s="23"/>
       <c r="H16" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="I16" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="I16" s="23" t="s">
-        <v>114</v>
-      </c>
       <c r="J16" s="23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K16" s="28" t="s">
         <v>39</v>
@@ -5014,40 +5023,40 @@
         <v>61</v>
       </c>
       <c r="M16" s="29" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="N16" s="22" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
     </row>
     <row r="17" spans="1:14" s="27" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D17" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E17" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="E17" s="23" t="s">
-        <v>98</v>
-      </c>
       <c r="F17" s="23" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="G17" s="23"/>
       <c r="H17" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="I17" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="I17" s="23" t="s">
-        <v>119</v>
-      </c>
       <c r="J17" s="23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K17" s="28" t="s">
         <v>39</v>
@@ -5056,40 +5065,40 @@
         <v>61</v>
       </c>
       <c r="M17" s="29" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="N17" s="22" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
     </row>
     <row r="18" spans="1:14" s="25" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A18" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>397</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="D18" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="B18" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="D18" s="23" t="s">
+      <c r="E18" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="E18" s="23" t="s">
-        <v>126</v>
-      </c>
       <c r="F18" s="23" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="G18" s="23"/>
       <c r="H18" s="23" t="s">
         <v>74</v>
       </c>
       <c r="I18" s="23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J18" s="23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K18" s="24" t="s">
         <v>39</v>
@@ -5098,40 +5107,42 @@
         <v>61</v>
       </c>
       <c r="M18" s="29" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="N18" s="22" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" s="25" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" s="25" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A19" s="22" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>86</v>
+        <v>398</v>
       </c>
       <c r="C19" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="D19" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="D19" s="23" t="s">
+      <c r="E19" s="23" t="s">
+        <v>394</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="G19" s="23" t="s">
+        <v>393</v>
+      </c>
+      <c r="H19" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="I19" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="E19" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="F19" s="23" t="s">
-        <v>401</v>
-      </c>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="I19" s="23" t="s">
-        <v>131</v>
-      </c>
       <c r="J19" s="23" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K19" s="24" t="s">
         <v>39</v>
@@ -5140,34 +5151,36 @@
         <v>61</v>
       </c>
       <c r="M19" s="29" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="N19" s="22" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
     </row>
     <row r="20" spans="1:14" s="25" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A20" s="22" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B20" s="23" t="s">
         <v>84</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D20" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="E20" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="E20" s="23" t="s">
-        <v>140</v>
-      </c>
       <c r="F20" s="23" t="s">
-        <v>401</v>
-      </c>
-      <c r="G20" s="23"/>
+        <v>404</v>
+      </c>
+      <c r="G20" s="23" t="s">
+        <v>393</v>
+      </c>
       <c r="H20" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I20" s="23" t="s">
         <v>79</v>
@@ -5182,34 +5195,36 @@
         <v>61</v>
       </c>
       <c r="M20" s="29" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="N20" s="22" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
     </row>
     <row r="21" spans="1:14" s="25" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A21" s="22" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B21" s="23" t="s">
         <v>83</v>
       </c>
       <c r="C21" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="D21" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="E21" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="E21" s="23" t="s">
-        <v>141</v>
-      </c>
       <c r="F21" s="23" t="s">
-        <v>401</v>
-      </c>
-      <c r="G21" s="23"/>
+        <v>404</v>
+      </c>
+      <c r="G21" s="23" t="s">
+        <v>393</v>
+      </c>
       <c r="H21" s="23" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I21" s="23" t="s">
         <v>81</v>
@@ -5224,40 +5239,40 @@
         <v>61</v>
       </c>
       <c r="M21" s="29" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="N21" s="22" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
     </row>
     <row r="22" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A22" s="23" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D22" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E22" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="E22" s="23" t="s">
-        <v>98</v>
-      </c>
       <c r="F22" s="23" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="G22" s="23"/>
       <c r="H22" s="23" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I22" s="23" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J22" s="23" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K22" s="28" t="s">
         <v>39</v>
@@ -5266,40 +5281,40 @@
         <v>61</v>
       </c>
       <c r="M22" s="29" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="N22" s="22" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
     </row>
     <row r="23" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A23" s="23" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D23" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E23" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="E23" s="23" t="s">
-        <v>98</v>
-      </c>
       <c r="F23" s="23" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="G23" s="23"/>
       <c r="H23" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="I23" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="I23" s="23" t="s">
-        <v>154</v>
-      </c>
       <c r="J23" s="23" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K23" s="28" t="s">
         <v>39</v>
@@ -5308,40 +5323,40 @@
         <v>61</v>
       </c>
       <c r="M23" s="29" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="N23" s="22" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
     </row>
     <row r="24" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A24" s="23" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D24" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E24" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="E24" s="23" t="s">
-        <v>98</v>
-      </c>
       <c r="F24" s="23" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="G24" s="23"/>
       <c r="H24" s="23" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I24" s="23" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J24" s="23" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K24" s="28" t="s">
         <v>39</v>
@@ -5350,40 +5365,40 @@
         <v>61</v>
       </c>
       <c r="M24" s="29" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="N24" s="22" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
     </row>
     <row r="25" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A25" s="23" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D25" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E25" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="E25" s="23" t="s">
-        <v>98</v>
-      </c>
       <c r="F25" s="23" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="G25" s="23"/>
       <c r="H25" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="I25" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="J25" s="23" t="s">
         <v>161</v>
-      </c>
-      <c r="I25" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="J25" s="23" t="s">
-        <v>163</v>
       </c>
       <c r="K25" s="28" t="s">
         <v>39</v>
@@ -5392,40 +5407,40 @@
         <v>61</v>
       </c>
       <c r="M25" s="29" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="N25" s="22" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
     </row>
     <row r="26" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A26" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="C26" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="B26" s="23" t="s">
+      <c r="D26" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="C26" s="23" t="s">
-        <v>169</v>
-      </c>
-      <c r="D26" s="23" t="s">
-        <v>170</v>
-      </c>
       <c r="E26" s="23" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F26" s="23" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="G26" s="23"/>
       <c r="H26" s="23" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="I26" s="23" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="J26" s="23" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="K26" s="28" t="s">
         <v>39</v>
@@ -5434,40 +5449,40 @@
         <v>61</v>
       </c>
       <c r="M26" s="29" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="N26" s="22" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
     </row>
     <row r="27" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A27" s="23" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E27" s="23" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F27" s="23" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="G27" s="23"/>
       <c r="H27" s="23" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I27" s="23" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="J27" s="23" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K27" s="28" t="s">
         <v>39</v>
@@ -5476,40 +5491,40 @@
         <v>61</v>
       </c>
       <c r="M27" s="29" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="N27" s="22" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
     </row>
     <row r="28" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A28" s="23" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C28" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="E28" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="D28" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="E28" s="23" t="s">
-        <v>181</v>
-      </c>
       <c r="F28" s="23" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="G28" s="23"/>
       <c r="H28" s="23" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="I28" s="23" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J28" s="23" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K28" s="28" t="s">
         <v>39</v>
@@ -5518,40 +5533,40 @@
         <v>61</v>
       </c>
       <c r="M28" s="29" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="N28" s="22" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
     </row>
     <row r="29" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A29" s="23" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="E29" s="23" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="F29" s="23" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="G29" s="23"/>
       <c r="H29" s="23" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="I29" s="23" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="J29" s="23" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="K29" s="28" t="s">
         <v>39</v>
@@ -5560,40 +5575,40 @@
         <v>61</v>
       </c>
       <c r="M29" s="29" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="N29" s="22" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
     </row>
     <row r="30" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A30" s="23" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="E30" s="23" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="F30" s="23" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="G30" s="23"/>
       <c r="H30" s="23" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="I30" s="23" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="J30" s="23" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="K30" s="28" t="s">
         <v>39</v>
@@ -5602,10 +5617,10 @@
         <v>61</v>
       </c>
       <c r="M30" s="29" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="N30" s="22" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
     </row>
   </sheetData>
@@ -5619,7 +5634,7 @@
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5673,7 +5688,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="E3" s="16">
         <f>COUNTIF(K8:K11,"Pass")</f>
@@ -5705,7 +5720,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
@@ -5754,32 +5769,32 @@
     </row>
     <row r="8" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="23" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D8" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="E8" s="23" t="s">
-        <v>98</v>
-      </c>
       <c r="F8" s="23" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="G8" s="23"/>
       <c r="H8" s="23" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I8" s="23" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="J8" s="23" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K8" s="28" t="s">
         <v>39</v>
@@ -5788,40 +5803,40 @@
         <v>61</v>
       </c>
       <c r="M8" s="30" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="N8" s="23" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
     </row>
     <row r="9" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="23" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D9" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E9" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="E9" s="23" t="s">
-        <v>98</v>
-      </c>
       <c r="F9" s="23" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="G9" s="23"/>
       <c r="H9" s="23" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="I9" s="23" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="J9" s="23" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K9" s="28" t="s">
         <v>39</v>
@@ -5830,40 +5845,40 @@
         <v>61</v>
       </c>
       <c r="M9" s="30" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="N9" s="23" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
     </row>
     <row r="10" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="C10" s="23" t="s">
         <v>195</v>
       </c>
-      <c r="B10" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>197</v>
-      </c>
       <c r="D10" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="E10" s="23" t="s">
-        <v>98</v>
-      </c>
       <c r="F10" s="23" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="G10" s="23"/>
       <c r="H10" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="I10" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="I10" s="23" t="s">
-        <v>104</v>
-      </c>
       <c r="J10" s="23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K10" s="28" t="s">
         <v>39</v>
@@ -5872,40 +5887,40 @@
         <v>61</v>
       </c>
       <c r="M10" s="30" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="N10" s="23" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
     </row>
     <row r="11" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11" s="23" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="G11" s="23"/>
       <c r="H11" s="23" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="I11" s="23" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J11" s="23" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K11" s="28" t="s">
         <v>39</v>
@@ -5914,10 +5929,10 @@
         <v>61</v>
       </c>
       <c r="M11" s="30" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="N11" s="23" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
@@ -6132,7 +6147,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
@@ -6160,7 +6175,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="E3" s="16">
         <f>COUNTIF(K8:K11,"Pass")</f>
@@ -6192,7 +6207,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
@@ -6499,7 +6514,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
@@ -6527,7 +6542,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="E3" s="16">
         <f>COUNTIF(K8:K11,"Pass")</f>
@@ -6559,7 +6574,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
@@ -6866,7 +6881,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
@@ -6926,7 +6941,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
@@ -6975,32 +6990,32 @@
     </row>
     <row r="8" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A8" s="22" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="G8" s="23"/>
       <c r="H8" s="23" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="I8" s="23" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="J8" s="23" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="K8" s="24" t="s">
         <v>39</v>
@@ -7017,32 +7032,32 @@
     </row>
     <row r="9" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A9" s="22" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="G9" s="23"/>
       <c r="H9" s="23" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="I9" s="23" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="J9" s="23" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="K9" s="24" t="s">
         <v>39</v>
@@ -7258,8 +7273,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7285,7 +7300,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
@@ -7313,7 +7328,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="E3" s="16">
         <f>COUNTIF(K8:K24,"Pass")</f>
@@ -7345,7 +7360,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
@@ -7392,32 +7407,32 @@
     </row>
     <row r="8" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="23" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D8" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" s="23" t="s">
         <v>97</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>98</v>
       </c>
       <c r="F8" s="23" t="s">
         <v>401</v>
       </c>
       <c r="G8" s="23"/>
       <c r="H8" s="23" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I8" s="23" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J8" s="23" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K8" s="28" t="s">
         <v>39</v>
@@ -7426,7 +7441,7 @@
         <v>61</v>
       </c>
       <c r="M8" s="30" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="N8" s="23" t="s">
         <v>40</v>
@@ -7434,32 +7449,32 @@
     </row>
     <row r="9" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="23" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D9" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E9" s="23" t="s">
         <v>97</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>98</v>
       </c>
       <c r="F9" s="23" t="s">
         <v>401</v>
       </c>
       <c r="G9" s="23"/>
       <c r="H9" s="23" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I9" s="23" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="J9" s="23" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K9" s="28" t="s">
         <v>39</v>
@@ -7468,7 +7483,7 @@
         <v>61</v>
       </c>
       <c r="M9" s="30" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="N9" s="23" t="s">
         <v>40</v>
@@ -7476,32 +7491,32 @@
     </row>
     <row r="10" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" s="23" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D10" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" s="23" t="s">
         <v>97</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>98</v>
       </c>
       <c r="F10" s="23" t="s">
         <v>401</v>
       </c>
       <c r="G10" s="23"/>
       <c r="H10" s="23" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="I10" s="23" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="J10" s="23" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K10" s="28" t="s">
         <v>39</v>
@@ -7510,7 +7525,7 @@
         <v>61</v>
       </c>
       <c r="M10" s="30" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="N10" s="23" t="s">
         <v>40</v>
@@ -7518,32 +7533,32 @@
     </row>
     <row r="11" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11" s="23" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D11" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E11" s="23" t="s">
         <v>97</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>98</v>
       </c>
       <c r="F11" s="23" t="s">
         <v>401</v>
       </c>
       <c r="G11" s="23"/>
       <c r="H11" s="23" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="I11" s="23" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="J11" s="23" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K11" s="28" t="s">
         <v>39</v>
@@ -7552,7 +7567,7 @@
         <v>61</v>
       </c>
       <c r="M11" s="30" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="N11" s="23" t="s">
         <v>40</v>
@@ -7560,32 +7575,32 @@
     </row>
     <row r="12" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12" s="23" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D12" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E12" s="23" t="s">
         <v>97</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>98</v>
       </c>
       <c r="F12" s="23" t="s">
         <v>401</v>
       </c>
       <c r="G12" s="23"/>
       <c r="H12" s="23" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="I12" s="23" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J12" s="23" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K12" s="28" t="s">
         <v>39</v>
@@ -7594,7 +7609,7 @@
         <v>61</v>
       </c>
       <c r="M12" s="30" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="N12" s="23" t="s">
         <v>40</v>
@@ -7602,32 +7617,32 @@
     </row>
     <row r="13" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A13" s="23" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D13" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E13" s="23" t="s">
         <v>97</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>98</v>
       </c>
       <c r="F13" s="23" t="s">
         <v>401</v>
       </c>
       <c r="G13" s="23"/>
       <c r="H13" s="23" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="I13" s="23" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J13" s="23" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K13" s="28" t="s">
         <v>39</v>
@@ -7636,7 +7651,7 @@
         <v>61</v>
       </c>
       <c r="M13" s="30" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="N13" s="23" t="s">
         <v>40</v>
@@ -7644,32 +7659,32 @@
     </row>
     <row r="14" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A14" s="23" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D14" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E14" s="23" t="s">
         <v>97</v>
-      </c>
-      <c r="E14" s="23" t="s">
-        <v>98</v>
       </c>
       <c r="F14" s="23" t="s">
         <v>401</v>
       </c>
       <c r="G14" s="23"/>
       <c r="H14" s="23" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="I14" s="23" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="J14" s="23" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K14" s="28" t="s">
         <v>39</v>
@@ -7678,7 +7693,7 @@
         <v>61</v>
       </c>
       <c r="M14" s="30" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="N14" s="23" t="s">
         <v>40</v>
@@ -7686,32 +7701,32 @@
     </row>
     <row r="15" spans="1:14" s="27" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A15" s="23" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D15" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" s="23" t="s">
         <v>97</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>98</v>
       </c>
       <c r="F15" s="23" t="s">
         <v>401</v>
       </c>
       <c r="G15" s="23"/>
       <c r="H15" s="23" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="I15" s="23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J15" s="23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K15" s="28" t="s">
         <v>39</v>
@@ -7720,7 +7735,7 @@
         <v>61</v>
       </c>
       <c r="M15" s="30" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="N15" s="23" t="s">
         <v>40</v>
@@ -7728,32 +7743,32 @@
     </row>
     <row r="16" spans="1:14" s="27" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A16" s="23" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D16" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E16" s="23" t="s">
         <v>97</v>
-      </c>
-      <c r="E16" s="23" t="s">
-        <v>98</v>
       </c>
       <c r="F16" s="23" t="s">
         <v>401</v>
       </c>
       <c r="G16" s="23"/>
       <c r="H16" s="23" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I16" s="23" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="J16" s="23" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K16" s="28" t="s">
         <v>39</v>
@@ -7762,7 +7777,7 @@
         <v>61</v>
       </c>
       <c r="M16" s="30" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="N16" s="23" t="s">
         <v>40</v>
@@ -7770,32 +7785,32 @@
     </row>
     <row r="17" spans="1:14" s="27" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A17" s="23" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D17" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E17" s="23" t="s">
         <v>97</v>
-      </c>
-      <c r="E17" s="23" t="s">
-        <v>98</v>
       </c>
       <c r="F17" s="23" t="s">
         <v>401</v>
       </c>
       <c r="G17" s="23"/>
       <c r="H17" s="23" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I17" s="23" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J17" s="23" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K17" s="28" t="s">
         <v>39</v>
@@ -7804,7 +7819,7 @@
         <v>61</v>
       </c>
       <c r="M17" s="30" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="N17" s="23" t="s">
         <v>40</v>
@@ -7812,34 +7827,34 @@
     </row>
     <row r="18" spans="1:14" s="26" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A18" s="23" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B18" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="C18" s="23" t="s">
         <v>255</v>
       </c>
-      <c r="C18" s="23" t="s">
-        <v>257</v>
-      </c>
       <c r="D18" s="23" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="F18" s="23" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="G18" s="23" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="H18" s="23" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="I18" s="23" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="J18" s="23" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K18" s="28" t="s">
         <v>39</v>
@@ -7848,7 +7863,7 @@
         <v>61</v>
       </c>
       <c r="M18" s="30" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="N18" s="23" t="s">
         <v>40</v>
@@ -7856,34 +7871,34 @@
     </row>
     <row r="19" spans="1:14" s="26" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A19" s="23" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C19" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>382</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>383</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>402</v>
+      </c>
+      <c r="G19" s="23" t="s">
+        <v>385</v>
+      </c>
+      <c r="H19" s="23" t="s">
+        <v>388</v>
+      </c>
+      <c r="I19" s="23" t="s">
         <v>258</v>
       </c>
-      <c r="D19" s="23" t="s">
-        <v>392</v>
-      </c>
-      <c r="E19" s="23" t="s">
-        <v>393</v>
-      </c>
-      <c r="F19" s="23" t="s">
-        <v>399</v>
-      </c>
-      <c r="G19" s="23" t="s">
-        <v>395</v>
-      </c>
-      <c r="H19" s="23" t="s">
-        <v>398</v>
-      </c>
-      <c r="I19" s="23" t="s">
-        <v>260</v>
-      </c>
       <c r="J19" s="23" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K19" s="28" t="s">
         <v>39</v>
@@ -7892,7 +7907,7 @@
         <v>61</v>
       </c>
       <c r="M19" s="30" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="N19" s="23" t="s">
         <v>40</v>
@@ -7900,34 +7915,34 @@
     </row>
     <row r="20" spans="1:14" s="26" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A20" s="23" t="s">
+        <v>249</v>
+      </c>
+      <c r="B20" s="23" t="s">
         <v>253</v>
       </c>
-      <c r="B20" s="23" t="s">
-        <v>255</v>
-      </c>
       <c r="C20" s="23" t="s">
+        <v>257</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>392</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>389</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>402</v>
+      </c>
+      <c r="G20" s="23" t="s">
+        <v>386</v>
+      </c>
+      <c r="H20" s="23" t="s">
+        <v>387</v>
+      </c>
+      <c r="I20" s="23" t="s">
         <v>259</v>
       </c>
-      <c r="D20" s="23" t="s">
-        <v>405</v>
-      </c>
-      <c r="E20" s="23" t="s">
-        <v>402</v>
-      </c>
-      <c r="F20" s="23" t="s">
-        <v>399</v>
-      </c>
-      <c r="G20" s="23" t="s">
-        <v>396</v>
-      </c>
-      <c r="H20" s="23" t="s">
-        <v>397</v>
-      </c>
-      <c r="I20" s="23" t="s">
-        <v>261</v>
-      </c>
       <c r="J20" s="23" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K20" s="28" t="s">
         <v>39</v>
@@ -7936,7 +7951,7 @@
         <v>61</v>
       </c>
       <c r="M20" s="30" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="N20" s="23" t="s">
         <v>40</v>
@@ -7944,34 +7959,34 @@
     </row>
     <row r="21" spans="1:14" s="26" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A21" s="23" t="s">
+        <v>249</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="C21" s="23" t="s">
         <v>254</v>
       </c>
-      <c r="B21" s="23" t="s">
-        <v>255</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>256</v>
-      </c>
       <c r="D21" s="23" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="E21" s="23" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="F21" s="23" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="G21" s="23" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="H21" s="23" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="I21" s="23" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="J21" s="23" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K21" s="28" t="s">
         <v>39</v>
@@ -7980,7 +7995,7 @@
         <v>61</v>
       </c>
       <c r="M21" s="30" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="N21" s="23" t="s">
         <v>40</v>
@@ -7988,32 +8003,32 @@
     </row>
     <row r="22" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A22" s="23" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>264</v>
+        <v>399</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="F22" s="23" t="s">
         <v>401</v>
       </c>
       <c r="G22" s="23"/>
       <c r="H22" s="23" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="I22" s="23" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="J22" s="23" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="K22" s="28" t="s">
         <v>39</v>
@@ -8022,7 +8037,7 @@
         <v>61</v>
       </c>
       <c r="M22" s="30" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="N22" s="23" t="s">
         <v>40</v>
@@ -8030,32 +8045,32 @@
     </row>
     <row r="23" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A23" s="23" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E23" s="23" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F23" s="23" t="s">
         <v>401</v>
       </c>
       <c r="G23" s="23"/>
       <c r="H23" s="23" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="I23" s="23" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="J23" s="23" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="K23" s="28" t="s">
         <v>39</v>
@@ -8064,7 +8079,7 @@
         <v>61</v>
       </c>
       <c r="M23" s="30" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="N23" s="23" t="s">
         <v>40</v>
@@ -8072,32 +8087,32 @@
     </row>
     <row r="24" spans="1:14" s="27" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A24" s="23" t="s">
-        <v>285</v>
+        <v>252</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="E24" s="23" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="F24" s="23" t="s">
         <v>401</v>
       </c>
       <c r="G24" s="23"/>
       <c r="H24" s="23" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="I24" s="23" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="J24" s="23" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="K24" s="28" t="s">
         <v>39</v>
@@ -8106,7 +8121,7 @@
         <v>61</v>
       </c>
       <c r="M24" s="30" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="N24" s="23" t="s">
         <v>40</v>
@@ -8121,8 +8136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8148,7 +8163,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
@@ -8176,7 +8191,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="E3" s="16">
         <f>COUNTIF(K8:K23,"Pass")</f>
@@ -8208,7 +8223,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
@@ -8255,32 +8270,32 @@
     </row>
     <row r="8" spans="1:14" s="27" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="23" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="D8" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" s="23" t="s">
         <v>97</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>98</v>
       </c>
       <c r="F8" s="23" t="s">
         <v>401</v>
       </c>
       <c r="G8" s="23"/>
       <c r="H8" s="23" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I8" s="23" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J8" s="23" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K8" s="28" t="s">
         <v>39</v>
@@ -8289,7 +8304,7 @@
         <v>61</v>
       </c>
       <c r="M8" s="30" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="N8" s="23" t="s">
         <v>40</v>
@@ -8297,32 +8312,32 @@
     </row>
     <row r="9" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="23" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="D9" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E9" s="23" t="s">
         <v>97</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>98</v>
       </c>
       <c r="F9" s="23" t="s">
         <v>401</v>
       </c>
       <c r="G9" s="23"/>
       <c r="H9" s="23" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I9" s="23" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="J9" s="23" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K9" s="28" t="s">
         <v>39</v>
@@ -8331,7 +8346,7 @@
         <v>61</v>
       </c>
       <c r="M9" s="30" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="N9" s="23" t="s">
         <v>40</v>
@@ -8339,32 +8354,32 @@
     </row>
     <row r="10" spans="1:14" s="27" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="23" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="D10" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" s="23" t="s">
         <v>97</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>98</v>
       </c>
       <c r="F10" s="23" t="s">
         <v>401</v>
       </c>
       <c r="G10" s="23"/>
       <c r="H10" s="23" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="I10" s="23" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="J10" s="23" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K10" s="28" t="s">
         <v>39</v>
@@ -8373,7 +8388,7 @@
         <v>61</v>
       </c>
       <c r="M10" s="30" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="N10" s="23" t="s">
         <v>40</v>
@@ -8381,32 +8396,32 @@
     </row>
     <row r="11" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11" s="23" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="D11" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E11" s="23" t="s">
         <v>97</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>98</v>
       </c>
       <c r="F11" s="23" t="s">
         <v>401</v>
       </c>
       <c r="G11" s="23"/>
       <c r="H11" s="23" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="I11" s="23" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="J11" s="23" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K11" s="28" t="s">
         <v>39</v>
@@ -8415,7 +8430,7 @@
         <v>61</v>
       </c>
       <c r="M11" s="30" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="N11" s="23" t="s">
         <v>40</v>
@@ -8423,32 +8438,32 @@
     </row>
     <row r="12" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12" s="23" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="D12" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E12" s="23" t="s">
         <v>97</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>98</v>
       </c>
       <c r="F12" s="23" t="s">
         <v>401</v>
       </c>
       <c r="G12" s="23"/>
       <c r="H12" s="23" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="I12" s="23" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J12" s="23" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K12" s="28" t="s">
         <v>39</v>
@@ -8457,7 +8472,7 @@
         <v>61</v>
       </c>
       <c r="M12" s="30" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="N12" s="23" t="s">
         <v>40</v>
@@ -8465,32 +8480,32 @@
     </row>
     <row r="13" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A13" s="23" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="D13" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E13" s="23" t="s">
         <v>97</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>98</v>
       </c>
       <c r="F13" s="23" t="s">
         <v>401</v>
       </c>
       <c r="G13" s="23"/>
       <c r="H13" s="23" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="I13" s="23" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J13" s="23" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K13" s="28" t="s">
         <v>39</v>
@@ -8499,7 +8514,7 @@
         <v>61</v>
       </c>
       <c r="M13" s="30" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="N13" s="23" t="s">
         <v>40</v>
@@ -8507,32 +8522,32 @@
     </row>
     <row r="14" spans="1:14" s="27" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="23" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="D14" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E14" s="23" t="s">
         <v>97</v>
-      </c>
-      <c r="E14" s="23" t="s">
-        <v>98</v>
       </c>
       <c r="F14" s="23" t="s">
         <v>401</v>
       </c>
       <c r="G14" s="23"/>
       <c r="H14" s="23" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="I14" s="23" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="J14" s="23" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K14" s="28" t="s">
         <v>39</v>
@@ -8541,7 +8556,7 @@
         <v>61</v>
       </c>
       <c r="M14" s="30" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="N14" s="23" t="s">
         <v>40</v>
@@ -8549,32 +8564,32 @@
     </row>
     <row r="15" spans="1:14" s="27" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A15" s="23" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="D15" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" s="23" t="s">
         <v>97</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>98</v>
       </c>
       <c r="F15" s="23" t="s">
         <v>401</v>
       </c>
       <c r="G15" s="23"/>
       <c r="H15" s="23" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="I15" s="23" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="J15" s="23" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="K15" s="28" t="s">
         <v>39</v>
@@ -8583,7 +8598,7 @@
         <v>61</v>
       </c>
       <c r="M15" s="30" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="N15" s="23" t="s">
         <v>40</v>
@@ -8591,32 +8606,32 @@
     </row>
     <row r="16" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A16" s="23" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="D16" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E16" s="23" t="s">
         <v>97</v>
-      </c>
-      <c r="E16" s="23" t="s">
-        <v>98</v>
       </c>
       <c r="F16" s="23" t="s">
         <v>401</v>
       </c>
       <c r="G16" s="23"/>
       <c r="H16" s="23" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="I16" s="23" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="J16" s="23" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="K16" s="28" t="s">
         <v>39</v>
@@ -8625,7 +8640,7 @@
         <v>61</v>
       </c>
       <c r="M16" s="30" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="N16" s="23" t="s">
         <v>40</v>
@@ -8633,32 +8648,32 @@
     </row>
     <row r="17" spans="1:14" s="27" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A17" s="23" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="D17" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E17" s="23" t="s">
         <v>97</v>
-      </c>
-      <c r="E17" s="23" t="s">
-        <v>98</v>
       </c>
       <c r="F17" s="23" t="s">
         <v>401</v>
       </c>
       <c r="G17" s="23"/>
       <c r="H17" s="23" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="I17" s="23" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="J17" s="23" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="K17" s="28" t="s">
         <v>39</v>
@@ -8667,7 +8682,7 @@
         <v>61</v>
       </c>
       <c r="M17" s="30" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="N17" s="23" t="s">
         <v>40</v>
@@ -8675,13 +8690,13 @@
     </row>
     <row r="18" spans="1:14" s="26" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A18" s="23" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="D18" s="23" t="s">
         <v>22</v>
@@ -8690,7 +8705,7 @@
         <v>27</v>
       </c>
       <c r="F18" s="23" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="G18" s="23" t="s">
         <v>33</v>
@@ -8711,7 +8726,7 @@
         <v>61</v>
       </c>
       <c r="M18" s="30" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="N18" s="23" t="s">
         <v>40</v>
@@ -8719,13 +8734,13 @@
     </row>
     <row r="19" spans="1:14" s="26" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A19" s="23" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="D19" s="23" t="s">
         <v>23</v>
@@ -8734,7 +8749,7 @@
         <v>28</v>
       </c>
       <c r="F19" s="23" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="G19" s="23" t="s">
         <v>34</v>
@@ -8755,7 +8770,7 @@
         <v>61</v>
       </c>
       <c r="M19" s="30" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="N19" s="23" t="s">
         <v>40</v>
@@ -8763,13 +8778,13 @@
     </row>
     <row r="20" spans="1:14" s="26" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A20" s="23" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="D20" s="23" t="s">
         <v>24</v>
@@ -8778,7 +8793,7 @@
         <v>29</v>
       </c>
       <c r="F20" s="23" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="G20" s="23" t="s">
         <v>33</v>
@@ -8799,7 +8814,7 @@
         <v>61</v>
       </c>
       <c r="M20" s="30" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="N20" s="23" t="s">
         <v>40</v>
@@ -8807,13 +8822,13 @@
     </row>
     <row r="21" spans="1:14" s="26" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A21" s="23" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="D21" s="23" t="s">
         <v>25</v>
@@ -8822,7 +8837,7 @@
         <v>30</v>
       </c>
       <c r="F21" s="23" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="G21" s="23" t="s">
         <v>34</v>
@@ -8843,7 +8858,7 @@
         <v>61</v>
       </c>
       <c r="M21" s="30" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="N21" s="23" t="s">
         <v>40</v>
@@ -8851,32 +8866,32 @@
     </row>
     <row r="22" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A22" s="23" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>298</v>
+        <v>400</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="F22" s="23" t="s">
         <v>401</v>
       </c>
       <c r="G22" s="23"/>
       <c r="H22" s="23" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="I22" s="23" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="J22" s="23" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="K22" s="28" t="s">
         <v>39</v>
@@ -8885,7 +8900,7 @@
         <v>61</v>
       </c>
       <c r="M22" s="30" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="N22" s="23" t="s">
         <v>40</v>
@@ -8893,32 +8908,32 @@
     </row>
     <row r="23" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A23" s="23" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E23" s="23" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F23" s="23" t="s">
         <v>401</v>
       </c>
       <c r="G23" s="23"/>
       <c r="H23" s="23" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="I23" s="23" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="J23" s="23" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="K23" s="28" t="s">
         <v>39</v>
@@ -8927,7 +8942,7 @@
         <v>61</v>
       </c>
       <c r="M23" s="30" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="N23" s="23" t="s">
         <v>40</v>

--- a/Documentation/FHF_TestCases.xlsx
+++ b/Documentation/FHF_TestCases.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SEP490\fu-house-finder\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Semester9\SEP490\fu-house-finder\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FC2D998-AA83-4C41-AF2E-083F0838B8C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="891" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="891" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="2" r:id="rId1"/>
@@ -27,7 +28,7 @@
     <sheet name="Login" sheetId="15" r:id="rId13"/>
     <sheet name="(Landlord) Upload House Info" sheetId="16" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="409">
   <si>
     <t>Project Name</t>
   </si>
@@ -1217,9 +1218,6 @@
     <t>(Staff) Dashboard</t>
   </si>
   <si>
-    <t>Report content: nhà trọ sai thông tin</t>
-  </si>
-  <si>
     <t>1. Open report modal
 2. Input into the input box</t>
   </si>
@@ -1296,16 +1294,10 @@
     <t>Enter valid landlord name &amp; press Enter</t>
   </si>
   <si>
-    <t>Comment: nhà trọ tốt</t>
-  </si>
-  <si>
     <t>1. Input into the input box</t>
   </si>
   <si>
     <t>Verify the report validation  functionality of House Detail</t>
-  </si>
-  <si>
-    <t>Verify the report invalidation  functionality of House Detail</t>
   </si>
   <si>
     <t>Verify the rate validation  functionality of House Detail</t>
@@ -1340,12 +1332,53 @@
   <si>
     <t xml:space="preserve">Access to home page
 </t>
+  </si>
+  <si>
+    <t>Report content: blank</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Report content: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nhà trọ sai thông tin</t>
+    </r>
+  </si>
+  <si>
+    <t>Verify the report invalidation functionality of House Detail</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Comment: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nhà trọ tốt</t>
+    </r>
+  </si>
+  <si>
+    <t>Input: blank</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1538,7 +1571,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1608,21 +1641,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1958,29 +1981,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:F25"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.81640625" customWidth="1"/>
-    <col min="3" max="3" width="18.54296875" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" customWidth="1"/>
-    <col min="5" max="5" width="34.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.81640625" customWidth="1"/>
-    <col min="7" max="7" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="91.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:6" ht="91.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D2" s="20" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
@@ -1995,7 +2018,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
         <v>41</v>
       </c>
@@ -2010,12 +2033,12 @@
         <v>337</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>44</v>
       </c>
@@ -2029,7 +2052,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="18" t="s">
         <v>337</v>
       </c>
@@ -2043,7 +2066,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="18" t="s">
         <v>338</v>
       </c>
@@ -2057,7 +2080,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="18" t="s">
         <v>341</v>
       </c>
@@ -2071,7 +2094,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="18" t="s">
         <v>340</v>
       </c>
@@ -2085,7 +2108,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="18" t="s">
         <v>342</v>
       </c>
@@ -2099,7 +2122,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="18">
         <v>44907</v>
       </c>
@@ -2113,7 +2136,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="18" t="s">
         <v>346</v>
       </c>
@@ -2127,7 +2150,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="18" t="s">
         <v>348</v>
       </c>
@@ -2141,7 +2164,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="18" t="s">
         <v>347</v>
       </c>
@@ -2155,31 +2178,31 @@
         <v>360</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="18"/>
       <c r="E19" s="13"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="18"/>
       <c r="E20" s="13"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="18"/>
       <c r="E21" s="13"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="18"/>
       <c r="E22" s="13"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="18"/>
       <c r="E23" s="13"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="18"/>
       <c r="E24" s="13"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="19"/>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
@@ -2193,32 +2216,32 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.453125" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.54296875" customWidth="1"/>
-    <col min="10" max="10" width="22.453125" customWidth="1"/>
-    <col min="11" max="11" width="8.1796875" customWidth="1"/>
-    <col min="12" max="12" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5703125" customWidth="1"/>
+    <col min="10" max="10" width="22.42578125" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2226,7 +2249,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2246,7 +2269,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2270,7 +2293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -2278,7 +2301,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -2286,7 +2309,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -2330,7 +2353,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -2346,7 +2369,7 @@
       <c r="M8" s="4"/>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -2362,7 +2385,7 @@
       <c r="M9" s="4"/>
       <c r="N9" s="2"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -2378,7 +2401,7 @@
       <c r="M10" s="4"/>
       <c r="N10" s="2"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -2394,7 +2417,7 @@
       <c r="M11" s="4"/>
       <c r="N11" s="2"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -2410,7 +2433,7 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -2426,7 +2449,7 @@
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -2442,7 +2465,7 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -2458,7 +2481,7 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -2474,7 +2497,7 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -2490,7 +2513,7 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -2506,7 +2529,7 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -2522,7 +2545,7 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -2538,7 +2561,7 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -2560,32 +2583,32 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.453125" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.54296875" customWidth="1"/>
-    <col min="10" max="10" width="22.453125" customWidth="1"/>
-    <col min="11" max="11" width="8.1796875" customWidth="1"/>
-    <col min="12" max="12" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5703125" customWidth="1"/>
+    <col min="10" max="10" width="22.42578125" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2593,7 +2616,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2613,7 +2636,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2637,7 +2660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -2645,7 +2668,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -2653,7 +2676,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -2697,7 +2720,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -2713,7 +2736,7 @@
       <c r="M8" s="4"/>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -2729,7 +2752,7 @@
       <c r="M9" s="4"/>
       <c r="N9" s="2"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -2745,7 +2768,7 @@
       <c r="M10" s="4"/>
       <c r="N10" s="2"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -2761,7 +2784,7 @@
       <c r="M11" s="4"/>
       <c r="N11" s="2"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -2777,7 +2800,7 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -2793,7 +2816,7 @@
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -2809,7 +2832,7 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -2825,7 +2848,7 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -2841,7 +2864,7 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -2857,7 +2880,7 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -2873,7 +2896,7 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -2889,7 +2912,7 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -2905,7 +2928,7 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -2927,32 +2950,32 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.453125" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.54296875" customWidth="1"/>
-    <col min="10" max="10" width="22.453125" customWidth="1"/>
-    <col min="11" max="11" width="8.1796875" customWidth="1"/>
-    <col min="12" max="12" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5703125" customWidth="1"/>
+    <col min="10" max="10" width="22.42578125" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2960,7 +2983,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2980,7 +3003,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -3004,7 +3027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -3012,7 +3035,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -3020,7 +3043,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -3064,7 +3087,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -3080,7 +3103,7 @@
       <c r="M8" s="4"/>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -3096,7 +3119,7 @@
       <c r="M9" s="4"/>
       <c r="N9" s="2"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -3112,7 +3135,7 @@
       <c r="M10" s="4"/>
       <c r="N10" s="2"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -3128,7 +3151,7 @@
       <c r="M11" s="4"/>
       <c r="N11" s="2"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -3144,7 +3167,7 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -3160,7 +3183,7 @@
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -3176,7 +3199,7 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -3192,7 +3215,7 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -3208,7 +3231,7 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -3224,7 +3247,7 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -3240,7 +3263,7 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -3256,7 +3279,7 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -3272,7 +3295,7 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -3294,32 +3317,32 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.453125" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.54296875" customWidth="1"/>
-    <col min="10" max="10" width="22.453125" customWidth="1"/>
-    <col min="11" max="11" width="8.1796875" customWidth="1"/>
-    <col min="12" max="12" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5703125" customWidth="1"/>
+    <col min="10" max="10" width="22.42578125" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3327,7 +3350,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -3347,7 +3370,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -3371,7 +3394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -3379,7 +3402,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -3387,7 +3410,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -3431,7 +3454,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -3447,7 +3470,7 @@
       <c r="M8" s="4"/>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -3463,7 +3486,7 @@
       <c r="M9" s="4"/>
       <c r="N9" s="2"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -3479,7 +3502,7 @@
       <c r="M10" s="4"/>
       <c r="N10" s="2"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -3495,7 +3518,7 @@
       <c r="M11" s="4"/>
       <c r="N11" s="2"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -3511,7 +3534,7 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -3527,7 +3550,7 @@
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -3543,7 +3566,7 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -3559,7 +3582,7 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -3575,7 +3598,7 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -3591,7 +3614,7 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -3607,7 +3630,7 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -3623,7 +3646,7 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -3639,7 +3662,7 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -3661,32 +3684,32 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.453125" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.54296875" customWidth="1"/>
-    <col min="10" max="10" width="22.453125" customWidth="1"/>
-    <col min="11" max="11" width="8.1796875" customWidth="1"/>
-    <col min="12" max="12" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5703125" customWidth="1"/>
+    <col min="10" max="10" width="22.42578125" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3694,7 +3717,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -3714,7 +3737,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -3738,7 +3761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -3746,7 +3769,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -3754,7 +3777,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -3798,7 +3821,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -3814,7 +3837,7 @@
       <c r="M8" s="4"/>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -3830,7 +3853,7 @@
       <c r="M9" s="4"/>
       <c r="N9" s="2"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -3846,7 +3869,7 @@
       <c r="M10" s="4"/>
       <c r="N10" s="2"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -3862,7 +3885,7 @@
       <c r="M11" s="4"/>
       <c r="N11" s="2"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -3878,7 +3901,7 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -3894,7 +3917,7 @@
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -3910,7 +3933,7 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -3926,7 +3949,7 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -3942,7 +3965,7 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -3958,7 +3981,7 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -3974,7 +3997,7 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -3990,7 +4013,7 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -4006,7 +4029,7 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -4028,32 +4051,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.453125" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.54296875" customWidth="1"/>
-    <col min="10" max="10" width="22.453125" customWidth="1"/>
-    <col min="11" max="11" width="8.1796875" customWidth="1"/>
-    <col min="12" max="12" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5703125" customWidth="1"/>
+    <col min="10" max="10" width="22.42578125" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -4061,7 +4084,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -4081,7 +4104,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -4105,7 +4128,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -4113,7 +4136,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -4121,7 +4144,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -4165,7 +4188,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>55</v>
       </c>
@@ -4209,7 +4232,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
         <v>55</v>
       </c>
@@ -4253,7 +4276,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>55</v>
       </c>
@@ -4297,7 +4320,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>55</v>
       </c>
@@ -4341,7 +4364,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -4357,7 +4380,7 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -4373,7 +4396,7 @@
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -4389,7 +4412,7 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -4405,7 +4428,7 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -4421,7 +4444,7 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -4437,7 +4460,7 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -4453,7 +4476,7 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -4469,7 +4492,7 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -4485,7 +4508,7 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -4508,32 +4531,32 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.453125" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.54296875" customWidth="1"/>
-    <col min="10" max="10" width="22.453125" customWidth="1"/>
-    <col min="11" max="11" width="8.1796875" customWidth="1"/>
-    <col min="12" max="12" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5703125" customWidth="1"/>
+    <col min="10" max="10" width="22.42578125" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -4541,7 +4564,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -4561,7 +4584,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -4585,7 +4608,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -4593,7 +4616,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -4601,7 +4624,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -4645,7 +4668,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="25" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" s="25" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>66</v>
       </c>
@@ -4662,10 +4685,10 @@
         <v>67</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G8" s="23" t="s">
-        <v>377</v>
+        <v>405</v>
       </c>
       <c r="H8" s="23" t="s">
         <v>80</v>
@@ -4689,15 +4712,15 @@
         <v>357</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="25" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
         <v>69</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D9" s="23" t="s">
         <v>73</v>
@@ -4706,9 +4729,11 @@
         <v>76</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>405</v>
-      </c>
-      <c r="G9" s="23"/>
+        <v>402</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>404</v>
+      </c>
       <c r="H9" s="23" t="s">
         <v>74</v>
       </c>
@@ -4731,27 +4756,27 @@
         <v>357</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="25" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>82</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D10" s="23" t="s">
         <v>120</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G10" s="23" t="s">
-        <v>377</v>
+        <v>405</v>
       </c>
       <c r="H10" s="23" t="s">
         <v>121</v>
@@ -4775,7 +4800,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="25" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" s="25" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>91</v>
       </c>
@@ -4792,10 +4817,10 @@
         <v>77</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G11" s="23" t="s">
-        <v>377</v>
+        <v>405</v>
       </c>
       <c r="H11" s="23" t="s">
         <v>78</v>
@@ -4819,7 +4844,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="25" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>92</v>
       </c>
@@ -4836,7 +4861,7 @@
         <v>88</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="G12" s="23"/>
       <c r="H12" s="23" t="s">
@@ -4861,7 +4886,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" s="27" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
         <v>98</v>
       </c>
@@ -4878,7 +4903,7 @@
         <v>97</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="G13" s="23"/>
       <c r="H13" s="23" t="s">
@@ -4903,7 +4928,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" s="27" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
         <v>104</v>
       </c>
@@ -4920,7 +4945,7 @@
         <v>97</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="G14" s="23"/>
       <c r="H14" s="23" t="s">
@@ -4945,7 +4970,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" s="27" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
         <v>108</v>
       </c>
@@ -4962,7 +4987,7 @@
         <v>97</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="G15" s="23"/>
       <c r="H15" s="23" t="s">
@@ -4987,7 +5012,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="27" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" s="27" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
         <v>115</v>
       </c>
@@ -5004,7 +5029,7 @@
         <v>97</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="G16" s="23"/>
       <c r="H16" s="23" t="s">
@@ -5029,7 +5054,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="17" spans="1:14" s="27" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" s="27" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
         <v>119</v>
       </c>
@@ -5046,7 +5071,7 @@
         <v>97</v>
       </c>
       <c r="F17" s="23" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="G17" s="23"/>
       <c r="H17" s="23" t="s">
@@ -5071,12 +5096,12 @@
         <v>357</v>
       </c>
     </row>
-    <row r="18" spans="1:14" s="25" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>123</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C18" s="23" t="s">
         <v>131</v>
@@ -5088,9 +5113,11 @@
         <v>125</v>
       </c>
       <c r="F18" s="23" t="s">
-        <v>406</v>
-      </c>
-      <c r="G18" s="23"/>
+        <v>403</v>
+      </c>
+      <c r="G18" s="23" t="s">
+        <v>408</v>
+      </c>
       <c r="H18" s="23" t="s">
         <v>74</v>
       </c>
@@ -5113,12 +5140,12 @@
         <v>357</v>
       </c>
     </row>
-    <row r="19" spans="1:14" s="25" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
         <v>130</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C19" s="23" t="s">
         <v>127</v>
@@ -5127,13 +5154,13 @@
         <v>128</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F19" s="23" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G19" s="23" t="s">
-        <v>393</v>
+        <v>407</v>
       </c>
       <c r="H19" s="23" t="s">
         <v>121</v>
@@ -5157,7 +5184,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="20" spans="1:14" s="25" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
         <v>132</v>
       </c>
@@ -5174,10 +5201,10 @@
         <v>138</v>
       </c>
       <c r="F20" s="23" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G20" s="23" t="s">
-        <v>393</v>
+        <v>407</v>
       </c>
       <c r="H20" s="23" t="s">
         <v>141</v>
@@ -5201,7 +5228,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="21" spans="1:14" s="25" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
         <v>134</v>
       </c>
@@ -5218,10 +5245,10 @@
         <v>139</v>
       </c>
       <c r="F21" s="23" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G21" s="23" t="s">
-        <v>393</v>
+        <v>407</v>
       </c>
       <c r="H21" s="23" t="s">
         <v>140</v>
@@ -5245,7 +5272,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="22" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
         <v>143</v>
       </c>
@@ -5262,7 +5289,7 @@
         <v>97</v>
       </c>
       <c r="F22" s="23" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="G22" s="23"/>
       <c r="H22" s="23" t="s">
@@ -5287,7 +5314,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="23" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="s">
         <v>144</v>
       </c>
@@ -5304,7 +5331,7 @@
         <v>97</v>
       </c>
       <c r="F23" s="23" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="G23" s="23"/>
       <c r="H23" s="23" t="s">
@@ -5329,7 +5356,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="24" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" s="27" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
         <v>145</v>
       </c>
@@ -5346,7 +5373,7 @@
         <v>97</v>
       </c>
       <c r="F24" s="23" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="G24" s="23"/>
       <c r="H24" s="23" t="s">
@@ -5371,7 +5398,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="25" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="s">
         <v>146</v>
       </c>
@@ -5388,7 +5415,7 @@
         <v>97</v>
       </c>
       <c r="F25" s="23" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="G25" s="23"/>
       <c r="H25" s="23" t="s">
@@ -5413,7 +5440,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="26" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" s="27" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="23" t="s">
         <v>165</v>
       </c>
@@ -5430,7 +5457,7 @@
         <v>175</v>
       </c>
       <c r="F26" s="23" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="G26" s="23"/>
       <c r="H26" s="23" t="s">
@@ -5455,7 +5482,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="27" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="23" t="s">
         <v>169</v>
       </c>
@@ -5472,7 +5499,7 @@
         <v>174</v>
       </c>
       <c r="F27" s="23" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="G27" s="23"/>
       <c r="H27" s="23" t="s">
@@ -5497,7 +5524,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="28" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="23" t="s">
         <v>182</v>
       </c>
@@ -5514,7 +5541,7 @@
         <v>179</v>
       </c>
       <c r="F28" s="23" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="G28" s="23"/>
       <c r="H28" s="23" t="s">
@@ -5539,7 +5566,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="29" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" s="27" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="23" t="s">
         <v>266</v>
       </c>
@@ -5556,7 +5583,7 @@
         <v>270</v>
       </c>
       <c r="F29" s="23" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="G29" s="23"/>
       <c r="H29" s="23" t="s">
@@ -5581,7 +5608,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="30" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="23" t="s">
         <v>273</v>
       </c>
@@ -5598,7 +5625,7 @@
         <v>277</v>
       </c>
       <c r="F30" s="23" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="G30" s="23"/>
       <c r="H30" s="23" t="s">
@@ -5630,32 +5657,32 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.453125" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.54296875" customWidth="1"/>
-    <col min="10" max="10" width="22.453125" customWidth="1"/>
-    <col min="11" max="11" width="8.1796875" customWidth="1"/>
-    <col min="12" max="12" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5703125" customWidth="1"/>
+    <col min="10" max="10" width="22.42578125" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -5663,7 +5690,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -5683,7 +5710,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -5707,7 +5734,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -5715,7 +5742,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -5723,7 +5750,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -5767,7 +5794,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" s="27" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
         <v>191</v>
       </c>
@@ -5784,7 +5811,7 @@
         <v>97</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G8" s="23"/>
       <c r="H8" s="23" t="s">
@@ -5809,7 +5836,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
         <v>192</v>
       </c>
@@ -5826,7 +5853,7 @@
         <v>97</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G9" s="23"/>
       <c r="H9" s="23" t="s">
@@ -5851,7 +5878,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" s="27" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
         <v>193</v>
       </c>
@@ -5868,7 +5895,7 @@
         <v>97</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G10" s="23"/>
       <c r="H10" s="23" t="s">
@@ -5893,7 +5920,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
         <v>282</v>
       </c>
@@ -5910,7 +5937,7 @@
         <v>179</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G11" s="23"/>
       <c r="H11" s="23" t="s">
@@ -5934,182 +5961,6 @@
       <c r="N11" s="23" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A12" s="31"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A13" s="31"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A14" s="31"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A15" s="31"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="31"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A16" s="31"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="31"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A17" s="31"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="31"/>
-      <c r="N17" s="31"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A18" s="31"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="31"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A19" s="31"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="31"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A20" s="31"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="31"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A21" s="31"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="31"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A22" s="31"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="31"/>
-      <c r="N22" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6117,32 +5968,32 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C6:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.453125" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.54296875" customWidth="1"/>
-    <col min="10" max="10" width="22.453125" customWidth="1"/>
-    <col min="11" max="11" width="8.1796875" customWidth="1"/>
-    <col min="12" max="12" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5703125" customWidth="1"/>
+    <col min="10" max="10" width="22.42578125" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -6150,7 +6001,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -6170,7 +6021,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -6194,7 +6045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -6202,7 +6053,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -6210,7 +6061,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -6254,7 +6105,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -6270,7 +6121,7 @@
       <c r="M8" s="4"/>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -6286,7 +6137,7 @@
       <c r="M9" s="4"/>
       <c r="N9" s="2"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -6302,7 +6153,7 @@
       <c r="M10" s="4"/>
       <c r="N10" s="2"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -6318,7 +6169,7 @@
       <c r="M11" s="4"/>
       <c r="N11" s="2"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -6334,7 +6185,7 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -6350,7 +6201,7 @@
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -6366,7 +6217,7 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -6382,7 +6233,7 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -6398,7 +6249,7 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -6414,7 +6265,7 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -6430,7 +6281,7 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -6446,7 +6297,7 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -6462,7 +6313,7 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -6484,32 +6335,32 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.453125" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.54296875" customWidth="1"/>
-    <col min="10" max="10" width="22.453125" customWidth="1"/>
-    <col min="11" max="11" width="8.1796875" customWidth="1"/>
-    <col min="12" max="12" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5703125" customWidth="1"/>
+    <col min="10" max="10" width="22.42578125" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -6517,7 +6368,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -6537,7 +6388,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -6561,7 +6412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -6569,7 +6420,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -6577,7 +6428,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -6621,7 +6472,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -6637,7 +6488,7 @@
       <c r="M8" s="4"/>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -6653,7 +6504,7 @@
       <c r="M9" s="4"/>
       <c r="N9" s="2"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -6669,7 +6520,7 @@
       <c r="M10" s="4"/>
       <c r="N10" s="2"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -6685,7 +6536,7 @@
       <c r="M11" s="4"/>
       <c r="N11" s="2"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -6701,7 +6552,7 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -6717,7 +6568,7 @@
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -6733,7 +6584,7 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -6749,7 +6600,7 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -6765,7 +6616,7 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -6781,7 +6632,7 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -6797,7 +6648,7 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -6813,7 +6664,7 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -6829,7 +6680,7 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -6851,32 +6702,32 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.453125" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.54296875" customWidth="1"/>
-    <col min="10" max="10" width="22.453125" customWidth="1"/>
-    <col min="11" max="11" width="8.1796875" customWidth="1"/>
-    <col min="12" max="12" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5703125" customWidth="1"/>
+    <col min="10" max="10" width="22.42578125" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -6884,7 +6735,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -6904,7 +6755,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -6928,7 +6779,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -6936,7 +6787,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -6944,7 +6795,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -6988,7 +6839,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>361</v>
       </c>
@@ -7030,7 +6881,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
         <v>364</v>
       </c>
@@ -7072,197 +6923,40 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A10" s="32"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="35"/>
-      <c r="N10" s="32"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A11" s="32"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="32"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A12" s="31"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A13" s="31"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A14" s="31"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A15" s="31"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="31"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A16" s="31"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="31"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A17" s="31"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="31"/>
-      <c r="N17" s="31"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A18" s="31"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="31"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A19" s="31"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="31"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A20" s="31"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="31"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A21" s="31"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="31"/>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="25"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="25"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="25"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="25"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E12" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7270,32 +6964,32 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.453125" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.54296875" customWidth="1"/>
-    <col min="10" max="10" width="22.453125" customWidth="1"/>
-    <col min="11" max="11" width="8.1796875" customWidth="1"/>
-    <col min="12" max="12" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5703125" customWidth="1"/>
+    <col min="10" max="10" width="22.42578125" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -7303,7 +6997,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -7323,7 +7017,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -7347,7 +7041,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -7355,7 +7049,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -7363,7 +7057,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -7382,7 +7076,9 @@
       <c r="F7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="6"/>
+      <c r="G7" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="H7" s="6" t="s">
         <v>11</v>
       </c>
@@ -7405,7 +7101,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
         <v>199</v>
       </c>
@@ -7422,7 +7118,7 @@
         <v>97</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="G8" s="23"/>
       <c r="H8" s="23" t="s">
@@ -7447,7 +7143,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
         <v>200</v>
       </c>
@@ -7464,7 +7160,7 @@
         <v>97</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="G9" s="23"/>
       <c r="H9" s="23" t="s">
@@ -7489,7 +7185,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
         <v>201</v>
       </c>
@@ -7506,7 +7202,7 @@
         <v>97</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="G10" s="23"/>
       <c r="H10" s="23" t="s">
@@ -7531,7 +7227,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
         <v>202</v>
       </c>
@@ -7548,7 +7244,7 @@
         <v>97</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="G11" s="23"/>
       <c r="H11" s="23" t="s">
@@ -7573,7 +7269,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
         <v>203</v>
       </c>
@@ -7590,7 +7286,7 @@
         <v>97</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="G12" s="23"/>
       <c r="H12" s="23" t="s">
@@ -7615,7 +7311,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
         <v>204</v>
       </c>
@@ -7632,7 +7328,7 @@
         <v>97</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="G13" s="23"/>
       <c r="H13" s="23" t="s">
@@ -7657,7 +7353,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
         <v>205</v>
       </c>
@@ -7674,7 +7370,7 @@
         <v>97</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="G14" s="23"/>
       <c r="H14" s="23" t="s">
@@ -7699,7 +7395,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="27" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
         <v>234</v>
       </c>
@@ -7716,7 +7412,7 @@
         <v>97</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="G15" s="23"/>
       <c r="H15" s="23" t="s">
@@ -7741,7 +7437,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="27" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
         <v>243</v>
       </c>
@@ -7758,7 +7454,7 @@
         <v>97</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="G16" s="23"/>
       <c r="H16" s="23" t="s">
@@ -7783,7 +7479,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:14" s="27" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
         <v>248</v>
       </c>
@@ -7800,7 +7496,7 @@
         <v>97</v>
       </c>
       <c r="F17" s="23" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="G17" s="23"/>
       <c r="H17" s="23" t="s">
@@ -7825,7 +7521,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:14" s="26" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" s="26" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
         <v>249</v>
       </c>
@@ -7836,19 +7532,19 @@
         <v>255</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F18" s="23" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G18" s="23" t="s">
+        <v>385</v>
+      </c>
+      <c r="H18" s="23" t="s">
         <v>386</v>
-      </c>
-      <c r="H18" s="23" t="s">
-        <v>387</v>
       </c>
       <c r="I18" s="23" t="s">
         <v>259</v>
@@ -7869,7 +7565,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:14" s="26" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" s="26" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
         <v>249</v>
       </c>
@@ -7880,19 +7576,19 @@
         <v>256</v>
       </c>
       <c r="D19" s="23" t="s">
+        <v>381</v>
+      </c>
+      <c r="E19" s="23" t="s">
         <v>382</v>
       </c>
-      <c r="E19" s="23" t="s">
-        <v>383</v>
-      </c>
       <c r="F19" s="23" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G19" s="23" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H19" s="23" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I19" s="23" t="s">
         <v>258</v>
@@ -7913,7 +7609,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:14" s="26" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" s="26" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
         <v>249</v>
       </c>
@@ -7924,19 +7620,19 @@
         <v>257</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E20" s="23" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F20" s="23" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G20" s="23" t="s">
+        <v>385</v>
+      </c>
+      <c r="H20" s="23" t="s">
         <v>386</v>
-      </c>
-      <c r="H20" s="23" t="s">
-        <v>387</v>
       </c>
       <c r="I20" s="23" t="s">
         <v>259</v>
@@ -7957,7 +7653,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:14" s="26" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" s="26" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
         <v>249</v>
       </c>
@@ -7968,19 +7664,19 @@
         <v>254</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E21" s="23" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F21" s="23" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G21" s="23" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H21" s="23" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I21" s="23" t="s">
         <v>258</v>
@@ -8001,12 +7697,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
         <v>250</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C22" s="23" t="s">
         <v>261</v>
@@ -8018,7 +7714,7 @@
         <v>331</v>
       </c>
       <c r="F22" s="23" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="G22" s="23"/>
       <c r="H22" s="23" t="s">
@@ -8043,7 +7739,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="s">
         <v>251</v>
       </c>
@@ -8060,7 +7756,7 @@
         <v>174</v>
       </c>
       <c r="F23" s="23" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="G23" s="23"/>
       <c r="H23" s="23" t="s">
@@ -8085,7 +7781,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:14" s="27" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
         <v>252</v>
       </c>
@@ -8102,7 +7798,7 @@
         <v>277</v>
       </c>
       <c r="F24" s="23" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="G24" s="23"/>
       <c r="H24" s="23" t="s">
@@ -8133,32 +7829,32 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.453125" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.54296875" customWidth="1"/>
-    <col min="10" max="10" width="22.453125" customWidth="1"/>
-    <col min="11" max="11" width="8.1796875" customWidth="1"/>
-    <col min="12" max="12" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5703125" customWidth="1"/>
+    <col min="10" max="10" width="22.42578125" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -8166,7 +7862,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -8186,7 +7882,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -8210,7 +7906,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -8218,7 +7914,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -8226,7 +7922,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -8245,7 +7941,9 @@
       <c r="F7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="6"/>
+      <c r="G7" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="H7" s="6" t="s">
         <v>11</v>
       </c>
@@ -8268,7 +7966,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="27" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
         <v>304</v>
       </c>
@@ -8285,7 +7983,7 @@
         <v>97</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="G8" s="23"/>
       <c r="H8" s="23" t="s">
@@ -8310,7 +8008,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
         <v>303</v>
       </c>
@@ -8327,7 +8025,7 @@
         <v>97</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="G9" s="23"/>
       <c r="H9" s="23" t="s">
@@ -8352,7 +8050,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="27" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
         <v>302</v>
       </c>
@@ -8369,7 +8067,7 @@
         <v>97</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="G10" s="23"/>
       <c r="H10" s="23" t="s">
@@ -8394,7 +8092,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
         <v>301</v>
       </c>
@@ -8411,7 +8109,7 @@
         <v>97</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="G11" s="23"/>
       <c r="H11" s="23" t="s">
@@ -8436,7 +8134,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
         <v>300</v>
       </c>
@@ -8453,7 +8151,7 @@
         <v>97</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="G12" s="23"/>
       <c r="H12" s="23" t="s">
@@ -8478,7 +8176,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
         <v>299</v>
       </c>
@@ -8495,7 +8193,7 @@
         <v>97</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="G13" s="23"/>
       <c r="H13" s="23" t="s">
@@ -8520,7 +8218,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="27" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
         <v>298</v>
       </c>
@@ -8537,7 +8235,7 @@
         <v>97</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="G14" s="23"/>
       <c r="H14" s="23" t="s">
@@ -8562,7 +8260,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="27" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
         <v>297</v>
       </c>
@@ -8579,7 +8277,7 @@
         <v>97</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="G15" s="23"/>
       <c r="H15" s="23" t="s">
@@ -8604,7 +8302,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
         <v>296</v>
       </c>
@@ -8621,7 +8319,7 @@
         <v>97</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="G16" s="23"/>
       <c r="H16" s="23" t="s">
@@ -8646,7 +8344,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:14" s="27" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
         <v>295</v>
       </c>
@@ -8663,7 +8361,7 @@
         <v>97</v>
       </c>
       <c r="F17" s="23" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="G17" s="23"/>
       <c r="H17" s="23" t="s">
@@ -8688,7 +8386,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:14" s="26" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" s="26" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
         <v>294</v>
       </c>
@@ -8705,7 +8403,7 @@
         <v>27</v>
       </c>
       <c r="F18" s="23" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G18" s="23" t="s">
         <v>33</v>
@@ -8732,7 +8430,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:14" s="26" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" s="26" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
         <v>294</v>
       </c>
@@ -8749,7 +8447,7 @@
         <v>28</v>
       </c>
       <c r="F19" s="23" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G19" s="23" t="s">
         <v>34</v>
@@ -8776,7 +8474,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:14" s="26" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" s="26" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
         <v>294</v>
       </c>
@@ -8793,7 +8491,7 @@
         <v>29</v>
       </c>
       <c r="F20" s="23" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G20" s="23" t="s">
         <v>33</v>
@@ -8820,7 +8518,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:14" s="26" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" s="26" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
         <v>294</v>
       </c>
@@ -8837,7 +8535,7 @@
         <v>30</v>
       </c>
       <c r="F21" s="23" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G21" s="23" t="s">
         <v>34</v>
@@ -8864,12 +8562,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
         <v>293</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C22" s="23" t="s">
         <v>316</v>
@@ -8881,7 +8579,7 @@
         <v>330</v>
       </c>
       <c r="F22" s="23" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="G22" s="23"/>
       <c r="H22" s="23" t="s">
@@ -8906,7 +8604,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="s">
         <v>292</v>
       </c>
@@ -8923,7 +8621,7 @@
         <v>174</v>
       </c>
       <c r="F23" s="23" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="G23" s="23"/>
       <c r="H23" s="23" t="s">

--- a/Documentation/FHF_TestCases.xlsx
+++ b/Documentation/FHF_TestCases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Semester9\SEP490\fu-house-finder\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FC2D998-AA83-4C41-AF2E-083F0838B8C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE0F527-164A-48AF-840D-B51580097693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="891" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="891" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="458">
   <si>
     <t>Project Name</t>
   </si>
@@ -1373,6 +1373,479 @@
   </si>
   <si>
     <t>Input: blank</t>
+  </si>
+  <si>
+    <t>TS_FHF_Home_002</t>
+  </si>
+  <si>
+    <t>Verify the Filter by Campus functionality of Home Page</t>
+  </si>
+  <si>
+    <t>TC_FHF_Home_FilterByCampus_001</t>
+  </si>
+  <si>
+    <t>Choose a Campus</t>
+  </si>
+  <si>
+    <t>1. Select a Campus from the Dropdown</t>
+  </si>
+  <si>
+    <t>User see Houses of the Hoa Lac Campus</t>
+  </si>
+  <si>
+    <t>System displays a list of Houses in the Hoa Lac Campus</t>
+  </si>
+  <si>
+    <t>TC_FHF_Home_FilterByCampus_002</t>
+  </si>
+  <si>
+    <t>User see Houses of the Can Tho Campus</t>
+  </si>
+  <si>
+    <t>System displays a list of Houses in the Can Tho Campus</t>
+  </si>
+  <si>
+    <t>TS_FHF_Home_003</t>
+  </si>
+  <si>
+    <t>Verify the Filter by Region functionality of Home Page</t>
+  </si>
+  <si>
+    <t>TC_FHF_Home_FilterByRegion_001</t>
+  </si>
+  <si>
+    <t>Choose a Campus, then choose a District, Province and Village</t>
+  </si>
+  <si>
+    <t>1. Select a Campus from the Dropdown
+2. Choose a District from the Dropdown
+3. Choose a Province from the Dropdown
+4. Choose a Village from the Dropdown</t>
+  </si>
+  <si>
+    <t>User see Houses of the Dong Cam Village</t>
+  </si>
+  <si>
+    <t>System displays a list of Houses in the Dong Cam Village</t>
+  </si>
+  <si>
+    <t>TC_FHF_Home_FilterByRegion_002</t>
+  </si>
+  <si>
+    <t>User see Houses of the 13KP Long Hòa Village</t>
+  </si>
+  <si>
+    <t>System displays a list of Houses in the 13KP Long Hòa Village</t>
+  </si>
+  <si>
+    <t>TC_FHF_Home_FilterByRegion_003</t>
+  </si>
+  <si>
+    <t>Choose a Campus, then choose a District</t>
+  </si>
+  <si>
+    <t>1. Select a Campus from the Dropdown
+2. Choose a District from the Dropdown</t>
+  </si>
+  <si>
+    <t>User see Houses of the Thạch Thất District</t>
+  </si>
+  <si>
+    <t>System displays a list of Houses in the Thạch Thất District</t>
+  </si>
+  <si>
+    <t>TC_FHF_Home_FilterByRegion_004</t>
+  </si>
+  <si>
+    <t>Choose a Campus, then choose a District and Province</t>
+  </si>
+  <si>
+    <t>1. Select a Campus from the Dropdown
+2. Choose a District from the Dropdown
+3. Choose a Province from the Dropdown</t>
+  </si>
+  <si>
+    <t>User see Houses of the Liên Quan Province</t>
+  </si>
+  <si>
+    <t>System displays a list of Houses in the Liên Quan Province</t>
+  </si>
+  <si>
+    <t>Verify the Filter by Distance functionality of Home Page</t>
+  </si>
+  <si>
+    <t>TC_FHF_Home_FilterByDistance_001</t>
+  </si>
+  <si>
+    <t>Choose a Campus, then input Distance</t>
+  </si>
+  <si>
+    <r>
+      <t>Campus:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> FU - Hòa Lạc</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Campus: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FU - Cần Thơ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Campus: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FU - Hòa Lạc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+District: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Thạch Thất</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Province: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Thị trấn Liên Quan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Village: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Đồng Cam</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Campus: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FU - Hồ Chí Minh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+District: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Thành phố Thủ Đức</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Province: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Phường Long Thạnh Mỹ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Village: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>13KP Long Hòa</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Campus: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FU - Hòa Lạc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+District: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Thạch Thất</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Campus: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FU - Hòa Lạc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+District: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Thạch Thất</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Province: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Thị trấn Liên Quan</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Campus: FU - Hòa Lạc
+Distance - From: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Distance - To: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>User see Houses with Distance from 1 to 2 km from FPTU Hoa Lac Campus</t>
+  </si>
+  <si>
+    <t>System displays a list of Houses with Distance from 1 to 2 km from FPTU Hoa Lac Campus</t>
+  </si>
+  <si>
+    <t>System displays a list of  Houses with Distance from 1 to 2 km from FPTU Hoa Lac Campus</t>
+  </si>
+  <si>
+    <t>TC_FHF_Home_FilterByDistance_002</t>
+  </si>
+  <si>
+    <t>Campus: FU - Hòa Lạc
+Distance - From: blank
+Distance - To: blank</t>
+  </si>
+  <si>
+    <t>User see no changes</t>
+  </si>
+  <si>
+    <t>1. Select a Campus from the Dropdown
+2. Input valid Distance - From
+3. Input valid Distance - To
+4. Click "Áp dụng"</t>
+  </si>
+  <si>
+    <t>1. Select a Campus from the Dropdown
+2. Input blank Distance - From
+3. Input blank Distance - To
+4. Click "Áp dụng"</t>
+  </si>
+  <si>
+    <t>System doesn’t change</t>
   </si>
 </sst>
 </file>
@@ -1984,7 +2457,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
@@ -4052,10 +4525,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4063,13 +4536,13 @@
     <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" customWidth="1"/>
-    <col min="5" max="5" width="26" customWidth="1"/>
+    <col min="4" max="4" width="25.42578125" customWidth="1"/>
+    <col min="5" max="5" width="31.140625" customWidth="1"/>
     <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.5703125" customWidth="1"/>
-    <col min="10" max="10" width="22.42578125" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="8" max="8" width="27.42578125" customWidth="1"/>
+    <col min="9" max="9" width="34" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.140625" customWidth="1"/>
     <col min="11" max="11" width="8.140625" customWidth="1"/>
     <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
@@ -4112,8 +4585,8 @@
         <v>338</v>
       </c>
       <c r="E3" s="16">
-        <f>COUNTIF(K8:K11,"Pass")</f>
-        <v>4</v>
+        <f>COUNTIF(K8:K19,"Pass")</f>
+        <v>12</v>
       </c>
       <c r="F3" s="16">
         <f>COUNTIF(K8:K11,"Fail")</f>
@@ -4364,133 +4837,357 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
+    <row r="12" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
+        <v>409</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>410</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>411</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>412</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>413</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>442</v>
+      </c>
+      <c r="H12" s="23" t="s">
+        <v>414</v>
+      </c>
+      <c r="I12" s="23" t="s">
+        <v>415</v>
+      </c>
+      <c r="J12" s="23" t="s">
+        <v>415</v>
+      </c>
+      <c r="K12" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L12" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" s="29" t="s">
+        <v>338</v>
+      </c>
+      <c r="N12" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
+        <v>409</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>410</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>416</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>412</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>413</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>443</v>
+      </c>
+      <c r="H13" s="23" t="s">
+        <v>417</v>
+      </c>
+      <c r="I13" s="23" t="s">
+        <v>418</v>
+      </c>
+      <c r="J13" s="23" t="s">
+        <v>418</v>
+      </c>
+      <c r="K13" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L13" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M13" s="29" t="s">
+        <v>338</v>
+      </c>
+      <c r="N13" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
+        <v>419</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>420</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>421</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>422</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>423</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>444</v>
+      </c>
+      <c r="H14" s="23" t="s">
+        <v>424</v>
+      </c>
+      <c r="I14" s="23" t="s">
+        <v>425</v>
+      </c>
+      <c r="J14" s="23" t="s">
+        <v>425</v>
+      </c>
+      <c r="K14" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L14" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M14" s="29" t="s">
+        <v>338</v>
+      </c>
+      <c r="N14" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="135" x14ac:dyDescent="0.25">
+      <c r="A15" s="22" t="s">
+        <v>419</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>420</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>426</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>422</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>423</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="23" t="s">
+        <v>445</v>
+      </c>
+      <c r="H15" s="23" t="s">
+        <v>427</v>
+      </c>
+      <c r="I15" s="23" t="s">
+        <v>428</v>
+      </c>
+      <c r="J15" s="23" t="s">
+        <v>428</v>
+      </c>
+      <c r="K15" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L15" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="29" t="s">
+        <v>338</v>
+      </c>
+      <c r="N15" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="22" t="s">
+        <v>419</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>420</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>429</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>430</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>431</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>446</v>
+      </c>
+      <c r="H16" s="23" t="s">
+        <v>432</v>
+      </c>
+      <c r="I16" s="23" t="s">
+        <v>433</v>
+      </c>
+      <c r="J16" s="23" t="s">
+        <v>433</v>
+      </c>
+      <c r="K16" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L16" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M16" s="29" t="s">
+        <v>338</v>
+      </c>
+      <c r="N16" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="90" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
+        <v>419</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>420</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>434</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>435</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>436</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="23" t="s">
+        <v>447</v>
+      </c>
+      <c r="H17" s="23" t="s">
+        <v>437</v>
+      </c>
+      <c r="I17" s="23" t="s">
+        <v>438</v>
+      </c>
+      <c r="J17" s="23" t="s">
+        <v>438</v>
+      </c>
+      <c r="K17" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L17" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M17" s="29" t="s">
+        <v>338</v>
+      </c>
+      <c r="N17" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="90" x14ac:dyDescent="0.25">
+      <c r="A18" s="22" t="s">
+        <v>419</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>440</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>441</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>455</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="23" t="s">
+        <v>448</v>
+      </c>
+      <c r="H18" s="23" t="s">
+        <v>449</v>
+      </c>
+      <c r="I18" s="23" t="s">
+        <v>450</v>
+      </c>
+      <c r="J18" s="23" t="s">
+        <v>451</v>
+      </c>
+      <c r="K18" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L18" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="29" t="s">
+        <v>338</v>
+      </c>
+      <c r="N18" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="90" x14ac:dyDescent="0.25">
+      <c r="A19" s="22" t="s">
+        <v>419</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>452</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>441</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>456</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="23" t="s">
+        <v>453</v>
+      </c>
+      <c r="H19" s="23" t="s">
+        <v>454</v>
+      </c>
+      <c r="I19" s="23" t="s">
+        <v>457</v>
+      </c>
+      <c r="J19" s="23" t="s">
+        <v>457</v>
+      </c>
+      <c r="K19" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L19" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M19" s="29" t="s">
+        <v>338</v>
+      </c>
+      <c r="N19" s="22" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
@@ -4508,22 +5205,6 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4534,8 +5215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Documentation/FHF_TestCases.xlsx
+++ b/Documentation/FHF_TestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Semester9\SEP490\fu-house-finder\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE0F527-164A-48AF-840D-B51580097693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A46810B-239C-4BEA-9189-5489B692C3E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="891" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="459">
   <si>
     <t>Project Name</t>
   </si>
@@ -1469,6 +1469,9 @@
   </si>
   <si>
     <t>System displays a list of Houses in the Liên Quan Province</t>
+  </si>
+  <si>
+    <t>TS_FHF_Home_004</t>
   </si>
   <si>
     <t>Verify the Filter by Distance functionality of Home Page</t>
@@ -3427,7 +3430,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4527,8 +4530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4857,7 +4860,7 @@
         <v>31</v>
       </c>
       <c r="G12" s="23" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H12" s="23" t="s">
         <v>414</v>
@@ -4901,7 +4904,7 @@
         <v>31</v>
       </c>
       <c r="G13" s="23" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H13" s="23" t="s">
         <v>417</v>
@@ -4945,7 +4948,7 @@
         <v>31</v>
       </c>
       <c r="G14" s="23" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H14" s="23" t="s">
         <v>424</v>
@@ -4989,7 +4992,7 @@
         <v>31</v>
       </c>
       <c r="G15" s="23" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H15" s="23" t="s">
         <v>427</v>
@@ -5033,7 +5036,7 @@
         <v>31</v>
       </c>
       <c r="G16" s="23" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H16" s="23" t="s">
         <v>432</v>
@@ -5077,7 +5080,7 @@
         <v>31</v>
       </c>
       <c r="G17" s="23" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H17" s="23" t="s">
         <v>437</v>
@@ -5103,34 +5106,34 @@
     </row>
     <row r="18" spans="1:14" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
-        <v>419</v>
+        <v>439</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="F18" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G18" s="23" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H18" s="23" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="I18" s="23" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="J18" s="23" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="K18" s="24" t="s">
         <v>39</v>
@@ -5147,34 +5150,34 @@
     </row>
     <row r="19" spans="1:14" ht="90" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
-        <v>419</v>
+        <v>439</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="F19" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G19" s="23" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H19" s="23" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="I19" s="23" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="J19" s="23" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="K19" s="24" t="s">
         <v>39</v>
@@ -5216,7 +5219,7 @@
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:B10"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8513,7 +8516,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>

--- a/Documentation/FHF_TestCases.xlsx
+++ b/Documentation/FHF_TestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Semester9\SEP490\fu-house-finder\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A46810B-239C-4BEA-9189-5489B692C3E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8817A882-B214-4366-A718-1A1551814ACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="891" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1498" uniqueCount="490">
   <si>
     <t>Project Name</t>
   </si>
@@ -1849,6 +1849,362 @@
   </si>
   <si>
     <t>System doesn’t change</t>
+  </si>
+  <si>
+    <t>TC_FHF_Home_FilterByDistance_003</t>
+  </si>
+  <si>
+    <t>1. Select a Campus from the Dropdown
+2. Input invalid Distance - From
+3. Input valid Distance - To
+4. Click "Áp dụng"</t>
+  </si>
+  <si>
+    <t>User failed to input text to Form</t>
+  </si>
+  <si>
+    <t>TC_FHF_Home_FilterByDistance_004</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Campus: FU - Hòa Lạc
+Distance - From: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>abc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Distance - To: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Campus: FU - Hòa Lạc
+Distance - From: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Distance - To: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>TC_FHF_Home_FilterByDistance_005</t>
+  </si>
+  <si>
+    <t>Choose a Campus, then input blank Distance</t>
+  </si>
+  <si>
+    <t>Choose a Campus, then input invalid Distance</t>
+  </si>
+  <si>
+    <t>1. Select a Campus from the Dropdown
+2. Input valid Distance - From
+3. Input invalid Distance - To
+4. Click "Áp dụng"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Campus: FU - Hòa Lạc
+Distance - From: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Distance - To: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-2</t>
+    </r>
+  </si>
+  <si>
+    <t>System displays alert: "Giá trị nhập vào không hợp lệ!"</t>
+  </si>
+  <si>
+    <t>TC_FHF_Home_FilterByDistance_006</t>
+  </si>
+  <si>
+    <t>1. Select a Campus from the Dropdown
+2. Input invalid Distance - From
+3. Input invalid Distance - To
+4. Click "Áp dụng"</t>
+  </si>
+  <si>
+    <r>
+      <t>Campus: FU - Hòa Lạc
+Distance - From: -</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Distance - To: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-2</t>
+    </r>
+  </si>
+  <si>
+    <t>TC_FHF_Home_FilterByDistance_007</t>
+  </si>
+  <si>
+    <t>Choose a Campus, then input valid Distance but From is larger than To</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Campus: FU - Hòa Lạc
+Distance - From: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Distance - To: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>Input Distance but not choosing Campus</t>
+  </si>
+  <si>
+    <t>1. Input valid Distance - From
+2. Input valid Distance - To
+3. Click "Áp dụng"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Distance - From: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Distance - To: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>System displays alert: "Vui lòng chọn Cơ sở bạn học trước!"</t>
+  </si>
+  <si>
+    <t>TC_FHF_Home_FilterByDistance_008</t>
+  </si>
+  <si>
+    <t>TS_FHF_Home_005</t>
+  </si>
+  <si>
+    <t>Verify the Filter by Price functionality of Home Page</t>
+  </si>
+  <si>
+    <t>TC_FHF_Home_FilterByPrice_001</t>
+  </si>
+  <si>
+    <t>Input valid Prices</t>
+  </si>
+  <si>
+    <t>1. Input valid Price - From
+2. Input valid Price - To
+3. Click "Áp dụng"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Price - From: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2000000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Price - To: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3000000</t>
+    </r>
+  </si>
+  <si>
+    <t>User see Houses with Room Price from 2000000 to 3000000 per month</t>
+  </si>
+  <si>
+    <t>System displays a list of Houses with Room Price from 2000000 to 3000000 per month</t>
   </si>
 </sst>
 </file>
@@ -4528,10 +4884,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4664,7 +5020,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>55</v>
       </c>
@@ -4752,7 +5108,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>55</v>
       </c>
@@ -4972,7 +5328,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="135" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>419</v>
       </c>
@@ -5104,7 +5460,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="90" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>439</v>
       </c>
@@ -5148,7 +5504,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="90" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
         <v>439</v>
       </c>
@@ -5159,7 +5515,7 @@
         <v>453</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>442</v>
+        <v>466</v>
       </c>
       <c r="E19" s="23" t="s">
         <v>457</v>
@@ -5192,21 +5548,441 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
+    <row r="20" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A20" s="22" t="s">
+        <v>439</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>440</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>459</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>467</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>460</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" s="23" t="s">
+        <v>463</v>
+      </c>
+      <c r="H20" s="23" t="s">
+        <v>461</v>
+      </c>
+      <c r="I20" s="23" t="s">
+        <v>458</v>
+      </c>
+      <c r="J20" s="23" t="s">
+        <v>458</v>
+      </c>
+      <c r="K20" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L20" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M20" s="29" t="s">
+        <v>338</v>
+      </c>
+      <c r="N20" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A21" s="22" t="s">
+        <v>439</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>440</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>462</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>467</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>460</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" s="23" t="s">
+        <v>464</v>
+      </c>
+      <c r="H21" s="23" t="s">
+        <v>455</v>
+      </c>
+      <c r="I21" s="23" t="s">
+        <v>470</v>
+      </c>
+      <c r="J21" s="23" t="s">
+        <v>470</v>
+      </c>
+      <c r="K21" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L21" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M21" s="29" t="s">
+        <v>338</v>
+      </c>
+      <c r="N21" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A22" s="22" t="s">
+        <v>439</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>440</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>465</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>467</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>468</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" s="23" t="s">
+        <v>469</v>
+      </c>
+      <c r="H22" s="23" t="s">
+        <v>455</v>
+      </c>
+      <c r="I22" s="23" t="s">
+        <v>470</v>
+      </c>
+      <c r="J22" s="23" t="s">
+        <v>470</v>
+      </c>
+      <c r="K22" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L22" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M22" s="29" t="s">
+        <v>338</v>
+      </c>
+      <c r="N22" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A23" s="22" t="s">
+        <v>439</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>440</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>471</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>467</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>472</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23" s="23" t="s">
+        <v>473</v>
+      </c>
+      <c r="H23" s="23" t="s">
+        <v>455</v>
+      </c>
+      <c r="I23" s="23" t="s">
+        <v>470</v>
+      </c>
+      <c r="J23" s="23" t="s">
+        <v>470</v>
+      </c>
+      <c r="K23" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L23" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M23" s="29" t="s">
+        <v>338</v>
+      </c>
+      <c r="N23" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A24" s="22" t="s">
+        <v>439</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>440</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>474</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>475</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>456</v>
+      </c>
+      <c r="F24" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24" s="23" t="s">
+        <v>476</v>
+      </c>
+      <c r="H24" s="23" t="s">
+        <v>455</v>
+      </c>
+      <c r="I24" s="23" t="s">
+        <v>470</v>
+      </c>
+      <c r="J24" s="23" t="s">
+        <v>470</v>
+      </c>
+      <c r="K24" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L24" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="29" t="s">
+        <v>338</v>
+      </c>
+      <c r="N24" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="22" t="s">
+        <v>439</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>440</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>481</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>477</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>478</v>
+      </c>
+      <c r="F25" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G25" s="23" t="s">
+        <v>479</v>
+      </c>
+      <c r="H25" s="23" t="s">
+        <v>455</v>
+      </c>
+      <c r="I25" s="23" t="s">
+        <v>480</v>
+      </c>
+      <c r="J25" s="23" t="s">
+        <v>480</v>
+      </c>
+      <c r="K25" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L25" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M25" s="29" t="s">
+        <v>338</v>
+      </c>
+      <c r="N25" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="22" t="s">
+        <v>482</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>483</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>484</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>485</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>486</v>
+      </c>
+      <c r="F26" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G26" s="23" t="s">
+        <v>487</v>
+      </c>
+      <c r="H26" s="23" t="s">
+        <v>488</v>
+      </c>
+      <c r="I26" s="23" t="s">
+        <v>489</v>
+      </c>
+      <c r="J26" s="23" t="s">
+        <v>489</v>
+      </c>
+      <c r="K26" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L26" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M26" s="29" t="s">
+        <v>338</v>
+      </c>
+      <c r="N26" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="22"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="22"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="22"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="22"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="22"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="22"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="22"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="22"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="22"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="22"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="22"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="29"/>
+      <c r="N32" s="22"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="22"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="29"/>
+      <c r="N33" s="22"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="22"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="22"/>
+      <c r="M34" s="29"/>
+      <c r="N34" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation/FHF_TestCases.xlsx
+++ b/Documentation/FHF_TestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Semester9\SEP490\fu-house-finder\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8817A882-B214-4366-A718-1A1551814ACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEAAD1DE-84E9-4E45-9244-50D6D253A13C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="891" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1498" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1554" uniqueCount="505">
   <si>
     <t>Project Name</t>
   </si>
@@ -2205,6 +2205,202 @@
   </si>
   <si>
     <t>System displays a list of Houses with Room Price from 2000000 to 3000000 per month</t>
+  </si>
+  <si>
+    <t>TC_FHF_Home_FilterByPrice_002</t>
+  </si>
+  <si>
+    <t>Input invalid Prices</t>
+  </si>
+  <si>
+    <t>1. Input invalid Price - From
+2. Input valid Price - To
+3. Click "Áp dụng"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Price - From: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-3200000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Price - To: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2000000</t>
+    </r>
+  </si>
+  <si>
+    <t>TC_FHF_Home_FilterByPrice_003</t>
+  </si>
+  <si>
+    <t>1. Input valid Price - From
+2. Input invalid Price - To
+3. Click "Áp dụng"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Price - From: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2000000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Price - To: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-3000000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Price - From: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-3000000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Price - To: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-2000000</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Input invalid Price - From
+2. Input invalid Price - To
+3. Click "Áp dụng"</t>
+  </si>
+  <si>
+    <t>TC_FHF_Home_FilterByPrice_004</t>
+  </si>
+  <si>
+    <t>TC_FHF_Home_FilterByPrice_005</t>
+  </si>
+  <si>
+    <t>Input invalid data type of Prices</t>
+  </si>
+  <si>
+    <t>1. Input invalid data type of Price - From
+2. Input valid Price - To
+3. Click "Áp dụng"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Price - From: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>abc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Price - To: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2000000</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Select a Campus from the Dropdown
+2. Input invalid data type of Distance - From
+3. Input valid Distance - To
+4. Click "Áp dụng"</t>
   </si>
 </sst>
 </file>
@@ -4886,8 +5082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5548,7 +5744,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="90" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
         <v>439</v>
       </c>
@@ -5562,7 +5758,7 @@
         <v>467</v>
       </c>
       <c r="E20" s="23" t="s">
-        <v>460</v>
+        <v>504</v>
       </c>
       <c r="F20" s="23" t="s">
         <v>31</v>
@@ -5856,69 +6052,181 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="22"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="29"/>
-      <c r="N27" s="22"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="22"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="22"/>
-      <c r="M28" s="29"/>
-      <c r="N28" s="22"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="22"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="24"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="29"/>
-      <c r="N29" s="22"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="22"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="24"/>
-      <c r="L30" s="22"/>
-      <c r="M30" s="29"/>
-      <c r="N30" s="22"/>
+    <row r="27" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="22" t="s">
+        <v>482</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>483</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>490</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>491</v>
+      </c>
+      <c r="E27" s="23" t="s">
+        <v>492</v>
+      </c>
+      <c r="F27" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G27" s="23" t="s">
+        <v>493</v>
+      </c>
+      <c r="H27" s="23" t="s">
+        <v>455</v>
+      </c>
+      <c r="I27" s="23" t="s">
+        <v>470</v>
+      </c>
+      <c r="J27" s="23" t="s">
+        <v>470</v>
+      </c>
+      <c r="K27" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L27" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" s="29" t="s">
+        <v>338</v>
+      </c>
+      <c r="N27" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="22" t="s">
+        <v>482</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>483</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>494</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>491</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>495</v>
+      </c>
+      <c r="F28" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G28" s="23" t="s">
+        <v>496</v>
+      </c>
+      <c r="H28" s="23" t="s">
+        <v>455</v>
+      </c>
+      <c r="I28" s="23" t="s">
+        <v>470</v>
+      </c>
+      <c r="J28" s="23" t="s">
+        <v>470</v>
+      </c>
+      <c r="K28" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L28" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M28" s="29" t="s">
+        <v>338</v>
+      </c>
+      <c r="N28" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="22" t="s">
+        <v>482</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>483</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>499</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>491</v>
+      </c>
+      <c r="E29" s="23" t="s">
+        <v>498</v>
+      </c>
+      <c r="F29" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="23" t="s">
+        <v>497</v>
+      </c>
+      <c r="H29" s="23" t="s">
+        <v>455</v>
+      </c>
+      <c r="I29" s="23" t="s">
+        <v>470</v>
+      </c>
+      <c r="J29" s="23" t="s">
+        <v>470</v>
+      </c>
+      <c r="K29" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L29" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M29" s="29" t="s">
+        <v>338</v>
+      </c>
+      <c r="N29" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A30" s="22" t="s">
+        <v>482</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>483</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>500</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>501</v>
+      </c>
+      <c r="E30" s="23" t="s">
+        <v>502</v>
+      </c>
+      <c r="F30" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G30" s="23" t="s">
+        <v>503</v>
+      </c>
+      <c r="H30" s="23" t="s">
+        <v>461</v>
+      </c>
+      <c r="I30" s="23" t="s">
+        <v>458</v>
+      </c>
+      <c r="J30" s="23" t="s">
+        <v>458</v>
+      </c>
+      <c r="K30" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L30" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M30" s="29" t="s">
+        <v>338</v>
+      </c>
+      <c r="N30" s="22" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="22"/>

--- a/Documentation/FHF_TestCases.xlsx
+++ b/Documentation/FHF_TestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Semester9\SEP490\fu-house-finder\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEAAD1DE-84E9-4E45-9244-50D6D253A13C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE5568D-15D6-463C-A2AA-58F576215D70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="891" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1554" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1596" uniqueCount="527">
   <si>
     <t>Project Name</t>
   </si>
@@ -1390,16 +1390,10 @@
     <t>1. Select a Campus from the Dropdown</t>
   </si>
   <si>
-    <t>User see Houses of the Hoa Lac Campus</t>
-  </si>
-  <si>
     <t>System displays a list of Houses in the Hoa Lac Campus</t>
   </si>
   <si>
     <t>TC_FHF_Home_FilterByCampus_002</t>
-  </si>
-  <si>
-    <t>User see Houses of the Can Tho Campus</t>
   </si>
   <si>
     <t>System displays a list of Houses in the Can Tho Campus</t>
@@ -1423,16 +1417,10 @@
 4. Choose a Village from the Dropdown</t>
   </si>
   <si>
-    <t>User see Houses of the Dong Cam Village</t>
-  </si>
-  <si>
     <t>System displays a list of Houses in the Dong Cam Village</t>
   </si>
   <si>
     <t>TC_FHF_Home_FilterByRegion_002</t>
-  </si>
-  <si>
-    <t>User see Houses of the 13KP Long Hòa Village</t>
   </si>
   <si>
     <t>System displays a list of Houses in the 13KP Long Hòa Village</t>
@@ -1446,9 +1434,6 @@
   <si>
     <t>1. Select a Campus from the Dropdown
 2. Choose a District from the Dropdown</t>
-  </si>
-  <si>
-    <t>User see Houses of the Thạch Thất District</t>
   </si>
   <si>
     <t>System displays a list of Houses in the Thạch Thất District</t>
@@ -1463,9 +1448,6 @@
     <t>1. Select a Campus from the Dropdown
 2. Choose a District from the Dropdown
 3. Choose a Province from the Dropdown</t>
-  </si>
-  <si>
-    <t>User see Houses of the Liên Quan Province</t>
   </si>
   <si>
     <t>System displays a list of Houses in the Liên Quan Province</t>
@@ -1816,9 +1798,6 @@
     </r>
   </si>
   <si>
-    <t>User see Houses with Distance from 1 to 2 km from FPTU Hoa Lac Campus</t>
-  </si>
-  <si>
     <t>System displays a list of Houses with Distance from 1 to 2 km from FPTU Hoa Lac Campus</t>
   </si>
   <si>
@@ -1831,9 +1810,6 @@
     <t>Campus: FU - Hòa Lạc
 Distance - From: blank
 Distance - To: blank</t>
-  </si>
-  <si>
-    <t>User see no changes</t>
   </si>
   <si>
     <t>1. Select a Campus from the Dropdown
@@ -2201,9 +2177,6 @@
     </r>
   </si>
   <si>
-    <t>User see Houses with Room Price from 2000000 to 3000000 per month</t>
-  </si>
-  <si>
     <t>System displays a list of Houses with Room Price from 2000000 to 3000000 per month</t>
   </si>
   <si>
@@ -2401,6 +2374,125 @@
 2. Input invalid data type of Distance - From
 3. Input valid Distance - To
 4. Click "Áp dụng"</t>
+  </si>
+  <si>
+    <t>Select a Room Type from list</t>
+  </si>
+  <si>
+    <t>Verify the Filter by Room Type functionality of Home Page</t>
+  </si>
+  <si>
+    <t>TC_FHF_Home_FilterByRoomType_001</t>
+  </si>
+  <si>
+    <t>1. Select a Room Type from list of Room Types</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Room Type: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Khép kín</t>
+    </r>
+  </si>
+  <si>
+    <t>User sees Houses with the name searched</t>
+  </si>
+  <si>
+    <t>User sees no House</t>
+  </si>
+  <si>
+    <t>User sees Houses of the Hoa Lac Campus</t>
+  </si>
+  <si>
+    <t>User sees Houses of the Can Tho Campus</t>
+  </si>
+  <si>
+    <t>User sees Houses of the Dong Cam Village</t>
+  </si>
+  <si>
+    <t>User sees Houses of the 13KP Long Hòa Village</t>
+  </si>
+  <si>
+    <t>User sees Houses of the Thạch Thất District</t>
+  </si>
+  <si>
+    <t>User sees Houses of the Liên Quan Province</t>
+  </si>
+  <si>
+    <t>User sees Houses with Distance from 1 to 2 km from FPTU Hoa Lac Campus</t>
+  </si>
+  <si>
+    <t>User sees no changes</t>
+  </si>
+  <si>
+    <t>User sees Houses with Room Price from 2000000 to 3000000 per month</t>
+  </si>
+  <si>
+    <t>User sees Houses containing Rooms of the selected Room Type</t>
+  </si>
+  <si>
+    <t>System displays Houses containing Rooms of the selected Room Type</t>
+  </si>
+  <si>
+    <t>TC_FHF_Home_FilterByRoomType_002</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Room Type: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Khép kín; Chung cư mini</t>
+    </r>
+  </si>
+  <si>
+    <t>User sees Houses containing Rooms of the selected Room Types</t>
+  </si>
+  <si>
+    <t>System displays Houses containing Rooms of the selected Room Types</t>
+  </si>
+  <si>
+    <t>TC_FHF_Home_FilterByRoomType_003</t>
+  </si>
+  <si>
+    <t>Select 2 Room Types from list</t>
+  </si>
+  <si>
+    <t>Select all Room Types from list</t>
+  </si>
+  <si>
+    <t>1. Select 2 Room Types from list of Room Types</t>
+  </si>
+  <si>
+    <t>1. Select all 3 Room Type from list of Room Types</t>
+  </si>
+  <si>
+    <t>Room Type: all</t>
+  </si>
+  <si>
+    <t>User sees all Houses</t>
+  </si>
+  <si>
+    <t>System displays all Houses</t>
+  </si>
+  <si>
+    <t>TS_FHF_Home_006</t>
   </si>
 </sst>
 </file>
@@ -5082,8 +5174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5239,7 +5331,7 @@
         <v>33</v>
       </c>
       <c r="H8" s="23" t="s">
-        <v>35</v>
+        <v>501</v>
       </c>
       <c r="I8" s="23" t="s">
         <v>36</v>
@@ -5260,7 +5352,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
         <v>55</v>
       </c>
@@ -5283,7 +5375,7 @@
         <v>34</v>
       </c>
       <c r="H9" s="23" t="s">
-        <v>37</v>
+        <v>502</v>
       </c>
       <c r="I9" s="23" t="s">
         <v>38</v>
@@ -5327,7 +5419,7 @@
         <v>33</v>
       </c>
       <c r="H10" s="23" t="s">
-        <v>35</v>
+        <v>501</v>
       </c>
       <c r="I10" s="23" t="s">
         <v>36</v>
@@ -5348,7 +5440,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>55</v>
       </c>
@@ -5371,7 +5463,7 @@
         <v>34</v>
       </c>
       <c r="H11" s="23" t="s">
-        <v>37</v>
+        <v>502</v>
       </c>
       <c r="I11" s="23" t="s">
         <v>38</v>
@@ -5412,16 +5504,16 @@
         <v>31</v>
       </c>
       <c r="G12" s="23" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="H12" s="23" t="s">
+        <v>503</v>
+      </c>
+      <c r="I12" s="23" t="s">
         <v>414</v>
       </c>
-      <c r="I12" s="23" t="s">
-        <v>415</v>
-      </c>
       <c r="J12" s="23" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="K12" s="24" t="s">
         <v>39</v>
@@ -5444,7 +5536,7 @@
         <v>410</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D13" s="23" t="s">
         <v>412</v>
@@ -5456,16 +5548,16 @@
         <v>31</v>
       </c>
       <c r="G13" s="23" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="H13" s="23" t="s">
-        <v>417</v>
+        <v>504</v>
       </c>
       <c r="I13" s="23" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="J13" s="23" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="K13" s="24" t="s">
         <v>39</v>
@@ -5482,34 +5574,34 @@
     </row>
     <row r="14" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
+        <v>417</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>418</v>
+      </c>
+      <c r="C14" s="23" t="s">
         <v>419</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="D14" s="23" t="s">
         <v>420</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="E14" s="23" t="s">
         <v>421</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>422</v>
-      </c>
-      <c r="E14" s="23" t="s">
-        <v>423</v>
       </c>
       <c r="F14" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G14" s="23" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="H14" s="23" t="s">
-        <v>424</v>
+        <v>505</v>
       </c>
       <c r="I14" s="23" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="J14" s="23" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="K14" s="24" t="s">
         <v>39</v>
@@ -5526,34 +5618,34 @@
     </row>
     <row r="15" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B15" s="23" t="s">
+        <v>418</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>423</v>
+      </c>
+      <c r="D15" s="23" t="s">
         <v>420</v>
       </c>
-      <c r="C15" s="23" t="s">
-        <v>426</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>422</v>
-      </c>
       <c r="E15" s="23" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F15" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G15" s="23" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="H15" s="23" t="s">
-        <v>427</v>
+        <v>506</v>
       </c>
       <c r="I15" s="23" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="J15" s="23" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="K15" s="24" t="s">
         <v>39</v>
@@ -5570,34 +5662,34 @@
     </row>
     <row r="16" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="F16" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G16" s="23" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="H16" s="23" t="s">
-        <v>432</v>
+        <v>507</v>
       </c>
       <c r="I16" s="23" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="J16" s="23" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="K16" s="24" t="s">
         <v>39</v>
@@ -5614,34 +5706,34 @@
     </row>
     <row r="17" spans="1:14" ht="90" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="F17" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G17" s="23" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="H17" s="23" t="s">
-        <v>437</v>
+        <v>508</v>
       </c>
       <c r="I17" s="23" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="J17" s="23" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="K17" s="24" t="s">
         <v>39</v>
@@ -5658,34 +5750,34 @@
     </row>
     <row r="18" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="F18" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G18" s="23" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="H18" s="23" t="s">
-        <v>450</v>
+        <v>509</v>
       </c>
       <c r="I18" s="23" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="J18" s="23" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="K18" s="24" t="s">
         <v>39</v>
@@ -5702,34 +5794,34 @@
     </row>
     <row r="19" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="F19" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G19" s="23" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="H19" s="23" t="s">
-        <v>455</v>
+        <v>510</v>
       </c>
       <c r="I19" s="23" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="J19" s="23" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="K19" s="24" t="s">
         <v>39</v>
@@ -5746,34 +5838,34 @@
     </row>
     <row r="20" spans="1:14" ht="90" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="C20" s="23" t="s">
+        <v>451</v>
+      </c>
+      <c r="D20" s="23" t="s">
         <v>459</v>
       </c>
-      <c r="D20" s="23" t="s">
-        <v>467</v>
-      </c>
       <c r="E20" s="23" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="F20" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G20" s="23" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="H20" s="23" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="I20" s="23" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="J20" s="23" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="K20" s="24" t="s">
         <v>39</v>
@@ -5790,34 +5882,34 @@
     </row>
     <row r="21" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="E21" s="23" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="F21" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G21" s="23" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="H21" s="23" t="s">
-        <v>455</v>
+        <v>510</v>
       </c>
       <c r="I21" s="23" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="J21" s="23" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="K21" s="24" t="s">
         <v>39</v>
@@ -5834,34 +5926,34 @@
     </row>
     <row r="22" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="F22" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G22" s="23" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="H22" s="23" t="s">
-        <v>455</v>
+        <v>510</v>
       </c>
       <c r="I22" s="23" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="J22" s="23" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="K22" s="24" t="s">
         <v>39</v>
@@ -5878,34 +5970,34 @@
     </row>
     <row r="23" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="E23" s="23" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="F23" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G23" s="23" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="H23" s="23" t="s">
-        <v>455</v>
+        <v>510</v>
       </c>
       <c r="I23" s="23" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="J23" s="23" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="K23" s="24" t="s">
         <v>39</v>
@@ -5922,34 +6014,34 @@
     </row>
     <row r="24" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="E24" s="23" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="F24" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G24" s="23" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="H24" s="23" t="s">
-        <v>455</v>
+        <v>510</v>
       </c>
       <c r="I24" s="23" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="J24" s="23" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="K24" s="24" t="s">
         <v>39</v>
@@ -5966,34 +6058,34 @@
     </row>
     <row r="25" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="E25" s="23" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="F25" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G25" s="23" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="H25" s="23" t="s">
-        <v>455</v>
+        <v>510</v>
       </c>
       <c r="I25" s="23" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="J25" s="23" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="K25" s="24" t="s">
         <v>39</v>
@@ -6010,34 +6102,34 @@
     </row>
     <row r="26" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="E26" s="23" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="F26" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G26" s="23" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="H26" s="23" t="s">
-        <v>488</v>
+        <v>511</v>
       </c>
       <c r="I26" s="23" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="J26" s="23" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="K26" s="24" t="s">
         <v>39</v>
@@ -6054,34 +6146,34 @@
     </row>
     <row r="27" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
+        <v>474</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>475</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>481</v>
+      </c>
+      <c r="D27" s="23" t="s">
         <v>482</v>
       </c>
-      <c r="B27" s="23" t="s">
+      <c r="E27" s="23" t="s">
         <v>483</v>
-      </c>
-      <c r="C27" s="23" t="s">
-        <v>490</v>
-      </c>
-      <c r="D27" s="23" t="s">
-        <v>491</v>
-      </c>
-      <c r="E27" s="23" t="s">
-        <v>492</v>
       </c>
       <c r="F27" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G27" s="23" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="H27" s="23" t="s">
-        <v>455</v>
+        <v>510</v>
       </c>
       <c r="I27" s="23" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="J27" s="23" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="K27" s="24" t="s">
         <v>39</v>
@@ -6098,34 +6190,34 @@
     </row>
     <row r="28" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
+        <v>474</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>475</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>485</v>
+      </c>
+      <c r="D28" s="23" t="s">
         <v>482</v>
       </c>
-      <c r="B28" s="23" t="s">
-        <v>483</v>
-      </c>
-      <c r="C28" s="23" t="s">
-        <v>494</v>
-      </c>
-      <c r="D28" s="23" t="s">
-        <v>491</v>
-      </c>
       <c r="E28" s="23" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="F28" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G28" s="23" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="H28" s="23" t="s">
-        <v>455</v>
+        <v>510</v>
       </c>
       <c r="I28" s="23" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="J28" s="23" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="K28" s="24" t="s">
         <v>39</v>
@@ -6142,34 +6234,34 @@
     </row>
     <row r="29" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
+        <v>474</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>475</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>490</v>
+      </c>
+      <c r="D29" s="23" t="s">
         <v>482</v>
       </c>
-      <c r="B29" s="23" t="s">
-        <v>483</v>
-      </c>
-      <c r="C29" s="23" t="s">
-        <v>499</v>
-      </c>
-      <c r="D29" s="23" t="s">
-        <v>491</v>
-      </c>
       <c r="E29" s="23" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="F29" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G29" s="23" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="H29" s="23" t="s">
-        <v>455</v>
+        <v>510</v>
       </c>
       <c r="I29" s="23" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="J29" s="23" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="K29" s="24" t="s">
         <v>39</v>
@@ -6186,34 +6278,34 @@
     </row>
     <row r="30" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="E30" s="23" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="F30" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G30" s="23" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="H30" s="23" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="I30" s="23" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="J30" s="23" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="K30" s="24" t="s">
         <v>39</v>
@@ -6228,53 +6320,137 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="22"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="24"/>
-      <c r="L31" s="22"/>
-      <c r="M31" s="29"/>
-      <c r="N31" s="22"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="22"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="24"/>
-      <c r="L32" s="22"/>
-      <c r="M32" s="29"/>
-      <c r="N32" s="22"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="22"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="23"/>
-      <c r="J33" s="23"/>
-      <c r="K33" s="24"/>
-      <c r="L33" s="22"/>
-      <c r="M33" s="29"/>
-      <c r="N33" s="22"/>
+    <row r="31" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="22" t="s">
+        <v>526</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>497</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>498</v>
+      </c>
+      <c r="D31" s="23" t="s">
+        <v>496</v>
+      </c>
+      <c r="E31" s="23" t="s">
+        <v>499</v>
+      </c>
+      <c r="F31" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G31" s="23" t="s">
+        <v>500</v>
+      </c>
+      <c r="H31" s="23" t="s">
+        <v>512</v>
+      </c>
+      <c r="I31" s="23" t="s">
+        <v>513</v>
+      </c>
+      <c r="J31" s="23" t="s">
+        <v>513</v>
+      </c>
+      <c r="K31" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L31" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M31" s="29" t="s">
+        <v>338</v>
+      </c>
+      <c r="N31" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="22" t="s">
+        <v>526</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>497</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>514</v>
+      </c>
+      <c r="D32" s="23" t="s">
+        <v>519</v>
+      </c>
+      <c r="E32" s="23" t="s">
+        <v>521</v>
+      </c>
+      <c r="F32" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G32" s="23" t="s">
+        <v>515</v>
+      </c>
+      <c r="H32" s="23" t="s">
+        <v>516</v>
+      </c>
+      <c r="I32" s="23" t="s">
+        <v>517</v>
+      </c>
+      <c r="J32" s="23" t="s">
+        <v>517</v>
+      </c>
+      <c r="K32" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L32" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M32" s="29" t="s">
+        <v>338</v>
+      </c>
+      <c r="N32" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="22" t="s">
+        <v>526</v>
+      </c>
+      <c r="B33" s="23" t="s">
+        <v>497</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>518</v>
+      </c>
+      <c r="D33" s="23" t="s">
+        <v>520</v>
+      </c>
+      <c r="E33" s="23" t="s">
+        <v>522</v>
+      </c>
+      <c r="F33" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G33" s="23" t="s">
+        <v>523</v>
+      </c>
+      <c r="H33" s="23" t="s">
+        <v>524</v>
+      </c>
+      <c r="I33" s="23" t="s">
+        <v>525</v>
+      </c>
+      <c r="J33" s="23" t="s">
+        <v>525</v>
+      </c>
+      <c r="K33" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L33" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M33" s="29" t="s">
+        <v>338</v>
+      </c>
+      <c r="N33" s="22" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="22"/>

--- a/Documentation/FHF_TestCases.xlsx
+++ b/Documentation/FHF_TestCases.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Semester9\SEP490\fu-house-finder\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SEP490\fu-house-finder\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A46810B-239C-4BEA-9189-5489B692C3E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="891" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="891" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="2" r:id="rId1"/>
@@ -28,7 +27,7 @@
     <sheet name="Login" sheetId="15" r:id="rId13"/>
     <sheet name="(Landlord) Upload House Info" sheetId="16" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="456">
   <si>
     <t>Project Name</t>
   </si>
@@ -461,9 +460,6 @@
     <t>System disables rate button</t>
   </si>
   <si>
-    <t>TC_FHF_HouseDetail_RateValidation_002</t>
-  </si>
-  <si>
     <t>Show rate button when input is not empty</t>
   </si>
   <si>
@@ -471,9 +467,6 @@
   </si>
   <si>
     <t>TS_FHF_HouseDetail_012</t>
-  </si>
-  <si>
-    <t>TC_FHF_HouseDetail_RateValidation_001</t>
   </si>
   <si>
     <t>TS_FHF_HouseDetail_013</t>
@@ -883,9 +876,6 @@
     <t>System shows the description of this icon</t>
   </si>
   <si>
-    <t>TS_FHF_HouseDetail_022</t>
-  </si>
-  <si>
     <t>Verify the show phone number functionality of House Detail</t>
   </si>
   <si>
@@ -902,9 +892,6 @@
   </si>
   <si>
     <t>System shows the phone number of the landlord</t>
-  </si>
-  <si>
-    <t>TS_FHF_HouseDetail_023</t>
   </si>
   <si>
     <t>Verify the navigate to landlord facebook functionality of House Detail</t>
@@ -1220,12 +1207,6 @@
   <si>
     <t>1. Open report modal
 2. Input into the input box</t>
-  </si>
-  <si>
-    <t>TC_FHF_HouseDetail_ReportValid_001</t>
-  </si>
-  <si>
-    <t>TC_FHF_HouseDetail_ReportInvalid_001</t>
   </si>
   <si>
     <t>Enter valid landlord name &amp; click Search button</t>
@@ -1303,21 +1284,10 @@
     <t>Verify the rate validation  functionality of House Detail</t>
   </si>
   <si>
-    <t>Verify the rate invalidation  functionality of House Detail</t>
-  </si>
-  <si>
     <t>Verify the show icon tooltip functionality of List Landlords</t>
   </si>
   <si>
     <t>Verify the show icon tooltip functionality of List Houses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Access to dashboard page
-</t>
-  </si>
-  <si>
-    <t>Access to dashboard page
-Test Data</t>
   </si>
   <si>
     <t>Access to house detail page</t>
@@ -1351,9 +1321,6 @@
       </rPr>
       <t>nhà trọ sai thông tin</t>
     </r>
-  </si>
-  <si>
-    <t>Verify the report invalidation functionality of House Detail</t>
   </si>
   <si>
     <r>
@@ -1850,11 +1817,36 @@
   <si>
     <t>System doesn’t change</t>
   </si>
+  <si>
+    <t xml:space="preserve">User Logged in as Staff
+Access to dashboard page
+</t>
+  </si>
+  <si>
+    <t>User Logged in as Staff
+Access to dashboard page
+Test Data</t>
+  </si>
+  <si>
+    <t>TC_FHF_HouseDetail_Validation_001</t>
+  </si>
+  <si>
+    <t>TC_FHF_HouseDetail_Validation_002</t>
+  </si>
+  <si>
+    <t>Verify the report validation functionality of House Detail</t>
+  </si>
+  <si>
+    <t>TC_FHF_HouseDetail_Validation_003</t>
+  </si>
+  <si>
+    <t>TC_FHF_HouseDetail_Validation_004</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2457,29 +2449,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="20.85546875" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.81640625" customWidth="1"/>
+    <col min="3" max="3" width="18.54296875" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
+    <col min="5" max="5" width="34.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.81640625" customWidth="1"/>
+    <col min="7" max="7" width="10.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="91.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" ht="91.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D2" s="20" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
@@ -2494,7 +2486,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B5" s="7" t="s">
         <v>41</v>
       </c>
@@ -2506,15 +2498,15 @@
         <v>3</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B8" s="9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B9" s="10" t="s">
         <v>44</v>
       </c>
@@ -2528,9 +2520,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B10" s="18" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C10" t="s">
         <v>52</v>
@@ -2542,9 +2534,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B11" s="18" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C11" t="s">
         <v>52</v>
@@ -2556,9 +2548,9 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B12" s="18" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C12" t="s">
         <v>52</v>
@@ -2570,9 +2562,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B13" s="18" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C13" t="s">
         <v>52</v>
@@ -2584,21 +2576,21 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B14" s="18" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C14" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D14" t="s">
         <v>19</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B15" s="18">
         <v>44907</v>
       </c>
@@ -2609,12 +2601,12 @@
         <v>19</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B16" s="18" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C16" t="s">
         <v>52</v>
@@ -2623,12 +2615,12 @@
         <v>61</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B17" s="18" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C17" t="s">
         <v>52</v>
@@ -2637,48 +2629,48 @@
         <v>61</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B18" s="18" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C18" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D18" t="s">
         <v>19</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B19" s="18"/>
       <c r="E19" s="13"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B20" s="18"/>
       <c r="E20" s="13"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B21" s="18"/>
       <c r="E21" s="13"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B22" s="18"/>
       <c r="E22" s="13"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B23" s="18"/>
       <c r="E23" s="13"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B24" s="18"/>
       <c r="E24" s="13"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B25" s="19"/>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
@@ -2692,40 +2684,40 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.453125" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.5703125" customWidth="1"/>
-    <col min="10" max="10" width="22.42578125" customWidth="1"/>
-    <col min="11" max="11" width="8.140625" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.54296875" customWidth="1"/>
+    <col min="10" max="10" width="22.453125" customWidth="1"/>
+    <col min="11" max="11" width="8.1796875" customWidth="1"/>
+    <col min="12" max="12" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2745,12 +2737,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="E3" s="16">
         <f>COUNTIF(K8:K11,"Pass")</f>
@@ -2769,7 +2761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -2777,15 +2769,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -2829,7 +2821,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -2845,7 +2837,7 @@
       <c r="M8" s="4"/>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -2861,7 +2853,7 @@
       <c r="M9" s="4"/>
       <c r="N9" s="2"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -2877,7 +2869,7 @@
       <c r="M10" s="4"/>
       <c r="N10" s="2"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -2893,7 +2885,7 @@
       <c r="M11" s="4"/>
       <c r="N11" s="2"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -2909,7 +2901,7 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -2925,7 +2917,7 @@
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -2941,7 +2933,7 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -2957,7 +2949,7 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -2973,7 +2965,7 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -2989,7 +2981,7 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -3005,7 +2997,7 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -3021,7 +3013,7 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -3037,7 +3029,7 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -3059,40 +3051,40 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.453125" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.5703125" customWidth="1"/>
-    <col min="10" max="10" width="22.42578125" customWidth="1"/>
-    <col min="11" max="11" width="8.140625" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.54296875" customWidth="1"/>
+    <col min="10" max="10" width="22.453125" customWidth="1"/>
+    <col min="11" max="11" width="8.1796875" customWidth="1"/>
+    <col min="12" max="12" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -3112,12 +3104,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="E3" s="16">
         <f>COUNTIF(K8:K11,"Pass")</f>
@@ -3136,7 +3128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -3144,15 +3136,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -3196,7 +3188,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -3212,7 +3204,7 @@
       <c r="M8" s="4"/>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -3228,7 +3220,7 @@
       <c r="M9" s="4"/>
       <c r="N9" s="2"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -3244,7 +3236,7 @@
       <c r="M10" s="4"/>
       <c r="N10" s="2"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -3260,7 +3252,7 @@
       <c r="M11" s="4"/>
       <c r="N11" s="2"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -3276,7 +3268,7 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -3292,7 +3284,7 @@
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -3308,7 +3300,7 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -3324,7 +3316,7 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -3340,7 +3332,7 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -3356,7 +3348,7 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -3372,7 +3364,7 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -3388,7 +3380,7 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -3404,7 +3396,7 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -3426,40 +3418,40 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.453125" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.5703125" customWidth="1"/>
-    <col min="10" max="10" width="22.42578125" customWidth="1"/>
-    <col min="11" max="11" width="8.140625" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.54296875" customWidth="1"/>
+    <col min="10" max="10" width="22.453125" customWidth="1"/>
+    <col min="11" max="11" width="8.1796875" customWidth="1"/>
+    <col min="12" max="12" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -3479,12 +3471,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="E3" s="16">
         <f>COUNTIF(K8:K11,"Pass")</f>
@@ -3503,7 +3495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -3511,15 +3503,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -3563,7 +3555,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -3579,7 +3571,7 @@
       <c r="M8" s="4"/>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -3595,7 +3587,7 @@
       <c r="M9" s="4"/>
       <c r="N9" s="2"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -3611,7 +3603,7 @@
       <c r="M10" s="4"/>
       <c r="N10" s="2"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -3627,7 +3619,7 @@
       <c r="M11" s="4"/>
       <c r="N11" s="2"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -3643,7 +3635,7 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -3659,7 +3651,7 @@
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -3675,7 +3667,7 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -3691,7 +3683,7 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -3707,7 +3699,7 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -3723,7 +3715,7 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -3739,7 +3731,7 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -3755,7 +3747,7 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -3771,7 +3763,7 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -3793,32 +3785,32 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.453125" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.5703125" customWidth="1"/>
-    <col min="10" max="10" width="22.42578125" customWidth="1"/>
-    <col min="11" max="11" width="8.140625" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.54296875" customWidth="1"/>
+    <col min="10" max="10" width="22.453125" customWidth="1"/>
+    <col min="11" max="11" width="8.1796875" customWidth="1"/>
+    <col min="12" max="12" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3826,7 +3818,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -3846,12 +3838,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="E3" s="16">
         <f>COUNTIF(K8:K11,"Pass")</f>
@@ -3870,7 +3862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -3878,15 +3870,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -3930,7 +3922,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -3946,7 +3938,7 @@
       <c r="M8" s="4"/>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -3962,7 +3954,7 @@
       <c r="M9" s="4"/>
       <c r="N9" s="2"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -3978,7 +3970,7 @@
       <c r="M10" s="4"/>
       <c r="N10" s="2"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -3994,7 +3986,7 @@
       <c r="M11" s="4"/>
       <c r="N11" s="2"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -4010,7 +4002,7 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -4026,7 +4018,7 @@
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -4042,7 +4034,7 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -4058,7 +4050,7 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -4074,7 +4066,7 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -4090,7 +4082,7 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -4106,7 +4098,7 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -4122,7 +4114,7 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -4138,7 +4130,7 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -4160,40 +4152,40 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.453125" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.5703125" customWidth="1"/>
-    <col min="10" max="10" width="22.42578125" customWidth="1"/>
-    <col min="11" max="11" width="8.140625" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.54296875" customWidth="1"/>
+    <col min="10" max="10" width="22.453125" customWidth="1"/>
+    <col min="11" max="11" width="8.1796875" customWidth="1"/>
+    <col min="12" max="12" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -4213,12 +4205,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="E3" s="16">
         <f>COUNTIF(K8:K11,"Pass")</f>
@@ -4237,7 +4229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -4245,15 +4237,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -4297,7 +4289,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -4313,7 +4305,7 @@
       <c r="M8" s="4"/>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -4329,7 +4321,7 @@
       <c r="M9" s="4"/>
       <c r="N9" s="2"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -4345,7 +4337,7 @@
       <c r="M10" s="4"/>
       <c r="N10" s="2"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -4361,7 +4353,7 @@
       <c r="M11" s="4"/>
       <c r="N11" s="2"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -4377,7 +4369,7 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -4393,7 +4385,7 @@
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -4409,7 +4401,7 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -4425,7 +4417,7 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -4441,7 +4433,7 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -4457,7 +4449,7 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -4473,7 +4465,7 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -4489,7 +4481,7 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -4505,7 +4497,7 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -4527,32 +4519,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.42578125" customWidth="1"/>
-    <col min="5" max="5" width="31.140625" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="8" max="8" width="27.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.453125" customWidth="1"/>
+    <col min="5" max="5" width="31.1796875" customWidth="1"/>
+    <col min="6" max="6" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.1796875" customWidth="1"/>
+    <col min="8" max="8" width="27.453125" customWidth="1"/>
     <col min="9" max="9" width="34" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="34.140625" customWidth="1"/>
-    <col min="11" max="11" width="8.140625" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.1796875" customWidth="1"/>
+    <col min="11" max="11" width="8.1796875" customWidth="1"/>
+    <col min="12" max="12" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -4560,7 +4552,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -4580,12 +4572,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E3" s="16">
         <f>COUNTIF(K8:K19,"Pass")</f>
@@ -4604,7 +4596,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -4612,15 +4604,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -4664,7 +4656,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="22" t="s">
         <v>55</v>
       </c>
@@ -4702,13 +4694,13 @@
         <v>19</v>
       </c>
       <c r="M8" s="29" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="N8" s="22" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="22" t="s">
         <v>55</v>
       </c>
@@ -4746,13 +4738,13 @@
         <v>19</v>
       </c>
       <c r="M9" s="29" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="N9" s="22" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" s="22" t="s">
         <v>55</v>
       </c>
@@ -4790,13 +4782,13 @@
         <v>19</v>
       </c>
       <c r="M10" s="29" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="N10" s="22" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11" s="22" t="s">
         <v>55</v>
       </c>
@@ -4834,42 +4826,42 @@
         <v>19</v>
       </c>
       <c r="M11" s="29" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="N11" s="22" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="22" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="F12" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G12" s="23" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="H12" s="23" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="I12" s="23" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="J12" s="23" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="K12" s="24" t="s">
         <v>39</v>
@@ -4878,42 +4870,42 @@
         <v>19</v>
       </c>
       <c r="M12" s="29" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="N12" s="22" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="22" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="F13" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G13" s="23" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="H13" s="23" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="I13" s="23" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="J13" s="23" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="K13" s="24" t="s">
         <v>39</v>
@@ -4922,42 +4914,42 @@
         <v>19</v>
       </c>
       <c r="M13" s="29" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="N13" s="22" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="116" x14ac:dyDescent="0.35">
       <c r="A14" s="22" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="F14" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G14" s="23" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="H14" s="23" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="I14" s="23" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="J14" s="23" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="K14" s="24" t="s">
         <v>39</v>
@@ -4966,42 +4958,42 @@
         <v>19</v>
       </c>
       <c r="M14" s="29" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="N14" s="22" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="135" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="116" x14ac:dyDescent="0.35">
       <c r="A15" s="22" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="F15" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G15" s="23" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="H15" s="23" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="I15" s="23" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="J15" s="23" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="K15" s="24" t="s">
         <v>39</v>
@@ -5010,42 +5002,42 @@
         <v>19</v>
       </c>
       <c r="M15" s="29" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="N15" s="22" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A16" s="22" t="s">
+        <v>409</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>410</v>
+      </c>
+      <c r="C16" s="23" t="s">
         <v>419</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="D16" s="23" t="s">
         <v>420</v>
       </c>
-      <c r="C16" s="23" t="s">
-        <v>429</v>
-      </c>
-      <c r="D16" s="23" t="s">
-        <v>430</v>
-      </c>
       <c r="E16" s="23" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="F16" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G16" s="23" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="H16" s="23" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="I16" s="23" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="J16" s="23" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="K16" s="24" t="s">
         <v>39</v>
@@ -5054,42 +5046,42 @@
         <v>19</v>
       </c>
       <c r="M16" s="29" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="N16" s="22" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="90" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A17" s="22" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="F17" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G17" s="23" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="H17" s="23" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="I17" s="23" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="J17" s="23" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="K17" s="24" t="s">
         <v>39</v>
@@ -5098,42 +5090,42 @@
         <v>19</v>
       </c>
       <c r="M17" s="29" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="N17" s="22" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="90" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A18" s="22" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="F18" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G18" s="23" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="H18" s="23" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="I18" s="23" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="J18" s="23" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="K18" s="24" t="s">
         <v>39</v>
@@ -5142,42 +5134,42 @@
         <v>19</v>
       </c>
       <c r="M18" s="29" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="N18" s="22" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="90" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A19" s="22" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="F19" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G19" s="23" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="H19" s="23" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="I19" s="23" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="J19" s="23" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="K19" s="24" t="s">
         <v>39</v>
@@ -5186,13 +5178,13 @@
         <v>19</v>
       </c>
       <c r="M19" s="29" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="N19" s="22" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -5215,32 +5207,32 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+    <col min="1" max="1" width="23.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.453125" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.5703125" customWidth="1"/>
-    <col min="10" max="10" width="22.42578125" customWidth="1"/>
-    <col min="11" max="11" width="8.140625" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.54296875" customWidth="1"/>
+    <col min="10" max="10" width="22.453125" customWidth="1"/>
+    <col min="11" max="11" width="8.1796875" customWidth="1"/>
+    <col min="12" max="12" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -5248,7 +5240,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -5268,12 +5260,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="E3" s="16">
         <f>COUNTIF(K8:K30,"Pass")</f>
@@ -5292,7 +5284,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -5300,15 +5292,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -5352,7 +5344,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="25" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" s="25" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A8" s="22" t="s">
         <v>66</v>
       </c>
@@ -5369,10 +5361,10 @@
         <v>67</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="G8" s="23" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="H8" s="23" t="s">
         <v>80</v>
@@ -5390,21 +5382,21 @@
         <v>61</v>
       </c>
       <c r="M8" s="29" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="N8" s="22" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="25" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="22" t="s">
         <v>69</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>379</v>
+        <v>451</v>
       </c>
       <c r="D9" s="23" t="s">
         <v>73</v>
@@ -5413,10 +5405,10 @@
         <v>76</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="G9" s="23" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="H9" s="23" t="s">
         <v>74</v>
@@ -5434,33 +5426,33 @@
         <v>61</v>
       </c>
       <c r="M9" s="29" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="N9" s="22" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="25" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" s="22" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>406</v>
+        <v>453</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>378</v>
+        <v>452</v>
       </c>
       <c r="D10" s="23" t="s">
         <v>120</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="G10" s="23" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="H10" s="23" t="s">
         <v>121</v>
@@ -5478,15 +5470,15 @@
         <v>61</v>
       </c>
       <c r="M10" s="29" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="N10" s="22" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" s="25" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="25" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A11" s="22" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B11" s="23" t="s">
         <v>83</v>
@@ -5501,10 +5493,10 @@
         <v>77</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="G11" s="23" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="H11" s="23" t="s">
         <v>78</v>
@@ -5522,15 +5514,15 @@
         <v>61</v>
       </c>
       <c r="M11" s="29" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="N11" s="22" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="25" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B12" s="23" t="s">
         <v>85</v>
@@ -5545,7 +5537,7 @@
         <v>88</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="G12" s="23"/>
       <c r="H12" s="23" t="s">
@@ -5564,15 +5556,15 @@
         <v>61</v>
       </c>
       <c r="M12" s="29" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="N12" s="22" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" s="27" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A13" s="23" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B13" s="23" t="s">
         <v>99</v>
@@ -5587,7 +5579,7 @@
         <v>97</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="G13" s="23"/>
       <c r="H13" s="23" t="s">
@@ -5606,15 +5598,15 @@
         <v>61</v>
       </c>
       <c r="M13" s="29" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="N13" s="22" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" s="27" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A14" s="23" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B14" s="23" t="s">
         <v>100</v>
@@ -5629,7 +5621,7 @@
         <v>97</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="G14" s="23"/>
       <c r="H14" s="23" t="s">
@@ -5648,15 +5640,15 @@
         <v>61</v>
       </c>
       <c r="M14" s="29" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="N14" s="22" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" s="27" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A15" s="23" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B15" s="23" t="s">
         <v>105</v>
@@ -5671,7 +5663,7 @@
         <v>97</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="G15" s="23"/>
       <c r="H15" s="23" t="s">
@@ -5690,15 +5682,15 @@
         <v>61</v>
       </c>
       <c r="M15" s="29" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="N15" s="22" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" s="27" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A16" s="23" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B16" s="23" t="s">
         <v>109</v>
@@ -5713,7 +5705,7 @@
         <v>97</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="G16" s="23"/>
       <c r="H16" s="23" t="s">
@@ -5732,15 +5724,15 @@
         <v>61</v>
       </c>
       <c r="M16" s="29" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="N16" s="22" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" s="27" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A17" s="23" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B17" s="23" t="s">
         <v>114</v>
@@ -5755,7 +5747,7 @@
         <v>97</v>
       </c>
       <c r="F17" s="23" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="G17" s="23"/>
       <c r="H17" s="23" t="s">
@@ -5774,21 +5766,21 @@
         <v>61</v>
       </c>
       <c r="M17" s="29" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="N17" s="22" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" s="25" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A18" s="22" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>131</v>
+        <v>454</v>
       </c>
       <c r="D18" s="23" t="s">
         <v>124</v>
@@ -5797,10 +5789,10 @@
         <v>125</v>
       </c>
       <c r="F18" s="23" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="G18" s="23" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="H18" s="23" t="s">
         <v>74</v>
@@ -5818,42 +5810,42 @@
         <v>61</v>
       </c>
       <c r="M18" s="29" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="N18" s="22" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" s="25" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A19" s="22" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="C19" s="23" t="s">
+        <v>455</v>
+      </c>
+      <c r="D19" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="D19" s="23" t="s">
-        <v>128</v>
-      </c>
       <c r="E19" s="23" t="s">
+        <v>386</v>
+      </c>
+      <c r="F19" s="23" t="s">
         <v>392</v>
       </c>
-      <c r="F19" s="23" t="s">
-        <v>401</v>
-      </c>
       <c r="G19" s="23" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="H19" s="23" t="s">
         <v>121</v>
       </c>
       <c r="I19" s="23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J19" s="23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K19" s="24" t="s">
         <v>39</v>
@@ -5862,36 +5854,36 @@
         <v>61</v>
       </c>
       <c r="M19" s="29" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="N19" s="22" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" s="25" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A20" s="22" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B20" s="23" t="s">
         <v>84</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D20" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="E20" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="E20" s="23" t="s">
-        <v>138</v>
-      </c>
       <c r="F20" s="23" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="G20" s="23" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="H20" s="23" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I20" s="23" t="s">
         <v>79</v>
@@ -5906,36 +5898,36 @@
         <v>61</v>
       </c>
       <c r="M20" s="29" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="N20" s="22" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" s="25" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A21" s="22" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B21" s="23" t="s">
         <v>83</v>
       </c>
       <c r="C21" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="D21" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="E21" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="E21" s="23" t="s">
-        <v>139</v>
-      </c>
       <c r="F21" s="23" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="G21" s="23" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="H21" s="23" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I21" s="23" t="s">
         <v>81</v>
@@ -5950,21 +5942,21 @@
         <v>61</v>
       </c>
       <c r="M21" s="29" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="N21" s="22" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A22" s="23" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D22" s="23" t="s">
         <v>96</v>
@@ -5973,17 +5965,17 @@
         <v>97</v>
       </c>
       <c r="F22" s="23" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="G22" s="23"/>
       <c r="H22" s="23" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I22" s="23" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J22" s="23" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K22" s="28" t="s">
         <v>39</v>
@@ -5992,21 +5984,21 @@
         <v>61</v>
       </c>
       <c r="M22" s="29" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="N22" s="22" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A23" s="23" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D23" s="23" t="s">
         <v>96</v>
@@ -6015,17 +6007,17 @@
         <v>97</v>
       </c>
       <c r="F23" s="23" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="G23" s="23"/>
       <c r="H23" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="I23" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="I23" s="23" t="s">
-        <v>152</v>
-      </c>
       <c r="J23" s="23" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K23" s="28" t="s">
         <v>39</v>
@@ -6034,21 +6026,21 @@
         <v>61</v>
       </c>
       <c r="M23" s="29" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="N23" s="22" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" s="27" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A24" s="23" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D24" s="23" t="s">
         <v>96</v>
@@ -6057,17 +6049,17 @@
         <v>97</v>
       </c>
       <c r="F24" s="23" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="G24" s="23"/>
       <c r="H24" s="23" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I24" s="23" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J24" s="23" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K24" s="28" t="s">
         <v>39</v>
@@ -6076,21 +6068,21 @@
         <v>61</v>
       </c>
       <c r="M24" s="29" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="N24" s="22" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A25" s="23" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D25" s="23" t="s">
         <v>96</v>
@@ -6099,17 +6091,17 @@
         <v>97</v>
       </c>
       <c r="F25" s="23" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="G25" s="23"/>
       <c r="H25" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="I25" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="J25" s="23" t="s">
         <v>159</v>
-      </c>
-      <c r="I25" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="J25" s="23" t="s">
-        <v>161</v>
       </c>
       <c r="K25" s="28" t="s">
         <v>39</v>
@@ -6118,40 +6110,40 @@
         <v>61</v>
       </c>
       <c r="M25" s="29" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="N25" s="22" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" s="27" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A26" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="C26" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="B26" s="23" t="s">
+      <c r="D26" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="C26" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="D26" s="23" t="s">
-        <v>168</v>
-      </c>
       <c r="E26" s="23" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F26" s="23" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="G26" s="23"/>
       <c r="H26" s="23" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="I26" s="23" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="J26" s="23" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K26" s="28" t="s">
         <v>39</v>
@@ -6160,40 +6152,40 @@
         <v>61</v>
       </c>
       <c r="M26" s="29" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="N26" s="22" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A27" s="23" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E27" s="23" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F27" s="23" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="G27" s="23"/>
       <c r="H27" s="23" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I27" s="23" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="J27" s="23" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K27" s="28" t="s">
         <v>39</v>
@@ -6202,40 +6194,40 @@
         <v>61</v>
       </c>
       <c r="M27" s="29" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="N27" s="22" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A28" s="23" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C28" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="E28" s="23" t="s">
         <v>177</v>
       </c>
-      <c r="D28" s="23" t="s">
-        <v>178</v>
-      </c>
-      <c r="E28" s="23" t="s">
-        <v>179</v>
-      </c>
       <c r="F28" s="23" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="G28" s="23"/>
       <c r="H28" s="23" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I28" s="23" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="J28" s="23" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K28" s="28" t="s">
         <v>39</v>
@@ -6244,40 +6236,40 @@
         <v>61</v>
       </c>
       <c r="M28" s="29" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="N28" s="22" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" s="27" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A29" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="D29" s="23" t="s">
         <v>266</v>
       </c>
-      <c r="B29" s="23" t="s">
+      <c r="E29" s="23" t="s">
         <v>267</v>
       </c>
-      <c r="C29" s="23" t="s">
-        <v>268</v>
-      </c>
-      <c r="D29" s="23" t="s">
-        <v>269</v>
-      </c>
-      <c r="E29" s="23" t="s">
-        <v>270</v>
-      </c>
       <c r="F29" s="23" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="G29" s="23"/>
       <c r="H29" s="23" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="I29" s="23" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="J29" s="23" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="K29" s="28" t="s">
         <v>39</v>
@@ -6286,40 +6278,40 @@
         <v>61</v>
       </c>
       <c r="M29" s="29" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="N29" s="22" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A30" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>271</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="E30" s="23" t="s">
         <v>273</v>
       </c>
-      <c r="B30" s="23" t="s">
-        <v>274</v>
-      </c>
-      <c r="C30" s="23" t="s">
-        <v>275</v>
-      </c>
-      <c r="D30" s="23" t="s">
-        <v>276</v>
-      </c>
-      <c r="E30" s="23" t="s">
-        <v>277</v>
-      </c>
       <c r="F30" s="23" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="G30" s="23"/>
       <c r="H30" s="23" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="I30" s="23" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="J30" s="23" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="K30" s="28" t="s">
         <v>39</v>
@@ -6328,10 +6320,10 @@
         <v>61</v>
       </c>
       <c r="M30" s="29" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="N30" s="22" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>
@@ -6341,32 +6333,32 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.453125" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.5703125" customWidth="1"/>
-    <col min="10" max="10" width="22.42578125" customWidth="1"/>
-    <col min="11" max="11" width="8.140625" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.54296875" customWidth="1"/>
+    <col min="10" max="10" width="22.453125" customWidth="1"/>
+    <col min="11" max="11" width="8.1796875" customWidth="1"/>
+    <col min="12" max="12" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -6374,7 +6366,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -6394,12 +6386,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="E3" s="16">
         <f>COUNTIF(K8:K11,"Pass")</f>
@@ -6418,7 +6410,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -6426,15 +6418,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -6478,15 +6470,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="27" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="23" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D8" s="23" t="s">
         <v>96</v>
@@ -6495,17 +6487,17 @@
         <v>97</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="G8" s="23"/>
       <c r="H8" s="23" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I8" s="23" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="J8" s="23" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K8" s="28" t="s">
         <v>39</v>
@@ -6514,21 +6506,21 @@
         <v>61</v>
       </c>
       <c r="M8" s="30" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="N8" s="23" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="23" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D9" s="23" t="s">
         <v>96</v>
@@ -6537,17 +6529,17 @@
         <v>97</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="G9" s="23"/>
       <c r="H9" s="23" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I9" s="23" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="J9" s="23" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K9" s="28" t="s">
         <v>39</v>
@@ -6556,21 +6548,21 @@
         <v>61</v>
       </c>
       <c r="M9" s="30" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="N9" s="23" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" s="27" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="C10" s="23" t="s">
         <v>193</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>195</v>
       </c>
       <c r="D10" s="23" t="s">
         <v>96</v>
@@ -6579,7 +6571,7 @@
         <v>97</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="G10" s="23"/>
       <c r="H10" s="23" t="s">
@@ -6598,40 +6590,40 @@
         <v>61</v>
       </c>
       <c r="M10" s="30" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="N10" s="23" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11" s="23" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="G11" s="23"/>
       <c r="H11" s="23" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I11" s="23" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="J11" s="23" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K11" s="28" t="s">
         <v>39</v>
@@ -6640,10 +6632,10 @@
         <v>61</v>
       </c>
       <c r="M11" s="30" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="N11" s="23" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>
@@ -6652,40 +6644,40 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C6:C7"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.453125" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.5703125" customWidth="1"/>
-    <col min="10" max="10" width="22.42578125" customWidth="1"/>
-    <col min="11" max="11" width="8.140625" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.54296875" customWidth="1"/>
+    <col min="10" max="10" width="22.453125" customWidth="1"/>
+    <col min="11" max="11" width="8.1796875" customWidth="1"/>
+    <col min="12" max="12" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -6705,12 +6697,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="E3" s="16">
         <f>COUNTIF(K8:K11,"Pass")</f>
@@ -6729,7 +6721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -6737,15 +6729,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -6789,7 +6781,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -6805,7 +6797,7 @@
       <c r="M8" s="4"/>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -6821,7 +6813,7 @@
       <c r="M9" s="4"/>
       <c r="N9" s="2"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -6837,7 +6829,7 @@
       <c r="M10" s="4"/>
       <c r="N10" s="2"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -6853,7 +6845,7 @@
       <c r="M11" s="4"/>
       <c r="N11" s="2"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -6869,7 +6861,7 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -6885,7 +6877,7 @@
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -6901,7 +6893,7 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -6917,7 +6909,7 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -6933,7 +6925,7 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -6949,7 +6941,7 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -6965,7 +6957,7 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -6981,7 +6973,7 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -6997,7 +6989,7 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -7019,40 +7011,40 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.453125" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.5703125" customWidth="1"/>
-    <col min="10" max="10" width="22.42578125" customWidth="1"/>
-    <col min="11" max="11" width="8.140625" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.54296875" customWidth="1"/>
+    <col min="10" max="10" width="22.453125" customWidth="1"/>
+    <col min="11" max="11" width="8.1796875" customWidth="1"/>
+    <col min="12" max="12" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -7072,12 +7064,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="E3" s="16">
         <f>COUNTIF(K8:K11,"Pass")</f>
@@ -7096,7 +7088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -7104,15 +7096,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -7156,7 +7148,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -7172,7 +7164,7 @@
       <c r="M8" s="4"/>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -7188,7 +7180,7 @@
       <c r="M9" s="4"/>
       <c r="N9" s="2"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -7204,7 +7196,7 @@
       <c r="M10" s="4"/>
       <c r="N10" s="2"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -7220,7 +7212,7 @@
       <c r="M11" s="4"/>
       <c r="N11" s="2"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -7236,7 +7228,7 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -7252,7 +7244,7 @@
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -7268,7 +7260,7 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -7284,7 +7276,7 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -7300,7 +7292,7 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -7316,7 +7308,7 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -7332,7 +7324,7 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -7348,7 +7340,7 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -7364,7 +7356,7 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -7386,40 +7378,40 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+    <col min="1" max="1" width="26.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.453125" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.5703125" customWidth="1"/>
-    <col min="10" max="10" width="22.42578125" customWidth="1"/>
-    <col min="11" max="11" width="8.140625" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.54296875" customWidth="1"/>
+    <col min="10" max="10" width="22.453125" customWidth="1"/>
+    <col min="11" max="11" width="8.1796875" customWidth="1"/>
+    <col min="12" max="12" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -7439,7 +7431,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -7463,7 +7455,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -7471,15 +7463,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -7523,34 +7515,34 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A8" s="22" t="s">
+        <v>357</v>
+      </c>
+      <c r="B8" s="23" t="s">
         <v>361</v>
       </c>
-      <c r="B8" s="23" t="s">
-        <v>365</v>
-      </c>
       <c r="C8" s="23" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G8" s="23"/>
       <c r="H8" s="23" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="I8" s="23" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="J8" s="23" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="K8" s="24" t="s">
         <v>39</v>
@@ -7565,34 +7557,34 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A9" s="22" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B9" s="23" t="s">
+        <v>365</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>367</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>368</v>
+      </c>
+      <c r="E9" s="23" t="s">
         <v>369</v>
       </c>
-      <c r="C9" s="23" t="s">
-        <v>371</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>372</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>373</v>
-      </c>
       <c r="F9" s="23" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G9" s="23"/>
       <c r="H9" s="23" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="I9" s="23" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="J9" s="23" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="K9" s="24" t="s">
         <v>39</v>
@@ -7607,7 +7599,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="25"/>
       <c r="B10" s="27"/>
       <c r="C10" s="27"/>
@@ -7623,7 +7615,7 @@
       <c r="M10" s="32"/>
       <c r="N10" s="25"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="25"/>
       <c r="B11" s="27"/>
       <c r="C11" s="27"/>
@@ -7639,7 +7631,7 @@
       <c r="M11" s="32"/>
       <c r="N11" s="25"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="E12" s="26"/>
     </row>
   </sheetData>
@@ -7648,40 +7640,40 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.453125" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.5703125" customWidth="1"/>
-    <col min="10" max="10" width="22.42578125" customWidth="1"/>
-    <col min="11" max="11" width="8.140625" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.54296875" customWidth="1"/>
+    <col min="10" max="10" width="22.453125" customWidth="1"/>
+    <col min="11" max="11" width="8.1796875" customWidth="1"/>
+    <col min="12" max="12" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -7701,12 +7693,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="E3" s="16">
         <f>COUNTIF(K8:K24,"Pass")</f>
@@ -7725,7 +7717,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -7733,15 +7725,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -7785,15 +7777,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" s="27" customFormat="1" ht="87" x14ac:dyDescent="0.35">
       <c r="A8" s="23" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D8" s="23" t="s">
         <v>96</v>
@@ -7802,17 +7794,17 @@
         <v>97</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>398</v>
+        <v>449</v>
       </c>
       <c r="G8" s="23"/>
       <c r="H8" s="23" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I8" s="23" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J8" s="23" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K8" s="28" t="s">
         <v>39</v>
@@ -7821,21 +7813,21 @@
         <v>61</v>
       </c>
       <c r="M8" s="30" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="N8" s="23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" s="27" customFormat="1" ht="87" x14ac:dyDescent="0.35">
       <c r="A9" s="23" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D9" s="23" t="s">
         <v>96</v>
@@ -7844,17 +7836,17 @@
         <v>97</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>398</v>
+        <v>449</v>
       </c>
       <c r="G9" s="23"/>
       <c r="H9" s="23" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I9" s="23" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J9" s="23" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K9" s="28" t="s">
         <v>39</v>
@@ -7863,21 +7855,21 @@
         <v>61</v>
       </c>
       <c r="M9" s="30" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="N9" s="23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" s="27" customFormat="1" ht="87" x14ac:dyDescent="0.35">
       <c r="A10" s="23" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D10" s="23" t="s">
         <v>96</v>
@@ -7886,17 +7878,17 @@
         <v>97</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>398</v>
+        <v>449</v>
       </c>
       <c r="G10" s="23"/>
       <c r="H10" s="23" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I10" s="23" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="J10" s="23" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K10" s="28" t="s">
         <v>39</v>
@@ -7905,21 +7897,21 @@
         <v>61</v>
       </c>
       <c r="M10" s="30" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="N10" s="23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" s="27" customFormat="1" ht="87" x14ac:dyDescent="0.35">
       <c r="A11" s="23" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D11" s="23" t="s">
         <v>96</v>
@@ -7928,17 +7920,17 @@
         <v>97</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>398</v>
+        <v>449</v>
       </c>
       <c r="G11" s="23"/>
       <c r="H11" s="23" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I11" s="23" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J11" s="23" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K11" s="28" t="s">
         <v>39</v>
@@ -7947,21 +7939,21 @@
         <v>61</v>
       </c>
       <c r="M11" s="30" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="N11" s="23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" s="27" customFormat="1" ht="87" x14ac:dyDescent="0.35">
       <c r="A12" s="23" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D12" s="23" t="s">
         <v>96</v>
@@ -7970,17 +7962,17 @@
         <v>97</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>398</v>
+        <v>449</v>
       </c>
       <c r="G12" s="23"/>
       <c r="H12" s="23" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="I12" s="23" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="J12" s="23" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K12" s="28" t="s">
         <v>39</v>
@@ -7989,21 +7981,21 @@
         <v>61</v>
       </c>
       <c r="M12" s="30" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="N12" s="23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" s="27" customFormat="1" ht="87" x14ac:dyDescent="0.35">
       <c r="A13" s="23" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D13" s="23" t="s">
         <v>96</v>
@@ -8012,17 +8004,17 @@
         <v>97</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>398</v>
+        <v>449</v>
       </c>
       <c r="G13" s="23"/>
       <c r="H13" s="23" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="I13" s="23" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J13" s="23" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K13" s="28" t="s">
         <v>39</v>
@@ -8031,21 +8023,21 @@
         <v>61</v>
       </c>
       <c r="M13" s="30" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="N13" s="23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" s="27" customFormat="1" ht="87" x14ac:dyDescent="0.35">
       <c r="A14" s="23" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D14" s="23" t="s">
         <v>96</v>
@@ -8054,17 +8046,17 @@
         <v>97</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>398</v>
+        <v>449</v>
       </c>
       <c r="G14" s="23"/>
       <c r="H14" s="23" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="I14" s="23" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="J14" s="23" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K14" s="28" t="s">
         <v>39</v>
@@ -8073,21 +8065,21 @@
         <v>61</v>
       </c>
       <c r="M14" s="30" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="N14" s="23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" s="27" customFormat="1" ht="87" x14ac:dyDescent="0.35">
       <c r="A15" s="23" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D15" s="23" t="s">
         <v>96</v>
@@ -8096,17 +8088,17 @@
         <v>97</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>398</v>
+        <v>449</v>
       </c>
       <c r="G15" s="23"/>
       <c r="H15" s="23" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="I15" s="23" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="J15" s="23" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K15" s="28" t="s">
         <v>39</v>
@@ -8115,21 +8107,21 @@
         <v>61</v>
       </c>
       <c r="M15" s="30" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="N15" s="23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" s="27" customFormat="1" ht="87" x14ac:dyDescent="0.35">
       <c r="A16" s="23" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D16" s="23" t="s">
         <v>96</v>
@@ -8138,17 +8130,17 @@
         <v>97</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>398</v>
+        <v>449</v>
       </c>
       <c r="G16" s="23"/>
       <c r="H16" s="23" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="I16" s="23" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J16" s="23" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K16" s="28" t="s">
         <v>39</v>
@@ -8157,21 +8149,21 @@
         <v>61</v>
       </c>
       <c r="M16" s="30" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="N16" s="23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:14" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" s="27" customFormat="1" ht="87" x14ac:dyDescent="0.35">
       <c r="A17" s="23" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D17" s="23" t="s">
         <v>96</v>
@@ -8180,17 +8172,17 @@
         <v>97</v>
       </c>
       <c r="F17" s="23" t="s">
-        <v>398</v>
+        <v>449</v>
       </c>
       <c r="G17" s="23"/>
       <c r="H17" s="23" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I17" s="23" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="J17" s="23" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K17" s="28" t="s">
         <v>39</v>
@@ -8199,42 +8191,42 @@
         <v>61</v>
       </c>
       <c r="M17" s="30" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="N17" s="23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:14" s="26" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" s="26" customFormat="1" ht="87" x14ac:dyDescent="0.35">
       <c r="A18" s="23" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B18" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="C18" s="23" t="s">
         <v>253</v>
       </c>
-      <c r="C18" s="23" t="s">
-        <v>255</v>
-      </c>
       <c r="D18" s="23" t="s">
+        <v>374</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>377</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>450</v>
+      </c>
+      <c r="G18" s="23" t="s">
+        <v>379</v>
+      </c>
+      <c r="H18" s="23" t="s">
         <v>380</v>
       </c>
-      <c r="E18" s="23" t="s">
-        <v>383</v>
-      </c>
-      <c r="F18" s="23" t="s">
-        <v>399</v>
-      </c>
-      <c r="G18" s="23" t="s">
-        <v>385</v>
-      </c>
-      <c r="H18" s="23" t="s">
-        <v>386</v>
-      </c>
       <c r="I18" s="23" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="J18" s="23" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K18" s="28" t="s">
         <v>39</v>
@@ -8243,42 +8235,42 @@
         <v>61</v>
       </c>
       <c r="M18" s="30" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="N18" s="23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:14" s="26" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" s="26" customFormat="1" ht="87" x14ac:dyDescent="0.35">
       <c r="A19" s="23" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C19" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>375</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>376</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>450</v>
+      </c>
+      <c r="G19" s="23" t="s">
+        <v>378</v>
+      </c>
+      <c r="H19" s="23" t="s">
+        <v>381</v>
+      </c>
+      <c r="I19" s="23" t="s">
         <v>256</v>
       </c>
-      <c r="D19" s="23" t="s">
-        <v>381</v>
-      </c>
-      <c r="E19" s="23" t="s">
-        <v>382</v>
-      </c>
-      <c r="F19" s="23" t="s">
-        <v>399</v>
-      </c>
-      <c r="G19" s="23" t="s">
-        <v>384</v>
-      </c>
-      <c r="H19" s="23" t="s">
-        <v>387</v>
-      </c>
-      <c r="I19" s="23" t="s">
-        <v>258</v>
-      </c>
       <c r="J19" s="23" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K19" s="28" t="s">
         <v>39</v>
@@ -8287,42 +8279,42 @@
         <v>61</v>
       </c>
       <c r="M19" s="30" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="N19" s="23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:14" s="26" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" s="26" customFormat="1" ht="87" x14ac:dyDescent="0.35">
       <c r="A20" s="23" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C20" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>385</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>382</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>450</v>
+      </c>
+      <c r="G20" s="23" t="s">
+        <v>379</v>
+      </c>
+      <c r="H20" s="23" t="s">
+        <v>380</v>
+      </c>
+      <c r="I20" s="23" t="s">
         <v>257</v>
       </c>
-      <c r="D20" s="23" t="s">
-        <v>391</v>
-      </c>
-      <c r="E20" s="23" t="s">
-        <v>388</v>
-      </c>
-      <c r="F20" s="23" t="s">
-        <v>399</v>
-      </c>
-      <c r="G20" s="23" t="s">
-        <v>385</v>
-      </c>
-      <c r="H20" s="23" t="s">
-        <v>386</v>
-      </c>
-      <c r="I20" s="23" t="s">
-        <v>259</v>
-      </c>
       <c r="J20" s="23" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K20" s="28" t="s">
         <v>39</v>
@@ -8331,42 +8323,42 @@
         <v>61</v>
       </c>
       <c r="M20" s="30" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="N20" s="23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:14" s="26" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" s="26" customFormat="1" ht="87" x14ac:dyDescent="0.35">
       <c r="A21" s="23" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="E21" s="23" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="F21" s="23" t="s">
-        <v>399</v>
+        <v>450</v>
       </c>
       <c r="G21" s="23" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="H21" s="23" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="I21" s="23" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="J21" s="23" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K21" s="28" t="s">
         <v>39</v>
@@ -8375,40 +8367,40 @@
         <v>61</v>
       </c>
       <c r="M21" s="30" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="N21" s="23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:14" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" s="27" customFormat="1" ht="87" x14ac:dyDescent="0.35">
       <c r="A22" s="23" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="C22" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="D22" s="23" t="s">
         <v>261</v>
       </c>
-      <c r="D22" s="23" t="s">
-        <v>263</v>
-      </c>
       <c r="E22" s="23" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F22" s="23" t="s">
-        <v>398</v>
+        <v>449</v>
       </c>
       <c r="G22" s="23"/>
       <c r="H22" s="23" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="I22" s="23" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="J22" s="23" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K22" s="28" t="s">
         <v>39</v>
@@ -8417,40 +8409,40 @@
         <v>61</v>
       </c>
       <c r="M22" s="30" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="N22" s="23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:14" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" s="27" customFormat="1" ht="87" x14ac:dyDescent="0.35">
       <c r="A23" s="23" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B23" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="C23" s="23" t="s">
         <v>260</v>
       </c>
-      <c r="C23" s="23" t="s">
-        <v>262</v>
-      </c>
       <c r="D23" s="23" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E23" s="23" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F23" s="23" t="s">
-        <v>398</v>
+        <v>449</v>
       </c>
       <c r="G23" s="23"/>
       <c r="H23" s="23" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="I23" s="23" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="J23" s="23" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="K23" s="28" t="s">
         <v>39</v>
@@ -8459,40 +8451,40 @@
         <v>61</v>
       </c>
       <c r="M23" s="30" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="N23" s="23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:14" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" s="27" customFormat="1" ht="87" x14ac:dyDescent="0.35">
       <c r="A24" s="23" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="E24" s="23" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F24" s="23" t="s">
-        <v>398</v>
+        <v>449</v>
       </c>
       <c r="G24" s="23"/>
       <c r="H24" s="23" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="I24" s="23" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="J24" s="23" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="K24" s="28" t="s">
         <v>39</v>
@@ -8501,7 +8493,7 @@
         <v>61</v>
       </c>
       <c r="M24" s="30" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="N24" s="23" t="s">
         <v>40</v>
@@ -8513,40 +8505,40 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.453125" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.5703125" customWidth="1"/>
-    <col min="10" max="10" width="22.42578125" customWidth="1"/>
-    <col min="11" max="11" width="8.140625" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.54296875" customWidth="1"/>
+    <col min="10" max="10" width="22.453125" customWidth="1"/>
+    <col min="11" max="11" width="8.1796875" customWidth="1"/>
+    <col min="12" max="12" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -8566,12 +8558,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="E3" s="16">
         <f>COUNTIF(K8:K23,"Pass")</f>
@@ -8590,7 +8582,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -8598,15 +8590,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -8650,15 +8642,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" s="27" customFormat="1" ht="87" x14ac:dyDescent="0.35">
       <c r="A8" s="23" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D8" s="23" t="s">
         <v>96</v>
@@ -8667,17 +8659,17 @@
         <v>97</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>398</v>
+        <v>449</v>
       </c>
       <c r="G8" s="23"/>
       <c r="H8" s="23" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I8" s="23" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J8" s="23" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K8" s="28" t="s">
         <v>39</v>
@@ -8686,21 +8678,21 @@
         <v>61</v>
       </c>
       <c r="M8" s="30" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="N8" s="23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" s="27" customFormat="1" ht="87" x14ac:dyDescent="0.35">
       <c r="A9" s="23" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D9" s="23" t="s">
         <v>96</v>
@@ -8709,17 +8701,17 @@
         <v>97</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>398</v>
+        <v>449</v>
       </c>
       <c r="G9" s="23"/>
       <c r="H9" s="23" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I9" s="23" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J9" s="23" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K9" s="28" t="s">
         <v>39</v>
@@ -8728,21 +8720,21 @@
         <v>61</v>
       </c>
       <c r="M9" s="30" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="N9" s="23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" s="27" customFormat="1" ht="87" x14ac:dyDescent="0.35">
       <c r="A10" s="23" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D10" s="23" t="s">
         <v>96</v>
@@ -8751,17 +8743,17 @@
         <v>97</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>398</v>
+        <v>449</v>
       </c>
       <c r="G10" s="23"/>
       <c r="H10" s="23" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I10" s="23" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="J10" s="23" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K10" s="28" t="s">
         <v>39</v>
@@ -8770,21 +8762,21 @@
         <v>61</v>
       </c>
       <c r="M10" s="30" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="N10" s="23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" s="27" customFormat="1" ht="87" x14ac:dyDescent="0.35">
       <c r="A11" s="23" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D11" s="23" t="s">
         <v>96</v>
@@ -8793,17 +8785,17 @@
         <v>97</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>398</v>
+        <v>449</v>
       </c>
       <c r="G11" s="23"/>
       <c r="H11" s="23" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I11" s="23" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J11" s="23" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K11" s="28" t="s">
         <v>39</v>
@@ -8812,21 +8804,21 @@
         <v>61</v>
       </c>
       <c r="M11" s="30" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="N11" s="23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" s="27" customFormat="1" ht="87" x14ac:dyDescent="0.35">
       <c r="A12" s="23" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D12" s="23" t="s">
         <v>96</v>
@@ -8835,17 +8827,17 @@
         <v>97</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>398</v>
+        <v>449</v>
       </c>
       <c r="G12" s="23"/>
       <c r="H12" s="23" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="I12" s="23" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="J12" s="23" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K12" s="28" t="s">
         <v>39</v>
@@ -8854,21 +8846,21 @@
         <v>61</v>
       </c>
       <c r="M12" s="30" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="N12" s="23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" s="27" customFormat="1" ht="87" x14ac:dyDescent="0.35">
       <c r="A13" s="23" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D13" s="23" t="s">
         <v>96</v>
@@ -8877,17 +8869,17 @@
         <v>97</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>398</v>
+        <v>449</v>
       </c>
       <c r="G13" s="23"/>
       <c r="H13" s="23" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="I13" s="23" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J13" s="23" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K13" s="28" t="s">
         <v>39</v>
@@ -8896,21 +8888,21 @@
         <v>61</v>
       </c>
       <c r="M13" s="30" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="N13" s="23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" s="27" customFormat="1" ht="87" x14ac:dyDescent="0.35">
       <c r="A14" s="23" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D14" s="23" t="s">
         <v>96</v>
@@ -8919,17 +8911,17 @@
         <v>97</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>398</v>
+        <v>449</v>
       </c>
       <c r="G14" s="23"/>
       <c r="H14" s="23" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="I14" s="23" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="J14" s="23" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K14" s="28" t="s">
         <v>39</v>
@@ -8938,21 +8930,21 @@
         <v>61</v>
       </c>
       <c r="M14" s="30" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="N14" s="23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" s="27" customFormat="1" ht="87" x14ac:dyDescent="0.35">
       <c r="A15" s="23" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D15" s="23" t="s">
         <v>96</v>
@@ -8961,17 +8953,17 @@
         <v>97</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>398</v>
+        <v>449</v>
       </c>
       <c r="G15" s="23"/>
       <c r="H15" s="23" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="I15" s="23" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="J15" s="23" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="K15" s="28" t="s">
         <v>39</v>
@@ -8980,21 +8972,21 @@
         <v>61</v>
       </c>
       <c r="M15" s="30" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="N15" s="23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" s="27" customFormat="1" ht="87" x14ac:dyDescent="0.35">
       <c r="A16" s="23" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D16" s="23" t="s">
         <v>96</v>
@@ -9003,17 +8995,17 @@
         <v>97</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>398</v>
+        <v>449</v>
       </c>
       <c r="G16" s="23"/>
       <c r="H16" s="23" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="I16" s="23" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="J16" s="23" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="K16" s="28" t="s">
         <v>39</v>
@@ -9022,21 +9014,21 @@
         <v>61</v>
       </c>
       <c r="M16" s="30" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="N16" s="23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:14" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" s="27" customFormat="1" ht="87" x14ac:dyDescent="0.35">
       <c r="A17" s="23" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D17" s="23" t="s">
         <v>96</v>
@@ -9045,17 +9037,17 @@
         <v>97</v>
       </c>
       <c r="F17" s="23" t="s">
-        <v>398</v>
+        <v>449</v>
       </c>
       <c r="G17" s="23"/>
       <c r="H17" s="23" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="I17" s="23" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="J17" s="23" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="K17" s="28" t="s">
         <v>39</v>
@@ -9064,21 +9056,21 @@
         <v>61</v>
       </c>
       <c r="M17" s="30" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="N17" s="23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:14" s="26" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" s="26" customFormat="1" ht="87" x14ac:dyDescent="0.35">
       <c r="A18" s="23" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D18" s="23" t="s">
         <v>22</v>
@@ -9087,7 +9079,7 @@
         <v>27</v>
       </c>
       <c r="F18" s="23" t="s">
-        <v>399</v>
+        <v>450</v>
       </c>
       <c r="G18" s="23" t="s">
         <v>33</v>
@@ -9108,21 +9100,21 @@
         <v>61</v>
       </c>
       <c r="M18" s="30" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="N18" s="23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:14" s="26" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" s="26" customFormat="1" ht="87" x14ac:dyDescent="0.35">
       <c r="A19" s="23" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D19" s="23" t="s">
         <v>23</v>
@@ -9131,7 +9123,7 @@
         <v>28</v>
       </c>
       <c r="F19" s="23" t="s">
-        <v>399</v>
+        <v>450</v>
       </c>
       <c r="G19" s="23" t="s">
         <v>34</v>
@@ -9152,21 +9144,21 @@
         <v>61</v>
       </c>
       <c r="M19" s="30" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="N19" s="23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:14" s="26" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" s="26" customFormat="1" ht="87" x14ac:dyDescent="0.35">
       <c r="A20" s="23" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D20" s="23" t="s">
         <v>24</v>
@@ -9175,7 +9167,7 @@
         <v>29</v>
       </c>
       <c r="F20" s="23" t="s">
-        <v>399</v>
+        <v>450</v>
       </c>
       <c r="G20" s="23" t="s">
         <v>33</v>
@@ -9196,21 +9188,21 @@
         <v>61</v>
       </c>
       <c r="M20" s="30" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="N20" s="23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:14" s="26" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" s="26" customFormat="1" ht="87" x14ac:dyDescent="0.35">
       <c r="A21" s="23" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D21" s="23" t="s">
         <v>25</v>
@@ -9219,7 +9211,7 @@
         <v>30</v>
       </c>
       <c r="F21" s="23" t="s">
-        <v>399</v>
+        <v>450</v>
       </c>
       <c r="G21" s="23" t="s">
         <v>34</v>
@@ -9240,40 +9232,40 @@
         <v>61</v>
       </c>
       <c r="M21" s="30" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="N21" s="23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:14" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" s="27" customFormat="1" ht="87" x14ac:dyDescent="0.35">
       <c r="A22" s="23" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="F22" s="23" t="s">
-        <v>398</v>
+        <v>449</v>
       </c>
       <c r="G22" s="23"/>
       <c r="H22" s="23" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="I22" s="23" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="J22" s="23" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K22" s="28" t="s">
         <v>39</v>
@@ -9282,40 +9274,40 @@
         <v>61</v>
       </c>
       <c r="M22" s="30" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="N22" s="23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:14" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" s="27" customFormat="1" ht="87" x14ac:dyDescent="0.35">
       <c r="A23" s="23" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E23" s="23" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F23" s="23" t="s">
-        <v>398</v>
+        <v>449</v>
       </c>
       <c r="G23" s="23"/>
       <c r="H23" s="23" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="I23" s="23" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="J23" s="23" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="K23" s="28" t="s">
         <v>39</v>
@@ -9324,7 +9316,7 @@
         <v>61</v>
       </c>
       <c r="M23" s="30" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="N23" s="23" t="s">
         <v>40</v>

--- a/Documentation/FHF_TestCases.xlsx
+++ b/Documentation/FHF_TestCases.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SEP490\fu-house-finder\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Semester9\SEP490\fu-house-finder\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE66401E-C7DF-4223-B1B9-985B6F4CD81F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="891" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="891" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="2" r:id="rId1"/>
@@ -27,7 +28,7 @@
     <sheet name="Login" sheetId="15" r:id="rId13"/>
     <sheet name="(Landlord) Upload House Info" sheetId="16" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1890" uniqueCount="604">
   <si>
     <t>Project Name</t>
   </si>
@@ -1357,16 +1358,10 @@
     <t>1. Select a Campus from the Dropdown</t>
   </si>
   <si>
-    <t>User see Houses of the Hoa Lac Campus</t>
-  </si>
-  <si>
     <t>System displays a list of Houses in the Hoa Lac Campus</t>
   </si>
   <si>
     <t>TC_FHF_Home_FilterByCampus_002</t>
-  </si>
-  <si>
-    <t>User see Houses of the Can Tho Campus</t>
   </si>
   <si>
     <t>System displays a list of Houses in the Can Tho Campus</t>
@@ -1390,16 +1385,10 @@
 4. Choose a Village from the Dropdown</t>
   </si>
   <si>
-    <t>User see Houses of the Dong Cam Village</t>
-  </si>
-  <si>
     <t>System displays a list of Houses in the Dong Cam Village</t>
   </si>
   <si>
     <t>TC_FHF_Home_FilterByRegion_002</t>
-  </si>
-  <si>
-    <t>User see Houses of the 13KP Long Hòa Village</t>
   </si>
   <si>
     <t>System displays a list of Houses in the 13KP Long Hòa Village</t>
@@ -1413,9 +1402,6 @@
   <si>
     <t>1. Select a Campus from the Dropdown
 2. Choose a District from the Dropdown</t>
-  </si>
-  <si>
-    <t>User see Houses of the Thạch Thất District</t>
   </si>
   <si>
     <t>System displays a list of Houses in the Thạch Thất District</t>
@@ -1430,9 +1416,6 @@
     <t>1. Select a Campus from the Dropdown
 2. Choose a District from the Dropdown
 3. Choose a Province from the Dropdown</t>
-  </si>
-  <si>
-    <t>User see Houses of the Liên Quan Province</t>
   </si>
   <si>
     <t>System displays a list of Houses in the Liên Quan Province</t>
@@ -1783,9 +1766,6 @@
     </r>
   </si>
   <si>
-    <t>User see Houses with Distance from 1 to 2 km from FPTU Hoa Lac Campus</t>
-  </si>
-  <si>
     <t>System displays a list of Houses with Distance from 1 to 2 km from FPTU Hoa Lac Campus</t>
   </si>
   <si>
@@ -1798,9 +1778,6 @@
     <t>Campus: FU - Hòa Lạc
 Distance - From: blank
 Distance - To: blank</t>
-  </si>
-  <si>
-    <t>User see no changes</t>
   </si>
   <si>
     <t>1. Select a Campus from the Dropdown
@@ -1842,11 +1819,1166 @@
   <si>
     <t>TC_FHF_HouseDetail_Validation_004</t>
   </si>
+  <si>
+    <t>User sees Houses with the name searched</t>
+  </si>
+  <si>
+    <t>User sees no House</t>
+  </si>
+  <si>
+    <t>User sees Houses of the Hoa Lac Campus</t>
+  </si>
+  <si>
+    <t>User sees Houses of the Can Tho Campus</t>
+  </si>
+  <si>
+    <t>User sees Houses of the Dong Cam Village</t>
+  </si>
+  <si>
+    <t>User sees Houses of the 13KP Long Hòa Village</t>
+  </si>
+  <si>
+    <t>User sees Houses of the Thạch Thất District</t>
+  </si>
+  <si>
+    <t>User sees Houses of the Liên Quan Province</t>
+  </si>
+  <si>
+    <t>User sees Houses with Distance from 1 to 2 km from FPTU Hoa Lac Campus</t>
+  </si>
+  <si>
+    <t>Choose a Campus, then input blank Distance</t>
+  </si>
+  <si>
+    <t>User sees no changes</t>
+  </si>
+  <si>
+    <t>TC_FHF_Home_FilterByDistance_003</t>
+  </si>
+  <si>
+    <t>Choose a Campus, then input invalid Distance</t>
+  </si>
+  <si>
+    <t>1. Select a Campus from the Dropdown
+2. Input invalid data type of Distance - From
+3. Input valid Distance - To
+4. Click "Áp dụng"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Campus: FU - Hòa Lạc
+Distance - From: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>abc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Distance - To: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>User failed to input text to Form</t>
+  </si>
+  <si>
+    <t>TC_FHF_Home_FilterByDistance_004</t>
+  </si>
+  <si>
+    <t>1. Select a Campus from the Dropdown
+2. Input invalid Distance - From
+3. Input valid Distance - To
+4. Click "Áp dụng"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Campus: FU - Hòa Lạc
+Distance - From: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Distance - To: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>System displays alert: "Giá trị nhập vào không hợp lệ!"</t>
+  </si>
+  <si>
+    <t>TC_FHF_Home_FilterByDistance_005</t>
+  </si>
+  <si>
+    <t>1. Select a Campus from the Dropdown
+2. Input valid Distance - From
+3. Input invalid Distance - To
+4. Click "Áp dụng"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Campus: FU - Hòa Lạc
+Distance - From: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Distance - To: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-2</t>
+    </r>
+  </si>
+  <si>
+    <t>TC_FHF_Home_FilterByDistance_006</t>
+  </si>
+  <si>
+    <t>1. Select a Campus from the Dropdown
+2. Input invalid Distance - From
+3. Input invalid Distance - To
+4. Click "Áp dụng"</t>
+  </si>
+  <si>
+    <r>
+      <t>Campus: FU - Hòa Lạc
+Distance - From: -</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Distance - To: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-2</t>
+    </r>
+  </si>
+  <si>
+    <t>TC_FHF_Home_FilterByDistance_007</t>
+  </si>
+  <si>
+    <t>Choose a Campus, then input valid Distance but From is larger than To</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Campus: FU - Hòa Lạc
+Distance - From: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Distance - To: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>TC_FHF_Home_FilterByDistance_008</t>
+  </si>
+  <si>
+    <t>Input Distance but not choosing Campus</t>
+  </si>
+  <si>
+    <t>1. Input valid Distance - From
+2. Input valid Distance - To
+3. Click "Áp dụng"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Distance - From: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Distance - To: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>System displays alert: "Vui lòng chọn Cơ sở bạn học trước!"</t>
+  </si>
+  <si>
+    <t>TS_FHF_Home_005</t>
+  </si>
+  <si>
+    <t>Verify the Filter by Price functionality of Home Page</t>
+  </si>
+  <si>
+    <t>TC_FHF_Home_FilterByPrice_001</t>
+  </si>
+  <si>
+    <t>Input valid Prices</t>
+  </si>
+  <si>
+    <t>1. Input valid Price - From
+2. Input valid Price - To
+3. Click "Áp dụng"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Price - From: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2000000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Price - To: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3000000</t>
+    </r>
+  </si>
+  <si>
+    <t>User sees Houses with Room Price from 2000000 to 3000000 per month</t>
+  </si>
+  <si>
+    <t>System displays a list of Houses with Room Price from 2000000 to 3000000 per month</t>
+  </si>
+  <si>
+    <t>TC_FHF_Home_FilterByPrice_002</t>
+  </si>
+  <si>
+    <t>Input invalid Prices</t>
+  </si>
+  <si>
+    <t>1. Input invalid Price - From
+2. Input valid Price - To
+3. Click "Áp dụng"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Price - From: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-3200000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Price - To: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2000000</t>
+    </r>
+  </si>
+  <si>
+    <t>TC_FHF_Home_FilterByPrice_003</t>
+  </si>
+  <si>
+    <t>1. Input valid Price - From
+2. Input invalid Price - To
+3. Click "Áp dụng"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Price - From: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2000000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Price - To: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-3000000</t>
+    </r>
+  </si>
+  <si>
+    <t>TC_FHF_Home_FilterByPrice_004</t>
+  </si>
+  <si>
+    <t>1. Input invalid Price - From
+2. Input invalid Price - To
+3. Click "Áp dụng"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Price - From: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-3000000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Price - To: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-2000000</t>
+    </r>
+  </si>
+  <si>
+    <t>TC_FHF_Home_FilterByPrice_005</t>
+  </si>
+  <si>
+    <t>Input invalid data type of Prices</t>
+  </si>
+  <si>
+    <t>1. Input invalid data type of Price - From
+2. Input valid Price - To
+3. Click "Áp dụng"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Price - From: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>abc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Price - To: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2000000</t>
+    </r>
+  </si>
+  <si>
+    <t>TS_FHF_Home_006</t>
+  </si>
+  <si>
+    <t>Verify the Filter by Room Type functionality of Home Page</t>
+  </si>
+  <si>
+    <t>TC_FHF_Home_FilterByRoomType_001</t>
+  </si>
+  <si>
+    <t>Select a Room Type from list</t>
+  </si>
+  <si>
+    <t>1. Select a Room Type from list of Room Types</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Room Type: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Khép kín</t>
+    </r>
+  </si>
+  <si>
+    <t>User sees Houses containing Rooms of the selected Room Type</t>
+  </si>
+  <si>
+    <t>System displays Houses containing Rooms of the selected Room Type</t>
+  </si>
+  <si>
+    <t>TC_FHF_Home_FilterByRoomType_002</t>
+  </si>
+  <si>
+    <t>Select 2 Room Types from list</t>
+  </si>
+  <si>
+    <t>1. Select 2 Room Types from list of Room Types</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Room Type: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Khép kín; Chung cư mini</t>
+    </r>
+  </si>
+  <si>
+    <t>User sees Houses containing Rooms of the selected Room Types</t>
+  </si>
+  <si>
+    <t>System displays Houses containing Rooms of the selected Room Types</t>
+  </si>
+  <si>
+    <t>TC_FHF_Home_FilterByRoomType_003</t>
+  </si>
+  <si>
+    <t>Select all Room Types from list</t>
+  </si>
+  <si>
+    <t>1. Select all 3 Room Type from list of Room Types</t>
+  </si>
+  <si>
+    <t>Room Type: all</t>
+  </si>
+  <si>
+    <t>User sees all Houses</t>
+  </si>
+  <si>
+    <t>System displays all Houses</t>
+  </si>
+  <si>
+    <t>TC_FHF_Home_FilterByRoomType_004</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Room Type: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Không khép kín</t>
+    </r>
+  </si>
+  <si>
+    <t>TC_FHF_Home_FilterByRoomType_005</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Room Type: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Chung cư mini</t>
+    </r>
+  </si>
+  <si>
+    <t>TS_FHF_Home_007</t>
+  </si>
+  <si>
+    <t>Verify the Filter by House Utility functionality of Home Page</t>
+  </si>
+  <si>
+    <t>TC_FHF_Home_FilterByHouseUtility_001</t>
+  </si>
+  <si>
+    <t>Select a House Utility from list</t>
+  </si>
+  <si>
+    <t>1. Select a House Utility from list of House Utility</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">House Utility: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Khóa vân tay</t>
+    </r>
+  </si>
+  <si>
+    <t>User sees Houses with the selected House Utility</t>
+  </si>
+  <si>
+    <t>System displays list of Houses with the selected House Utility</t>
+  </si>
+  <si>
+    <t>TC_FHF_Home_FilterByHouseUtility_002</t>
+  </si>
+  <si>
+    <t>Select 2 House Utility from list</t>
+  </si>
+  <si>
+    <t>1. Select 2 House Utility from list of House Utility</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">House Utility: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Khóa vân tay; Chỗ để xe</t>
+    </r>
+  </si>
+  <si>
+    <t>User sees Houses with the selected House Utilities</t>
+  </si>
+  <si>
+    <t>System displays list of Houses with the selected House Utilities</t>
+  </si>
+  <si>
+    <t>TC_FHF_Home_FilterByHouseUtility_003</t>
+  </si>
+  <si>
+    <t>Select all House Utility from list</t>
+  </si>
+  <si>
+    <t>1. Select all House Utility from list of House Utility</t>
+  </si>
+  <si>
+    <t>House Utility: all</t>
+  </si>
+  <si>
+    <t>TC_FHF_Home_FilterByHouseUtility_004</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">House Utility: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Camera an ninh</t>
+    </r>
+  </si>
+  <si>
+    <t>TC_FHF_Home_FilterByHouseUtility_005</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">House Utility: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Chỗ để xe</t>
+    </r>
+  </si>
+  <si>
+    <t>TS_FHF_Home_008</t>
+  </si>
+  <si>
+    <t>Verify the Filter by Room Utility functionality of Home Page</t>
+  </si>
+  <si>
+    <t>TC_FHF_Home_FilterByRoomUtility_001</t>
+  </si>
+  <si>
+    <t>Select a Room Utility from list</t>
+  </si>
+  <si>
+    <t>1. Select a Room Utility from list of Room Utility</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Room Utility: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tủ lạnh</t>
+    </r>
+  </si>
+  <si>
+    <t>User sees Houses containing Rooms with the selected Room Utility</t>
+  </si>
+  <si>
+    <t>System displays list of Houses containing Rooms with the selected Room Utility</t>
+  </si>
+  <si>
+    <t>TC_FHF_Home_FilterByRoomUtility_002</t>
+  </si>
+  <si>
+    <t>Select 2 Room Utility from list</t>
+  </si>
+  <si>
+    <t>1. Select 2 Room Utility from list of Room Utility</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Room Utility: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tủ lạnh; Bếp</t>
+    </r>
+  </si>
+  <si>
+    <t>User sees Houses containing Rooms with the selected Room Utilities</t>
+  </si>
+  <si>
+    <t>System displays list of Houses containing Rooms with the selected Room Utilities</t>
+  </si>
+  <si>
+    <t>TC_FHF_Home_FilterByRoomUtility_003</t>
+  </si>
+  <si>
+    <t>Select all Room Utility from list</t>
+  </si>
+  <si>
+    <t>1. Select all Room Utility from list of Room Utility</t>
+  </si>
+  <si>
+    <t>Room Utility: all</t>
+  </si>
+  <si>
+    <t>TC_FHF_Home_FilterByRoomUtility_004</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Room Utility: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bếp</t>
+    </r>
+  </si>
+  <si>
+    <t>TC_FHF_Home_FilterByRoomUtility_005</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Room Utility: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Máy giặt</t>
+    </r>
+  </si>
+  <si>
+    <t>TC_FHF_Home_FilterByRoomUtility_006</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Room Utility: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bàn học</t>
+    </r>
+  </si>
+  <si>
+    <t>TC_FHF_Home_FilterByRoomUtility_007</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Room Utility: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Không chung chủ</t>
+    </r>
+  </si>
+  <si>
+    <t>TC_FHF_Home_FilterByRoomUtility_008</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Room Utility: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Giường</t>
+    </r>
+  </si>
+  <si>
+    <t>TC_FHF_Home_FilterByRoomUtility_009</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Room Utility: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Vệ sinh khép kín</t>
+    </r>
+  </si>
+  <si>
+    <t>TS_FHF_Home_009</t>
+  </si>
+  <si>
+    <t>Verify the Filter by Rate functionality of Home Page</t>
+  </si>
+  <si>
+    <t>TC_FHF_Home_FilterByRate_001</t>
+  </si>
+  <si>
+    <t>Select a Rate from list</t>
+  </si>
+  <si>
+    <t>1. Select a Rate from list of Rate</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Rate: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <t>User sees Houses with average Rate from 1 Star and up</t>
+  </si>
+  <si>
+    <t>System displays list of Houses with average Rate from 1 Star and up</t>
+  </si>
+  <si>
+    <t>TC_FHF_Home_FilterByRate_002</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Rate: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>User sees Houses with average Rate from 2 Star and up</t>
+  </si>
+  <si>
+    <t>System displays list of Houses with average Rate from 2 Star and up</t>
+  </si>
+  <si>
+    <t>TC_FHF_Home_FilterByRate_003</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Rate: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <t>User sees Houses with average Rate from 3 Star and up</t>
+  </si>
+  <si>
+    <t>System displays list of Houses with average Rate from 3 Star and up</t>
+  </si>
+  <si>
+    <t>TC_FHF_Home_FilterByRate_004</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Rate: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+  </si>
+  <si>
+    <t>User sees Houses with average Rate from 4 Star and up</t>
+  </si>
+  <si>
+    <t>System displays list of Houses with average Rate from 4 Star and up</t>
+  </si>
+  <si>
+    <t>TC_FHF_Home_FilterByRate_005</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Rate: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+  </si>
+  <si>
+    <t>User sees Houses with average Rate from 5 Star and up</t>
+  </si>
+  <si>
+    <t>System displays list of Houses with average Rate from 5 Star and up</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2449,29 +3581,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.81640625" customWidth="1"/>
-    <col min="3" max="3" width="18.54296875" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" customWidth="1"/>
-    <col min="5" max="5" width="34.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.81640625" customWidth="1"/>
-    <col min="7" max="7" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="91.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:6" ht="91.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D2" s="20" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
@@ -2486,7 +3618,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
         <v>41</v>
       </c>
@@ -2501,12 +3633,12 @@
         <v>333</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>44</v>
       </c>
@@ -2520,7 +3652,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="18" t="s">
         <v>333</v>
       </c>
@@ -2534,7 +3666,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="18" t="s">
         <v>334</v>
       </c>
@@ -2548,7 +3680,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="18" t="s">
         <v>337</v>
       </c>
@@ -2562,7 +3694,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="18" t="s">
         <v>336</v>
       </c>
@@ -2576,7 +3708,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="18" t="s">
         <v>338</v>
       </c>
@@ -2590,7 +3722,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="18">
         <v>44907</v>
       </c>
@@ -2604,7 +3736,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="18" t="s">
         <v>342</v>
       </c>
@@ -2618,7 +3750,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="18" t="s">
         <v>344</v>
       </c>
@@ -2632,7 +3764,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="18" t="s">
         <v>343</v>
       </c>
@@ -2646,31 +3778,31 @@
         <v>356</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="18"/>
       <c r="E19" s="13"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="18"/>
       <c r="E20" s="13"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="18"/>
       <c r="E21" s="13"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="18"/>
       <c r="E22" s="13"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="18"/>
       <c r="E23" s="13"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="18"/>
       <c r="E24" s="13"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="19"/>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
@@ -2684,32 +3816,32 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.453125" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.54296875" customWidth="1"/>
-    <col min="10" max="10" width="22.453125" customWidth="1"/>
-    <col min="11" max="11" width="8.1796875" customWidth="1"/>
-    <col min="12" max="12" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5703125" customWidth="1"/>
+    <col min="10" max="10" width="22.42578125" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2717,7 +3849,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2737,7 +3869,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2761,7 +3893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -2769,7 +3901,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -2777,7 +3909,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -2821,7 +3953,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -2837,7 +3969,7 @@
       <c r="M8" s="4"/>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -2853,7 +3985,7 @@
       <c r="M9" s="4"/>
       <c r="N9" s="2"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -2869,7 +4001,7 @@
       <c r="M10" s="4"/>
       <c r="N10" s="2"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -2885,7 +4017,7 @@
       <c r="M11" s="4"/>
       <c r="N11" s="2"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -2901,7 +4033,7 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -2917,7 +4049,7 @@
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -2933,7 +4065,7 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -2949,7 +4081,7 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -2965,7 +4097,7 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -2981,7 +4113,7 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -2997,7 +4129,7 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -3013,7 +4145,7 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -3029,7 +4161,7 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -3051,32 +4183,32 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.453125" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.54296875" customWidth="1"/>
-    <col min="10" max="10" width="22.453125" customWidth="1"/>
-    <col min="11" max="11" width="8.1796875" customWidth="1"/>
-    <col min="12" max="12" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5703125" customWidth="1"/>
+    <col min="10" max="10" width="22.42578125" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3084,7 +4216,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -3104,7 +4236,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -3128,7 +4260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -3136,7 +4268,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -3144,7 +4276,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -3188,7 +4320,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -3204,7 +4336,7 @@
       <c r="M8" s="4"/>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -3220,7 +4352,7 @@
       <c r="M9" s="4"/>
       <c r="N9" s="2"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -3236,7 +4368,7 @@
       <c r="M10" s="4"/>
       <c r="N10" s="2"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -3252,7 +4384,7 @@
       <c r="M11" s="4"/>
       <c r="N11" s="2"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -3268,7 +4400,7 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -3284,7 +4416,7 @@
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -3300,7 +4432,7 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -3316,7 +4448,7 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -3332,7 +4464,7 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -3348,7 +4480,7 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -3364,7 +4496,7 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -3380,7 +4512,7 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -3396,7 +4528,7 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -3418,32 +4550,32 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.453125" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.54296875" customWidth="1"/>
-    <col min="10" max="10" width="22.453125" customWidth="1"/>
-    <col min="11" max="11" width="8.1796875" customWidth="1"/>
-    <col min="12" max="12" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5703125" customWidth="1"/>
+    <col min="10" max="10" width="22.42578125" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3451,7 +4583,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -3471,7 +4603,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -3495,7 +4627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -3503,7 +4635,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -3511,7 +4643,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -3555,7 +4687,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -3571,7 +4703,7 @@
       <c r="M8" s="4"/>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -3587,7 +4719,7 @@
       <c r="M9" s="4"/>
       <c r="N9" s="2"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -3603,7 +4735,7 @@
       <c r="M10" s="4"/>
       <c r="N10" s="2"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -3619,7 +4751,7 @@
       <c r="M11" s="4"/>
       <c r="N11" s="2"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -3635,7 +4767,7 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -3651,7 +4783,7 @@
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -3667,7 +4799,7 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -3683,7 +4815,7 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -3699,7 +4831,7 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -3715,7 +4847,7 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -3731,7 +4863,7 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -3747,7 +4879,7 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -3763,7 +4895,7 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -3785,32 +4917,32 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.453125" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.54296875" customWidth="1"/>
-    <col min="10" max="10" width="22.453125" customWidth="1"/>
-    <col min="11" max="11" width="8.1796875" customWidth="1"/>
-    <col min="12" max="12" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5703125" customWidth="1"/>
+    <col min="10" max="10" width="22.42578125" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3818,7 +4950,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -3838,7 +4970,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -3862,7 +4994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -3870,7 +5002,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -3878,7 +5010,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -3922,7 +5054,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -3938,7 +5070,7 @@
       <c r="M8" s="4"/>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -3954,7 +5086,7 @@
       <c r="M9" s="4"/>
       <c r="N9" s="2"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -3970,7 +5102,7 @@
       <c r="M10" s="4"/>
       <c r="N10" s="2"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -3986,7 +5118,7 @@
       <c r="M11" s="4"/>
       <c r="N11" s="2"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -4002,7 +5134,7 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -4018,7 +5150,7 @@
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -4034,7 +5166,7 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -4050,7 +5182,7 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -4066,7 +5198,7 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -4082,7 +5214,7 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -4098,7 +5230,7 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -4114,7 +5246,7 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -4130,7 +5262,7 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -4152,32 +5284,32 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.453125" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.54296875" customWidth="1"/>
-    <col min="10" max="10" width="22.453125" customWidth="1"/>
-    <col min="11" max="11" width="8.1796875" customWidth="1"/>
-    <col min="12" max="12" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5703125" customWidth="1"/>
+    <col min="10" max="10" width="22.42578125" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -4185,7 +5317,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -4205,7 +5337,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -4229,7 +5361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -4237,7 +5369,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -4245,7 +5377,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -4289,7 +5421,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -4305,7 +5437,7 @@
       <c r="M8" s="4"/>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -4321,7 +5453,7 @@
       <c r="M9" s="4"/>
       <c r="N9" s="2"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -4337,7 +5469,7 @@
       <c r="M10" s="4"/>
       <c r="N10" s="2"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -4353,7 +5485,7 @@
       <c r="M11" s="4"/>
       <c r="N11" s="2"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -4369,7 +5501,7 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -4385,7 +5517,7 @@
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -4401,7 +5533,7 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -4417,7 +5549,7 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -4433,7 +5565,7 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -4449,7 +5581,7 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -4465,7 +5597,7 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -4481,7 +5613,7 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -4497,7 +5629,7 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -4519,32 +5651,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:N54"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.453125" customWidth="1"/>
-    <col min="5" max="5" width="31.1796875" customWidth="1"/>
-    <col min="6" max="6" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.1796875" customWidth="1"/>
-    <col min="8" max="8" width="27.453125" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.42578125" customWidth="1"/>
+    <col min="5" max="5" width="31.140625" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="8" max="8" width="27.42578125" customWidth="1"/>
     <col min="9" max="9" width="34" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="34.1796875" customWidth="1"/>
-    <col min="11" max="11" width="8.1796875" customWidth="1"/>
-    <col min="12" max="12" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.140625" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -4552,7 +5684,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -4572,7 +5704,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -4580,8 +5712,8 @@
         <v>334</v>
       </c>
       <c r="E3" s="16">
-        <f>COUNTIF(K8:K19,"Pass")</f>
-        <v>12</v>
+        <f>COUNTIF(K8:K49,"Pass")</f>
+        <v>42</v>
       </c>
       <c r="F3" s="16">
         <f>COUNTIF(K8:K11,"Fail")</f>
@@ -4596,7 +5728,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -4604,7 +5736,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -4612,7 +5744,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -4656,7 +5788,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>55</v>
       </c>
@@ -4679,7 +5811,7 @@
         <v>33</v>
       </c>
       <c r="H8" s="23" t="s">
-        <v>35</v>
+        <v>448</v>
       </c>
       <c r="I8" s="23" t="s">
         <v>36</v>
@@ -4700,7 +5832,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
         <v>55</v>
       </c>
@@ -4723,7 +5855,7 @@
         <v>34</v>
       </c>
       <c r="H9" s="23" t="s">
-        <v>37</v>
+        <v>449</v>
       </c>
       <c r="I9" s="23" t="s">
         <v>38</v>
@@ -4744,7 +5876,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>55</v>
       </c>
@@ -4767,7 +5899,7 @@
         <v>33</v>
       </c>
       <c r="H10" s="23" t="s">
-        <v>35</v>
+        <v>448</v>
       </c>
       <c r="I10" s="23" t="s">
         <v>36</v>
@@ -4788,7 +5920,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>55</v>
       </c>
@@ -4811,7 +5943,7 @@
         <v>34</v>
       </c>
       <c r="H11" s="23" t="s">
-        <v>37</v>
+        <v>449</v>
       </c>
       <c r="I11" s="23" t="s">
         <v>38</v>
@@ -4832,7 +5964,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>399</v>
       </c>
@@ -4852,16 +5984,16 @@
         <v>31</v>
       </c>
       <c r="G12" s="23" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="H12" s="23" t="s">
+        <v>450</v>
+      </c>
+      <c r="I12" s="23" t="s">
         <v>404</v>
       </c>
-      <c r="I12" s="23" t="s">
-        <v>405</v>
-      </c>
       <c r="J12" s="23" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="K12" s="24" t="s">
         <v>39</v>
@@ -4876,7 +6008,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>399</v>
       </c>
@@ -4884,7 +6016,7 @@
         <v>400</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D13" s="23" t="s">
         <v>402</v>
@@ -4896,16 +6028,16 @@
         <v>31</v>
       </c>
       <c r="G13" s="23" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="H13" s="23" t="s">
-        <v>407</v>
+        <v>451</v>
       </c>
       <c r="I13" s="23" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="J13" s="23" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K13" s="24" t="s">
         <v>39</v>
@@ -4920,36 +6052,36 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="116" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
+        <v>407</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>408</v>
+      </c>
+      <c r="C14" s="23" t="s">
         <v>409</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="D14" s="23" t="s">
         <v>410</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="E14" s="23" t="s">
         <v>411</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>412</v>
-      </c>
-      <c r="E14" s="23" t="s">
-        <v>413</v>
       </c>
       <c r="F14" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G14" s="23" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="H14" s="23" t="s">
-        <v>414</v>
+        <v>452</v>
       </c>
       <c r="I14" s="23" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="J14" s="23" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="K14" s="24" t="s">
         <v>39</v>
@@ -4964,36 +6096,36 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="116" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B15" s="23" t="s">
+        <v>408</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>413</v>
+      </c>
+      <c r="D15" s="23" t="s">
         <v>410</v>
       </c>
-      <c r="C15" s="23" t="s">
-        <v>416</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>412</v>
-      </c>
       <c r="E15" s="23" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F15" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G15" s="23" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="H15" s="23" t="s">
-        <v>417</v>
+        <v>453</v>
       </c>
       <c r="I15" s="23" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="J15" s="23" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="K15" s="24" t="s">
         <v>39</v>
@@ -5008,36 +6140,36 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="F16" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G16" s="23" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="H16" s="23" t="s">
-        <v>422</v>
+        <v>454</v>
       </c>
       <c r="I16" s="23" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="J16" s="23" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="K16" s="24" t="s">
         <v>39</v>
@@ -5052,36 +6184,36 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="87" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" ht="90" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="F17" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G17" s="23" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="H17" s="23" t="s">
-        <v>427</v>
+        <v>455</v>
       </c>
       <c r="I17" s="23" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="J17" s="23" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="K17" s="24" t="s">
         <v>39</v>
@@ -5096,36 +6228,36 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="F18" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G18" s="23" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="H18" s="23" t="s">
-        <v>440</v>
+        <v>456</v>
       </c>
       <c r="I18" s="23" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="J18" s="23" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="K18" s="24" t="s">
         <v>39</v>
@@ -5140,36 +6272,36 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>432</v>
+        <v>457</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="F19" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G19" s="23" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="H19" s="23" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="I19" s="23" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="J19" s="23" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="K19" s="24" t="s">
         <v>39</v>
@@ -5184,7 +6316,3320 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" ht="90" x14ac:dyDescent="0.25">
+      <c r="A20" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>424</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>459</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>460</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>461</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" s="23" t="s">
+        <v>462</v>
+      </c>
+      <c r="H20" s="23" t="s">
+        <v>463</v>
+      </c>
+      <c r="I20" s="23" t="s">
+        <v>440</v>
+      </c>
+      <c r="J20" s="23" t="s">
+        <v>440</v>
+      </c>
+      <c r="K20" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L20" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M20" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="N20" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A21" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>424</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>464</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>460</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>465</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" s="23" t="s">
+        <v>466</v>
+      </c>
+      <c r="H21" s="23" t="s">
+        <v>458</v>
+      </c>
+      <c r="I21" s="23" t="s">
+        <v>467</v>
+      </c>
+      <c r="J21" s="23" t="s">
+        <v>467</v>
+      </c>
+      <c r="K21" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L21" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M21" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="N21" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A22" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>424</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>468</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>460</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>469</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" s="23" t="s">
+        <v>470</v>
+      </c>
+      <c r="H22" s="23" t="s">
+        <v>458</v>
+      </c>
+      <c r="I22" s="23" t="s">
+        <v>467</v>
+      </c>
+      <c r="J22" s="23" t="s">
+        <v>467</v>
+      </c>
+      <c r="K22" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L22" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M22" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="N22" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A23" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>424</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>471</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>460</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>472</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23" s="23" t="s">
+        <v>473</v>
+      </c>
+      <c r="H23" s="23" t="s">
+        <v>458</v>
+      </c>
+      <c r="I23" s="23" t="s">
+        <v>467</v>
+      </c>
+      <c r="J23" s="23" t="s">
+        <v>467</v>
+      </c>
+      <c r="K23" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L23" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M23" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="N23" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A24" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>424</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>474</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>475</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>438</v>
+      </c>
+      <c r="F24" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24" s="23" t="s">
+        <v>476</v>
+      </c>
+      <c r="H24" s="23" t="s">
+        <v>458</v>
+      </c>
+      <c r="I24" s="23" t="s">
+        <v>467</v>
+      </c>
+      <c r="J24" s="23" t="s">
+        <v>467</v>
+      </c>
+      <c r="K24" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L24" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="N24" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>424</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>477</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>478</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>479</v>
+      </c>
+      <c r="F25" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G25" s="23" t="s">
+        <v>480</v>
+      </c>
+      <c r="H25" s="23" t="s">
+        <v>458</v>
+      </c>
+      <c r="I25" s="23" t="s">
+        <v>481</v>
+      </c>
+      <c r="J25" s="23" t="s">
+        <v>481</v>
+      </c>
+      <c r="K25" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L25" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M25" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="N25" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="22" t="s">
+        <v>482</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>483</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>484</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>485</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>486</v>
+      </c>
+      <c r="F26" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G26" s="23" t="s">
+        <v>487</v>
+      </c>
+      <c r="H26" s="23" t="s">
+        <v>488</v>
+      </c>
+      <c r="I26" s="23" t="s">
+        <v>489</v>
+      </c>
+      <c r="J26" s="23" t="s">
+        <v>489</v>
+      </c>
+      <c r="K26" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L26" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M26" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="N26" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="22" t="s">
+        <v>482</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>483</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>490</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>491</v>
+      </c>
+      <c r="E27" s="23" t="s">
+        <v>492</v>
+      </c>
+      <c r="F27" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G27" s="23" t="s">
+        <v>493</v>
+      </c>
+      <c r="H27" s="23" t="s">
+        <v>458</v>
+      </c>
+      <c r="I27" s="23" t="s">
+        <v>467</v>
+      </c>
+      <c r="J27" s="23" t="s">
+        <v>467</v>
+      </c>
+      <c r="K27" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L27" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="N27" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="22" t="s">
+        <v>482</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>483</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>494</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>491</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>495</v>
+      </c>
+      <c r="F28" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G28" s="23" t="s">
+        <v>496</v>
+      </c>
+      <c r="H28" s="23" t="s">
+        <v>458</v>
+      </c>
+      <c r="I28" s="23" t="s">
+        <v>467</v>
+      </c>
+      <c r="J28" s="23" t="s">
+        <v>467</v>
+      </c>
+      <c r="K28" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L28" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M28" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="N28" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="22" t="s">
+        <v>482</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>483</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>497</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>491</v>
+      </c>
+      <c r="E29" s="23" t="s">
+        <v>498</v>
+      </c>
+      <c r="F29" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="23" t="s">
+        <v>499</v>
+      </c>
+      <c r="H29" s="23" t="s">
+        <v>458</v>
+      </c>
+      <c r="I29" s="23" t="s">
+        <v>467</v>
+      </c>
+      <c r="J29" s="23" t="s">
+        <v>467</v>
+      </c>
+      <c r="K29" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L29" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M29" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="N29" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A30" s="22" t="s">
+        <v>482</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>483</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>500</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>501</v>
+      </c>
+      <c r="E30" s="23" t="s">
+        <v>502</v>
+      </c>
+      <c r="F30" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G30" s="23" t="s">
+        <v>503</v>
+      </c>
+      <c r="H30" s="23" t="s">
+        <v>463</v>
+      </c>
+      <c r="I30" s="23" t="s">
+        <v>440</v>
+      </c>
+      <c r="J30" s="23" t="s">
+        <v>440</v>
+      </c>
+      <c r="K30" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L30" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M30" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="N30" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="22" t="s">
+        <v>504</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>505</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>506</v>
+      </c>
+      <c r="D31" s="23" t="s">
+        <v>507</v>
+      </c>
+      <c r="E31" s="23" t="s">
+        <v>508</v>
+      </c>
+      <c r="F31" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G31" s="23" t="s">
+        <v>509</v>
+      </c>
+      <c r="H31" s="23" t="s">
+        <v>510</v>
+      </c>
+      <c r="I31" s="23" t="s">
+        <v>511</v>
+      </c>
+      <c r="J31" s="23" t="s">
+        <v>511</v>
+      </c>
+      <c r="K31" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L31" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M31" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="N31" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="22" t="s">
+        <v>504</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>505</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>512</v>
+      </c>
+      <c r="D32" s="23" t="s">
+        <v>513</v>
+      </c>
+      <c r="E32" s="23" t="s">
+        <v>514</v>
+      </c>
+      <c r="F32" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G32" s="23" t="s">
+        <v>515</v>
+      </c>
+      <c r="H32" s="23" t="s">
+        <v>516</v>
+      </c>
+      <c r="I32" s="23" t="s">
+        <v>517</v>
+      </c>
+      <c r="J32" s="23" t="s">
+        <v>517</v>
+      </c>
+      <c r="K32" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L32" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M32" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="N32" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="22" t="s">
+        <v>504</v>
+      </c>
+      <c r="B33" s="23" t="s">
+        <v>505</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>518</v>
+      </c>
+      <c r="D33" s="23" t="s">
+        <v>519</v>
+      </c>
+      <c r="E33" s="23" t="s">
+        <v>520</v>
+      </c>
+      <c r="F33" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G33" s="23" t="s">
+        <v>521</v>
+      </c>
+      <c r="H33" s="23" t="s">
+        <v>522</v>
+      </c>
+      <c r="I33" s="23" t="s">
+        <v>523</v>
+      </c>
+      <c r="J33" s="23" t="s">
+        <v>523</v>
+      </c>
+      <c r="K33" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L33" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M33" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="N33" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="22" t="s">
+        <v>504</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>505</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>524</v>
+      </c>
+      <c r="D34" s="23" t="s">
+        <v>507</v>
+      </c>
+      <c r="E34" s="23" t="s">
+        <v>508</v>
+      </c>
+      <c r="F34" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G34" s="23" t="s">
+        <v>525</v>
+      </c>
+      <c r="H34" s="23" t="s">
+        <v>510</v>
+      </c>
+      <c r="I34" s="23" t="s">
+        <v>511</v>
+      </c>
+      <c r="J34" s="23" t="s">
+        <v>511</v>
+      </c>
+      <c r="K34" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L34" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M34" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="N34" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="22" t="s">
+        <v>504</v>
+      </c>
+      <c r="B35" s="23" t="s">
+        <v>505</v>
+      </c>
+      <c r="C35" s="23" t="s">
+        <v>526</v>
+      </c>
+      <c r="D35" s="23" t="s">
+        <v>507</v>
+      </c>
+      <c r="E35" s="23" t="s">
+        <v>508</v>
+      </c>
+      <c r="F35" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G35" s="23" t="s">
+        <v>527</v>
+      </c>
+      <c r="H35" s="23" t="s">
+        <v>510</v>
+      </c>
+      <c r="I35" s="23" t="s">
+        <v>511</v>
+      </c>
+      <c r="J35" s="23" t="s">
+        <v>511</v>
+      </c>
+      <c r="K35" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L35" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M35" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="N35" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="22" t="s">
+        <v>528</v>
+      </c>
+      <c r="B36" s="23" t="s">
+        <v>529</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>530</v>
+      </c>
+      <c r="D36" s="23" t="s">
+        <v>531</v>
+      </c>
+      <c r="E36" s="23" t="s">
+        <v>532</v>
+      </c>
+      <c r="F36" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G36" s="23" t="s">
+        <v>533</v>
+      </c>
+      <c r="H36" s="23" t="s">
+        <v>534</v>
+      </c>
+      <c r="I36" s="23" t="s">
+        <v>535</v>
+      </c>
+      <c r="J36" s="23" t="s">
+        <v>535</v>
+      </c>
+      <c r="K36" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L36" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M36" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="N36" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="22" t="s">
+        <v>528</v>
+      </c>
+      <c r="B37" s="23" t="s">
+        <v>529</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>536</v>
+      </c>
+      <c r="D37" s="23" t="s">
+        <v>537</v>
+      </c>
+      <c r="E37" s="23" t="s">
+        <v>538</v>
+      </c>
+      <c r="F37" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G37" s="23" t="s">
+        <v>539</v>
+      </c>
+      <c r="H37" s="23" t="s">
+        <v>540</v>
+      </c>
+      <c r="I37" s="23" t="s">
+        <v>541</v>
+      </c>
+      <c r="J37" s="23" t="s">
+        <v>541</v>
+      </c>
+      <c r="K37" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L37" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M37" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="N37" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="22" t="s">
+        <v>528</v>
+      </c>
+      <c r="B38" s="23" t="s">
+        <v>529</v>
+      </c>
+      <c r="C38" s="23" t="s">
+        <v>542</v>
+      </c>
+      <c r="D38" s="23" t="s">
+        <v>543</v>
+      </c>
+      <c r="E38" s="23" t="s">
+        <v>544</v>
+      </c>
+      <c r="F38" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G38" s="23" t="s">
+        <v>545</v>
+      </c>
+      <c r="H38" s="23" t="s">
+        <v>540</v>
+      </c>
+      <c r="I38" s="23" t="s">
+        <v>541</v>
+      </c>
+      <c r="J38" s="23" t="s">
+        <v>541</v>
+      </c>
+      <c r="K38" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L38" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M38" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="N38" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="22" t="s">
+        <v>528</v>
+      </c>
+      <c r="B39" s="23" t="s">
+        <v>529</v>
+      </c>
+      <c r="C39" s="23" t="s">
+        <v>546</v>
+      </c>
+      <c r="D39" s="23" t="s">
+        <v>531</v>
+      </c>
+      <c r="E39" s="23" t="s">
+        <v>532</v>
+      </c>
+      <c r="F39" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G39" s="23" t="s">
+        <v>547</v>
+      </c>
+      <c r="H39" s="23" t="s">
+        <v>534</v>
+      </c>
+      <c r="I39" s="23" t="s">
+        <v>535</v>
+      </c>
+      <c r="J39" s="23" t="s">
+        <v>535</v>
+      </c>
+      <c r="K39" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L39" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M39" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="N39" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A40" s="22" t="s">
+        <v>528</v>
+      </c>
+      <c r="B40" s="23" t="s">
+        <v>529</v>
+      </c>
+      <c r="C40" s="23" t="s">
+        <v>548</v>
+      </c>
+      <c r="D40" s="23" t="s">
+        <v>531</v>
+      </c>
+      <c r="E40" s="23" t="s">
+        <v>532</v>
+      </c>
+      <c r="F40" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G40" s="23" t="s">
+        <v>549</v>
+      </c>
+      <c r="H40" s="23" t="s">
+        <v>534</v>
+      </c>
+      <c r="I40" s="23" t="s">
+        <v>535</v>
+      </c>
+      <c r="J40" s="23" t="s">
+        <v>535</v>
+      </c>
+      <c r="K40" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L40" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M40" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="N40" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="22" t="s">
+        <v>550</v>
+      </c>
+      <c r="B41" s="23" t="s">
+        <v>551</v>
+      </c>
+      <c r="C41" s="23" t="s">
+        <v>552</v>
+      </c>
+      <c r="D41" s="23" t="s">
+        <v>553</v>
+      </c>
+      <c r="E41" s="23" t="s">
+        <v>554</v>
+      </c>
+      <c r="F41" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G41" s="23" t="s">
+        <v>555</v>
+      </c>
+      <c r="H41" s="23" t="s">
+        <v>556</v>
+      </c>
+      <c r="I41" s="23" t="s">
+        <v>557</v>
+      </c>
+      <c r="J41" s="23" t="s">
+        <v>557</v>
+      </c>
+      <c r="K41" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L41" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M41" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="N41" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="22" t="s">
+        <v>550</v>
+      </c>
+      <c r="B42" s="23" t="s">
+        <v>551</v>
+      </c>
+      <c r="C42" s="23" t="s">
+        <v>558</v>
+      </c>
+      <c r="D42" s="23" t="s">
+        <v>559</v>
+      </c>
+      <c r="E42" s="23" t="s">
+        <v>560</v>
+      </c>
+      <c r="F42" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G42" s="23" t="s">
+        <v>561</v>
+      </c>
+      <c r="H42" s="23" t="s">
+        <v>562</v>
+      </c>
+      <c r="I42" s="23" t="s">
+        <v>563</v>
+      </c>
+      <c r="J42" s="23" t="s">
+        <v>563</v>
+      </c>
+      <c r="K42" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L42" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M42" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="N42" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="22" t="s">
+        <v>550</v>
+      </c>
+      <c r="B43" s="23" t="s">
+        <v>551</v>
+      </c>
+      <c r="C43" s="23" t="s">
+        <v>564</v>
+      </c>
+      <c r="D43" s="23" t="s">
+        <v>565</v>
+      </c>
+      <c r="E43" s="23" t="s">
+        <v>566</v>
+      </c>
+      <c r="F43" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G43" s="23" t="s">
+        <v>567</v>
+      </c>
+      <c r="H43" s="23" t="s">
+        <v>562</v>
+      </c>
+      <c r="I43" s="23" t="s">
+        <v>563</v>
+      </c>
+      <c r="J43" s="23" t="s">
+        <v>563</v>
+      </c>
+      <c r="K43" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L43" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M43" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="N43" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A44" s="22" t="s">
+        <v>550</v>
+      </c>
+      <c r="B44" s="23" t="s">
+        <v>551</v>
+      </c>
+      <c r="C44" s="23" t="s">
+        <v>568</v>
+      </c>
+      <c r="D44" s="23" t="s">
+        <v>553</v>
+      </c>
+      <c r="E44" s="23" t="s">
+        <v>554</v>
+      </c>
+      <c r="F44" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G44" s="23" t="s">
+        <v>569</v>
+      </c>
+      <c r="H44" s="23" t="s">
+        <v>556</v>
+      </c>
+      <c r="I44" s="23" t="s">
+        <v>557</v>
+      </c>
+      <c r="J44" s="23" t="s">
+        <v>557</v>
+      </c>
+      <c r="K44" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L44" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M44" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="N44" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A45" s="22" t="s">
+        <v>550</v>
+      </c>
+      <c r="B45" s="23" t="s">
+        <v>551</v>
+      </c>
+      <c r="C45" s="23" t="s">
+        <v>570</v>
+      </c>
+      <c r="D45" s="23" t="s">
+        <v>553</v>
+      </c>
+      <c r="E45" s="23" t="s">
+        <v>554</v>
+      </c>
+      <c r="F45" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G45" s="23" t="s">
+        <v>571</v>
+      </c>
+      <c r="H45" s="23" t="s">
+        <v>556</v>
+      </c>
+      <c r="I45" s="23" t="s">
+        <v>557</v>
+      </c>
+      <c r="J45" s="23" t="s">
+        <v>557</v>
+      </c>
+      <c r="K45" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L45" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M45" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="N45" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A46" s="22" t="s">
+        <v>550</v>
+      </c>
+      <c r="B46" s="23" t="s">
+        <v>551</v>
+      </c>
+      <c r="C46" s="23" t="s">
+        <v>572</v>
+      </c>
+      <c r="D46" s="23" t="s">
+        <v>553</v>
+      </c>
+      <c r="E46" s="23" t="s">
+        <v>554</v>
+      </c>
+      <c r="F46" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G46" s="23" t="s">
+        <v>573</v>
+      </c>
+      <c r="H46" s="23" t="s">
+        <v>556</v>
+      </c>
+      <c r="I46" s="23" t="s">
+        <v>557</v>
+      </c>
+      <c r="J46" s="23" t="s">
+        <v>557</v>
+      </c>
+      <c r="K46" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L46" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M46" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="N46" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A47" s="22" t="s">
+        <v>550</v>
+      </c>
+      <c r="B47" s="23" t="s">
+        <v>551</v>
+      </c>
+      <c r="C47" s="23" t="s">
+        <v>574</v>
+      </c>
+      <c r="D47" s="23" t="s">
+        <v>553</v>
+      </c>
+      <c r="E47" s="23" t="s">
+        <v>554</v>
+      </c>
+      <c r="F47" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G47" s="23" t="s">
+        <v>575</v>
+      </c>
+      <c r="H47" s="23" t="s">
+        <v>556</v>
+      </c>
+      <c r="I47" s="23" t="s">
+        <v>557</v>
+      </c>
+      <c r="J47" s="23" t="s">
+        <v>557</v>
+      </c>
+      <c r="K47" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L47" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M47" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="N47" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A48" s="22" t="s">
+        <v>550</v>
+      </c>
+      <c r="B48" s="23" t="s">
+        <v>551</v>
+      </c>
+      <c r="C48" s="23" t="s">
+        <v>576</v>
+      </c>
+      <c r="D48" s="23" t="s">
+        <v>553</v>
+      </c>
+      <c r="E48" s="23" t="s">
+        <v>554</v>
+      </c>
+      <c r="F48" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G48" s="23" t="s">
+        <v>577</v>
+      </c>
+      <c r="H48" s="23" t="s">
+        <v>556</v>
+      </c>
+      <c r="I48" s="23" t="s">
+        <v>557</v>
+      </c>
+      <c r="J48" s="23" t="s">
+        <v>557</v>
+      </c>
+      <c r="K48" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L48" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M48" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="N48" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A49" s="22" t="s">
+        <v>550</v>
+      </c>
+      <c r="B49" s="23" t="s">
+        <v>551</v>
+      </c>
+      <c r="C49" s="23" t="s">
+        <v>578</v>
+      </c>
+      <c r="D49" s="23" t="s">
+        <v>553</v>
+      </c>
+      <c r="E49" s="23" t="s">
+        <v>554</v>
+      </c>
+      <c r="F49" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G49" s="23" t="s">
+        <v>579</v>
+      </c>
+      <c r="H49" s="23" t="s">
+        <v>556</v>
+      </c>
+      <c r="I49" s="23" t="s">
+        <v>557</v>
+      </c>
+      <c r="J49" s="23" t="s">
+        <v>557</v>
+      </c>
+      <c r="K49" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L49" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M49" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="N49" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A50" s="22" t="s">
+        <v>580</v>
+      </c>
+      <c r="B50" s="23" t="s">
+        <v>581</v>
+      </c>
+      <c r="C50" s="23" t="s">
+        <v>582</v>
+      </c>
+      <c r="D50" s="23" t="s">
+        <v>583</v>
+      </c>
+      <c r="E50" s="23" t="s">
+        <v>584</v>
+      </c>
+      <c r="F50" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G50" s="23" t="s">
+        <v>585</v>
+      </c>
+      <c r="H50" s="23" t="s">
+        <v>586</v>
+      </c>
+      <c r="I50" s="23" t="s">
+        <v>587</v>
+      </c>
+      <c r="J50" s="23" t="s">
+        <v>587</v>
+      </c>
+      <c r="K50" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L50" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M50" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="N50" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A51" s="22" t="s">
+        <v>580</v>
+      </c>
+      <c r="B51" s="23" t="s">
+        <v>581</v>
+      </c>
+      <c r="C51" s="23" t="s">
+        <v>588</v>
+      </c>
+      <c r="D51" s="23" t="s">
+        <v>583</v>
+      </c>
+      <c r="E51" s="23" t="s">
+        <v>584</v>
+      </c>
+      <c r="F51" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G51" s="23" t="s">
+        <v>589</v>
+      </c>
+      <c r="H51" s="23" t="s">
+        <v>590</v>
+      </c>
+      <c r="I51" s="23" t="s">
+        <v>591</v>
+      </c>
+      <c r="J51" s="23" t="s">
+        <v>591</v>
+      </c>
+      <c r="K51" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L51" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M51" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="N51" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A52" s="22" t="s">
+        <v>580</v>
+      </c>
+      <c r="B52" s="23" t="s">
+        <v>581</v>
+      </c>
+      <c r="C52" s="23" t="s">
+        <v>592</v>
+      </c>
+      <c r="D52" s="23" t="s">
+        <v>583</v>
+      </c>
+      <c r="E52" s="23" t="s">
+        <v>584</v>
+      </c>
+      <c r="F52" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G52" s="23" t="s">
+        <v>593</v>
+      </c>
+      <c r="H52" s="23" t="s">
+        <v>594</v>
+      </c>
+      <c r="I52" s="23" t="s">
+        <v>595</v>
+      </c>
+      <c r="J52" s="23" t="s">
+        <v>595</v>
+      </c>
+      <c r="K52" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L52" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M52" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="N52" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A53" s="22" t="s">
+        <v>580</v>
+      </c>
+      <c r="B53" s="23" t="s">
+        <v>581</v>
+      </c>
+      <c r="C53" s="23" t="s">
+        <v>596</v>
+      </c>
+      <c r="D53" s="23" t="s">
+        <v>583</v>
+      </c>
+      <c r="E53" s="23" t="s">
+        <v>584</v>
+      </c>
+      <c r="F53" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G53" s="23" t="s">
+        <v>597</v>
+      </c>
+      <c r="H53" s="23" t="s">
+        <v>598</v>
+      </c>
+      <c r="I53" s="23" t="s">
+        <v>599</v>
+      </c>
+      <c r="J53" s="23" t="s">
+        <v>599</v>
+      </c>
+      <c r="K53" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L53" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M53" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="N53" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A54" s="22" t="s">
+        <v>580</v>
+      </c>
+      <c r="B54" s="23" t="s">
+        <v>581</v>
+      </c>
+      <c r="C54" s="23" t="s">
+        <v>600</v>
+      </c>
+      <c r="D54" s="23" t="s">
+        <v>583</v>
+      </c>
+      <c r="E54" s="23" t="s">
+        <v>584</v>
+      </c>
+      <c r="F54" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G54" s="23" t="s">
+        <v>601</v>
+      </c>
+      <c r="H54" s="23" t="s">
+        <v>602</v>
+      </c>
+      <c r="I54" s="23" t="s">
+        <v>603</v>
+      </c>
+      <c r="J54" s="23" t="s">
+        <v>603</v>
+      </c>
+      <c r="K54" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L54" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M54" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="N54" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:N30"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+    <col min="5" max="5" width="26" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5703125" customWidth="1"/>
+    <col min="10" max="10" width="22.42578125" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>337</v>
+      </c>
+      <c r="E3" s="16">
+        <f>COUNTIF(K8:K30,"Pass")</f>
+        <v>23</v>
+      </c>
+      <c r="F3" s="16">
+        <f>COUNTIF(K8:K30,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="16">
+        <f>COUNTIF(K8:K30,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="16">
+        <f>COUNTA(K8:K30)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="25" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>392</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>396</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="I8" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="J8" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="K8" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L8" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="M8" s="29" t="s">
+        <v>337</v>
+      </c>
+      <c r="N8" s="22" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>387</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>443</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>393</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>395</v>
+      </c>
+      <c r="H9" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="I9" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J9" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="K9" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L9" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="M9" s="29" t="s">
+        <v>337</v>
+      </c>
+      <c r="N9" s="22" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>445</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>444</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>373</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>392</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>396</v>
+      </c>
+      <c r="H10" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="I10" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="J10" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="K10" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L10" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="M10" s="29" t="s">
+        <v>337</v>
+      </c>
+      <c r="N10" s="22" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="25" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>392</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>396</v>
+      </c>
+      <c r="H11" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="I11" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="J11" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="K11" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L11" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="M11" s="29" t="s">
+        <v>337</v>
+      </c>
+      <c r="N11" s="22" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>393</v>
+      </c>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="I12" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="J12" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="K12" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L12" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="M12" s="29" t="s">
+        <v>337</v>
+      </c>
+      <c r="N12" s="22" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="27" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>394</v>
+      </c>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="I13" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="J13" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="K13" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="L13" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="M13" s="29" t="s">
+        <v>337</v>
+      </c>
+      <c r="N13" s="22" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" s="27" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>394</v>
+      </c>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="I14" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="J14" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="K14" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="L14" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="M14" s="29" t="s">
+        <v>337</v>
+      </c>
+      <c r="N14" s="22" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="27" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>394</v>
+      </c>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="I15" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="J15" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="K15" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="L15" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="M15" s="29" t="s">
+        <v>337</v>
+      </c>
+      <c r="N15" s="22" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" s="27" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>394</v>
+      </c>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="I16" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="J16" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="K16" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="L16" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="M16" s="29" t="s">
+        <v>337</v>
+      </c>
+      <c r="N16" s="22" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" s="27" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>394</v>
+      </c>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="I17" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="J17" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="K17" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="L17" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="M17" s="29" t="s">
+        <v>337</v>
+      </c>
+      <c r="N17" s="22" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>388</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>446</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>394</v>
+      </c>
+      <c r="G18" s="23" t="s">
+        <v>398</v>
+      </c>
+      <c r="H18" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="I18" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="J18" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="K18" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L18" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="M18" s="29" t="s">
+        <v>337</v>
+      </c>
+      <c r="N18" s="22" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>388</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>447</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>386</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>392</v>
+      </c>
+      <c r="G19" s="23" t="s">
+        <v>397</v>
+      </c>
+      <c r="H19" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="I19" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="J19" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="K19" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L19" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="M19" s="29" t="s">
+        <v>337</v>
+      </c>
+      <c r="N19" s="22" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>392</v>
+      </c>
+      <c r="G20" s="23" t="s">
+        <v>397</v>
+      </c>
+      <c r="H20" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="I20" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="J20" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="K20" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L20" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="M20" s="29" t="s">
+        <v>337</v>
+      </c>
+      <c r="N20" s="22" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>392</v>
+      </c>
+      <c r="G21" s="23" t="s">
+        <v>397</v>
+      </c>
+      <c r="H21" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="I21" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="J21" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="K21" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L21" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="M21" s="29" t="s">
+        <v>337</v>
+      </c>
+      <c r="N21" s="22" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>394</v>
+      </c>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="I22" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="J22" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="K22" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="L22" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="M22" s="29" t="s">
+        <v>337</v>
+      </c>
+      <c r="N22" s="22" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>394</v>
+      </c>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="I23" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="J23" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="K23" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="L23" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="M23" s="29" t="s">
+        <v>337</v>
+      </c>
+      <c r="N23" s="22" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" s="27" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="F24" s="23" t="s">
+        <v>394</v>
+      </c>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="I24" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="J24" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="K24" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="L24" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="M24" s="29" t="s">
+        <v>337</v>
+      </c>
+      <c r="N24" s="22" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A25" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="F25" s="23" t="s">
+        <v>394</v>
+      </c>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="I25" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="J25" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="K25" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="L25" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="M25" s="29" t="s">
+        <v>337</v>
+      </c>
+      <c r="N25" s="22" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" s="27" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="F26" s="23" t="s">
+        <v>394</v>
+      </c>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23" t="s">
+        <v>262</v>
+      </c>
+      <c r="I26" s="23" t="s">
+        <v>263</v>
+      </c>
+      <c r="J26" s="23" t="s">
+        <v>263</v>
+      </c>
+      <c r="K26" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="L26" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="M26" s="29" t="s">
+        <v>337</v>
+      </c>
+      <c r="N26" s="22" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A27" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="E27" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="F27" s="23" t="s">
+        <v>394</v>
+      </c>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="I27" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="J27" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="K27" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="L27" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="M27" s="29" t="s">
+        <v>337</v>
+      </c>
+      <c r="N27" s="22" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A28" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="F28" s="23" t="s">
+        <v>394</v>
+      </c>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="I28" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="J28" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="K28" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="L28" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="M28" s="29" t="s">
+        <v>337</v>
+      </c>
+      <c r="N28" s="22" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" s="27" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="E29" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="F29" s="23" t="s">
+        <v>394</v>
+      </c>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23" t="s">
+        <v>268</v>
+      </c>
+      <c r="I29" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="J29" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="K29" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="L29" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="M29" s="29" t="s">
+        <v>337</v>
+      </c>
+      <c r="N29" s="22" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A30" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>271</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="E30" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="F30" s="23" t="s">
+        <v>394</v>
+      </c>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="I30" s="23" t="s">
+        <v>275</v>
+      </c>
+      <c r="J30" s="23" t="s">
+        <v>275</v>
+      </c>
+      <c r="K30" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="L30" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="M30" s="29" t="s">
+        <v>337</v>
+      </c>
+      <c r="N30" s="22" t="s">
+        <v>353</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:N11"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+    <col min="5" max="5" width="26" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5703125" customWidth="1"/>
+    <col min="10" max="10" width="22.42578125" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>336</v>
+      </c>
+      <c r="E3" s="16">
+        <f>COUNTIF(K8:K11,"Pass")</f>
+        <v>4</v>
+      </c>
+      <c r="F3" s="16">
+        <f>COUNTIF(K8:K11,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="16">
+        <f>COUNTIF(K8:K11,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="16">
+        <f>COUNTA(K8:K11)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="27" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>391</v>
+      </c>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="I8" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="J8" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="K8" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="L8" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="M8" s="30" t="s">
+        <v>336</v>
+      </c>
+      <c r="N8" s="23" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>391</v>
+      </c>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="I9" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="J9" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="L9" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="M9" s="30" t="s">
+        <v>336</v>
+      </c>
+      <c r="N9" s="23" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="27" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>391</v>
+      </c>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="I10" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="J10" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="K10" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="L10" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="M10" s="30" t="s">
+        <v>336</v>
+      </c>
+      <c r="N10" s="23" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>391</v>
+      </c>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="I11" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="J11" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="K11" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="L11" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="M11" s="30" t="s">
+        <v>336</v>
+      </c>
+      <c r="N11" s="23" t="s">
+        <v>353</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:N21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+    <col min="5" max="5" width="26" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5703125" customWidth="1"/>
+    <col min="10" max="10" width="22.42578125" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>337</v>
+      </c>
+      <c r="E3" s="16">
+        <f>COUNTIF(K8:K11,"Pass")</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="16">
+        <f>COUNTIF(K8:K11,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="16">
+        <f>COUNTIF(K8:K11,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="16">
+        <f>COUNTA(K8:K11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="2"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="2"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="2"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="2"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -5200,1484 +9645,62 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N30"/>
-  <sheetViews>
-    <sheetView topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="23.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.453125" customWidth="1"/>
-    <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.54296875" customWidth="1"/>
-    <col min="10" max="10" width="22.453125" customWidth="1"/>
-    <col min="11" max="11" width="8.1796875" customWidth="1"/>
-    <col min="12" max="12" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.54296875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>337</v>
-      </c>
-      <c r="E3" s="16">
-        <f>COUNTIF(K8:K30,"Pass")</f>
-        <v>23</v>
-      </c>
-      <c r="F3" s="16">
-        <f>COUNTIF(K8:K30,"Fail")</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="16">
-        <f>COUNTIF(K8:K30,"Untested")</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="16">
-        <f>COUNTA(K8:K30)</f>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" s="25" customFormat="1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A8" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="F8" s="23" t="s">
-        <v>392</v>
-      </c>
-      <c r="G8" s="23" t="s">
-        <v>396</v>
-      </c>
-      <c r="H8" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="I8" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="J8" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="K8" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="L8" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="M8" s="29" t="s">
-        <v>337</v>
-      </c>
-      <c r="N8" s="22" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" s="25" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>387</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>451</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>393</v>
-      </c>
-      <c r="G9" s="23" t="s">
-        <v>395</v>
-      </c>
-      <c r="H9" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="I9" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="J9" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="K9" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="L9" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="M9" s="29" t="s">
-        <v>337</v>
-      </c>
-      <c r="N9" s="22" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" s="25" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>453</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>373</v>
-      </c>
-      <c r="F10" s="23" t="s">
-        <v>392</v>
-      </c>
-      <c r="G10" s="23" t="s">
-        <v>396</v>
-      </c>
-      <c r="H10" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="I10" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="J10" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="K10" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="L10" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="M10" s="29" t="s">
-        <v>337</v>
-      </c>
-      <c r="N10" s="22" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" s="25" customFormat="1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A11" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="F11" s="23" t="s">
-        <v>392</v>
-      </c>
-      <c r="G11" s="23" t="s">
-        <v>396</v>
-      </c>
-      <c r="H11" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="I11" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="J11" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="K11" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="L11" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="M11" s="29" t="s">
-        <v>337</v>
-      </c>
-      <c r="N11" s="22" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" s="25" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="F12" s="23" t="s">
-        <v>393</v>
-      </c>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="I12" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="J12" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="K12" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="L12" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="M12" s="29" t="s">
-        <v>337</v>
-      </c>
-      <c r="N12" s="22" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="B13" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="F13" s="23" t="s">
-        <v>394</v>
-      </c>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="I13" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="J13" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="K13" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="L13" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="M13" s="29" t="s">
-        <v>337</v>
-      </c>
-      <c r="N13" s="22" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="E14" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="F14" s="23" t="s">
-        <v>394</v>
-      </c>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="I14" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="J14" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="K14" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="L14" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="M14" s="29" t="s">
-        <v>337</v>
-      </c>
-      <c r="N14" s="22" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="F15" s="23" t="s">
-        <v>394</v>
-      </c>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="I15" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="J15" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="K15" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="L15" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="M15" s="29" t="s">
-        <v>337</v>
-      </c>
-      <c r="N15" s="22" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="B16" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="D16" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="E16" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="F16" s="23" t="s">
-        <v>394</v>
-      </c>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="I16" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="J16" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="K16" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="L16" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="M16" s="29" t="s">
-        <v>337</v>
-      </c>
-      <c r="N16" s="22" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="B17" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="D17" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="E17" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="F17" s="23" t="s">
-        <v>394</v>
-      </c>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="I17" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="J17" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="K17" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="L17" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="M17" s="29" t="s">
-        <v>337</v>
-      </c>
-      <c r="N17" s="22" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" s="25" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="B18" s="23" t="s">
-        <v>388</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>454</v>
-      </c>
-      <c r="D18" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="E18" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="F18" s="23" t="s">
-        <v>394</v>
-      </c>
-      <c r="G18" s="23" t="s">
-        <v>398</v>
-      </c>
-      <c r="H18" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="I18" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="J18" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="K18" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="L18" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="M18" s="29" t="s">
-        <v>337</v>
-      </c>
-      <c r="N18" s="22" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" s="25" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="B19" s="23" t="s">
-        <v>388</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>455</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="E19" s="23" t="s">
-        <v>386</v>
-      </c>
-      <c r="F19" s="23" t="s">
-        <v>392</v>
-      </c>
-      <c r="G19" s="23" t="s">
-        <v>397</v>
-      </c>
-      <c r="H19" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="I19" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="J19" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="K19" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="L19" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="M19" s="29" t="s">
-        <v>337</v>
-      </c>
-      <c r="N19" s="22" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" s="25" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="B20" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="D20" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="E20" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="F20" s="23" t="s">
-        <v>392</v>
-      </c>
-      <c r="G20" s="23" t="s">
-        <v>397</v>
-      </c>
-      <c r="H20" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="I20" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="J20" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="K20" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="L20" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="M20" s="29" t="s">
-        <v>337</v>
-      </c>
-      <c r="N20" s="22" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" s="25" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="B21" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="D21" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="E21" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="F21" s="23" t="s">
-        <v>392</v>
-      </c>
-      <c r="G21" s="23" t="s">
-        <v>397</v>
-      </c>
-      <c r="H21" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="I21" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="J21" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="K21" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="L21" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="M21" s="29" t="s">
-        <v>337</v>
-      </c>
-      <c r="N21" s="22" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="B22" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="C22" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="D22" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="E22" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="F22" s="23" t="s">
-        <v>394</v>
-      </c>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="I22" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="J22" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="K22" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="L22" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="M22" s="29" t="s">
-        <v>337</v>
-      </c>
-      <c r="N22" s="22" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="B23" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="D23" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="E23" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="F23" s="23" t="s">
-        <v>394</v>
-      </c>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="I23" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="J23" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="K23" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="L23" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="M23" s="29" t="s">
-        <v>337</v>
-      </c>
-      <c r="N23" s="22" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="B24" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="D24" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="E24" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="F24" s="23" t="s">
-        <v>394</v>
-      </c>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="I24" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="J24" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="K24" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="L24" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="M24" s="29" t="s">
-        <v>337</v>
-      </c>
-      <c r="N24" s="22" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="B25" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="C25" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="D25" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="E25" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="F25" s="23" t="s">
-        <v>394</v>
-      </c>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="I25" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="J25" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="K25" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="L25" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="M25" s="29" t="s">
-        <v>337</v>
-      </c>
-      <c r="N25" s="22" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="B26" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="C26" s="23" t="s">
-        <v>165</v>
-      </c>
-      <c r="D26" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="E26" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="F26" s="23" t="s">
-        <v>394</v>
-      </c>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23" t="s">
-        <v>262</v>
-      </c>
-      <c r="I26" s="23" t="s">
-        <v>263</v>
-      </c>
-      <c r="J26" s="23" t="s">
-        <v>263</v>
-      </c>
-      <c r="K26" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="L26" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="M26" s="29" t="s">
-        <v>337</v>
-      </c>
-      <c r="N26" s="22" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="B27" s="23" t="s">
-        <v>168</v>
-      </c>
-      <c r="C27" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="D27" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="E27" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="F27" s="23" t="s">
-        <v>394</v>
-      </c>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23" t="s">
-        <v>169</v>
-      </c>
-      <c r="I27" s="23" t="s">
-        <v>170</v>
-      </c>
-      <c r="J27" s="23" t="s">
-        <v>170</v>
-      </c>
-      <c r="K27" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="L27" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="M27" s="29" t="s">
-        <v>337</v>
-      </c>
-      <c r="N27" s="22" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="B28" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="C28" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="D28" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="E28" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="F28" s="23" t="s">
-        <v>394</v>
-      </c>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23" t="s">
-        <v>178</v>
-      </c>
-      <c r="I28" s="23" t="s">
-        <v>179</v>
-      </c>
-      <c r="J28" s="23" t="s">
-        <v>179</v>
-      </c>
-      <c r="K28" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="L28" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="M28" s="29" t="s">
-        <v>337</v>
-      </c>
-      <c r="N28" s="22" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="B29" s="23" t="s">
-        <v>264</v>
-      </c>
-      <c r="C29" s="23" t="s">
-        <v>265</v>
-      </c>
-      <c r="D29" s="23" t="s">
-        <v>266</v>
-      </c>
-      <c r="E29" s="23" t="s">
-        <v>267</v>
-      </c>
-      <c r="F29" s="23" t="s">
-        <v>394</v>
-      </c>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23" t="s">
-        <v>268</v>
-      </c>
-      <c r="I29" s="23" t="s">
-        <v>269</v>
-      </c>
-      <c r="J29" s="23" t="s">
-        <v>269</v>
-      </c>
-      <c r="K29" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="L29" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="M29" s="29" t="s">
-        <v>337</v>
-      </c>
-      <c r="N29" s="22" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="B30" s="23" t="s">
-        <v>270</v>
-      </c>
-      <c r="C30" s="23" t="s">
-        <v>271</v>
-      </c>
-      <c r="D30" s="23" t="s">
-        <v>272</v>
-      </c>
-      <c r="E30" s="23" t="s">
-        <v>273</v>
-      </c>
-      <c r="F30" s="23" t="s">
-        <v>394</v>
-      </c>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23" t="s">
-        <v>274</v>
-      </c>
-      <c r="I30" s="23" t="s">
-        <v>275</v>
-      </c>
-      <c r="J30" s="23" t="s">
-        <v>275</v>
-      </c>
-      <c r="K30" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="L30" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="M30" s="29" t="s">
-        <v>337</v>
-      </c>
-      <c r="N30" s="22" t="s">
-        <v>353</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N11"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.453125" customWidth="1"/>
-    <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.54296875" customWidth="1"/>
-    <col min="10" max="10" width="22.453125" customWidth="1"/>
-    <col min="11" max="11" width="8.1796875" customWidth="1"/>
-    <col min="12" max="12" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.54296875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>336</v>
-      </c>
-      <c r="E3" s="16">
-        <f>COUNTIF(K8:K11,"Pass")</f>
-        <v>4</v>
-      </c>
-      <c r="F3" s="16">
-        <f>COUNTIF(K8:K11,"Fail")</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="16">
-        <f>COUNTIF(K8:K11,"Untested")</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="16">
-        <f>COUNTA(K8:K11)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="F8" s="23" t="s">
-        <v>391</v>
-      </c>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23" t="s">
-        <v>181</v>
-      </c>
-      <c r="I8" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="J8" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="K8" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="L8" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="M8" s="30" t="s">
-        <v>336</v>
-      </c>
-      <c r="N8" s="23" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="23" t="s">
-        <v>190</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>391</v>
-      </c>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="I9" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="J9" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="L9" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="M9" s="30" t="s">
-        <v>336</v>
-      </c>
-      <c r="N9" s="23" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>192</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>193</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="F10" s="23" t="s">
-        <v>391</v>
-      </c>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="I10" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="J10" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="K10" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="L10" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="M10" s="30" t="s">
-        <v>336</v>
-      </c>
-      <c r="N10" s="23" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="23" t="s">
-        <v>278</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>195</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="F11" s="23" t="s">
-        <v>391</v>
-      </c>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23" t="s">
-        <v>178</v>
-      </c>
-      <c r="I11" s="23" t="s">
-        <v>179</v>
-      </c>
-      <c r="J11" s="23" t="s">
-        <v>179</v>
-      </c>
-      <c r="K11" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="L11" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="M11" s="30" t="s">
-        <v>336</v>
-      </c>
-      <c r="N11" s="23" t="s">
-        <v>353</v>
-      </c>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.453125" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.54296875" customWidth="1"/>
-    <col min="10" max="10" width="22.453125" customWidth="1"/>
-    <col min="11" max="11" width="8.1796875" customWidth="1"/>
-    <col min="12" max="12" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5703125" customWidth="1"/>
+    <col min="10" max="10" width="22.42578125" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -6697,12 +9720,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E3" s="16">
         <f>COUNTIF(K8:K11,"Pass")</f>
@@ -6721,7 +9744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -6729,15 +9752,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -6781,7 +9804,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -6797,7 +9820,7 @@
       <c r="M8" s="4"/>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -6813,7 +9836,7 @@
       <c r="M9" s="4"/>
       <c r="N9" s="2"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -6829,7 +9852,7 @@
       <c r="M10" s="4"/>
       <c r="N10" s="2"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -6845,7 +9868,7 @@
       <c r="M11" s="4"/>
       <c r="N11" s="2"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -6861,7 +9884,7 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -6877,7 +9900,7 @@
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -6893,7 +9916,7 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -6909,7 +9932,7 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -6925,7 +9948,7 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -6941,7 +9964,7 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -6957,7 +9980,7 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -6973,7 +9996,7 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -6989,7 +10012,7 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -7010,46 +10033,46 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N21"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.453125" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.54296875" customWidth="1"/>
-    <col min="10" max="10" width="22.453125" customWidth="1"/>
-    <col min="11" max="11" width="8.1796875" customWidth="1"/>
-    <col min="12" max="12" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5703125" customWidth="1"/>
+    <col min="10" max="10" width="22.42578125" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>39</v>
@@ -7064,16 +10087,16 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="21" t="s">
-        <v>338</v>
+      <c r="B3" s="21">
+        <v>44907</v>
       </c>
       <c r="E3" s="16">
         <f>COUNTIF(K8:K11,"Pass")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F3" s="16">
         <f>COUNTIF(K8:K11,"Fail")</f>
@@ -7085,26 +10108,26 @@
       </c>
       <c r="H3" s="16">
         <f>COUNTA(K8:K11)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -7148,374 +10171,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="2"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="2"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="2"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="2"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N12"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="26.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.453125" customWidth="1"/>
-    <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.54296875" customWidth="1"/>
-    <col min="10" max="10" width="22.453125" customWidth="1"/>
-    <col min="11" max="11" width="8.1796875" customWidth="1"/>
-    <col min="12" max="12" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.54296875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="21">
-        <v>44907</v>
-      </c>
-      <c r="E3" s="16">
-        <f>COUNTIF(K8:K11,"Pass")</f>
-        <v>2</v>
-      </c>
-      <c r="F3" s="16">
-        <f>COUNTIF(K8:K11,"Fail")</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="16">
-        <f>COUNTIF(K8:K11,"Untested")</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="16">
-        <f>COUNTA(K8:K11)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>357</v>
       </c>
@@ -7557,7 +10213,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
         <v>360</v>
       </c>
@@ -7599,7 +10255,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="25"/>
       <c r="B10" s="27"/>
       <c r="C10" s="27"/>
@@ -7615,7 +10271,7 @@
       <c r="M10" s="32"/>
       <c r="N10" s="25"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="25"/>
       <c r="B11" s="27"/>
       <c r="C11" s="27"/>
@@ -7631,7 +10287,7 @@
       <c r="M11" s="32"/>
       <c r="N11" s="25"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E12" s="26"/>
     </row>
   </sheetData>
@@ -7640,32 +10296,32 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.453125" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.54296875" customWidth="1"/>
-    <col min="10" max="10" width="22.453125" customWidth="1"/>
-    <col min="11" max="11" width="8.1796875" customWidth="1"/>
-    <col min="12" max="12" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5703125" customWidth="1"/>
+    <col min="10" max="10" width="22.42578125" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -7673,7 +10329,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -7693,7 +10349,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -7717,7 +10373,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -7725,7 +10381,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -7733,7 +10389,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -7777,7 +10433,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="27" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" s="27" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
         <v>197</v>
       </c>
@@ -7794,7 +10450,7 @@
         <v>97</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="G8" s="23"/>
       <c r="H8" s="23" t="s">
@@ -7819,7 +10475,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="27" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" s="27" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
         <v>198</v>
       </c>
@@ -7836,7 +10492,7 @@
         <v>97</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="G9" s="23"/>
       <c r="H9" s="23" t="s">
@@ -7861,7 +10517,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="27" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" s="27" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
         <v>199</v>
       </c>
@@ -7878,7 +10534,7 @@
         <v>97</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="G10" s="23"/>
       <c r="H10" s="23" t="s">
@@ -7903,7 +10559,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="27" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" s="27" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
         <v>200</v>
       </c>
@@ -7920,7 +10576,7 @@
         <v>97</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="G11" s="23"/>
       <c r="H11" s="23" t="s">
@@ -7945,7 +10601,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="27" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" s="27" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
         <v>201</v>
       </c>
@@ -7962,7 +10618,7 @@
         <v>97</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="G12" s="23"/>
       <c r="H12" s="23" t="s">
@@ -7987,7 +10643,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="27" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" s="27" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
         <v>202</v>
       </c>
@@ -8004,7 +10660,7 @@
         <v>97</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="G13" s="23"/>
       <c r="H13" s="23" t="s">
@@ -8029,7 +10685,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="27" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" s="27" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
         <v>203</v>
       </c>
@@ -8046,7 +10702,7 @@
         <v>97</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="G14" s="23"/>
       <c r="H14" s="23" t="s">
@@ -8071,7 +10727,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="27" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" s="27" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
         <v>232</v>
       </c>
@@ -8088,7 +10744,7 @@
         <v>97</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="G15" s="23"/>
       <c r="H15" s="23" t="s">
@@ -8113,7 +10769,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="27" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" s="27" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
         <v>241</v>
       </c>
@@ -8130,7 +10786,7 @@
         <v>97</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="G16" s="23"/>
       <c r="H16" s="23" t="s">
@@ -8155,7 +10811,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:14" s="27" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" s="27" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
         <v>246</v>
       </c>
@@ -8172,7 +10828,7 @@
         <v>97</v>
       </c>
       <c r="F17" s="23" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="G17" s="23"/>
       <c r="H17" s="23" t="s">
@@ -8197,7 +10853,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:14" s="26" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" s="26" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
         <v>247</v>
       </c>
@@ -8214,7 +10870,7 @@
         <v>377</v>
       </c>
       <c r="F18" s="23" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="G18" s="23" t="s">
         <v>379</v>
@@ -8241,7 +10897,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:14" s="26" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" s="26" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
         <v>247</v>
       </c>
@@ -8258,7 +10914,7 @@
         <v>376</v>
       </c>
       <c r="F19" s="23" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="G19" s="23" t="s">
         <v>378</v>
@@ -8285,7 +10941,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:14" s="26" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" s="26" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
         <v>247</v>
       </c>
@@ -8302,7 +10958,7 @@
         <v>382</v>
       </c>
       <c r="F20" s="23" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="G20" s="23" t="s">
         <v>379</v>
@@ -8329,7 +10985,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:14" s="26" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" s="26" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
         <v>247</v>
       </c>
@@ -8346,7 +11002,7 @@
         <v>383</v>
       </c>
       <c r="F21" s="23" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="G21" s="23" t="s">
         <v>378</v>
@@ -8373,7 +11029,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:14" s="27" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" s="27" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
         <v>248</v>
       </c>
@@ -8390,7 +11046,7 @@
         <v>327</v>
       </c>
       <c r="F22" s="23" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="G22" s="23"/>
       <c r="H22" s="23" t="s">
@@ -8415,7 +11071,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:14" s="27" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" s="27" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="s">
         <v>249</v>
       </c>
@@ -8432,7 +11088,7 @@
         <v>172</v>
       </c>
       <c r="F23" s="23" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="G23" s="23"/>
       <c r="H23" s="23" t="s">
@@ -8457,7 +11113,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:14" s="27" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" s="27" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
         <v>250</v>
       </c>
@@ -8474,7 +11130,7 @@
         <v>273</v>
       </c>
       <c r="F24" s="23" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="G24" s="23"/>
       <c r="H24" s="23" t="s">
@@ -8505,32 +11161,32 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.453125" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.54296875" customWidth="1"/>
-    <col min="10" max="10" width="22.453125" customWidth="1"/>
-    <col min="11" max="11" width="8.1796875" customWidth="1"/>
-    <col min="12" max="12" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5703125" customWidth="1"/>
+    <col min="10" max="10" width="22.42578125" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -8538,7 +11194,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -8558,7 +11214,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -8582,7 +11238,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -8590,7 +11246,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -8598,7 +11254,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -8642,7 +11298,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="27" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" s="27" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
         <v>300</v>
       </c>
@@ -8659,7 +11315,7 @@
         <v>97</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="G8" s="23"/>
       <c r="H8" s="23" t="s">
@@ -8684,7 +11340,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="27" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" s="27" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
         <v>299</v>
       </c>
@@ -8701,7 +11357,7 @@
         <v>97</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="G9" s="23"/>
       <c r="H9" s="23" t="s">
@@ -8726,7 +11382,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="27" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" s="27" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
         <v>298</v>
       </c>
@@ -8743,7 +11399,7 @@
         <v>97</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="G10" s="23"/>
       <c r="H10" s="23" t="s">
@@ -8768,7 +11424,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="27" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" s="27" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
         <v>297</v>
       </c>
@@ -8785,7 +11441,7 @@
         <v>97</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="G11" s="23"/>
       <c r="H11" s="23" t="s">
@@ -8810,7 +11466,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="27" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" s="27" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
         <v>296</v>
       </c>
@@ -8827,7 +11483,7 @@
         <v>97</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="G12" s="23"/>
       <c r="H12" s="23" t="s">
@@ -8852,7 +11508,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="27" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" s="27" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
         <v>295</v>
       </c>
@@ -8869,7 +11525,7 @@
         <v>97</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="G13" s="23"/>
       <c r="H13" s="23" t="s">
@@ -8894,7 +11550,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="27" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" s="27" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
         <v>294</v>
       </c>
@@ -8911,7 +11567,7 @@
         <v>97</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="G14" s="23"/>
       <c r="H14" s="23" t="s">
@@ -8936,7 +11592,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="27" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" s="27" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
         <v>293</v>
       </c>
@@ -8953,7 +11609,7 @@
         <v>97</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="G15" s="23"/>
       <c r="H15" s="23" t="s">
@@ -8978,7 +11634,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="27" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" s="27" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
         <v>292</v>
       </c>
@@ -8995,7 +11651,7 @@
         <v>97</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="G16" s="23"/>
       <c r="H16" s="23" t="s">
@@ -9020,7 +11676,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:14" s="27" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" s="27" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
         <v>291</v>
       </c>
@@ -9037,7 +11693,7 @@
         <v>97</v>
       </c>
       <c r="F17" s="23" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="G17" s="23"/>
       <c r="H17" s="23" t="s">
@@ -9062,7 +11718,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:14" s="26" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" s="26" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
         <v>290</v>
       </c>
@@ -9079,7 +11735,7 @@
         <v>27</v>
       </c>
       <c r="F18" s="23" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="G18" s="23" t="s">
         <v>33</v>
@@ -9106,7 +11762,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:14" s="26" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" s="26" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
         <v>290</v>
       </c>
@@ -9123,7 +11779,7 @@
         <v>28</v>
       </c>
       <c r="F19" s="23" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="G19" s="23" t="s">
         <v>34</v>
@@ -9150,7 +11806,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:14" s="26" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" s="26" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
         <v>290</v>
       </c>
@@ -9167,7 +11823,7 @@
         <v>29</v>
       </c>
       <c r="F20" s="23" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="G20" s="23" t="s">
         <v>33</v>
@@ -9194,7 +11850,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:14" s="26" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" s="26" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
         <v>290</v>
       </c>
@@ -9211,7 +11867,7 @@
         <v>30</v>
       </c>
       <c r="F21" s="23" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="G21" s="23" t="s">
         <v>34</v>
@@ -9238,7 +11894,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:14" s="27" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" s="27" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
         <v>289</v>
       </c>
@@ -9255,7 +11911,7 @@
         <v>326</v>
       </c>
       <c r="F22" s="23" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="G22" s="23"/>
       <c r="H22" s="23" t="s">
@@ -9280,7 +11936,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:14" s="27" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" s="27" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="s">
         <v>288</v>
       </c>
@@ -9297,7 +11953,7 @@
         <v>172</v>
       </c>
       <c r="F23" s="23" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="G23" s="23"/>
       <c r="H23" s="23" t="s">

--- a/Documentation/FHF_TestCases.xlsx
+++ b/Documentation/FHF_TestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Semester9\SEP490\fu-house-finder\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE66401E-C7DF-4223-B1B9-985B6F4CD81F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E81AC73E-BC4E-4767-BE94-B8535DAC37A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="891" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1890" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1978" uniqueCount="627">
   <si>
     <t>Project Name</t>
   </si>
@@ -2973,6 +2973,153 @@
   </si>
   <si>
     <t>System displays list of Houses with average Rate from 5 Star and up</t>
+  </si>
+  <si>
+    <t>TS_FHF_Home_010</t>
+  </si>
+  <si>
+    <t>Paging</t>
+  </si>
+  <si>
+    <t>Cancel Filter</t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>Kết hợp Filter, paging &amp; order by, search</t>
+  </si>
+  <si>
+    <t>Verify the Order By functionality of Home Page</t>
+  </si>
+  <si>
+    <t>TC_FHF_Home_OrderBy_001</t>
+  </si>
+  <si>
+    <t>Select an Order value</t>
+  </si>
+  <si>
+    <t>1. Select an Order value from list of Order values</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Order by: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Khoảng cách: Gần đến Xa</t>
+    </r>
+  </si>
+  <si>
+    <t>User sees Houses ordered by the selected Order value</t>
+  </si>
+  <si>
+    <t>System displays list of Houses  ordered by the selected Order value</t>
+  </si>
+  <si>
+    <t>System displays list of Houses ordered by the selected Order value</t>
+  </si>
+  <si>
+    <t>TC_FHF_Home_OrderBy_002</t>
+  </si>
+  <si>
+    <t>TC_FHF_Home_OrderBy_003</t>
+  </si>
+  <si>
+    <t>TC_FHF_Home_OrderBy_004</t>
+  </si>
+  <si>
+    <t>TC_FHF_Home_OrderBy_005</t>
+  </si>
+  <si>
+    <t>TC_FHF_Home_OrderBy_006</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Order by: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Giá: Thấp đến Cao</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Order by: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Giá: Cao đến Thấp</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Order by: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Khoảng cách: Xa đến Gần</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Order by: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Đánh giá: Cao đến Thấp</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Order by:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Đánh giá: Thấp đến Cao</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -3171,7 +3318,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -3245,6 +3392,18 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
@@ -5652,10 +5811,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N54"/>
+  <dimension ref="A1:N68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5712,8 +5871,8 @@
         <v>334</v>
       </c>
       <c r="E3" s="16">
-        <f>COUNTIF(K8:K49,"Pass")</f>
-        <v>42</v>
+        <f>COUNTIF(K8:K54,"Pass")</f>
+        <v>47</v>
       </c>
       <c r="F3" s="16">
         <f>COUNTIF(K8:K11,"Fail")</f>
@@ -7854,6 +8013,338 @@
       </c>
       <c r="N54" s="22" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A55" s="22" t="s">
+        <v>604</v>
+      </c>
+      <c r="B55" s="23" t="s">
+        <v>609</v>
+      </c>
+      <c r="C55" s="23" t="s">
+        <v>610</v>
+      </c>
+      <c r="D55" s="23" t="s">
+        <v>611</v>
+      </c>
+      <c r="E55" s="23" t="s">
+        <v>612</v>
+      </c>
+      <c r="F55" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G55" s="23" t="s">
+        <v>622</v>
+      </c>
+      <c r="H55" s="23" t="s">
+        <v>614</v>
+      </c>
+      <c r="I55" s="23" t="s">
+        <v>615</v>
+      </c>
+      <c r="J55" s="23" t="s">
+        <v>616</v>
+      </c>
+      <c r="K55" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L55" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M55" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="N55" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A56" s="22" t="s">
+        <v>604</v>
+      </c>
+      <c r="B56" s="23" t="s">
+        <v>609</v>
+      </c>
+      <c r="C56" s="23" t="s">
+        <v>617</v>
+      </c>
+      <c r="D56" s="23" t="s">
+        <v>611</v>
+      </c>
+      <c r="E56" s="23" t="s">
+        <v>612</v>
+      </c>
+      <c r="F56" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G56" s="23" t="s">
+        <v>623</v>
+      </c>
+      <c r="H56" s="23" t="s">
+        <v>614</v>
+      </c>
+      <c r="I56" s="23" t="s">
+        <v>615</v>
+      </c>
+      <c r="J56" s="23" t="s">
+        <v>616</v>
+      </c>
+      <c r="K56" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L56" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M56" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="N56" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A57" s="22" t="s">
+        <v>604</v>
+      </c>
+      <c r="B57" s="23" t="s">
+        <v>609</v>
+      </c>
+      <c r="C57" s="23" t="s">
+        <v>618</v>
+      </c>
+      <c r="D57" s="23" t="s">
+        <v>611</v>
+      </c>
+      <c r="E57" s="23" t="s">
+        <v>612</v>
+      </c>
+      <c r="F57" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G57" s="23" t="s">
+        <v>613</v>
+      </c>
+      <c r="H57" s="23" t="s">
+        <v>614</v>
+      </c>
+      <c r="I57" s="23" t="s">
+        <v>615</v>
+      </c>
+      <c r="J57" s="23" t="s">
+        <v>616</v>
+      </c>
+      <c r="K57" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L57" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M57" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="N57" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A58" s="22" t="s">
+        <v>604</v>
+      </c>
+      <c r="B58" s="23" t="s">
+        <v>609</v>
+      </c>
+      <c r="C58" s="23" t="s">
+        <v>619</v>
+      </c>
+      <c r="D58" s="23" t="s">
+        <v>611</v>
+      </c>
+      <c r="E58" s="23" t="s">
+        <v>612</v>
+      </c>
+      <c r="F58" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G58" s="23" t="s">
+        <v>624</v>
+      </c>
+      <c r="H58" s="23" t="s">
+        <v>614</v>
+      </c>
+      <c r="I58" s="23" t="s">
+        <v>615</v>
+      </c>
+      <c r="J58" s="23" t="s">
+        <v>616</v>
+      </c>
+      <c r="K58" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L58" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M58" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="N58" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A59" s="22" t="s">
+        <v>604</v>
+      </c>
+      <c r="B59" s="23" t="s">
+        <v>609</v>
+      </c>
+      <c r="C59" s="23" t="s">
+        <v>620</v>
+      </c>
+      <c r="D59" s="23" t="s">
+        <v>611</v>
+      </c>
+      <c r="E59" s="23" t="s">
+        <v>612</v>
+      </c>
+      <c r="F59" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G59" s="23" t="s">
+        <v>625</v>
+      </c>
+      <c r="H59" s="23" t="s">
+        <v>614</v>
+      </c>
+      <c r="I59" s="23" t="s">
+        <v>615</v>
+      </c>
+      <c r="J59" s="23" t="s">
+        <v>616</v>
+      </c>
+      <c r="K59" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L59" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M59" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="N59" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A60" s="22" t="s">
+        <v>604</v>
+      </c>
+      <c r="B60" s="23" t="s">
+        <v>609</v>
+      </c>
+      <c r="C60" s="23" t="s">
+        <v>621</v>
+      </c>
+      <c r="D60" s="23" t="s">
+        <v>611</v>
+      </c>
+      <c r="E60" s="23" t="s">
+        <v>612</v>
+      </c>
+      <c r="F60" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G60" s="23" t="s">
+        <v>626</v>
+      </c>
+      <c r="H60" s="23" t="s">
+        <v>614</v>
+      </c>
+      <c r="I60" s="23" t="s">
+        <v>615</v>
+      </c>
+      <c r="J60" s="23" t="s">
+        <v>616</v>
+      </c>
+      <c r="K60" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L60" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M60" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="N60" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61" s="33"/>
+      <c r="B61" s="34"/>
+      <c r="C61" s="34"/>
+      <c r="D61" s="34"/>
+      <c r="E61" s="34"/>
+      <c r="F61" s="34"/>
+      <c r="G61" s="34"/>
+      <c r="H61" s="34"/>
+      <c r="I61" s="34"/>
+      <c r="J61" s="34"/>
+      <c r="K61" s="35"/>
+      <c r="L61" s="33"/>
+      <c r="M61" s="36"/>
+      <c r="N61" s="33"/>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A62" s="33"/>
+      <c r="B62" s="34"/>
+      <c r="C62" s="34"/>
+      <c r="D62" s="34"/>
+      <c r="E62" s="34"/>
+      <c r="F62" s="34"/>
+      <c r="G62" s="34"/>
+      <c r="H62" s="34"/>
+      <c r="I62" s="34"/>
+      <c r="J62" s="34"/>
+      <c r="K62" s="35"/>
+      <c r="L62" s="33"/>
+      <c r="M62" s="36"/>
+      <c r="N62" s="33"/>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A63" s="33"/>
+      <c r="B63" s="34"/>
+      <c r="C63" s="34"/>
+      <c r="D63" s="34"/>
+      <c r="E63" s="34"/>
+      <c r="F63" s="34"/>
+      <c r="G63" s="34"/>
+      <c r="H63" s="34"/>
+      <c r="I63" s="34"/>
+      <c r="J63" s="34"/>
+      <c r="K63" s="35"/>
+      <c r="L63" s="33"/>
+      <c r="M63" s="36"/>
+      <c r="N63" s="33"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>607</v>
       </c>
     </row>
   </sheetData>
@@ -7867,7 +8358,7 @@
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Documentation/FHF_TestCases.xlsx
+++ b/Documentation/FHF_TestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Semester9\SEP490\fu-house-finder\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E81AC73E-BC4E-4767-BE94-B8535DAC37A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B0B9C4-06BE-487E-9DE8-8D78ED17EA6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="891" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1978" uniqueCount="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2017" uniqueCount="646">
   <si>
     <t>Project Name</t>
   </si>
@@ -2978,9 +2978,6 @@
     <t>TS_FHF_Home_010</t>
   </si>
   <si>
-    <t>Paging</t>
-  </si>
-  <si>
     <t>Cancel Filter</t>
   </si>
   <si>
@@ -3120,6 +3117,68 @@
       </rPr>
       <t xml:space="preserve"> Đánh giá: Thấp đến Cao</t>
     </r>
+  </si>
+  <si>
+    <t>TS_FHF_Home_011</t>
+  </si>
+  <si>
+    <t>Verify the Paging functionality of Home Page</t>
+  </si>
+  <si>
+    <t>TC_FHF_Home_Paging_001</t>
+  </si>
+  <si>
+    <t>Page Number: 2</t>
+  </si>
+  <si>
+    <t>Choose a Page Number in Paging component</t>
+  </si>
+  <si>
+    <t>1. Click on a Page Number button</t>
+  </si>
+  <si>
+    <t>User sees the page 2 of List of Houses</t>
+  </si>
+  <si>
+    <t>System displays the page 2 of List of Houses</t>
+  </si>
+  <si>
+    <t>Choose to go Next Page in Paging component</t>
+  </si>
+  <si>
+    <t>1. Click on Next Page button</t>
+  </si>
+  <si>
+    <t>User sees the next page of List of Houses</t>
+  </si>
+  <si>
+    <t>System displays the next page of List of Houses</t>
+  </si>
+  <si>
+    <t>TC_FHF_Home_Paging_002</t>
+  </si>
+  <si>
+    <t>TC_FHF_Home_Paging_003</t>
+  </si>
+  <si>
+    <t>Choose to go Previous Page in Paging component</t>
+  </si>
+  <si>
+    <t>1. Click on Previous Page button</t>
+  </si>
+  <si>
+    <t>Valid URL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valid URL
+User stands on Page 2
+</t>
+  </si>
+  <si>
+    <t>User sees the previous page of List of Houses</t>
+  </si>
+  <si>
+    <t>System displays the previous page of List of Houses</t>
   </si>
 </sst>
 </file>
@@ -3318,7 +3377,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -3392,18 +3451,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
@@ -5811,10 +5858,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N68"/>
+  <dimension ref="A1:N77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8020,31 +8067,31 @@
         <v>604</v>
       </c>
       <c r="B55" s="23" t="s">
+        <v>608</v>
+      </c>
+      <c r="C55" s="23" t="s">
         <v>609</v>
       </c>
-      <c r="C55" s="23" t="s">
+      <c r="D55" s="23" t="s">
         <v>610</v>
       </c>
-      <c r="D55" s="23" t="s">
+      <c r="E55" s="23" t="s">
         <v>611</v>
-      </c>
-      <c r="E55" s="23" t="s">
-        <v>612</v>
       </c>
       <c r="F55" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G55" s="23" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H55" s="23" t="s">
+        <v>613</v>
+      </c>
+      <c r="I55" s="23" t="s">
         <v>614</v>
       </c>
-      <c r="I55" s="23" t="s">
+      <c r="J55" s="23" t="s">
         <v>615</v>
-      </c>
-      <c r="J55" s="23" t="s">
-        <v>616</v>
       </c>
       <c r="K55" s="24" t="s">
         <v>39</v>
@@ -8064,31 +8111,31 @@
         <v>604</v>
       </c>
       <c r="B56" s="23" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C56" s="23" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D56" s="23" t="s">
+        <v>610</v>
+      </c>
+      <c r="E56" s="23" t="s">
         <v>611</v>
-      </c>
-      <c r="E56" s="23" t="s">
-        <v>612</v>
       </c>
       <c r="F56" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G56" s="23" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H56" s="23" t="s">
+        <v>613</v>
+      </c>
+      <c r="I56" s="23" t="s">
         <v>614</v>
       </c>
-      <c r="I56" s="23" t="s">
+      <c r="J56" s="23" t="s">
         <v>615</v>
-      </c>
-      <c r="J56" s="23" t="s">
-        <v>616</v>
       </c>
       <c r="K56" s="24" t="s">
         <v>39</v>
@@ -8108,31 +8155,31 @@
         <v>604</v>
       </c>
       <c r="B57" s="23" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C57" s="23" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D57" s="23" t="s">
+        <v>610</v>
+      </c>
+      <c r="E57" s="23" t="s">
         <v>611</v>
-      </c>
-      <c r="E57" s="23" t="s">
-        <v>612</v>
       </c>
       <c r="F57" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G57" s="23" t="s">
+        <v>612</v>
+      </c>
+      <c r="H57" s="23" t="s">
         <v>613</v>
       </c>
-      <c r="H57" s="23" t="s">
+      <c r="I57" s="23" t="s">
         <v>614</v>
       </c>
-      <c r="I57" s="23" t="s">
+      <c r="J57" s="23" t="s">
         <v>615</v>
-      </c>
-      <c r="J57" s="23" t="s">
-        <v>616</v>
       </c>
       <c r="K57" s="24" t="s">
         <v>39</v>
@@ -8152,31 +8199,31 @@
         <v>604</v>
       </c>
       <c r="B58" s="23" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C58" s="23" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D58" s="23" t="s">
+        <v>610</v>
+      </c>
+      <c r="E58" s="23" t="s">
         <v>611</v>
-      </c>
-      <c r="E58" s="23" t="s">
-        <v>612</v>
       </c>
       <c r="F58" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G58" s="23" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H58" s="23" t="s">
+        <v>613</v>
+      </c>
+      <c r="I58" s="23" t="s">
         <v>614</v>
       </c>
-      <c r="I58" s="23" t="s">
+      <c r="J58" s="23" t="s">
         <v>615</v>
-      </c>
-      <c r="J58" s="23" t="s">
-        <v>616</v>
       </c>
       <c r="K58" s="24" t="s">
         <v>39</v>
@@ -8196,31 +8243,31 @@
         <v>604</v>
       </c>
       <c r="B59" s="23" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C59" s="23" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D59" s="23" t="s">
+        <v>610</v>
+      </c>
+      <c r="E59" s="23" t="s">
         <v>611</v>
-      </c>
-      <c r="E59" s="23" t="s">
-        <v>612</v>
       </c>
       <c r="F59" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G59" s="23" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H59" s="23" t="s">
+        <v>613</v>
+      </c>
+      <c r="I59" s="23" t="s">
         <v>614</v>
       </c>
-      <c r="I59" s="23" t="s">
+      <c r="J59" s="23" t="s">
         <v>615</v>
-      </c>
-      <c r="J59" s="23" t="s">
-        <v>616</v>
       </c>
       <c r="K59" s="24" t="s">
         <v>39</v>
@@ -8240,31 +8287,31 @@
         <v>604</v>
       </c>
       <c r="B60" s="23" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C60" s="23" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D60" s="23" t="s">
+        <v>610</v>
+      </c>
+      <c r="E60" s="23" t="s">
         <v>611</v>
-      </c>
-      <c r="E60" s="23" t="s">
-        <v>612</v>
       </c>
       <c r="F60" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G60" s="23" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H60" s="23" t="s">
+        <v>613</v>
+      </c>
+      <c r="I60" s="23" t="s">
         <v>614</v>
       </c>
-      <c r="I60" s="23" t="s">
+      <c r="J60" s="23" t="s">
         <v>615</v>
-      </c>
-      <c r="J60" s="23" t="s">
-        <v>616</v>
       </c>
       <c r="K60" s="24" t="s">
         <v>39</v>
@@ -8279,72 +8326,147 @@
         <v>40</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" s="33"/>
-      <c r="B61" s="34"/>
-      <c r="C61" s="34"/>
-      <c r="D61" s="34"/>
-      <c r="E61" s="34"/>
-      <c r="F61" s="34"/>
-      <c r="G61" s="34"/>
-      <c r="H61" s="34"/>
-      <c r="I61" s="34"/>
-      <c r="J61" s="34"/>
-      <c r="K61" s="35"/>
-      <c r="L61" s="33"/>
-      <c r="M61" s="36"/>
-      <c r="N61" s="33"/>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" s="33"/>
-      <c r="B62" s="34"/>
-      <c r="C62" s="34"/>
-      <c r="D62" s="34"/>
-      <c r="E62" s="34"/>
-      <c r="F62" s="34"/>
-      <c r="G62" s="34"/>
-      <c r="H62" s="34"/>
-      <c r="I62" s="34"/>
-      <c r="J62" s="34"/>
-      <c r="K62" s="35"/>
-      <c r="L62" s="33"/>
-      <c r="M62" s="36"/>
-      <c r="N62" s="33"/>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A63" s="33"/>
-      <c r="B63" s="34"/>
-      <c r="C63" s="34"/>
-      <c r="D63" s="34"/>
-      <c r="E63" s="34"/>
-      <c r="F63" s="34"/>
-      <c r="G63" s="34"/>
-      <c r="H63" s="34"/>
-      <c r="I63" s="34"/>
-      <c r="J63" s="34"/>
-      <c r="K63" s="35"/>
-      <c r="L63" s="33"/>
-      <c r="M63" s="36"/>
-      <c r="N63" s="33"/>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+    <row r="61" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A61" s="22" t="s">
+        <v>626</v>
+      </c>
+      <c r="B61" s="23" t="s">
+        <v>627</v>
+      </c>
+      <c r="C61" s="23" t="s">
+        <v>628</v>
+      </c>
+      <c r="D61" s="23" t="s">
+        <v>630</v>
+      </c>
+      <c r="E61" s="23" t="s">
+        <v>631</v>
+      </c>
+      <c r="F61" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G61" s="23" t="s">
+        <v>629</v>
+      </c>
+      <c r="H61" s="23" t="s">
+        <v>632</v>
+      </c>
+      <c r="I61" s="23" t="s">
+        <v>633</v>
+      </c>
+      <c r="J61" s="23" t="s">
+        <v>633</v>
+      </c>
+      <c r="K61" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L61" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M61" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="N61" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A62" s="22" t="s">
+        <v>626</v>
+      </c>
+      <c r="B62" s="23" t="s">
+        <v>627</v>
+      </c>
+      <c r="C62" s="23" t="s">
+        <v>638</v>
+      </c>
+      <c r="D62" s="23" t="s">
+        <v>634</v>
+      </c>
+      <c r="E62" s="23" t="s">
+        <v>635</v>
+      </c>
+      <c r="F62" s="23" t="s">
+        <v>642</v>
+      </c>
+      <c r="G62" s="23"/>
+      <c r="H62" s="23" t="s">
+        <v>636</v>
+      </c>
+      <c r="I62" s="23" t="s">
+        <v>637</v>
+      </c>
+      <c r="J62" s="23" t="s">
+        <v>637</v>
+      </c>
+      <c r="K62" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L62" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M62" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="N62" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A63" s="22" t="s">
+        <v>626</v>
+      </c>
+      <c r="B63" s="23" t="s">
+        <v>627</v>
+      </c>
+      <c r="C63" s="23" t="s">
+        <v>639</v>
+      </c>
+      <c r="D63" s="23" t="s">
+        <v>640</v>
+      </c>
+      <c r="E63" s="23" t="s">
+        <v>641</v>
+      </c>
+      <c r="F63" s="23" t="s">
+        <v>643</v>
+      </c>
+      <c r="G63" s="23"/>
+      <c r="H63" s="23" t="s">
+        <v>644</v>
+      </c>
+      <c r="I63" s="23" t="s">
+        <v>645</v>
+      </c>
+      <c r="J63" s="23" t="s">
+        <v>645</v>
+      </c>
+      <c r="K63" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L63" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M63" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="N63" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>606</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>607</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/FHF_TestCases.xlsx
+++ b/Documentation/FHF_TestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Semester9\SEP490\fu-house-finder\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B0B9C4-06BE-487E-9DE8-8D78ED17EA6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4AB28D3-D155-4915-A472-3D7F649B715C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="891" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2017" uniqueCount="646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2030" uniqueCount="653">
   <si>
     <t>Project Name</t>
   </si>
@@ -2978,12 +2978,6 @@
     <t>TS_FHF_Home_010</t>
   </si>
   <si>
-    <t>Cancel Filter</t>
-  </si>
-  <si>
-    <t>Order</t>
-  </si>
-  <si>
     <t>Kết hợp Filter, paging &amp; order by, search</t>
   </si>
   <si>
@@ -3179,6 +3173,35 @@
   </si>
   <si>
     <t>System displays the previous page of List of Houses</t>
+  </si>
+  <si>
+    <t>TS_FHF_Home_012</t>
+  </si>
+  <si>
+    <t>Verify the Cancel Order functionality of Home Page</t>
+  </si>
+  <si>
+    <t>TC_FHF_Home_CancelOrder_001</t>
+  </si>
+  <si>
+    <t>Click on Cancel Order button</t>
+  </si>
+  <si>
+    <t>1. Click on Cancel Order button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valid URL
+User chosed 1 Campus in Filter
+</t>
+  </si>
+  <si>
+    <t>System resets all Filter/Search/OrderBy values</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Create Order</t>
   </si>
 </sst>
 </file>
@@ -5861,7 +5884,7 @@
   <dimension ref="A1:N77"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B79" sqref="B79"/>
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8067,31 +8090,31 @@
         <v>604</v>
       </c>
       <c r="B55" s="23" t="s">
+        <v>606</v>
+      </c>
+      <c r="C55" s="23" t="s">
+        <v>607</v>
+      </c>
+      <c r="D55" s="23" t="s">
         <v>608</v>
       </c>
-      <c r="C55" s="23" t="s">
+      <c r="E55" s="23" t="s">
         <v>609</v>
-      </c>
-      <c r="D55" s="23" t="s">
-        <v>610</v>
-      </c>
-      <c r="E55" s="23" t="s">
-        <v>611</v>
       </c>
       <c r="F55" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G55" s="23" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="H55" s="23" t="s">
+        <v>611</v>
+      </c>
+      <c r="I55" s="23" t="s">
+        <v>612</v>
+      </c>
+      <c r="J55" s="23" t="s">
         <v>613</v>
-      </c>
-      <c r="I55" s="23" t="s">
-        <v>614</v>
-      </c>
-      <c r="J55" s="23" t="s">
-        <v>615</v>
       </c>
       <c r="K55" s="24" t="s">
         <v>39</v>
@@ -8111,31 +8134,31 @@
         <v>604</v>
       </c>
       <c r="B56" s="23" t="s">
+        <v>606</v>
+      </c>
+      <c r="C56" s="23" t="s">
+        <v>614</v>
+      </c>
+      <c r="D56" s="23" t="s">
         <v>608</v>
       </c>
-      <c r="C56" s="23" t="s">
-        <v>616</v>
-      </c>
-      <c r="D56" s="23" t="s">
-        <v>610</v>
-      </c>
       <c r="E56" s="23" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="F56" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G56" s="23" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="H56" s="23" t="s">
+        <v>611</v>
+      </c>
+      <c r="I56" s="23" t="s">
+        <v>612</v>
+      </c>
+      <c r="J56" s="23" t="s">
         <v>613</v>
-      </c>
-      <c r="I56" s="23" t="s">
-        <v>614</v>
-      </c>
-      <c r="J56" s="23" t="s">
-        <v>615</v>
       </c>
       <c r="K56" s="24" t="s">
         <v>39</v>
@@ -8155,31 +8178,31 @@
         <v>604</v>
       </c>
       <c r="B57" s="23" t="s">
+        <v>606</v>
+      </c>
+      <c r="C57" s="23" t="s">
+        <v>615</v>
+      </c>
+      <c r="D57" s="23" t="s">
         <v>608</v>
       </c>
-      <c r="C57" s="23" t="s">
-        <v>617</v>
-      </c>
-      <c r="D57" s="23" t="s">
-        <v>610</v>
-      </c>
       <c r="E57" s="23" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="F57" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G57" s="23" t="s">
+        <v>610</v>
+      </c>
+      <c r="H57" s="23" t="s">
+        <v>611</v>
+      </c>
+      <c r="I57" s="23" t="s">
         <v>612</v>
       </c>
-      <c r="H57" s="23" t="s">
+      <c r="J57" s="23" t="s">
         <v>613</v>
-      </c>
-      <c r="I57" s="23" t="s">
-        <v>614</v>
-      </c>
-      <c r="J57" s="23" t="s">
-        <v>615</v>
       </c>
       <c r="K57" s="24" t="s">
         <v>39</v>
@@ -8199,31 +8222,31 @@
         <v>604</v>
       </c>
       <c r="B58" s="23" t="s">
+        <v>606</v>
+      </c>
+      <c r="C58" s="23" t="s">
+        <v>616</v>
+      </c>
+      <c r="D58" s="23" t="s">
         <v>608</v>
       </c>
-      <c r="C58" s="23" t="s">
-        <v>618</v>
-      </c>
-      <c r="D58" s="23" t="s">
-        <v>610</v>
-      </c>
       <c r="E58" s="23" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="F58" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G58" s="23" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="H58" s="23" t="s">
+        <v>611</v>
+      </c>
+      <c r="I58" s="23" t="s">
+        <v>612</v>
+      </c>
+      <c r="J58" s="23" t="s">
         <v>613</v>
-      </c>
-      <c r="I58" s="23" t="s">
-        <v>614</v>
-      </c>
-      <c r="J58" s="23" t="s">
-        <v>615</v>
       </c>
       <c r="K58" s="24" t="s">
         <v>39</v>
@@ -8243,31 +8266,31 @@
         <v>604</v>
       </c>
       <c r="B59" s="23" t="s">
+        <v>606</v>
+      </c>
+      <c r="C59" s="23" t="s">
+        <v>617</v>
+      </c>
+      <c r="D59" s="23" t="s">
         <v>608</v>
       </c>
-      <c r="C59" s="23" t="s">
-        <v>619</v>
-      </c>
-      <c r="D59" s="23" t="s">
-        <v>610</v>
-      </c>
       <c r="E59" s="23" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="F59" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G59" s="23" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="H59" s="23" t="s">
+        <v>611</v>
+      </c>
+      <c r="I59" s="23" t="s">
+        <v>612</v>
+      </c>
+      <c r="J59" s="23" t="s">
         <v>613</v>
-      </c>
-      <c r="I59" s="23" t="s">
-        <v>614</v>
-      </c>
-      <c r="J59" s="23" t="s">
-        <v>615</v>
       </c>
       <c r="K59" s="24" t="s">
         <v>39</v>
@@ -8287,31 +8310,31 @@
         <v>604</v>
       </c>
       <c r="B60" s="23" t="s">
+        <v>606</v>
+      </c>
+      <c r="C60" s="23" t="s">
+        <v>618</v>
+      </c>
+      <c r="D60" s="23" t="s">
         <v>608</v>
       </c>
-      <c r="C60" s="23" t="s">
-        <v>620</v>
-      </c>
-      <c r="D60" s="23" t="s">
-        <v>610</v>
-      </c>
       <c r="E60" s="23" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="F60" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G60" s="23" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="H60" s="23" t="s">
+        <v>611</v>
+      </c>
+      <c r="I60" s="23" t="s">
+        <v>612</v>
+      </c>
+      <c r="J60" s="23" t="s">
         <v>613</v>
-      </c>
-      <c r="I60" s="23" t="s">
-        <v>614</v>
-      </c>
-      <c r="J60" s="23" t="s">
-        <v>615</v>
       </c>
       <c r="K60" s="24" t="s">
         <v>39</v>
@@ -8328,34 +8351,34 @@
     </row>
     <row r="61" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" s="22" t="s">
+        <v>624</v>
+      </c>
+      <c r="B61" s="23" t="s">
+        <v>625</v>
+      </c>
+      <c r="C61" s="23" t="s">
         <v>626</v>
       </c>
-      <c r="B61" s="23" t="s">
-        <v>627</v>
-      </c>
-      <c r="C61" s="23" t="s">
+      <c r="D61" s="23" t="s">
         <v>628</v>
       </c>
-      <c r="D61" s="23" t="s">
-        <v>630</v>
-      </c>
       <c r="E61" s="23" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="F61" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G61" s="23" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="H61" s="23" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="I61" s="23" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="J61" s="23" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="K61" s="24" t="s">
         <v>39</v>
@@ -8372,32 +8395,32 @@
     </row>
     <row r="62" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" s="22" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B62" s="23" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C62" s="23" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="D62" s="23" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="E62" s="23" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="F62" s="23" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="G62" s="23"/>
       <c r="H62" s="23" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="I62" s="23" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="J62" s="23" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="K62" s="24" t="s">
         <v>39</v>
@@ -8414,32 +8437,32 @@
     </row>
     <row r="63" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A63" s="22" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B63" s="23" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C63" s="23" t="s">
+        <v>637</v>
+      </c>
+      <c r="D63" s="23" t="s">
+        <v>638</v>
+      </c>
+      <c r="E63" s="23" t="s">
         <v>639</v>
       </c>
-      <c r="D63" s="23" t="s">
-        <v>640</v>
-      </c>
-      <c r="E63" s="23" t="s">
+      <c r="F63" s="23" t="s">
         <v>641</v>
-      </c>
-      <c r="F63" s="23" t="s">
-        <v>643</v>
       </c>
       <c r="G63" s="23"/>
       <c r="H63" s="23" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="I63" s="23" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="J63" s="23" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="K63" s="24" t="s">
         <v>39</v>
@@ -8454,19 +8477,59 @@
         <v>40</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+    <row r="64" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A64" s="22" t="s">
+        <v>644</v>
+      </c>
+      <c r="B64" s="23" t="s">
+        <v>645</v>
+      </c>
+      <c r="C64" s="23" t="s">
+        <v>646</v>
+      </c>
+      <c r="D64" s="23" t="s">
+        <v>647</v>
+      </c>
+      <c r="E64" s="23" t="s">
+        <v>648</v>
+      </c>
+      <c r="F64" s="23" t="s">
+        <v>649</v>
+      </c>
+      <c r="G64" s="23"/>
+      <c r="H64" s="23" t="s">
+        <v>522</v>
+      </c>
+      <c r="I64" s="23" t="s">
+        <v>650</v>
+      </c>
+      <c r="J64" s="23" t="s">
+        <v>650</v>
+      </c>
+      <c r="K64" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L64" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M64" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="N64" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>606</v>
+        <v>652</v>
+      </c>
+      <c r="B77" t="s">
+        <v>651</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/FHF_TestCases.xlsx
+++ b/Documentation/FHF_TestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Semester9\SEP490\fu-house-finder\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4AB28D3-D155-4915-A472-3D7F649B715C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F38E785-4011-4022-85BE-80318F9CEEEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="891" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2030" uniqueCount="653">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2168" uniqueCount="695">
   <si>
     <t>Project Name</t>
   </si>
@@ -1727,45 +1727,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Campus: FU - Hòa Lạc
-Distance - From: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Distance - To: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
     <t>System displays a list of Houses with Distance from 1 to 2 km from FPTU Hoa Lac Campus</t>
   </si>
   <si>
@@ -1773,11 +1734,6 @@
   </si>
   <si>
     <t>TC_FHF_Home_FilterByDistance_002</t>
-  </si>
-  <si>
-    <t>Campus: FU - Hòa Lạc
-Distance - From: blank
-Distance - To: blank</t>
   </si>
   <si>
     <t>1. Select a Campus from the Dropdown
@@ -1865,45 +1821,6 @@
 4. Click "Áp dụng"</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Campus: FU - Hòa Lạc
-Distance - From: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>abc</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Distance - To: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
     <t>User failed to input text to Form</t>
   </si>
   <si>
@@ -1916,45 +1833,6 @@
 4. Click "Áp dụng"</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Campus: FU - Hòa Lạc
-Distance - From: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Distance - To: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
     <t>System displays alert: "Giá trị nhập vào không hợp lệ!"</t>
   </si>
   <si>
@@ -1967,45 +1845,6 @@
 4. Click "Áp dụng"</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Campus: FU - Hòa Lạc
-Distance - From: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Distance - To: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-2</t>
-    </r>
-  </si>
-  <si>
     <t>TC_FHF_Home_FilterByDistance_006</t>
   </si>
   <si>
@@ -2015,88 +1854,10 @@
 4. Click "Áp dụng"</t>
   </si>
   <si>
-    <r>
-      <t>Campus: FU - Hòa Lạc
-Distance - From: -</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Distance - To: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-2</t>
-    </r>
-  </si>
-  <si>
     <t>TC_FHF_Home_FilterByDistance_007</t>
   </si>
   <si>
     <t>Choose a Campus, then input valid Distance but From is larger than To</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Campus: FU - Hòa Lạc
-Distance - From: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Distance - To: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
   </si>
   <si>
     <t>TC_FHF_Home_FilterByDistance_008</t>
@@ -2978,9 +2739,6 @@
     <t>TS_FHF_Home_010</t>
   </si>
   <si>
-    <t>Kết hợp Filter, paging &amp; order by, search</t>
-  </si>
-  <si>
     <t>Verify the Order By functionality of Home Page</t>
   </si>
   <si>
@@ -3120,9 +2878,6 @@
   </si>
   <si>
     <t>TC_FHF_Home_Paging_001</t>
-  </si>
-  <si>
-    <t>Page Number: 2</t>
   </si>
   <si>
     <t>Choose a Page Number in Paging component</t>
@@ -3201,7 +2956,1072 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Create Order</t>
+    <t>TS_FHF_Home_013</t>
+  </si>
+  <si>
+    <t>Verify the Filter, Search, Paging and Order By functionalities in combine</t>
+  </si>
+  <si>
+    <t>TC_FHF_Home_CombineFunctions_001</t>
+  </si>
+  <si>
+    <t>Filter by Campus and Price</t>
+  </si>
+  <si>
+    <t>1. Select a Campus from the Dropdown
+2. Input valid Price - From
+3. Input valid Price - To
+4. Click "Áp dụng"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Campus: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FU - Hòa Lạc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Price - From: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1000000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Price - To: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2000000</t>
+    </r>
+  </si>
+  <si>
+    <t>User sees Houses satisfying the Filter values</t>
+  </si>
+  <si>
+    <t>System displays list of Houses satisfying the Filter values</t>
+  </si>
+  <si>
+    <t>TC_FHF_Home_CombineFunctions_002</t>
+  </si>
+  <si>
+    <t>Filter by Name and Campus</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">House name: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tâm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Campus: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FU - Hòa Lạc</t>
+    </r>
+  </si>
+  <si>
+    <t>TC_FHF_Home_CombineFunctions_003</t>
+  </si>
+  <si>
+    <t>Filter by Name and Price</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">House name: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tâm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Price - From: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1000000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Price - To: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2000000</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Enter valid house name
+2. Press Enter key
+3. Select a Campus from the Dropdown</t>
+  </si>
+  <si>
+    <t>1. Enter valid house name
+2. Press Enter key
+3. Input valid Price - From
+4. Input valid Price - To
+5. Click "Áp dụng"</t>
+  </si>
+  <si>
+    <t>Filter by Name and Region</t>
+  </si>
+  <si>
+    <t>1. Enter valid house name
+2. Press Enter key
+3. Select a Campus from the Dropdown
+4. Choose a District from the Dropdown
+5. Choose a Province from the Dropdown
+6. Choose a Village from the Dropdown</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">House name: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tâm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Campus: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FU - Hòa Lạc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+District: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Thạch Thất</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Province: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Thị trấn Liên Quan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Village: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Đồng Cam</t>
+    </r>
+  </si>
+  <si>
+    <t>Filter by Name and Distance</t>
+  </si>
+  <si>
+    <t>1. Enter valid house name
+2. Press Enter key
+3. Select a Campus from the Dropdown
+4. Input valid Distance - From
+5. Input valid Distance - To
+6. Click "Áp dụng"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Campus: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FU - Hòa Lạc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Distance - From: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Distance - To: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Campus:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> FU - Hòa Lạc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Distance - From: blank
+Distance - To: blank</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Campus:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> FU - Hòa Lạc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Distance - From: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>abc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Distance - To: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Campus: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FU - Hòa Lạc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Distance - From: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Distance - To: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Campus:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> FU - Hòa Lạc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Distance - From: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Distance - To: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Campus: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FU - Hòa Lạc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Distance - From: -</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Distance - To: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Campus: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FU - Hòa Lạc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Distance - From: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Distance - To: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Page Number: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">House name: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tâm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Campus: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FU - Hòa Lạc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Distance - From: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Distance - To: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>TC_FHF_Home_CombineFunctions_004</t>
+  </si>
+  <si>
+    <t>1. Enter valid house name
+2. Press Enter key
+3. Select a Room Type from list of Room Types</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">House name: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tâm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Room Type: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Không khép kín</t>
+    </r>
+  </si>
+  <si>
+    <t>TC_FHF_Home_CombineFunctions_005</t>
+  </si>
+  <si>
+    <t>Filter by Name and Room Type</t>
+  </si>
+  <si>
+    <t>Filter by Name and Room Utility</t>
+  </si>
+  <si>
+    <t>Filter by Name and House Utility</t>
+  </si>
+  <si>
+    <t>1. Enter valid house name
+2. Press Enter key
+3. Select a House Utility from list of House Utility</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">House name: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tâm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+House Utility: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Camera an ninh</t>
+    </r>
+  </si>
+  <si>
+    <t>TC_FHF_Home_CombineFunctions_006</t>
+  </si>
+  <si>
+    <t>1. Enter valid house name
+2. Press Enter key
+3. Select a Room Utility from list of Room Utility</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">House name: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tâm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Room Utility: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Máy giặt</t>
+    </r>
+  </si>
+  <si>
+    <t>TC_FHF_Home_CombineFunctions_007</t>
+  </si>
+  <si>
+    <t>TC_FHF_Home_CombineFunctions_008</t>
+  </si>
+  <si>
+    <t>Filter by Name and Rate</t>
+  </si>
+  <si>
+    <t>1. Enter valid house name
+2. Press Enter key
+3. Select a Rate from list of Rate</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">House name: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tâm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Rate: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <t>TC_FHF_Home_CombineFunctions_009</t>
+  </si>
+  <si>
+    <t>TC_FHF_Home_CombineFunctions_010</t>
+  </si>
+  <si>
+    <t>Filter by Campus and Room Type</t>
+  </si>
+  <si>
+    <t>1. Select a Campus from the Dropdown
+2. Select a Room Type from list of Room Types</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Campus: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FU - Hòa Lạc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Room Type: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Không khép kín</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -5881,10 +6701,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N77"/>
+  <dimension ref="A1:N80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G74" sqref="G74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5941,8 +6761,8 @@
         <v>334</v>
       </c>
       <c r="E3" s="16">
-        <f>COUNTIF(K8:K54,"Pass")</f>
-        <v>47</v>
+        <f>COUNTIF(K8:K73,"Pass")</f>
+        <v>66</v>
       </c>
       <c r="F3" s="16">
         <f>COUNTIF(K8:K11,"Fail")</f>
@@ -6040,7 +6860,7 @@
         <v>33</v>
       </c>
       <c r="H8" s="23" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="I8" s="23" t="s">
         <v>36</v>
@@ -6084,7 +6904,7 @@
         <v>34</v>
       </c>
       <c r="H9" s="23" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="I9" s="23" t="s">
         <v>38</v>
@@ -6128,7 +6948,7 @@
         <v>33</v>
       </c>
       <c r="H10" s="23" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="I10" s="23" t="s">
         <v>36</v>
@@ -6172,7 +6992,7 @@
         <v>34</v>
       </c>
       <c r="H11" s="23" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="I11" s="23" t="s">
         <v>38</v>
@@ -6216,7 +7036,7 @@
         <v>427</v>
       </c>
       <c r="H12" s="23" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="I12" s="23" t="s">
         <v>404</v>
@@ -6260,7 +7080,7 @@
         <v>428</v>
       </c>
       <c r="H13" s="23" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="I13" s="23" t="s">
         <v>406</v>
@@ -6304,7 +7124,7 @@
         <v>429</v>
       </c>
       <c r="H14" s="23" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="I14" s="23" t="s">
         <v>412</v>
@@ -6348,7 +7168,7 @@
         <v>430</v>
       </c>
       <c r="H15" s="23" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="I15" s="23" t="s">
         <v>414</v>
@@ -6392,7 +7212,7 @@
         <v>431</v>
       </c>
       <c r="H16" s="23" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="I16" s="23" t="s">
         <v>418</v>
@@ -6436,7 +7256,7 @@
         <v>432</v>
       </c>
       <c r="H17" s="23" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="I17" s="23" t="s">
         <v>422</v>
@@ -6471,22 +7291,22 @@
         <v>426</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F18" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G18" s="23" t="s">
+        <v>664</v>
+      </c>
+      <c r="H18" s="23" t="s">
+        <v>454</v>
+      </c>
+      <c r="I18" s="23" t="s">
         <v>433</v>
       </c>
-      <c r="H18" s="23" t="s">
-        <v>456</v>
-      </c>
-      <c r="I18" s="23" t="s">
+      <c r="J18" s="23" t="s">
         <v>434</v>
-      </c>
-      <c r="J18" s="23" t="s">
-        <v>435</v>
       </c>
       <c r="K18" s="24" t="s">
         <v>39</v>
@@ -6509,28 +7329,28 @@
         <v>424</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F19" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G19" s="23" t="s">
-        <v>437</v>
+        <v>665</v>
       </c>
       <c r="H19" s="23" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="I19" s="23" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="J19" s="23" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="K19" s="24" t="s">
         <v>39</v>
@@ -6553,28 +7373,28 @@
         <v>424</v>
       </c>
       <c r="C20" s="23" t="s">
+        <v>457</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>458</v>
+      </c>
+      <c r="E20" s="23" t="s">
         <v>459</v>
-      </c>
-      <c r="D20" s="23" t="s">
-        <v>460</v>
-      </c>
-      <c r="E20" s="23" t="s">
-        <v>461</v>
       </c>
       <c r="F20" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G20" s="23" t="s">
-        <v>462</v>
+        <v>666</v>
       </c>
       <c r="H20" s="23" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="I20" s="23" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="J20" s="23" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="K20" s="24" t="s">
         <v>39</v>
@@ -6597,28 +7417,28 @@
         <v>424</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E21" s="23" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="F21" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G21" s="23" t="s">
-        <v>466</v>
+        <v>667</v>
       </c>
       <c r="H21" s="23" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="I21" s="23" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="J21" s="23" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="K21" s="24" t="s">
         <v>39</v>
@@ -6641,28 +7461,28 @@
         <v>424</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="F22" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G22" s="23" t="s">
-        <v>470</v>
+        <v>668</v>
       </c>
       <c r="H22" s="23" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="I22" s="23" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="J22" s="23" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="K22" s="24" t="s">
         <v>39</v>
@@ -6685,28 +7505,28 @@
         <v>424</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E23" s="23" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="F23" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G23" s="23" t="s">
-        <v>473</v>
+        <v>669</v>
       </c>
       <c r="H23" s="23" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="I23" s="23" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="J23" s="23" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="K23" s="24" t="s">
         <v>39</v>
@@ -6729,28 +7549,28 @@
         <v>424</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="E24" s="23" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F24" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G24" s="23" t="s">
-        <v>476</v>
+        <v>670</v>
       </c>
       <c r="H24" s="23" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="I24" s="23" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="J24" s="23" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="K24" s="24" t="s">
         <v>39</v>
@@ -6773,28 +7593,28 @@
         <v>424</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="E25" s="23" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="F25" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G25" s="23" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="H25" s="23" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="I25" s="23" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="J25" s="23" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="K25" s="24" t="s">
         <v>39</v>
@@ -6811,34 +7631,34 @@
     </row>
     <row r="26" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="E26" s="23" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="F26" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G26" s="23" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="H26" s="23" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="I26" s="23" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="J26" s="23" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="K26" s="24" t="s">
         <v>39</v>
@@ -6855,34 +7675,34 @@
     </row>
     <row r="27" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="B27" s="23" t="s">
+        <v>476</v>
+      </c>
+      <c r="C27" s="23" t="s">
         <v>483</v>
       </c>
-      <c r="C27" s="23" t="s">
-        <v>490</v>
-      </c>
       <c r="D27" s="23" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E27" s="23" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="F27" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G27" s="23" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="H27" s="23" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="I27" s="23" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="J27" s="23" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="K27" s="24" t="s">
         <v>39</v>
@@ -6899,34 +7719,34 @@
     </row>
     <row r="28" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E28" s="23" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="F28" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G28" s="23" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="H28" s="23" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="I28" s="23" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="J28" s="23" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="K28" s="24" t="s">
         <v>39</v>
@@ -6943,34 +7763,34 @@
     </row>
     <row r="29" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="D29" s="23" t="s">
+        <v>484</v>
+      </c>
+      <c r="E29" s="23" t="s">
         <v>491</v>
-      </c>
-      <c r="E29" s="23" t="s">
-        <v>498</v>
       </c>
       <c r="F29" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G29" s="23" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="H29" s="23" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="I29" s="23" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="J29" s="23" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="K29" s="24" t="s">
         <v>39</v>
@@ -6987,34 +7807,34 @@
     </row>
     <row r="30" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="E30" s="23" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="F30" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G30" s="23" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="H30" s="23" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="I30" s="23" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="J30" s="23" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="K30" s="24" t="s">
         <v>39</v>
@@ -7031,34 +7851,34 @@
     </row>
     <row r="31" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="E31" s="23" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="F31" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G31" s="23" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="H31" s="23" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="I31" s="23" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="J31" s="23" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="K31" s="24" t="s">
         <v>39</v>
@@ -7075,34 +7895,34 @@
     </row>
     <row r="32" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="B32" s="23" t="s">
+        <v>498</v>
+      </c>
+      <c r="C32" s="23" t="s">
         <v>505</v>
       </c>
-      <c r="C32" s="23" t="s">
-        <v>512</v>
-      </c>
       <c r="D32" s="23" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="E32" s="23" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="F32" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G32" s="23" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="H32" s="23" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="I32" s="23" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="J32" s="23" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="K32" s="24" t="s">
         <v>39</v>
@@ -7119,34 +7939,34 @@
     </row>
     <row r="33" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="C33" s="23" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="E33" s="23" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="F33" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G33" s="23" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="H33" s="23" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="I33" s="23" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="J33" s="23" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="K33" s="24" t="s">
         <v>39</v>
@@ -7163,34 +7983,34 @@
     </row>
     <row r="34" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="C34" s="23" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="D34" s="23" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="E34" s="23" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="F34" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G34" s="23" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="H34" s="23" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="I34" s="23" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="J34" s="23" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="K34" s="24" t="s">
         <v>39</v>
@@ -7207,34 +8027,34 @@
     </row>
     <row r="35" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="22" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="C35" s="23" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="D35" s="23" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="E35" s="23" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="F35" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G35" s="23" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="H35" s="23" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="I35" s="23" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="J35" s="23" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="K35" s="24" t="s">
         <v>39</v>
@@ -7251,34 +8071,34 @@
     </row>
     <row r="36" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="22" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="C36" s="23" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="D36" s="23" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="E36" s="23" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="F36" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G36" s="23" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="H36" s="23" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="I36" s="23" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="J36" s="23" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="K36" s="24" t="s">
         <v>39</v>
@@ -7295,34 +8115,34 @@
     </row>
     <row r="37" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="22" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="B37" s="23" t="s">
+        <v>522</v>
+      </c>
+      <c r="C37" s="23" t="s">
         <v>529</v>
       </c>
-      <c r="C37" s="23" t="s">
-        <v>536</v>
-      </c>
       <c r="D37" s="23" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="E37" s="23" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="F37" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G37" s="23" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="H37" s="23" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="I37" s="23" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="J37" s="23" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="K37" s="24" t="s">
         <v>39</v>
@@ -7339,34 +8159,34 @@
     </row>
     <row r="38" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="22" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="C38" s="23" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="D38" s="23" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="E38" s="23" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="F38" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G38" s="23" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="H38" s="23" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="I38" s="23" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="J38" s="23" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="K38" s="24" t="s">
         <v>39</v>
@@ -7383,34 +8203,34 @@
     </row>
     <row r="39" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="22" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="C39" s="23" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="D39" s="23" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="E39" s="23" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="F39" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G39" s="23" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="H39" s="23" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="I39" s="23" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="J39" s="23" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="K39" s="24" t="s">
         <v>39</v>
@@ -7427,34 +8247,34 @@
     </row>
     <row r="40" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="22" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="C40" s="23" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="D40" s="23" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="E40" s="23" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="F40" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G40" s="23" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="H40" s="23" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="I40" s="23" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="J40" s="23" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="K40" s="24" t="s">
         <v>39</v>
@@ -7471,34 +8291,34 @@
     </row>
     <row r="41" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="22" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="B41" s="23" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="C41" s="23" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="D41" s="23" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="E41" s="23" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="F41" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G41" s="23" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="H41" s="23" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="I41" s="23" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="J41" s="23" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="K41" s="24" t="s">
         <v>39</v>
@@ -7515,34 +8335,34 @@
     </row>
     <row r="42" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="22" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="B42" s="23" t="s">
+        <v>544</v>
+      </c>
+      <c r="C42" s="23" t="s">
         <v>551</v>
       </c>
-      <c r="C42" s="23" t="s">
-        <v>558</v>
-      </c>
       <c r="D42" s="23" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="E42" s="23" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="F42" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G42" s="23" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="H42" s="23" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="I42" s="23" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="J42" s="23" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="K42" s="24" t="s">
         <v>39</v>
@@ -7559,34 +8379,34 @@
     </row>
     <row r="43" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="22" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="C43" s="23" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="D43" s="23" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="E43" s="23" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="F43" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G43" s="23" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="H43" s="23" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="I43" s="23" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="J43" s="23" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="K43" s="24" t="s">
         <v>39</v>
@@ -7603,34 +8423,34 @@
     </row>
     <row r="44" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="22" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="B44" s="23" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="C44" s="23" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="D44" s="23" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="E44" s="23" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="F44" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G44" s="23" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="H44" s="23" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="I44" s="23" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="J44" s="23" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="K44" s="24" t="s">
         <v>39</v>
@@ -7647,34 +8467,34 @@
     </row>
     <row r="45" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="22" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="C45" s="23" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="D45" s="23" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="E45" s="23" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="F45" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G45" s="23" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="H45" s="23" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="I45" s="23" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="J45" s="23" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="K45" s="24" t="s">
         <v>39</v>
@@ -7691,34 +8511,34 @@
     </row>
     <row r="46" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="22" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="C46" s="23" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="D46" s="23" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="E46" s="23" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="F46" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G46" s="23" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="H46" s="23" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="I46" s="23" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="J46" s="23" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="K46" s="24" t="s">
         <v>39</v>
@@ -7735,34 +8555,34 @@
     </row>
     <row r="47" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="22" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="B47" s="23" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="C47" s="23" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="D47" s="23" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="E47" s="23" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="F47" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G47" s="23" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="H47" s="23" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="I47" s="23" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="J47" s="23" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="K47" s="24" t="s">
         <v>39</v>
@@ -7779,34 +8599,34 @@
     </row>
     <row r="48" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="22" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="C48" s="23" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="D48" s="23" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="E48" s="23" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="F48" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G48" s="23" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="H48" s="23" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="I48" s="23" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="J48" s="23" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="K48" s="24" t="s">
         <v>39</v>
@@ -7823,34 +8643,34 @@
     </row>
     <row r="49" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="22" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="B49" s="23" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="C49" s="23" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="D49" s="23" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="E49" s="23" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="F49" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G49" s="23" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="H49" s="23" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="I49" s="23" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="J49" s="23" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="K49" s="24" t="s">
         <v>39</v>
@@ -7867,34 +8687,34 @@
     </row>
     <row r="50" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="22" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="B50" s="23" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="C50" s="23" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="D50" s="23" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="E50" s="23" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="F50" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G50" s="23" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="H50" s="23" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="I50" s="23" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="J50" s="23" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="K50" s="24" t="s">
         <v>39</v>
@@ -7911,34 +8731,34 @@
     </row>
     <row r="51" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="22" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="B51" s="23" t="s">
+        <v>574</v>
+      </c>
+      <c r="C51" s="23" t="s">
         <v>581</v>
       </c>
-      <c r="C51" s="23" t="s">
-        <v>588</v>
-      </c>
       <c r="D51" s="23" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="E51" s="23" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="F51" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G51" s="23" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="H51" s="23" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="I51" s="23" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="J51" s="23" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="K51" s="24" t="s">
         <v>39</v>
@@ -7955,34 +8775,34 @@
     </row>
     <row r="52" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="22" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="B52" s="23" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="C52" s="23" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="D52" s="23" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="E52" s="23" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="F52" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G52" s="23" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="H52" s="23" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="I52" s="23" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="J52" s="23" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="K52" s="24" t="s">
         <v>39</v>
@@ -7999,34 +8819,34 @@
     </row>
     <row r="53" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="22" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="B53" s="23" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="C53" s="23" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="D53" s="23" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="E53" s="23" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="F53" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G53" s="23" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="H53" s="23" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="I53" s="23" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="J53" s="23" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="K53" s="24" t="s">
         <v>39</v>
@@ -8043,34 +8863,34 @@
     </row>
     <row r="54" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="22" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="B54" s="23" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="C54" s="23" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="D54" s="23" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="E54" s="23" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="F54" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G54" s="23" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="H54" s="23" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="I54" s="23" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="J54" s="23" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="K54" s="24" t="s">
         <v>39</v>
@@ -8087,34 +8907,34 @@
     </row>
     <row r="55" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" s="22" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="B55" s="23" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="C55" s="23" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="D55" s="23" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="E55" s="23" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="F55" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G55" s="23" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="H55" s="23" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="I55" s="23" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="J55" s="23" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="K55" s="24" t="s">
         <v>39</v>
@@ -8131,34 +8951,34 @@
     </row>
     <row r="56" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="22" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="B56" s="23" t="s">
+        <v>598</v>
+      </c>
+      <c r="C56" s="23" t="s">
         <v>606</v>
       </c>
-      <c r="C56" s="23" t="s">
-        <v>614</v>
-      </c>
       <c r="D56" s="23" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="E56" s="23" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="F56" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G56" s="23" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="H56" s="23" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="I56" s="23" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="J56" s="23" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="K56" s="24" t="s">
         <v>39</v>
@@ -8175,34 +8995,34 @@
     </row>
     <row r="57" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="22" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="B57" s="23" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="C57" s="23" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="D57" s="23" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="E57" s="23" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="F57" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G57" s="23" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="H57" s="23" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="I57" s="23" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="J57" s="23" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="K57" s="24" t="s">
         <v>39</v>
@@ -8219,34 +9039,34 @@
     </row>
     <row r="58" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" s="22" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="B58" s="23" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="C58" s="23" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="D58" s="23" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="E58" s="23" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="F58" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G58" s="23" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="H58" s="23" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="I58" s="23" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="J58" s="23" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="K58" s="24" t="s">
         <v>39</v>
@@ -8263,34 +9083,34 @@
     </row>
     <row r="59" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" s="22" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="B59" s="23" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="C59" s="23" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="D59" s="23" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="E59" s="23" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="F59" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G59" s="23" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="H59" s="23" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="I59" s="23" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="J59" s="23" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="K59" s="24" t="s">
         <v>39</v>
@@ -8307,34 +9127,34 @@
     </row>
     <row r="60" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A60" s="22" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="B60" s="23" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="C60" s="23" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="D60" s="23" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="E60" s="23" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="F60" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G60" s="23" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="H60" s="23" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="I60" s="23" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="J60" s="23" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="K60" s="24" t="s">
         <v>39</v>
@@ -8351,34 +9171,34 @@
     </row>
     <row r="61" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" s="22" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="B61" s="23" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="C61" s="23" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="D61" s="23" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="E61" s="23" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="F61" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G61" s="23" t="s">
-        <v>627</v>
+        <v>671</v>
       </c>
       <c r="H61" s="23" t="s">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="I61" s="23" t="s">
-        <v>631</v>
+        <v>622</v>
       </c>
       <c r="J61" s="23" t="s">
-        <v>631</v>
+        <v>622</v>
       </c>
       <c r="K61" s="24" t="s">
         <v>39</v>
@@ -8395,32 +9215,32 @@
     </row>
     <row r="62" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" s="22" t="s">
+        <v>616</v>
+      </c>
+      <c r="B62" s="23" t="s">
+        <v>617</v>
+      </c>
+      <c r="C62" s="23" t="s">
+        <v>627</v>
+      </c>
+      <c r="D62" s="23" t="s">
+        <v>623</v>
+      </c>
+      <c r="E62" s="23" t="s">
         <v>624</v>
       </c>
-      <c r="B62" s="23" t="s">
-        <v>625</v>
-      </c>
-      <c r="C62" s="23" t="s">
-        <v>636</v>
-      </c>
-      <c r="D62" s="23" t="s">
-        <v>632</v>
-      </c>
-      <c r="E62" s="23" t="s">
-        <v>633</v>
-      </c>
       <c r="F62" s="23" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="G62" s="23"/>
       <c r="H62" s="23" t="s">
-        <v>634</v>
+        <v>625</v>
       </c>
       <c r="I62" s="23" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="J62" s="23" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="K62" s="24" t="s">
         <v>39</v>
@@ -8437,32 +9257,32 @@
     </row>
     <row r="63" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A63" s="22" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="B63" s="23" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="C63" s="23" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="D63" s="23" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
       <c r="E63" s="23" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="F63" s="23" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
       <c r="G63" s="23"/>
       <c r="H63" s="23" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="I63" s="23" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="J63" s="23" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="K63" s="24" t="s">
         <v>39</v>
@@ -8479,32 +9299,32 @@
     </row>
     <row r="64" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A64" s="22" t="s">
-        <v>644</v>
+        <v>635</v>
       </c>
       <c r="B64" s="23" t="s">
-        <v>645</v>
+        <v>636</v>
       </c>
       <c r="C64" s="23" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="D64" s="23" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
       <c r="E64" s="23" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
       <c r="F64" s="23" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="G64" s="23"/>
       <c r="H64" s="23" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="I64" s="23" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
       <c r="J64" s="23" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
       <c r="K64" s="24" t="s">
         <v>39</v>
@@ -8519,17 +9339,449 @@
         <v>40</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+    <row r="65" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A65" s="22" t="s">
+        <v>643</v>
+      </c>
+      <c r="B65" s="23" t="s">
+        <v>644</v>
+      </c>
+      <c r="C65" s="23" t="s">
+        <v>645</v>
+      </c>
+      <c r="D65" s="23" t="s">
         <v>652</v>
       </c>
-      <c r="B77" t="s">
+      <c r="E65" s="23" t="s">
+        <v>657</v>
+      </c>
+      <c r="F65" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G65" s="23" t="s">
+        <v>653</v>
+      </c>
+      <c r="H65" s="23" t="s">
+        <v>649</v>
+      </c>
+      <c r="I65" s="23" t="s">
+        <v>650</v>
+      </c>
+      <c r="J65" s="23" t="s">
+        <v>650</v>
+      </c>
+      <c r="K65" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L65" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M65" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="N65" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" ht="150" x14ac:dyDescent="0.25">
+      <c r="A66" s="22" t="s">
+        <v>643</v>
+      </c>
+      <c r="B66" s="23" t="s">
+        <v>644</v>
+      </c>
+      <c r="C66" s="23" t="s">
         <v>651</v>
+      </c>
+      <c r="D66" s="23" t="s">
+        <v>659</v>
+      </c>
+      <c r="E66" s="23" t="s">
+        <v>660</v>
+      </c>
+      <c r="F66" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G66" s="23" t="s">
+        <v>661</v>
+      </c>
+      <c r="H66" s="23" t="s">
+        <v>649</v>
+      </c>
+      <c r="I66" s="23" t="s">
+        <v>650</v>
+      </c>
+      <c r="J66" s="23" t="s">
+        <v>650</v>
+      </c>
+      <c r="K66" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L66" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M66" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="N66" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+      <c r="A67" s="22" t="s">
+        <v>643</v>
+      </c>
+      <c r="B67" s="23" t="s">
+        <v>644</v>
+      </c>
+      <c r="C67" s="23" t="s">
+        <v>654</v>
+      </c>
+      <c r="D67" s="23" t="s">
+        <v>662</v>
+      </c>
+      <c r="E67" s="23" t="s">
+        <v>663</v>
+      </c>
+      <c r="F67" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G67" s="23" t="s">
+        <v>672</v>
+      </c>
+      <c r="H67" s="23" t="s">
+        <v>649</v>
+      </c>
+      <c r="I67" s="23" t="s">
+        <v>650</v>
+      </c>
+      <c r="J67" s="23" t="s">
+        <v>650</v>
+      </c>
+      <c r="K67" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L67" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M67" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="N67" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A68" s="22" t="s">
+        <v>643</v>
+      </c>
+      <c r="B68" s="23" t="s">
+        <v>644</v>
+      </c>
+      <c r="C68" s="23" t="s">
+        <v>673</v>
+      </c>
+      <c r="D68" s="23" t="s">
+        <v>655</v>
+      </c>
+      <c r="E68" s="23" t="s">
+        <v>658</v>
+      </c>
+      <c r="F68" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G68" s="23" t="s">
+        <v>656</v>
+      </c>
+      <c r="H68" s="23" t="s">
+        <v>649</v>
+      </c>
+      <c r="I68" s="23" t="s">
+        <v>650</v>
+      </c>
+      <c r="J68" s="23" t="s">
+        <v>650</v>
+      </c>
+      <c r="K68" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L68" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M68" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="N68" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A69" s="22" t="s">
+        <v>643</v>
+      </c>
+      <c r="B69" s="23" t="s">
+        <v>644</v>
+      </c>
+      <c r="C69" s="23" t="s">
+        <v>676</v>
+      </c>
+      <c r="D69" s="23" t="s">
+        <v>677</v>
+      </c>
+      <c r="E69" s="23" t="s">
+        <v>674</v>
+      </c>
+      <c r="F69" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G69" s="23" t="s">
+        <v>675</v>
+      </c>
+      <c r="H69" s="23" t="s">
+        <v>649</v>
+      </c>
+      <c r="I69" s="23" t="s">
+        <v>650</v>
+      </c>
+      <c r="J69" s="23" t="s">
+        <v>650</v>
+      </c>
+      <c r="K69" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L69" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M69" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="N69" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A70" s="22" t="s">
+        <v>643</v>
+      </c>
+      <c r="B70" s="23" t="s">
+        <v>644</v>
+      </c>
+      <c r="C70" s="23" t="s">
+        <v>682</v>
+      </c>
+      <c r="D70" s="23" t="s">
+        <v>679</v>
+      </c>
+      <c r="E70" s="23" t="s">
+        <v>680</v>
+      </c>
+      <c r="F70" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G70" s="23" t="s">
+        <v>681</v>
+      </c>
+      <c r="H70" s="23" t="s">
+        <v>649</v>
+      </c>
+      <c r="I70" s="23" t="s">
+        <v>650</v>
+      </c>
+      <c r="J70" s="23" t="s">
+        <v>650</v>
+      </c>
+      <c r="K70" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L70" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M70" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="N70" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A71" s="22" t="s">
+        <v>643</v>
+      </c>
+      <c r="B71" s="23" t="s">
+        <v>644</v>
+      </c>
+      <c r="C71" s="23" t="s">
+        <v>685</v>
+      </c>
+      <c r="D71" s="23" t="s">
+        <v>678</v>
+      </c>
+      <c r="E71" s="23" t="s">
+        <v>683</v>
+      </c>
+      <c r="F71" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G71" s="23" t="s">
+        <v>684</v>
+      </c>
+      <c r="H71" s="23" t="s">
+        <v>649</v>
+      </c>
+      <c r="I71" s="23" t="s">
+        <v>650</v>
+      </c>
+      <c r="J71" s="23" t="s">
+        <v>650</v>
+      </c>
+      <c r="K71" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L71" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M71" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="N71" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A72" s="22" t="s">
+        <v>643</v>
+      </c>
+      <c r="B72" s="23" t="s">
+        <v>644</v>
+      </c>
+      <c r="C72" s="23" t="s">
+        <v>686</v>
+      </c>
+      <c r="D72" s="23" t="s">
+        <v>687</v>
+      </c>
+      <c r="E72" s="23" t="s">
+        <v>688</v>
+      </c>
+      <c r="F72" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G72" s="23" t="s">
+        <v>689</v>
+      </c>
+      <c r="H72" s="23" t="s">
+        <v>649</v>
+      </c>
+      <c r="I72" s="23" t="s">
+        <v>650</v>
+      </c>
+      <c r="J72" s="23" t="s">
+        <v>650</v>
+      </c>
+      <c r="K72" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L72" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M72" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="N72" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A73" s="22" t="s">
+        <v>643</v>
+      </c>
+      <c r="B73" s="23" t="s">
+        <v>644</v>
+      </c>
+      <c r="C73" s="23" t="s">
+        <v>690</v>
+      </c>
+      <c r="D73" s="23" t="s">
+        <v>646</v>
+      </c>
+      <c r="E73" s="23" t="s">
+        <v>647</v>
+      </c>
+      <c r="F73" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G73" s="23" t="s">
+        <v>648</v>
+      </c>
+      <c r="H73" s="23" t="s">
+        <v>649</v>
+      </c>
+      <c r="I73" s="23" t="s">
+        <v>650</v>
+      </c>
+      <c r="J73" s="23" t="s">
+        <v>650</v>
+      </c>
+      <c r="K73" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L73" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M73" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="N73" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A74" s="22" t="s">
+        <v>643</v>
+      </c>
+      <c r="B74" s="23" t="s">
+        <v>644</v>
+      </c>
+      <c r="C74" s="23" t="s">
+        <v>691</v>
+      </c>
+      <c r="D74" s="23" t="s">
+        <v>692</v>
+      </c>
+      <c r="E74" s="23" t="s">
+        <v>693</v>
+      </c>
+      <c r="F74" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G74" s="23" t="s">
+        <v>694</v>
+      </c>
+      <c r="H74" s="23" t="s">
+        <v>649</v>
+      </c>
+      <c r="I74" s="23" t="s">
+        <v>650</v>
+      </c>
+      <c r="J74" s="23" t="s">
+        <v>650</v>
+      </c>
+      <c r="K74" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L74" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M74" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="N74" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>642</v>
       </c>
     </row>
   </sheetData>
@@ -8728,7 +9980,7 @@
         <v>387</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D9" s="23" t="s">
         <v>73</v>
@@ -8769,10 +10021,10 @@
         <v>69</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D10" s="23" t="s">
         <v>120</v>
@@ -9112,7 +10364,7 @@
         <v>388</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D18" s="23" t="s">
         <v>124</v>
@@ -9156,7 +10408,7 @@
         <v>388</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D19" s="23" t="s">
         <v>127</v>
@@ -11126,7 +12378,7 @@
         <v>97</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G8" s="23"/>
       <c r="H8" s="23" t="s">
@@ -11168,7 +12420,7 @@
         <v>97</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G9" s="23"/>
       <c r="H9" s="23" t="s">
@@ -11210,7 +12462,7 @@
         <v>97</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G10" s="23"/>
       <c r="H10" s="23" t="s">
@@ -11252,7 +12504,7 @@
         <v>97</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G11" s="23"/>
       <c r="H11" s="23" t="s">
@@ -11294,7 +12546,7 @@
         <v>97</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G12" s="23"/>
       <c r="H12" s="23" t="s">
@@ -11336,7 +12588,7 @@
         <v>97</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G13" s="23"/>
       <c r="H13" s="23" t="s">
@@ -11378,7 +12630,7 @@
         <v>97</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G14" s="23"/>
       <c r="H14" s="23" t="s">
@@ -11420,7 +12672,7 @@
         <v>97</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G15" s="23"/>
       <c r="H15" s="23" t="s">
@@ -11462,7 +12714,7 @@
         <v>97</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G16" s="23"/>
       <c r="H16" s="23" t="s">
@@ -11504,7 +12756,7 @@
         <v>97</v>
       </c>
       <c r="F17" s="23" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G17" s="23"/>
       <c r="H17" s="23" t="s">
@@ -11546,7 +12798,7 @@
         <v>377</v>
       </c>
       <c r="F18" s="23" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G18" s="23" t="s">
         <v>379</v>
@@ -11590,7 +12842,7 @@
         <v>376</v>
       </c>
       <c r="F19" s="23" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G19" s="23" t="s">
         <v>378</v>
@@ -11634,7 +12886,7 @@
         <v>382</v>
       </c>
       <c r="F20" s="23" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G20" s="23" t="s">
         <v>379</v>
@@ -11678,7 +12930,7 @@
         <v>383</v>
       </c>
       <c r="F21" s="23" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G21" s="23" t="s">
         <v>378</v>
@@ -11722,7 +12974,7 @@
         <v>327</v>
       </c>
       <c r="F22" s="23" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G22" s="23"/>
       <c r="H22" s="23" t="s">
@@ -11764,7 +13016,7 @@
         <v>172</v>
       </c>
       <c r="F23" s="23" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G23" s="23"/>
       <c r="H23" s="23" t="s">
@@ -11806,7 +13058,7 @@
         <v>273</v>
       </c>
       <c r="F24" s="23" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G24" s="23"/>
       <c r="H24" s="23" t="s">
@@ -11991,7 +13243,7 @@
         <v>97</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G8" s="23"/>
       <c r="H8" s="23" t="s">
@@ -12033,7 +13285,7 @@
         <v>97</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G9" s="23"/>
       <c r="H9" s="23" t="s">
@@ -12075,7 +13327,7 @@
         <v>97</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G10" s="23"/>
       <c r="H10" s="23" t="s">
@@ -12117,7 +13369,7 @@
         <v>97</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G11" s="23"/>
       <c r="H11" s="23" t="s">
@@ -12159,7 +13411,7 @@
         <v>97</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G12" s="23"/>
       <c r="H12" s="23" t="s">
@@ -12201,7 +13453,7 @@
         <v>97</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G13" s="23"/>
       <c r="H13" s="23" t="s">
@@ -12243,7 +13495,7 @@
         <v>97</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G14" s="23"/>
       <c r="H14" s="23" t="s">
@@ -12285,7 +13537,7 @@
         <v>97</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G15" s="23"/>
       <c r="H15" s="23" t="s">
@@ -12327,7 +13579,7 @@
         <v>97</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G16" s="23"/>
       <c r="H16" s="23" t="s">
@@ -12369,7 +13621,7 @@
         <v>97</v>
       </c>
       <c r="F17" s="23" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G17" s="23"/>
       <c r="H17" s="23" t="s">
@@ -12411,7 +13663,7 @@
         <v>27</v>
       </c>
       <c r="F18" s="23" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G18" s="23" t="s">
         <v>33</v>
@@ -12455,7 +13707,7 @@
         <v>28</v>
       </c>
       <c r="F19" s="23" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G19" s="23" t="s">
         <v>34</v>
@@ -12499,7 +13751,7 @@
         <v>29</v>
       </c>
       <c r="F20" s="23" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G20" s="23" t="s">
         <v>33</v>
@@ -12543,7 +13795,7 @@
         <v>30</v>
       </c>
       <c r="F21" s="23" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G21" s="23" t="s">
         <v>34</v>
@@ -12587,7 +13839,7 @@
         <v>326</v>
       </c>
       <c r="F22" s="23" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G22" s="23"/>
       <c r="H22" s="23" t="s">
@@ -12629,7 +13881,7 @@
         <v>172</v>
       </c>
       <c r="F23" s="23" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G23" s="23"/>
       <c r="H23" s="23" t="s">

--- a/Documentation/FHF_TestCases.xlsx
+++ b/Documentation/FHF_TestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Semester9\SEP490\fu-house-finder\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F38E785-4011-4022-85BE-80318F9CEEEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABDF48CD-DAA8-4B73-BA97-173538400708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="891" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2168" uniqueCount="695">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2321" uniqueCount="743">
   <si>
     <t>Project Name</t>
   </si>
@@ -2919,11 +2919,6 @@
     <t>Valid URL</t>
   </si>
   <si>
-    <t xml:space="preserve">Valid URL
-User stands on Page 2
-</t>
-  </si>
-  <si>
     <t>User sees the previous page of List of Houses</t>
   </si>
   <si>
@@ -2945,15 +2940,7 @@
     <t>1. Click on Cancel Order button</t>
   </si>
   <si>
-    <t xml:space="preserve">Valid URL
-User chosed 1 Campus in Filter
-</t>
-  </si>
-  <si>
     <t>System resets all Filter/Search/OrderBy values</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>TS_FHF_Home_013</t>
@@ -4022,6 +4009,1137 @@
       </rPr>
       <t>Không khép kín</t>
     </r>
+  </si>
+  <si>
+    <t>TS_FHF_Home_014</t>
+  </si>
+  <si>
+    <t>Verify the Create Order functionality of Home Page</t>
+  </si>
+  <si>
+    <t>TC_FHF_Home_CreateOrder_001</t>
+  </si>
+  <si>
+    <t>Enter valid data &amp; Click submit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valid URL;
+User stands on Page 2
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valid URL;
+User chosed 1 Campus in Filter
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Name: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Giang
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Phone Number: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0944961228</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Email: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nguyenthe.giang.775@gmail.com</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Order Content: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tôi cần 1 phòng giá rẻ trong bán kính 1km quanh Campus Hòa Lạc</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. Enter valid Name
+2. Enter valid Phone Number
+3. Enter valid Email
+4. Enter valid Order Content
+5. Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Gửi yêu cầu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Valid URL;
+Test Data;
+User clicked on button "</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Đăng ký yêu cầu phòng trọ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>";
+User logged in as Student</t>
+    </r>
+  </si>
+  <si>
+    <t>TC_FHF_Home_CreateOrder_002</t>
+  </si>
+  <si>
+    <r>
+      <t>1. Enter valid Name
+2. Enter invalid Phone Number
+3. Enter valid Email
+4. Enter valid Order Content
+5. Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Gửi yêu cầu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Name: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Giang
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Phone Number: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>abc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Email: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nguyenthe.giang.775@gmail.com</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Order Content: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tôi cần 1 phòng giá rẻ trong bán kính 1km quanh Campus Hòa Lạc</t>
+    </r>
+  </si>
+  <si>
+    <t>System displays a message indicating invalid data input;
+Submit button is disabled</t>
+  </si>
+  <si>
+    <t>User sees a red message below the invalid input;
+User failed to click on submit button</t>
+  </si>
+  <si>
+    <t>Enter invalid data &amp; Click submit</t>
+  </si>
+  <si>
+    <t>TC_FHF_Home_CreateOrder_003</t>
+  </si>
+  <si>
+    <t>TC_FHF_Home_CreateOrder_004</t>
+  </si>
+  <si>
+    <t>TC_FHF_Home_CreateOrder_005</t>
+  </si>
+  <si>
+    <t>TC_FHF_Home_CreateOrder_006</t>
+  </si>
+  <si>
+    <r>
+      <t>1. Enter valid Name
+2. Enter valid Phone Number
+3. Enter invalid Email
+4. Enter valid Order Content
+5. Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Gửi yêu cầu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Name: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Giang
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Phone Number: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>abc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Email: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>abc.com</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Order Content: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tôi cần 1 phòng giá rẻ trong bán kính 1km quanh Campus Hòa Lạc</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. Enter valid Name
+2. Enter invalid Phone Number
+3. Enter invalid Email
+4. Enter valid Order Content
+5. Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Gửi yêu cầu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Name: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Giang
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Phone Number: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0944961228</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Email: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>abc.com</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Order Content: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tôi cần 1 phòng giá rẻ trong bán kính 1km quanh Campus Hòa Lạc</t>
+    </r>
+  </si>
+  <si>
+    <t>Enter blank data &amp; Click submit</t>
+  </si>
+  <si>
+    <r>
+      <t>1. Leave Name blank
+2. Enter valid Phone Number
+3. Enter valid Email
+4. Enter valid Order Content
+5. Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Gửi yêu cầu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Name: blank</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Phone Number: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0944961228</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Email: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nguyenthe.giang.775@gmail.com</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Order Content: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tôi cần 1 phòng giá rẻ trong bán kính 1km quanh Campus Hòa Lạc</t>
+    </r>
+  </si>
+  <si>
+    <t>User failed to click on submit button</t>
+  </si>
+  <si>
+    <t>Submit button is disabled</t>
+  </si>
+  <si>
+    <r>
+      <t>1. Enter valid Name
+2. Leave Phone Number blank
+3. Enter valid Email
+4. Enter valid Order Content
+5. Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Gửi yêu cầu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Name: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Giang
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Phone Number: blank
+Email: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nguyenthe.giang.775@gmail.com</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Order Content: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tôi cần 1 phòng giá rẻ trong bán kính 1km quanh Campus Hòa Lạc</t>
+    </r>
+  </si>
+  <si>
+    <t>TC_FHF_Home_CreateOrder_007</t>
+  </si>
+  <si>
+    <r>
+      <t>1. Enter valid Name
+2. Enter valid Phone Number
+3. Leave Email blank
+4. Enter valid Order Content
+5. Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Gửi yêu cầu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Name: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Giang
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Phone Number: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0944961228</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Email: blank
+Order Content: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tôi cần 1 phòng giá rẻ trong bán kính 1km quanh Campus Hòa Lạc</t>
+    </r>
+  </si>
+  <si>
+    <t>TC_FHF_Home_CreateOrder_008</t>
+  </si>
+  <si>
+    <r>
+      <t>1. Enter valid Name
+2. Enter valid Phone Number
+3. Enter valid Email
+4. Leave Order Content blank
+5. Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Gửi yêu cầu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Name: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Giang
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Phone Number: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0944961228</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Email: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nguyenthe.giang.775@gmail.com</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Order Content: blank</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. Leave all inputs blank
+5. Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Gửi yêu cầu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button</t>
+    </r>
+  </si>
+  <si>
+    <t>TC_FHF_Home_CreateOrder_009</t>
+  </si>
+  <si>
+    <r>
+      <t>Name: blank</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Phone Number: blank
+Email: blank
+Order Content: blank</t>
+    </r>
+  </si>
+  <si>
+    <t>TC_FHF_Home_CreateOrder_010</t>
+  </si>
+  <si>
+    <t>User did not log in;
+Enter valid data &amp; Click submit</t>
+  </si>
+  <si>
+    <r>
+      <t>Valid URL;
+Test Data;
+User clicked on button "</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Đăng ký yêu cầu phòng trọ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>";</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>System displays Alert: "</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bạn phải đăng nhập để sử dụng tính năng này!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+Create Order form is closed</t>
+    </r>
+  </si>
+  <si>
+    <t>User sees an Alert indicating that user must log in</t>
+  </si>
+  <si>
+    <t>User sees an Alert indicating that Order is created successfully</t>
+  </si>
+  <si>
+    <r>
+      <t>System displays Alert: "</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Gửi đơn thành công</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>";
+Create Order form is closed</t>
+    </r>
+  </si>
+  <si>
+    <t>TC_FHF_Home_CreateOrder_011</t>
+  </si>
+  <si>
+    <t>Enter valid data &amp; Click cancel</t>
+  </si>
+  <si>
+    <r>
+      <t>1. Enter valid Name
+2. Enter valid Phone Number
+3. Enter valid Email
+4. Enter valid Order Content
+5. Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hủy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button</t>
+    </r>
+  </si>
+  <si>
+    <t>User sees that the form is closed</t>
+  </si>
+  <si>
+    <t>Create Order form is closed</t>
   </si>
 </sst>
 </file>
@@ -6701,20 +7819,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N80"/>
+  <dimension ref="A1:N86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G74" sqref="G74"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" customWidth="1"/>
     <col min="4" max="4" width="25.42578125" customWidth="1"/>
     <col min="5" max="5" width="31.140625" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
     <col min="7" max="7" width="26.140625" customWidth="1"/>
     <col min="8" max="8" width="27.42578125" customWidth="1"/>
     <col min="9" max="9" width="34" bestFit="1" customWidth="1"/>
@@ -6761,20 +7879,20 @@
         <v>334</v>
       </c>
       <c r="E3" s="16">
-        <f>COUNTIF(K8:K73,"Pass")</f>
-        <v>66</v>
+        <f>COUNTIF(K8:K86,"Pass")</f>
+        <v>78</v>
       </c>
       <c r="F3" s="16">
-        <f>COUNTIF(K8:K11,"Fail")</f>
+        <f>COUNTIF(K8:K86,"Fail")</f>
         <v>0</v>
       </c>
       <c r="G3" s="16">
-        <f>COUNTIF(K8:K11,"Untested")</f>
+        <f>COUNTIF(K8:K86,"Untested")</f>
         <v>0</v>
       </c>
       <c r="H3" s="16">
-        <f>COUNTA(K8:K11)</f>
-        <v>4</v>
+        <f>COUNTA(K8:K86)</f>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -7297,7 +8415,7 @@
         <v>31</v>
       </c>
       <c r="G18" s="23" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="H18" s="23" t="s">
         <v>454</v>
@@ -7341,7 +8459,7 @@
         <v>31</v>
       </c>
       <c r="G19" s="23" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="H19" s="23" t="s">
         <v>456</v>
@@ -7385,7 +8503,7 @@
         <v>31</v>
       </c>
       <c r="G20" s="23" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="H20" s="23" t="s">
         <v>460</v>
@@ -7429,7 +8547,7 @@
         <v>31</v>
       </c>
       <c r="G21" s="23" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="H21" s="23" t="s">
         <v>456</v>
@@ -7473,7 +8591,7 @@
         <v>31</v>
       </c>
       <c r="G22" s="23" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="H22" s="23" t="s">
         <v>456</v>
@@ -7517,7 +8635,7 @@
         <v>31</v>
       </c>
       <c r="G23" s="23" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="H23" s="23" t="s">
         <v>456</v>
@@ -7561,7 +8679,7 @@
         <v>31</v>
       </c>
       <c r="G24" s="23" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="H24" s="23" t="s">
         <v>456</v>
@@ -9189,7 +10307,7 @@
         <v>31</v>
       </c>
       <c r="G61" s="23" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="H61" s="23" t="s">
         <v>621</v>
@@ -9272,17 +10390,17 @@
         <v>630</v>
       </c>
       <c r="F63" s="23" t="s">
-        <v>632</v>
+        <v>696</v>
       </c>
       <c r="G63" s="23"/>
       <c r="H63" s="23" t="s">
+        <v>632</v>
+      </c>
+      <c r="I63" s="23" t="s">
         <v>633</v>
       </c>
-      <c r="I63" s="23" t="s">
-        <v>634</v>
-      </c>
       <c r="J63" s="23" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="K63" s="24" t="s">
         <v>39</v>
@@ -9299,32 +10417,32 @@
     </row>
     <row r="64" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A64" s="22" t="s">
+        <v>634</v>
+      </c>
+      <c r="B64" s="23" t="s">
         <v>635</v>
       </c>
-      <c r="B64" s="23" t="s">
+      <c r="C64" s="23" t="s">
         <v>636</v>
       </c>
-      <c r="C64" s="23" t="s">
+      <c r="D64" s="23" t="s">
         <v>637</v>
       </c>
-      <c r="D64" s="23" t="s">
+      <c r="E64" s="23" t="s">
         <v>638</v>
       </c>
-      <c r="E64" s="23" t="s">
-        <v>639</v>
-      </c>
       <c r="F64" s="23" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="G64" s="23"/>
       <c r="H64" s="23" t="s">
         <v>515</v>
       </c>
       <c r="I64" s="23" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="J64" s="23" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="K64" s="24" t="s">
         <v>39</v>
@@ -9341,34 +10459,34 @@
     </row>
     <row r="65" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A65" s="22" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="B65" s="23" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="C65" s="23" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="D65" s="23" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="E65" s="23" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="F65" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G65" s="23" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="H65" s="23" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="I65" s="23" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="J65" s="23" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="K65" s="24" t="s">
         <v>39</v>
@@ -9385,34 +10503,34 @@
     </row>
     <row r="66" spans="1:14" ht="150" x14ac:dyDescent="0.25">
       <c r="A66" s="22" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="B66" s="23" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="C66" s="23" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="D66" s="23" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="E66" s="23" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="F66" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G66" s="23" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="H66" s="23" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="I66" s="23" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="J66" s="23" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="K66" s="24" t="s">
         <v>39</v>
@@ -9429,34 +10547,34 @@
     </row>
     <row r="67" spans="1:14" ht="105" x14ac:dyDescent="0.25">
       <c r="A67" s="22" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="B67" s="23" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="C67" s="23" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="D67" s="23" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="E67" s="23" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F67" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G67" s="23" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="H67" s="23" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="I67" s="23" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="J67" s="23" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="K67" s="24" t="s">
         <v>39</v>
@@ -9473,34 +10591,34 @@
     </row>
     <row r="68" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A68" s="22" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="B68" s="23" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="C68" s="23" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="D68" s="23" t="s">
+        <v>652</v>
+      </c>
+      <c r="E68" s="23" t="s">
         <v>655</v>
-      </c>
-      <c r="E68" s="23" t="s">
-        <v>658</v>
       </c>
       <c r="F68" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G68" s="23" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="H68" s="23" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="I68" s="23" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="J68" s="23" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="K68" s="24" t="s">
         <v>39</v>
@@ -9517,34 +10635,34 @@
     </row>
     <row r="69" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A69" s="22" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="B69" s="23" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="C69" s="23" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="D69" s="23" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="E69" s="23" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="F69" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G69" s="23" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="H69" s="23" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="I69" s="23" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="J69" s="23" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="K69" s="24" t="s">
         <v>39</v>
@@ -9561,34 +10679,34 @@
     </row>
     <row r="70" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A70" s="22" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="B70" s="23" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="C70" s="23" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="D70" s="23" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="E70" s="23" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="F70" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G70" s="23" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="H70" s="23" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="I70" s="23" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="J70" s="23" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="K70" s="24" t="s">
         <v>39</v>
@@ -9605,34 +10723,34 @@
     </row>
     <row r="71" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A71" s="22" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="B71" s="23" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="C71" s="23" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="D71" s="23" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="E71" s="23" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F71" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G71" s="23" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="H71" s="23" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="I71" s="23" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="J71" s="23" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="K71" s="24" t="s">
         <v>39</v>
@@ -9649,34 +10767,34 @@
     </row>
     <row r="72" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" s="22" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="B72" s="23" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="C72" s="23" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="D72" s="23" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="E72" s="23" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="F72" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G72" s="23" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="H72" s="23" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="I72" s="23" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="J72" s="23" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="K72" s="24" t="s">
         <v>39</v>
@@ -9693,34 +10811,34 @@
     </row>
     <row r="73" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A73" s="22" t="s">
+        <v>640</v>
+      </c>
+      <c r="B73" s="23" t="s">
+        <v>641</v>
+      </c>
+      <c r="C73" s="23" t="s">
+        <v>687</v>
+      </c>
+      <c r="D73" s="23" t="s">
         <v>643</v>
       </c>
-      <c r="B73" s="23" t="s">
+      <c r="E73" s="23" t="s">
         <v>644</v>
-      </c>
-      <c r="C73" s="23" t="s">
-        <v>690</v>
-      </c>
-      <c r="D73" s="23" t="s">
-        <v>646</v>
-      </c>
-      <c r="E73" s="23" t="s">
-        <v>647</v>
       </c>
       <c r="F73" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G73" s="23" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="H73" s="23" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="I73" s="23" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="J73" s="23" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="K73" s="24" t="s">
         <v>39</v>
@@ -9737,34 +10855,34 @@
     </row>
     <row r="74" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A74" s="22" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="B74" s="23" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="C74" s="23" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="D74" s="23" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="E74" s="23" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="F74" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G74" s="23" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="H74" s="23" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="I74" s="23" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="J74" s="23" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="K74" s="24" t="s">
         <v>39</v>
@@ -9779,9 +10897,488 @@
         <v>40</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B80" t="s">
-        <v>642</v>
+    <row r="76" spans="1:14" ht="150" x14ac:dyDescent="0.25">
+      <c r="A76" s="22" t="s">
+        <v>692</v>
+      </c>
+      <c r="B76" s="23" t="s">
+        <v>693</v>
+      </c>
+      <c r="C76" s="23" t="s">
+        <v>694</v>
+      </c>
+      <c r="D76" s="23" t="s">
+        <v>695</v>
+      </c>
+      <c r="E76" s="23" t="s">
+        <v>699</v>
+      </c>
+      <c r="F76" s="23" t="s">
+        <v>700</v>
+      </c>
+      <c r="G76" s="23" t="s">
+        <v>698</v>
+      </c>
+      <c r="H76" s="23" t="s">
+        <v>736</v>
+      </c>
+      <c r="I76" s="23" t="s">
+        <v>737</v>
+      </c>
+      <c r="J76" s="23" t="s">
+        <v>737</v>
+      </c>
+      <c r="K76" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L76" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M76" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="N76" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" ht="135" x14ac:dyDescent="0.25">
+      <c r="A77" s="22" t="s">
+        <v>692</v>
+      </c>
+      <c r="B77" s="23" t="s">
+        <v>693</v>
+      </c>
+      <c r="C77" s="23" t="s">
+        <v>701</v>
+      </c>
+      <c r="D77" s="23" t="s">
+        <v>706</v>
+      </c>
+      <c r="E77" s="23" t="s">
+        <v>702</v>
+      </c>
+      <c r="F77" s="23" t="s">
+        <v>700</v>
+      </c>
+      <c r="G77" s="23" t="s">
+        <v>703</v>
+      </c>
+      <c r="H77" s="23" t="s">
+        <v>705</v>
+      </c>
+      <c r="I77" s="23" t="s">
+        <v>704</v>
+      </c>
+      <c r="J77" s="23" t="s">
+        <v>704</v>
+      </c>
+      <c r="K77" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L77" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M77" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="N77" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+      <c r="A78" s="22" t="s">
+        <v>692</v>
+      </c>
+      <c r="B78" s="23" t="s">
+        <v>693</v>
+      </c>
+      <c r="C78" s="23" t="s">
+        <v>707</v>
+      </c>
+      <c r="D78" s="23" t="s">
+        <v>706</v>
+      </c>
+      <c r="E78" s="23" t="s">
+        <v>711</v>
+      </c>
+      <c r="F78" s="23" t="s">
+        <v>700</v>
+      </c>
+      <c r="G78" s="23" t="s">
+        <v>714</v>
+      </c>
+      <c r="H78" s="23" t="s">
+        <v>705</v>
+      </c>
+      <c r="I78" s="23" t="s">
+        <v>704</v>
+      </c>
+      <c r="J78" s="23" t="s">
+        <v>704</v>
+      </c>
+      <c r="K78" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L78" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M78" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="N78" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+      <c r="A79" s="22" t="s">
+        <v>692</v>
+      </c>
+      <c r="B79" s="23" t="s">
+        <v>693</v>
+      </c>
+      <c r="C79" s="23" t="s">
+        <v>708</v>
+      </c>
+      <c r="D79" s="23" t="s">
+        <v>706</v>
+      </c>
+      <c r="E79" s="23" t="s">
+        <v>713</v>
+      </c>
+      <c r="F79" s="23" t="s">
+        <v>700</v>
+      </c>
+      <c r="G79" s="23" t="s">
+        <v>712</v>
+      </c>
+      <c r="H79" s="23" t="s">
+        <v>705</v>
+      </c>
+      <c r="I79" s="23" t="s">
+        <v>704</v>
+      </c>
+      <c r="J79" s="23" t="s">
+        <v>704</v>
+      </c>
+      <c r="K79" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L79" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M79" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="N79" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" ht="150" x14ac:dyDescent="0.25">
+      <c r="A80" s="22" t="s">
+        <v>692</v>
+      </c>
+      <c r="B80" s="23" t="s">
+        <v>693</v>
+      </c>
+      <c r="C80" s="23" t="s">
+        <v>709</v>
+      </c>
+      <c r="D80" s="23" t="s">
+        <v>715</v>
+      </c>
+      <c r="E80" s="23" t="s">
+        <v>716</v>
+      </c>
+      <c r="F80" s="23" t="s">
+        <v>700</v>
+      </c>
+      <c r="G80" s="23" t="s">
+        <v>717</v>
+      </c>
+      <c r="H80" s="23" t="s">
+        <v>718</v>
+      </c>
+      <c r="I80" s="23" t="s">
+        <v>719</v>
+      </c>
+      <c r="J80" s="23" t="s">
+        <v>719</v>
+      </c>
+      <c r="K80" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L80" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M80" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="N80" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" ht="135" x14ac:dyDescent="0.25">
+      <c r="A81" s="22" t="s">
+        <v>692</v>
+      </c>
+      <c r="B81" s="23" t="s">
+        <v>693</v>
+      </c>
+      <c r="C81" s="23" t="s">
+        <v>710</v>
+      </c>
+      <c r="D81" s="23" t="s">
+        <v>715</v>
+      </c>
+      <c r="E81" s="23" t="s">
+        <v>720</v>
+      </c>
+      <c r="F81" s="23" t="s">
+        <v>700</v>
+      </c>
+      <c r="G81" s="23" t="s">
+        <v>721</v>
+      </c>
+      <c r="H81" s="23" t="s">
+        <v>718</v>
+      </c>
+      <c r="I81" s="23" t="s">
+        <v>719</v>
+      </c>
+      <c r="J81" s="23" t="s">
+        <v>719</v>
+      </c>
+      <c r="K81" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L81" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M81" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="N81" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+      <c r="A82" s="22" t="s">
+        <v>692</v>
+      </c>
+      <c r="B82" s="23" t="s">
+        <v>693</v>
+      </c>
+      <c r="C82" s="23" t="s">
+        <v>722</v>
+      </c>
+      <c r="D82" s="23" t="s">
+        <v>715</v>
+      </c>
+      <c r="E82" s="23" t="s">
+        <v>723</v>
+      </c>
+      <c r="F82" s="23" t="s">
+        <v>700</v>
+      </c>
+      <c r="G82" s="23" t="s">
+        <v>724</v>
+      </c>
+      <c r="H82" s="23" t="s">
+        <v>718</v>
+      </c>
+      <c r="I82" s="23" t="s">
+        <v>719</v>
+      </c>
+      <c r="J82" s="23" t="s">
+        <v>719</v>
+      </c>
+      <c r="K82" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L82" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M82" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="N82" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+      <c r="A83" s="22" t="s">
+        <v>692</v>
+      </c>
+      <c r="B83" s="23" t="s">
+        <v>693</v>
+      </c>
+      <c r="C83" s="23" t="s">
+        <v>725</v>
+      </c>
+      <c r="D83" s="23" t="s">
+        <v>715</v>
+      </c>
+      <c r="E83" s="23" t="s">
+        <v>726</v>
+      </c>
+      <c r="F83" s="23" t="s">
+        <v>700</v>
+      </c>
+      <c r="G83" s="23" t="s">
+        <v>727</v>
+      </c>
+      <c r="H83" s="23" t="s">
+        <v>718</v>
+      </c>
+      <c r="I83" s="23" t="s">
+        <v>719</v>
+      </c>
+      <c r="J83" s="23" t="s">
+        <v>719</v>
+      </c>
+      <c r="K83" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L83" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M83" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="N83" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+      <c r="A84" s="22" t="s">
+        <v>692</v>
+      </c>
+      <c r="B84" s="23" t="s">
+        <v>693</v>
+      </c>
+      <c r="C84" s="23" t="s">
+        <v>729</v>
+      </c>
+      <c r="D84" s="23" t="s">
+        <v>715</v>
+      </c>
+      <c r="E84" s="23" t="s">
+        <v>728</v>
+      </c>
+      <c r="F84" s="23" t="s">
+        <v>700</v>
+      </c>
+      <c r="G84" s="23" t="s">
+        <v>730</v>
+      </c>
+      <c r="H84" s="23" t="s">
+        <v>718</v>
+      </c>
+      <c r="I84" s="23" t="s">
+        <v>719</v>
+      </c>
+      <c r="J84" s="23" t="s">
+        <v>719</v>
+      </c>
+      <c r="K84" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L84" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M84" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="N84" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" ht="150" x14ac:dyDescent="0.25">
+      <c r="A85" s="22" t="s">
+        <v>692</v>
+      </c>
+      <c r="B85" s="23" t="s">
+        <v>693</v>
+      </c>
+      <c r="C85" s="23" t="s">
+        <v>731</v>
+      </c>
+      <c r="D85" s="23" t="s">
+        <v>732</v>
+      </c>
+      <c r="E85" s="23" t="s">
+        <v>699</v>
+      </c>
+      <c r="F85" s="23" t="s">
+        <v>733</v>
+      </c>
+      <c r="G85" s="23" t="s">
+        <v>698</v>
+      </c>
+      <c r="H85" s="23" t="s">
+        <v>735</v>
+      </c>
+      <c r="I85" s="23" t="s">
+        <v>734</v>
+      </c>
+      <c r="J85" s="23" t="s">
+        <v>734</v>
+      </c>
+      <c r="K85" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L85" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M85" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="N85" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" ht="150" x14ac:dyDescent="0.25">
+      <c r="A86" s="22" t="s">
+        <v>692</v>
+      </c>
+      <c r="B86" s="23" t="s">
+        <v>693</v>
+      </c>
+      <c r="C86" s="23" t="s">
+        <v>738</v>
+      </c>
+      <c r="D86" s="23" t="s">
+        <v>739</v>
+      </c>
+      <c r="E86" s="23" t="s">
+        <v>740</v>
+      </c>
+      <c r="F86" s="23" t="s">
+        <v>733</v>
+      </c>
+      <c r="G86" s="23" t="s">
+        <v>698</v>
+      </c>
+      <c r="H86" s="23" t="s">
+        <v>741</v>
+      </c>
+      <c r="I86" s="23" t="s">
+        <v>742</v>
+      </c>
+      <c r="J86" s="23" t="s">
+        <v>742</v>
+      </c>
+      <c r="K86" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L86" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M86" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="N86" s="22" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/FHF_TestCases.xlsx
+++ b/Documentation/FHF_TestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Semester9\SEP490\fu-house-finder\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABDF48CD-DAA8-4B73-BA97-173538400708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0299CC96-CB4A-47A1-B8BD-D92A2F5E4D0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="891" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,12 +33,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2321" uniqueCount="743">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2601" uniqueCount="817">
   <si>
     <t>Project Name</t>
   </si>
@@ -5140,6 +5151,1982 @@
   </si>
   <si>
     <t>Create Order form is closed</t>
+  </si>
+  <si>
+    <t>TC_FHF_Home_CombineFunctions_011</t>
+  </si>
+  <si>
+    <t>Filter by Campus and House Utility</t>
+  </si>
+  <si>
+    <t>1. Select a Campus from the Dropdown
+2. Select a House Utility from list of House Utility</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Campus: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FU - Hòa Lạc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+House Utility: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Camera an ninh</t>
+    </r>
+  </si>
+  <si>
+    <t>TC_FHF_Home_CombineFunctions_012</t>
+  </si>
+  <si>
+    <t>Filter by Campus and Room Utility</t>
+  </si>
+  <si>
+    <t>1. Select a Campus from the Dropdown
+2. Select a Room Utility from list of Room Utility</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Campus: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FU - Hòa Lạc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Room Utility: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bếp</t>
+    </r>
+  </si>
+  <si>
+    <t>TC_FHF_Home_CombineFunctions_013</t>
+  </si>
+  <si>
+    <t>Filter by Campus and Rate</t>
+  </si>
+  <si>
+    <t>1. Select a Campus from the Dropdown
+2. Select a Rate from list of Rate</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Campus: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FU - Hòa Lạc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Rate: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <t>TC_FHF_Home_CombineFunctions_014</t>
+  </si>
+  <si>
+    <t>Filter by Campus and Order By</t>
+  </si>
+  <si>
+    <t>1. Select a Campus from the Dropdown
+2. Select an Order value from list of Order values</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Campus: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FU - Hòa Lạc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Order by: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Giá: Cao đến Thấp</t>
+    </r>
+  </si>
+  <si>
+    <t>TC_FHF_Home_CombineFunctions_015</t>
+  </si>
+  <si>
+    <t>Filter by Campus and Paging</t>
+  </si>
+  <si>
+    <t>1. Select a Campus from the Dropdown
+2. Click on a Page Number button</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Campus: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FU - Hòa Lạc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Page Number: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>Filter by Name, Campus, Order By and Paging</t>
+  </si>
+  <si>
+    <t>1. Select a Campus from the Dropdown
+2. Enter valid house name
+3. Press Enter key
+4. Select an Order value from Dropdown 
+5. Click on a Page Number button</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Campus: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">FU - Hòa Lạc
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>House name</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Order by: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Giá: Cao đến Thấp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Page Number: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>TC_FHF_Home_CombineFunctions_016</t>
+  </si>
+  <si>
+    <t>TC_FHF_Home_CombineFunctions_017</t>
+  </si>
+  <si>
+    <t>Filter by Region, Distance and Order By</t>
+  </si>
+  <si>
+    <t>TC_FHF_Home_CombineFunctions_018</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Campus: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FU - Hòa Lạc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+District: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Thạch Thất</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Province: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Thị trấn Liên Quan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Village: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Đồng Cam
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Distance - From:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Distance - To:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Order by: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Giá: Cao đến Thấp</t>
+    </r>
+  </si>
+  <si>
+    <t>Filter by Region, Distance and Price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Select a Campus from the Dropdown
+2. Choose a District from the Dropdown
+3. Choose a Province from the Dropdown
+4. Choose a Village from the Dropdown
+5. Input valid Distance - From
+6. Input valid Distance - To
+7. Click "Áp dụng"
+8. Select an Order value from Dropdown </t>
+  </si>
+  <si>
+    <t>1. Select a Campus from the Dropdown
+2. Choose a District from the Dropdown
+3. Choose a Province from the Dropdown
+4. Choose a Village from the Dropdown
+5. Input valid Distance - From
+6. Input valid Distance - To
+7. Click "Áp dụng"
+8. Input valid Price - From
+9. Input valid Price - To
+10. Click "Áp dụng"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Campus: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FU - Hòa Lạc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+District: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Thạch Thất</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Province: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Thị trấn Liên Quan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Village: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Đồng Cam
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Distance - From: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Distance - To:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Price - From: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2000000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Price - To: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3000000</t>
+    </r>
+  </si>
+  <si>
+    <t>TC_FHF_Home_CombineFunctions_019</t>
+  </si>
+  <si>
+    <t>Filter by Room Type, Room Utility, House Utility and Rate</t>
+  </si>
+  <si>
+    <t>1. Select a Room Type from list of Room Types
+2. Select a House Utility from list of House Utility
+3. Select 2 Room Utilities from list of Room Utility
+4. Select a Rate from list of Rate</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Room Type: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Không khép kín</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+House Utility: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Camera an ninh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Room Utility: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tủ lạnh, Bếp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Rate: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <t>TC_FHF_Home_CombineFunctions_020</t>
+  </si>
+  <si>
+    <t>Order By and Paging</t>
+  </si>
+  <si>
+    <t>1. Select an Order value from Dropdown 
+2. Click on a Page Number button</t>
+  </si>
+  <si>
+    <r>
+      <t>Order by:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Giá: Thấp đến Cao</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Page Number: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>Filter by Region and Distance</t>
+  </si>
+  <si>
+    <t>1. Select a Campus from the Dropdown
+2. Choose a District from the Dropdown
+3. Choose a Province from the Dropdown
+4. Choose a Village from the Dropdown
+5. Input valid Distance - From
+6. Input valid Distance - To
+7. Click "Áp dụng"</t>
+  </si>
+  <si>
+    <r>
+      <t>Campus:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> FU - Hòa Lạc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+District: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Thạch Thất</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Province: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Thị trấn Liên Quan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Village: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Đồng Cam</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Distance - From: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Distance - To: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>Filter by Region and Price</t>
+  </si>
+  <si>
+    <t>1. Select a Campus from the Dropdown
+2. Choose a District from the Dropdown
+3. Choose a Province from the Dropdown
+4. Choose a Village from the Dropdown
+5. Input valid Price - From
+6. Input valid Price - To
+7. Click "Áp dụng"</t>
+  </si>
+  <si>
+    <r>
+      <t>Campus:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> FU - Hòa Lạc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+District: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Thạch Thất</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Province: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Thị trấn Liên Quan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Village: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Đồng Cam</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Price - From: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1000000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Price - To: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2000000</t>
+    </r>
+  </si>
+  <si>
+    <t>Filter by Region and Room Type</t>
+  </si>
+  <si>
+    <t>1. Select a Campus from the Dropdown
+2. Choose a District from the Dropdown
+3. Choose a Province from the Dropdown
+4. Choose a Village from the Dropdown
+5. Select 2 Room Types from list of Room Types</t>
+  </si>
+  <si>
+    <r>
+      <t>Campus:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> FU - Hòa Lạc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+District: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Thạch Thất</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Province: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Thị trấn Liên Quan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Village: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Đồng Cam</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Room Type: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Khép kín; Chung cư mini</t>
+    </r>
+  </si>
+  <si>
+    <t>Filter by Region and House Utility</t>
+  </si>
+  <si>
+    <t>1. Select a Campus from the Dropdown
+2. Choose a District from the Dropdown
+3. Choose a Province from the Dropdown
+4. Choose a Village from the Dropdown
+5. Select 2 House Utility from list of House Utility</t>
+  </si>
+  <si>
+    <r>
+      <t>Campus:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> FU - Hòa Lạc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+District: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Thạch Thất</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Province: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Thị trấn Liên Quan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Village: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Đồng Cam</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+House Utility: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Camera an ninh; Chỗ để xe</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Select a Campus from the Dropdown
+2. Choose a District from the Dropdown
+3. Choose a Province from the Dropdown
+4. Choose a Village from the Dropdown
+5. Select all Room Utility from list of Room Utility</t>
+  </si>
+  <si>
+    <r>
+      <t>Campus:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> FU - Hòa Lạc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+District: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Thạch Thất</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Province: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Thị trấn Liên Quan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Village: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Đồng Cam</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Room Utility: all</t>
+    </r>
+  </si>
+  <si>
+    <t>TC_FHF_Home_CombineFunctions_021</t>
+  </si>
+  <si>
+    <t>Filter by Region and Rate</t>
+  </si>
+  <si>
+    <t>1. Select a Campus from the Dropdown
+2. Choose a District from the Dropdown
+3. Choose a Province from the Dropdown
+4. Choose a Village from the Dropdown
+5. Select a Rate from list of Rate</t>
+  </si>
+  <si>
+    <r>
+      <t>Campus:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> FU - Hòa Lạc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+District: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Thạch Thất</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Province: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Thị trấn Liên Quan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Village: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Đồng Cam</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Rate: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+  </si>
+  <si>
+    <t>TC_FHF_Home_CombineFunctions_022</t>
+  </si>
+  <si>
+    <t>Filter by Region and Order By</t>
+  </si>
+  <si>
+    <t>1. Select a Campus from the Dropdown
+2. Choose a District from the Dropdown
+3. Choose a Province from the Dropdown
+4. Choose a Village from the Dropdown
+5. Select an Order value from list of Order values</t>
+  </si>
+  <si>
+    <r>
+      <t>Campus:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> FU - Hòa Lạc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+District: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Thạch Thất</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Province: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Thị trấn Liên Quan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Village: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Đồng Cam</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Order by: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Khoảng cách: Xa đến Gần</t>
+    </r>
+  </si>
+  <si>
+    <t>TC_FHF_Home_CombineFunctions_023</t>
+  </si>
+  <si>
+    <t>Filter by Region and Paging</t>
+  </si>
+  <si>
+    <t>1. Select a Campus from the Dropdown
+2. Choose a District from the Dropdown
+3. Choose a Province from the Dropdown
+4. Choose a Village from the Dropdown
+5.Click on Next Page button</t>
+  </si>
+  <si>
+    <r>
+      <t>Campus:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> FU - Hòa Lạc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+District: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Thạch Thất</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Province: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Thị trấn Liên Quan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Village: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Đồng Cam</t>
+    </r>
+  </si>
+  <si>
+    <t>TC_FHF_Home_CombineFunctions_024</t>
+  </si>
+  <si>
+    <t>Filter by Distance and Price</t>
+  </si>
+  <si>
+    <t>TC_FHF_Home_CombineFunctions_025</t>
+  </si>
+  <si>
+    <t>Filter by Distance and Room Type</t>
+  </si>
+  <si>
+    <t>1. Select a Campus from the Dropdown
+2. Input valid Distance - From
+3. Input valid Distance - To
+4. Click "Áp dụng"
+5. Input valid Price - From
+6. Input valid Price - To
+7. Click "Áp dụng"</t>
+  </si>
+  <si>
+    <t>1. Select a Campus from the Dropdown
+2. Input valid Distance - From
+3. Input valid Distance - To
+4. Click "Áp dụng"
+5. Select a Room Type from list of Room Types</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Campus: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FU - Hòa Lạc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Distance - From: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Distance - To: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Price - From: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2000000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Price - To: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3000000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Campus:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> FU - Hòa Lạc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Distance - From: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Distance - To: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Room Type: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Không khép kín</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -7819,10 +9806,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N86"/>
+  <dimension ref="A1:N105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7879,20 +9866,20 @@
         <v>334</v>
       </c>
       <c r="E3" s="16">
-        <f>COUNTIF(K8:K86,"Pass")</f>
-        <v>78</v>
+        <f>COUNTIF(K8:K105,"Pass")</f>
+        <v>98</v>
       </c>
       <c r="F3" s="16">
-        <f>COUNTIF(K8:K86,"Fail")</f>
+        <f>COUNTIF(K8:K105,"Fail")</f>
         <v>0</v>
       </c>
       <c r="G3" s="16">
-        <f>COUNTIF(K8:K86,"Untested")</f>
+        <f>COUNTIF(K8:K105,"Untested")</f>
         <v>0</v>
       </c>
       <c r="H3" s="16">
-        <f>COUNTA(K8:K86)</f>
-        <v>78</v>
+        <f>COUNTA(K8:K105)</f>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -10415,7 +12402,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="64" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A64" s="22" t="s">
         <v>634</v>
       </c>
@@ -10897,36 +12884,80 @@
         <v>40</v>
       </c>
     </row>
-    <row r="76" spans="1:14" ht="150" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A75" s="22" t="s">
+        <v>640</v>
+      </c>
+      <c r="B75" s="23" t="s">
+        <v>641</v>
+      </c>
+      <c r="C75" s="23" t="s">
+        <v>743</v>
+      </c>
+      <c r="D75" s="23" t="s">
+        <v>744</v>
+      </c>
+      <c r="E75" s="23" t="s">
+        <v>745</v>
+      </c>
+      <c r="F75" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G75" s="23" t="s">
+        <v>746</v>
+      </c>
+      <c r="H75" s="23" t="s">
+        <v>646</v>
+      </c>
+      <c r="I75" s="23" t="s">
+        <v>647</v>
+      </c>
+      <c r="J75" s="23" t="s">
+        <v>647</v>
+      </c>
+      <c r="K75" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L75" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M75" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="N75" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A76" s="22" t="s">
-        <v>692</v>
+        <v>640</v>
       </c>
       <c r="B76" s="23" t="s">
-        <v>693</v>
+        <v>641</v>
       </c>
       <c r="C76" s="23" t="s">
-        <v>694</v>
+        <v>747</v>
       </c>
       <c r="D76" s="23" t="s">
-        <v>695</v>
+        <v>748</v>
       </c>
       <c r="E76" s="23" t="s">
-        <v>699</v>
+        <v>749</v>
       </c>
       <c r="F76" s="23" t="s">
-        <v>700</v>
+        <v>31</v>
       </c>
       <c r="G76" s="23" t="s">
-        <v>698</v>
+        <v>750</v>
       </c>
       <c r="H76" s="23" t="s">
-        <v>736</v>
+        <v>646</v>
       </c>
       <c r="I76" s="23" t="s">
-        <v>737</v>
+        <v>647</v>
       </c>
       <c r="J76" s="23" t="s">
-        <v>737</v>
+        <v>647</v>
       </c>
       <c r="K76" s="24" t="s">
         <v>39</v>
@@ -10941,36 +12972,36 @@
         <v>40</v>
       </c>
     </row>
-    <row r="77" spans="1:14" ht="135" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A77" s="22" t="s">
-        <v>692</v>
+        <v>640</v>
       </c>
       <c r="B77" s="23" t="s">
-        <v>693</v>
+        <v>641</v>
       </c>
       <c r="C77" s="23" t="s">
-        <v>701</v>
+        <v>751</v>
       </c>
       <c r="D77" s="23" t="s">
-        <v>706</v>
+        <v>752</v>
       </c>
       <c r="E77" s="23" t="s">
-        <v>702</v>
+        <v>753</v>
       </c>
       <c r="F77" s="23" t="s">
-        <v>700</v>
+        <v>31</v>
       </c>
       <c r="G77" s="23" t="s">
-        <v>703</v>
+        <v>754</v>
       </c>
       <c r="H77" s="23" t="s">
-        <v>705</v>
+        <v>646</v>
       </c>
       <c r="I77" s="23" t="s">
-        <v>704</v>
+        <v>647</v>
       </c>
       <c r="J77" s="23" t="s">
-        <v>704</v>
+        <v>647</v>
       </c>
       <c r="K77" s="24" t="s">
         <v>39</v>
@@ -10985,36 +13016,36 @@
         <v>40</v>
       </c>
     </row>
-    <row r="78" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A78" s="22" t="s">
-        <v>692</v>
+        <v>640</v>
       </c>
       <c r="B78" s="23" t="s">
-        <v>693</v>
+        <v>641</v>
       </c>
       <c r="C78" s="23" t="s">
-        <v>707</v>
+        <v>755</v>
       </c>
       <c r="D78" s="23" t="s">
-        <v>706</v>
+        <v>756</v>
       </c>
       <c r="E78" s="23" t="s">
-        <v>711</v>
+        <v>757</v>
       </c>
       <c r="F78" s="23" t="s">
-        <v>700</v>
+        <v>31</v>
       </c>
       <c r="G78" s="23" t="s">
-        <v>714</v>
+        <v>758</v>
       </c>
       <c r="H78" s="23" t="s">
-        <v>705</v>
+        <v>646</v>
       </c>
       <c r="I78" s="23" t="s">
-        <v>704</v>
+        <v>647</v>
       </c>
       <c r="J78" s="23" t="s">
-        <v>704</v>
+        <v>647</v>
       </c>
       <c r="K78" s="24" t="s">
         <v>39</v>
@@ -11029,36 +13060,36 @@
         <v>40</v>
       </c>
     </row>
-    <row r="79" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A79" s="22" t="s">
-        <v>692</v>
+        <v>640</v>
       </c>
       <c r="B79" s="23" t="s">
-        <v>693</v>
+        <v>641</v>
       </c>
       <c r="C79" s="23" t="s">
-        <v>708</v>
+        <v>759</v>
       </c>
       <c r="D79" s="23" t="s">
-        <v>706</v>
+        <v>760</v>
       </c>
       <c r="E79" s="23" t="s">
-        <v>713</v>
+        <v>761</v>
       </c>
       <c r="F79" s="23" t="s">
-        <v>700</v>
+        <v>31</v>
       </c>
       <c r="G79" s="23" t="s">
-        <v>712</v>
+        <v>762</v>
       </c>
       <c r="H79" s="23" t="s">
-        <v>705</v>
+        <v>646</v>
       </c>
       <c r="I79" s="23" t="s">
-        <v>704</v>
+        <v>647</v>
       </c>
       <c r="J79" s="23" t="s">
-        <v>704</v>
+        <v>647</v>
       </c>
       <c r="K79" s="24" t="s">
         <v>39</v>
@@ -11073,36 +13104,36 @@
         <v>40</v>
       </c>
     </row>
-    <row r="80" spans="1:14" ht="150" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" ht="165" x14ac:dyDescent="0.25">
       <c r="A80" s="22" t="s">
-        <v>692</v>
+        <v>640</v>
       </c>
       <c r="B80" s="23" t="s">
-        <v>693</v>
+        <v>641</v>
       </c>
       <c r="C80" s="23" t="s">
-        <v>709</v>
+        <v>766</v>
       </c>
       <c r="D80" s="23" t="s">
-        <v>715</v>
+        <v>783</v>
       </c>
       <c r="E80" s="23" t="s">
-        <v>716</v>
+        <v>784</v>
       </c>
       <c r="F80" s="23" t="s">
-        <v>700</v>
+        <v>31</v>
       </c>
       <c r="G80" s="23" t="s">
-        <v>717</v>
+        <v>785</v>
       </c>
       <c r="H80" s="23" t="s">
-        <v>718</v>
+        <v>646</v>
       </c>
       <c r="I80" s="23" t="s">
-        <v>719</v>
+        <v>647</v>
       </c>
       <c r="J80" s="23" t="s">
-        <v>719</v>
+        <v>647</v>
       </c>
       <c r="K80" s="24" t="s">
         <v>39</v>
@@ -11117,36 +13148,36 @@
         <v>40</v>
       </c>
     </row>
-    <row r="81" spans="1:14" ht="135" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" ht="165" x14ac:dyDescent="0.25">
       <c r="A81" s="22" t="s">
-        <v>692</v>
+        <v>640</v>
       </c>
       <c r="B81" s="23" t="s">
-        <v>693</v>
+        <v>641</v>
       </c>
       <c r="C81" s="23" t="s">
-        <v>710</v>
+        <v>767</v>
       </c>
       <c r="D81" s="23" t="s">
-        <v>715</v>
+        <v>786</v>
       </c>
       <c r="E81" s="23" t="s">
-        <v>720</v>
+        <v>787</v>
       </c>
       <c r="F81" s="23" t="s">
-        <v>700</v>
+        <v>31</v>
       </c>
       <c r="G81" s="23" t="s">
-        <v>721</v>
+        <v>788</v>
       </c>
       <c r="H81" s="23" t="s">
-        <v>718</v>
+        <v>646</v>
       </c>
       <c r="I81" s="23" t="s">
-        <v>719</v>
+        <v>647</v>
       </c>
       <c r="J81" s="23" t="s">
-        <v>719</v>
+        <v>647</v>
       </c>
       <c r="K81" s="24" t="s">
         <v>39</v>
@@ -11161,36 +13192,36 @@
         <v>40</v>
       </c>
     </row>
-    <row r="82" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" ht="150" x14ac:dyDescent="0.25">
       <c r="A82" s="22" t="s">
-        <v>692</v>
+        <v>640</v>
       </c>
       <c r="B82" s="23" t="s">
-        <v>693</v>
+        <v>641</v>
       </c>
       <c r="C82" s="23" t="s">
-        <v>722</v>
+        <v>769</v>
       </c>
       <c r="D82" s="23" t="s">
-        <v>715</v>
+        <v>789</v>
       </c>
       <c r="E82" s="23" t="s">
-        <v>723</v>
+        <v>790</v>
       </c>
       <c r="F82" s="23" t="s">
-        <v>700</v>
+        <v>31</v>
       </c>
       <c r="G82" s="23" t="s">
-        <v>724</v>
+        <v>791</v>
       </c>
       <c r="H82" s="23" t="s">
-        <v>718</v>
+        <v>646</v>
       </c>
       <c r="I82" s="23" t="s">
-        <v>719</v>
+        <v>647</v>
       </c>
       <c r="J82" s="23" t="s">
-        <v>719</v>
+        <v>647</v>
       </c>
       <c r="K82" s="24" t="s">
         <v>39</v>
@@ -11205,36 +13236,36 @@
         <v>40</v>
       </c>
     </row>
-    <row r="83" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" ht="150" x14ac:dyDescent="0.25">
       <c r="A83" s="22" t="s">
-        <v>692</v>
+        <v>640</v>
       </c>
       <c r="B83" s="23" t="s">
-        <v>693</v>
+        <v>641</v>
       </c>
       <c r="C83" s="23" t="s">
-        <v>725</v>
+        <v>775</v>
       </c>
       <c r="D83" s="23" t="s">
-        <v>715</v>
+        <v>792</v>
       </c>
       <c r="E83" s="23" t="s">
-        <v>726</v>
+        <v>793</v>
       </c>
       <c r="F83" s="23" t="s">
-        <v>700</v>
+        <v>31</v>
       </c>
       <c r="G83" s="23" t="s">
-        <v>727</v>
+        <v>794</v>
       </c>
       <c r="H83" s="23" t="s">
-        <v>718</v>
+        <v>646</v>
       </c>
       <c r="I83" s="23" t="s">
-        <v>719</v>
+        <v>647</v>
       </c>
       <c r="J83" s="23" t="s">
-        <v>719</v>
+        <v>647</v>
       </c>
       <c r="K83" s="24" t="s">
         <v>39</v>
@@ -11249,36 +13280,36 @@
         <v>40</v>
       </c>
     </row>
-    <row r="84" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" ht="150" x14ac:dyDescent="0.25">
       <c r="A84" s="22" t="s">
-        <v>692</v>
+        <v>640</v>
       </c>
       <c r="B84" s="23" t="s">
-        <v>693</v>
+        <v>641</v>
       </c>
       <c r="C84" s="23" t="s">
-        <v>729</v>
+        <v>779</v>
       </c>
       <c r="D84" s="23" t="s">
-        <v>715</v>
+        <v>792</v>
       </c>
       <c r="E84" s="23" t="s">
-        <v>728</v>
+        <v>795</v>
       </c>
       <c r="F84" s="23" t="s">
-        <v>700</v>
+        <v>31</v>
       </c>
       <c r="G84" s="23" t="s">
-        <v>730</v>
+        <v>796</v>
       </c>
       <c r="H84" s="23" t="s">
-        <v>718</v>
+        <v>646</v>
       </c>
       <c r="I84" s="23" t="s">
-        <v>719</v>
+        <v>647</v>
       </c>
       <c r="J84" s="23" t="s">
-        <v>719</v>
+        <v>647</v>
       </c>
       <c r="K84" s="24" t="s">
         <v>39</v>
@@ -11293,36 +13324,36 @@
         <v>40</v>
       </c>
     </row>
-    <row r="85" spans="1:14" ht="150" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" ht="135" x14ac:dyDescent="0.25">
       <c r="A85" s="22" t="s">
-        <v>692</v>
+        <v>640</v>
       </c>
       <c r="B85" s="23" t="s">
-        <v>693</v>
+        <v>641</v>
       </c>
       <c r="C85" s="23" t="s">
-        <v>731</v>
+        <v>797</v>
       </c>
       <c r="D85" s="23" t="s">
-        <v>732</v>
+        <v>798</v>
       </c>
       <c r="E85" s="23" t="s">
-        <v>699</v>
+        <v>799</v>
       </c>
       <c r="F85" s="23" t="s">
-        <v>733</v>
+        <v>31</v>
       </c>
       <c r="G85" s="23" t="s">
-        <v>698</v>
+        <v>800</v>
       </c>
       <c r="H85" s="23" t="s">
-        <v>735</v>
+        <v>646</v>
       </c>
       <c r="I85" s="23" t="s">
-        <v>734</v>
+        <v>647</v>
       </c>
       <c r="J85" s="23" t="s">
-        <v>734</v>
+        <v>647</v>
       </c>
       <c r="K85" s="24" t="s">
         <v>39</v>
@@ -11339,34 +13370,34 @@
     </row>
     <row r="86" spans="1:14" ht="150" x14ac:dyDescent="0.25">
       <c r="A86" s="22" t="s">
-        <v>692</v>
+        <v>640</v>
       </c>
       <c r="B86" s="23" t="s">
-        <v>693</v>
+        <v>641</v>
       </c>
       <c r="C86" s="23" t="s">
-        <v>738</v>
+        <v>801</v>
       </c>
       <c r="D86" s="23" t="s">
-        <v>739</v>
+        <v>802</v>
       </c>
       <c r="E86" s="23" t="s">
-        <v>740</v>
+        <v>803</v>
       </c>
       <c r="F86" s="23" t="s">
-        <v>733</v>
+        <v>31</v>
       </c>
       <c r="G86" s="23" t="s">
-        <v>698</v>
+        <v>804</v>
       </c>
       <c r="H86" s="23" t="s">
-        <v>741</v>
+        <v>646</v>
       </c>
       <c r="I86" s="23" t="s">
-        <v>742</v>
+        <v>647</v>
       </c>
       <c r="J86" s="23" t="s">
-        <v>742</v>
+        <v>647</v>
       </c>
       <c r="K86" s="24" t="s">
         <v>39</v>
@@ -11378,6 +13409,842 @@
         <v>334</v>
       </c>
       <c r="N86" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" ht="135" x14ac:dyDescent="0.25">
+      <c r="A87" s="22" t="s">
+        <v>640</v>
+      </c>
+      <c r="B87" s="23" t="s">
+        <v>641</v>
+      </c>
+      <c r="C87" s="23" t="s">
+        <v>805</v>
+      </c>
+      <c r="D87" s="23" t="s">
+        <v>806</v>
+      </c>
+      <c r="E87" s="23" t="s">
+        <v>807</v>
+      </c>
+      <c r="F87" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G87" s="23" t="s">
+        <v>808</v>
+      </c>
+      <c r="H87" s="23" t="s">
+        <v>646</v>
+      </c>
+      <c r="I87" s="23" t="s">
+        <v>647</v>
+      </c>
+      <c r="J87" s="23" t="s">
+        <v>647</v>
+      </c>
+      <c r="K87" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L87" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M87" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="N87" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+      <c r="A88" s="22" t="s">
+        <v>640</v>
+      </c>
+      <c r="B88" s="23" t="s">
+        <v>641</v>
+      </c>
+      <c r="C88" s="23" t="s">
+        <v>809</v>
+      </c>
+      <c r="D88" s="23" t="s">
+        <v>810</v>
+      </c>
+      <c r="E88" s="23" t="s">
+        <v>813</v>
+      </c>
+      <c r="F88" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G88" s="23" t="s">
+        <v>815</v>
+      </c>
+      <c r="H88" s="23" t="s">
+        <v>646</v>
+      </c>
+      <c r="I88" s="23" t="s">
+        <v>647</v>
+      </c>
+      <c r="J88" s="23" t="s">
+        <v>647</v>
+      </c>
+      <c r="K88" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L88" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M88" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="N88" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+      <c r="A89" s="22" t="s">
+        <v>640</v>
+      </c>
+      <c r="B89" s="23" t="s">
+        <v>641</v>
+      </c>
+      <c r="C89" s="23" t="s">
+        <v>811</v>
+      </c>
+      <c r="D89" s="23" t="s">
+        <v>812</v>
+      </c>
+      <c r="E89" s="23" t="s">
+        <v>814</v>
+      </c>
+      <c r="F89" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G89" s="23" t="s">
+        <v>816</v>
+      </c>
+      <c r="H89" s="23" t="s">
+        <v>646</v>
+      </c>
+      <c r="I89" s="23" t="s">
+        <v>647</v>
+      </c>
+      <c r="J89" s="23" t="s">
+        <v>647</v>
+      </c>
+      <c r="K89" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L89" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M89" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="N89" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+      <c r="A90" s="22" t="s">
+        <v>640</v>
+      </c>
+      <c r="B90" s="23" t="s">
+        <v>641</v>
+      </c>
+      <c r="C90" s="23" t="s">
+        <v>766</v>
+      </c>
+      <c r="D90" s="23" t="s">
+        <v>763</v>
+      </c>
+      <c r="E90" s="23" t="s">
+        <v>764</v>
+      </c>
+      <c r="F90" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G90" s="23" t="s">
+        <v>765</v>
+      </c>
+      <c r="H90" s="23" t="s">
+        <v>646</v>
+      </c>
+      <c r="I90" s="23" t="s">
+        <v>647</v>
+      </c>
+      <c r="J90" s="23" t="s">
+        <v>647</v>
+      </c>
+      <c r="K90" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L90" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M90" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="N90" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" ht="195" x14ac:dyDescent="0.25">
+      <c r="A91" s="22" t="s">
+        <v>640</v>
+      </c>
+      <c r="B91" s="23" t="s">
+        <v>641</v>
+      </c>
+      <c r="C91" s="23" t="s">
+        <v>767</v>
+      </c>
+      <c r="D91" s="23" t="s">
+        <v>768</v>
+      </c>
+      <c r="E91" s="23" t="s">
+        <v>772</v>
+      </c>
+      <c r="F91" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G91" s="23" t="s">
+        <v>770</v>
+      </c>
+      <c r="H91" s="23" t="s">
+        <v>646</v>
+      </c>
+      <c r="I91" s="23" t="s">
+        <v>647</v>
+      </c>
+      <c r="J91" s="23" t="s">
+        <v>647</v>
+      </c>
+      <c r="K91" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L91" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M91" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="N91" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" ht="210" x14ac:dyDescent="0.25">
+      <c r="A92" s="22" t="s">
+        <v>640</v>
+      </c>
+      <c r="B92" s="23" t="s">
+        <v>641</v>
+      </c>
+      <c r="C92" s="23" t="s">
+        <v>769</v>
+      </c>
+      <c r="D92" s="23" t="s">
+        <v>771</v>
+      </c>
+      <c r="E92" s="23" t="s">
+        <v>773</v>
+      </c>
+      <c r="F92" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G92" s="23" t="s">
+        <v>774</v>
+      </c>
+      <c r="H92" s="23" t="s">
+        <v>646</v>
+      </c>
+      <c r="I92" s="23" t="s">
+        <v>647</v>
+      </c>
+      <c r="J92" s="23" t="s">
+        <v>647</v>
+      </c>
+      <c r="K92" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L92" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M92" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="N92" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+      <c r="A93" s="22" t="s">
+        <v>640</v>
+      </c>
+      <c r="B93" s="23" t="s">
+        <v>641</v>
+      </c>
+      <c r="C93" s="23" t="s">
+        <v>775</v>
+      </c>
+      <c r="D93" s="23" t="s">
+        <v>776</v>
+      </c>
+      <c r="E93" s="23" t="s">
+        <v>777</v>
+      </c>
+      <c r="F93" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G93" s="23" t="s">
+        <v>778</v>
+      </c>
+      <c r="H93" s="23" t="s">
+        <v>646</v>
+      </c>
+      <c r="I93" s="23" t="s">
+        <v>647</v>
+      </c>
+      <c r="J93" s="23" t="s">
+        <v>647</v>
+      </c>
+      <c r="K93" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L93" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M93" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="N93" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A94" s="22" t="s">
+        <v>640</v>
+      </c>
+      <c r="B94" s="23" t="s">
+        <v>641</v>
+      </c>
+      <c r="C94" s="23" t="s">
+        <v>779</v>
+      </c>
+      <c r="D94" s="23" t="s">
+        <v>780</v>
+      </c>
+      <c r="E94" s="23" t="s">
+        <v>781</v>
+      </c>
+      <c r="F94" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G94" s="23" t="s">
+        <v>782</v>
+      </c>
+      <c r="H94" s="23" t="s">
+        <v>646</v>
+      </c>
+      <c r="I94" s="23" t="s">
+        <v>647</v>
+      </c>
+      <c r="J94" s="23" t="s">
+        <v>647</v>
+      </c>
+      <c r="K94" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L94" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M94" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="N94" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" ht="150" x14ac:dyDescent="0.25">
+      <c r="A95" s="22" t="s">
+        <v>692</v>
+      </c>
+      <c r="B95" s="23" t="s">
+        <v>693</v>
+      </c>
+      <c r="C95" s="23" t="s">
+        <v>694</v>
+      </c>
+      <c r="D95" s="23" t="s">
+        <v>695</v>
+      </c>
+      <c r="E95" s="23" t="s">
+        <v>699</v>
+      </c>
+      <c r="F95" s="23" t="s">
+        <v>700</v>
+      </c>
+      <c r="G95" s="23" t="s">
+        <v>698</v>
+      </c>
+      <c r="H95" s="23" t="s">
+        <v>736</v>
+      </c>
+      <c r="I95" s="23" t="s">
+        <v>737</v>
+      </c>
+      <c r="J95" s="23" t="s">
+        <v>737</v>
+      </c>
+      <c r="K95" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L95" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M95" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="N95" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" ht="135" x14ac:dyDescent="0.25">
+      <c r="A96" s="22" t="s">
+        <v>692</v>
+      </c>
+      <c r="B96" s="23" t="s">
+        <v>693</v>
+      </c>
+      <c r="C96" s="23" t="s">
+        <v>701</v>
+      </c>
+      <c r="D96" s="23" t="s">
+        <v>706</v>
+      </c>
+      <c r="E96" s="23" t="s">
+        <v>702</v>
+      </c>
+      <c r="F96" s="23" t="s">
+        <v>700</v>
+      </c>
+      <c r="G96" s="23" t="s">
+        <v>703</v>
+      </c>
+      <c r="H96" s="23" t="s">
+        <v>705</v>
+      </c>
+      <c r="I96" s="23" t="s">
+        <v>704</v>
+      </c>
+      <c r="J96" s="23" t="s">
+        <v>704</v>
+      </c>
+      <c r="K96" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L96" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M96" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="N96" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+      <c r="A97" s="22" t="s">
+        <v>692</v>
+      </c>
+      <c r="B97" s="23" t="s">
+        <v>693</v>
+      </c>
+      <c r="C97" s="23" t="s">
+        <v>707</v>
+      </c>
+      <c r="D97" s="23" t="s">
+        <v>706</v>
+      </c>
+      <c r="E97" s="23" t="s">
+        <v>711</v>
+      </c>
+      <c r="F97" s="23" t="s">
+        <v>700</v>
+      </c>
+      <c r="G97" s="23" t="s">
+        <v>714</v>
+      </c>
+      <c r="H97" s="23" t="s">
+        <v>705</v>
+      </c>
+      <c r="I97" s="23" t="s">
+        <v>704</v>
+      </c>
+      <c r="J97" s="23" t="s">
+        <v>704</v>
+      </c>
+      <c r="K97" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L97" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M97" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="N97" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+      <c r="A98" s="22" t="s">
+        <v>692</v>
+      </c>
+      <c r="B98" s="23" t="s">
+        <v>693</v>
+      </c>
+      <c r="C98" s="23" t="s">
+        <v>708</v>
+      </c>
+      <c r="D98" s="23" t="s">
+        <v>706</v>
+      </c>
+      <c r="E98" s="23" t="s">
+        <v>713</v>
+      </c>
+      <c r="F98" s="23" t="s">
+        <v>700</v>
+      </c>
+      <c r="G98" s="23" t="s">
+        <v>712</v>
+      </c>
+      <c r="H98" s="23" t="s">
+        <v>705</v>
+      </c>
+      <c r="I98" s="23" t="s">
+        <v>704</v>
+      </c>
+      <c r="J98" s="23" t="s">
+        <v>704</v>
+      </c>
+      <c r="K98" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L98" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M98" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="N98" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" ht="150" x14ac:dyDescent="0.25">
+      <c r="A99" s="22" t="s">
+        <v>692</v>
+      </c>
+      <c r="B99" s="23" t="s">
+        <v>693</v>
+      </c>
+      <c r="C99" s="23" t="s">
+        <v>709</v>
+      </c>
+      <c r="D99" s="23" t="s">
+        <v>715</v>
+      </c>
+      <c r="E99" s="23" t="s">
+        <v>716</v>
+      </c>
+      <c r="F99" s="23" t="s">
+        <v>700</v>
+      </c>
+      <c r="G99" s="23" t="s">
+        <v>717</v>
+      </c>
+      <c r="H99" s="23" t="s">
+        <v>718</v>
+      </c>
+      <c r="I99" s="23" t="s">
+        <v>719</v>
+      </c>
+      <c r="J99" s="23" t="s">
+        <v>719</v>
+      </c>
+      <c r="K99" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L99" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M99" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="N99" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" ht="135" x14ac:dyDescent="0.25">
+      <c r="A100" s="22" t="s">
+        <v>692</v>
+      </c>
+      <c r="B100" s="23" t="s">
+        <v>693</v>
+      </c>
+      <c r="C100" s="23" t="s">
+        <v>710</v>
+      </c>
+      <c r="D100" s="23" t="s">
+        <v>715</v>
+      </c>
+      <c r="E100" s="23" t="s">
+        <v>720</v>
+      </c>
+      <c r="F100" s="23" t="s">
+        <v>700</v>
+      </c>
+      <c r="G100" s="23" t="s">
+        <v>721</v>
+      </c>
+      <c r="H100" s="23" t="s">
+        <v>718</v>
+      </c>
+      <c r="I100" s="23" t="s">
+        <v>719</v>
+      </c>
+      <c r="J100" s="23" t="s">
+        <v>719</v>
+      </c>
+      <c r="K100" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L100" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M100" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="N100" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+      <c r="A101" s="22" t="s">
+        <v>692</v>
+      </c>
+      <c r="B101" s="23" t="s">
+        <v>693</v>
+      </c>
+      <c r="C101" s="23" t="s">
+        <v>722</v>
+      </c>
+      <c r="D101" s="23" t="s">
+        <v>715</v>
+      </c>
+      <c r="E101" s="23" t="s">
+        <v>723</v>
+      </c>
+      <c r="F101" s="23" t="s">
+        <v>700</v>
+      </c>
+      <c r="G101" s="23" t="s">
+        <v>724</v>
+      </c>
+      <c r="H101" s="23" t="s">
+        <v>718</v>
+      </c>
+      <c r="I101" s="23" t="s">
+        <v>719</v>
+      </c>
+      <c r="J101" s="23" t="s">
+        <v>719</v>
+      </c>
+      <c r="K101" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L101" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M101" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="N101" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+      <c r="A102" s="22" t="s">
+        <v>692</v>
+      </c>
+      <c r="B102" s="23" t="s">
+        <v>693</v>
+      </c>
+      <c r="C102" s="23" t="s">
+        <v>725</v>
+      </c>
+      <c r="D102" s="23" t="s">
+        <v>715</v>
+      </c>
+      <c r="E102" s="23" t="s">
+        <v>726</v>
+      </c>
+      <c r="F102" s="23" t="s">
+        <v>700</v>
+      </c>
+      <c r="G102" s="23" t="s">
+        <v>727</v>
+      </c>
+      <c r="H102" s="23" t="s">
+        <v>718</v>
+      </c>
+      <c r="I102" s="23" t="s">
+        <v>719</v>
+      </c>
+      <c r="J102" s="23" t="s">
+        <v>719</v>
+      </c>
+      <c r="K102" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L102" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M102" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="N102" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+      <c r="A103" s="22" t="s">
+        <v>692</v>
+      </c>
+      <c r="B103" s="23" t="s">
+        <v>693</v>
+      </c>
+      <c r="C103" s="23" t="s">
+        <v>729</v>
+      </c>
+      <c r="D103" s="23" t="s">
+        <v>715</v>
+      </c>
+      <c r="E103" s="23" t="s">
+        <v>728</v>
+      </c>
+      <c r="F103" s="23" t="s">
+        <v>700</v>
+      </c>
+      <c r="G103" s="23" t="s">
+        <v>730</v>
+      </c>
+      <c r="H103" s="23" t="s">
+        <v>718</v>
+      </c>
+      <c r="I103" s="23" t="s">
+        <v>719</v>
+      </c>
+      <c r="J103" s="23" t="s">
+        <v>719</v>
+      </c>
+      <c r="K103" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L103" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M103" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="N103" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" ht="150" x14ac:dyDescent="0.25">
+      <c r="A104" s="22" t="s">
+        <v>692</v>
+      </c>
+      <c r="B104" s="23" t="s">
+        <v>693</v>
+      </c>
+      <c r="C104" s="23" t="s">
+        <v>731</v>
+      </c>
+      <c r="D104" s="23" t="s">
+        <v>732</v>
+      </c>
+      <c r="E104" s="23" t="s">
+        <v>699</v>
+      </c>
+      <c r="F104" s="23" t="s">
+        <v>733</v>
+      </c>
+      <c r="G104" s="23" t="s">
+        <v>698</v>
+      </c>
+      <c r="H104" s="23" t="s">
+        <v>735</v>
+      </c>
+      <c r="I104" s="23" t="s">
+        <v>734</v>
+      </c>
+      <c r="J104" s="23" t="s">
+        <v>734</v>
+      </c>
+      <c r="K104" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L104" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M104" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="N104" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" ht="150" x14ac:dyDescent="0.25">
+      <c r="A105" s="22" t="s">
+        <v>692</v>
+      </c>
+      <c r="B105" s="23" t="s">
+        <v>693</v>
+      </c>
+      <c r="C105" s="23" t="s">
+        <v>738</v>
+      </c>
+      <c r="D105" s="23" t="s">
+        <v>739</v>
+      </c>
+      <c r="E105" s="23" t="s">
+        <v>740</v>
+      </c>
+      <c r="F105" s="23" t="s">
+        <v>733</v>
+      </c>
+      <c r="G105" s="23" t="s">
+        <v>698</v>
+      </c>
+      <c r="H105" s="23" t="s">
+        <v>741</v>
+      </c>
+      <c r="I105" s="23" t="s">
+        <v>742</v>
+      </c>
+      <c r="J105" s="23" t="s">
+        <v>742</v>
+      </c>
+      <c r="K105" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L105" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M105" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="N105" s="22" t="s">
         <v>40</v>
       </c>
     </row>

--- a/Documentation/FHF_TestCases.xlsx
+++ b/Documentation/FHF_TestCases.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Semester9\SEP490\fu-house-finder\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FPT\SEMESTER 9\CAPSTONE\Coding\fu-house-finder\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0299CC96-CB4A-47A1-B8BD-D92A2F5E4D0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="891" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="891" firstSheet="5" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="2" r:id="rId1"/>
@@ -28,7 +27,7 @@
     <sheet name="Login" sheetId="15" r:id="rId13"/>
     <sheet name="(Landlord) Upload House Info" sheetId="16" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -49,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2601" uniqueCount="817">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2627" uniqueCount="829">
   <si>
     <t>Project Name</t>
   </si>
@@ -7128,11 +7127,49 @@
       <t>Không khép kín</t>
     </r>
   </si>
+  <si>
+    <t>TS_FHF_SignUpRequest_001</t>
+  </si>
+  <si>
+    <t>TC_FHF_SignUpRequest_DenySignupRequest_001</t>
+  </si>
+  <si>
+    <t>TC_FHF_SignUpRequest_AcceptSignupRequest_001</t>
+  </si>
+  <si>
+    <t>System displays an annoucement of Accept Signup Request Successfully</t>
+  </si>
+  <si>
+    <t>System Displays an annoucement of Deny Signup Request Successfully</t>
+  </si>
+  <si>
+    <t>System Displays an annoucement of Accept Signup Request Successfully</t>
+  </si>
+  <si>
+    <t>Verify the update landlord's signup request functionality of List Landlord Signup Request page</t>
+  </si>
+  <si>
+    <t>Click Accept button</t>
+  </si>
+  <si>
+    <t>1. Enter the Staff List Landlord Signup Request Page
+2. Click the Deny button</t>
+  </si>
+  <si>
+    <t>1. Enter the Staff List Landlord Signup Request page
+2. Click the Accept button</t>
+  </si>
+  <si>
+    <t>Click Deny button</t>
+  </si>
+  <si>
+    <t>The list of landlords'signup request is reloaded</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -7325,7 +7362,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -7401,6 +7438,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7438,7 +7478,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFFEF5C6-55A5-5688-9EBF-11AB8AA3A27B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DFFEF5C6-55A5-5688-9EBF-11AB8AA3A27B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7735,7 +7775,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7970,7 +8010,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8337,7 +8377,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8704,11 +8744,11 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8766,7 +8806,7 @@
       </c>
       <c r="E3" s="16">
         <f>COUNTIF(K8:K11,"Pass")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F3" s="16">
         <f>COUNTIF(K8:K11,"Fail")</f>
@@ -8778,7 +8818,7 @@
       </c>
       <c r="H3" s="16">
         <f>COUNTA(K8:K11)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -8841,229 +8881,281 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="2"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="2"/>
+    <row r="8" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
+        <v>817</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>823</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>819</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>824</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>826</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>358</v>
+      </c>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23" t="s">
+        <v>828</v>
+      </c>
+      <c r="I8" s="23" t="s">
+        <v>820</v>
+      </c>
+      <c r="J8" s="23" t="s">
+        <v>822</v>
+      </c>
+      <c r="K8" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L8" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="33" t="s">
+        <v>341</v>
+      </c>
+      <c r="N8" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="23" t="s">
+        <v>817</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>823</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>818</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>827</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>358</v>
+      </c>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23" t="s">
+        <v>828</v>
+      </c>
+      <c r="I9" s="23" t="s">
+        <v>821</v>
+      </c>
+      <c r="J9" s="23" t="s">
+        <v>821</v>
+      </c>
+      <c r="K9" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L9" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="33" t="s">
+        <v>341</v>
+      </c>
+      <c r="N9" s="23" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="2"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="23"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="2"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="23"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
+      <c r="A20" s="23"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
+      <c r="A21" s="23"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9071,7 +9163,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9438,11 +9530,11 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9805,11 +9897,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14255,7 +14347,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -15381,7 +15473,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -15692,7 +15784,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -16059,11 +16151,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16426,11 +16518,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16688,7 +16780,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -17553,7 +17645,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">

--- a/Documentation/FHF_TestCases.xlsx
+++ b/Documentation/FHF_TestCases.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="891" firstSheet="5" activeTab="11"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="891" firstSheet="5" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="2" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2627" uniqueCount="829">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2723" uniqueCount="870">
   <si>
     <t>Project Name</t>
   </si>
@@ -7164,6 +7164,206 @@
   </si>
   <si>
     <t>The list of landlords'signup request is reloaded</t>
+  </si>
+  <si>
+    <t>TS_FHF_ManageReport_001</t>
+  </si>
+  <si>
+    <t>Verify the Filter by Reported Date functionality of List Report page</t>
+  </si>
+  <si>
+    <t>TC_FHF_ManageReport_FilterReportedDate_001</t>
+  </si>
+  <si>
+    <t>Choose the Start Date</t>
+  </si>
+  <si>
+    <t>1. Enter the Staff List Landlord Signup Request page
+2. Choose the Start Date from the Date picker</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Start date: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>12/08/2022</t>
+    </r>
+  </si>
+  <si>
+    <t>The list of reports will be reloaded
+User will see a list of results</t>
+  </si>
+  <si>
+    <t>System diplays the total number of result
+System displays a list of reports which reported date is later than the chosen Start Date.</t>
+  </si>
+  <si>
+    <t>TC_FHF_ManageReport_FilterReportedDate_002</t>
+  </si>
+  <si>
+    <t>Choose the End Date</t>
+  </si>
+  <si>
+    <t>1. Enter the Staff List Landlord Signup Request page
+2. Choose the End Date from the Date picker</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">End date: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>16/06/2022</t>
+    </r>
+  </si>
+  <si>
+    <t>System diplays the total number of result
+System displays a list of reports which reported date is ealier than the chosen End Date.</t>
+  </si>
+  <si>
+    <t>TC_FHF_ManageReport_FilterReportedDate_003</t>
+  </si>
+  <si>
+    <t>Choose the earlier Start Date than End Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Enter the Staff List Landlord Signup Request page
+2. Choose the Start Date from the Date picker
+3. Choose the End Date which is later than the Start Date from the Date picker </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Start date: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>12/08/2022
+End date: 12/10/2022</t>
+    </r>
+  </si>
+  <si>
+    <t>System diplays the total number of result
+System displays a list of reports which reported date is later than the chosen Start Date and ealier than the chosen End Date.</t>
+  </si>
+  <si>
+    <t>TC_FHF_ManageReport_FilterReportedDate_004</t>
+  </si>
+  <si>
+    <t>Choose the later Start Date than End Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Enter the Staff List Landlord Signup Request page
+2. Choose the Start Date from the Date picker
+3. Choose the End Date which is ealier than the Start Date from the Date picker </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Start date: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>12/08/2022
+End date: 16/06/2023</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>User will see no reports</t>
+  </si>
+  <si>
+    <t>System displays an alert to announce the user that the Start Date must be ealier than the End Date</t>
+  </si>
+  <si>
+    <t>TS_FHF_ManageReport_002</t>
+  </si>
+  <si>
+    <t>Verify the Paging functionality of  List Report page</t>
+  </si>
+  <si>
+    <t>TC_FHF_ManageReport_Paging_001</t>
+  </si>
+  <si>
+    <t>1. Enter the Staff  List Report page
+2. Click on Number Page button</t>
+  </si>
+  <si>
+    <t>User will see the page 2 of List of Reports</t>
+  </si>
+  <si>
+    <t>System displays the page 2 of List of Reports</t>
+  </si>
+  <si>
+    <t>13/12/2023</t>
+  </si>
+  <si>
+    <t>TC_FHF_ManageReport_Paging_002</t>
+  </si>
+  <si>
+    <t>1. Enter the Staff  List Report page
+2. Click on Previous Page button</t>
+  </si>
+  <si>
+    <t>User will see the next page of List of Reports</t>
+  </si>
+  <si>
+    <t>System displays the previous page of List of Reports</t>
+  </si>
+  <si>
+    <t>13/12/2024</t>
+  </si>
+  <si>
+    <t>TC_FHF_ManageReport_Paging_003</t>
+  </si>
+  <si>
+    <t>1. Enter the Staff  List Report page
+2. Click on Next Page button</t>
+  </si>
+  <si>
+    <t>User will see the previous page of List of Reports</t>
+  </si>
+  <si>
+    <t>System displays the next page of List of Reports</t>
+  </si>
+  <si>
+    <t>13/12/2025</t>
   </si>
 </sst>
 </file>
@@ -7362,7 +7562,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -7441,6 +7641,12 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7478,7 +7684,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DFFEF5C6-55A5-5688-9EBF-11AB8AA3A27B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFFEF5C6-55A5-5688-9EBF-11AB8AA3A27B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8011,10 +8217,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8071,20 +8277,20 @@
         <v>342</v>
       </c>
       <c r="E3" s="16">
-        <f>COUNTIF(K8:K11,"Pass")</f>
+        <f>COUNTIF(K8:K100,"Pass")</f>
+        <v>7</v>
+      </c>
+      <c r="F3" s="16">
+        <f>COUNTIF(K8:K100,"Fail")</f>
         <v>0</v>
       </c>
-      <c r="F3" s="16">
-        <f>COUNTIF(K8:K11,"Fail")</f>
+      <c r="G3" s="16">
+        <f>COUNTIF(K8:K100,"Untested")</f>
         <v>0</v>
       </c>
-      <c r="G3" s="16">
-        <f>COUNTIF(K8:K11,"Untested")</f>
-        <v>0</v>
-      </c>
       <c r="H3" s="16">
-        <f>COUNTA(K8:K11)</f>
-        <v>0</v>
+        <f>COUNTA(K8:K100)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -8147,229 +8353,501 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="2"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="2"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="2"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="2"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
+    <row r="8" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>829</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>831</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>832</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>834</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>835</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>836</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>836</v>
+      </c>
+      <c r="K8" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="35" t="s">
+        <v>342</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>829</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>837</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>838</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>840</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>835</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>841</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>841</v>
+      </c>
+      <c r="K9" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="35" t="s">
+        <v>342</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="135" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>829</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>843</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>844</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>845</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>835</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>846</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>846</v>
+      </c>
+      <c r="K10" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" s="35" t="s">
+        <v>342</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="135" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>829</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>847</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>848</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>849</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>850</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>851</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>852</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>852</v>
+      </c>
+      <c r="K11" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M11" s="35" t="s">
+        <v>342</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>853</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>854</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>855</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>619</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>856</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>668</v>
+      </c>
+      <c r="H12" s="23" t="s">
+        <v>857</v>
+      </c>
+      <c r="I12" s="23" t="s">
+        <v>858</v>
+      </c>
+      <c r="J12" s="23" t="s">
+        <v>858</v>
+      </c>
+      <c r="K12" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12" s="35" t="s">
+        <v>859</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>853</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>854</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>860</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>629</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>861</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="23" t="s">
+        <v>862</v>
+      </c>
+      <c r="I13" s="23" t="s">
+        <v>863</v>
+      </c>
+      <c r="J13" s="23" t="s">
+        <v>863</v>
+      </c>
+      <c r="K13" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M13" s="35" t="s">
+        <v>864</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>853</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>854</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>865</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>623</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>866</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="23" t="s">
+        <v>867</v>
+      </c>
+      <c r="I14" s="23" t="s">
+        <v>868</v>
+      </c>
+      <c r="J14" s="23" t="s">
+        <v>868</v>
+      </c>
+      <c r="K14" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M14" s="35" t="s">
+        <v>869</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="26"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="26"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="26"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="26"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="26"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="26"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="26"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="26"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8381,7 +8859,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection sqref="A1:Z44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8747,7 +9225,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -15172,7 +15650,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="24" spans="1:14" s="27" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
         <v>141</v>
       </c>

--- a/Documentation/FHF_TestCases.xlsx
+++ b/Documentation/FHF_TestCases.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="891" firstSheet="5" activeTab="9"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="891" firstSheet="5" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="2" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2723" uniqueCount="870">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3012" uniqueCount="981">
   <si>
     <t>Project Name</t>
   </si>
@@ -7364,6 +7364,724 @@
   </si>
   <si>
     <t>13/12/2025</t>
+  </si>
+  <si>
+    <t>TS_FHF_ManageOrder_001</t>
+  </si>
+  <si>
+    <t>Verify the Filter by Ordered Date functionality of List Order page</t>
+  </si>
+  <si>
+    <t>TC_FHF_ManageOrder_FilterOrderedDate_001</t>
+  </si>
+  <si>
+    <t>The list of orders will be reloaded
+User will see a list of results</t>
+  </si>
+  <si>
+    <t>System diplays the total number of result
+System displays a list of orders which ordered date is later than the chosen Start Date.</t>
+  </si>
+  <si>
+    <t>System diplays the total number of result
+System displays a list of orders which ordered date is later than the chosen start date.</t>
+  </si>
+  <si>
+    <t>1. Enter the Staff List Landlord Signup Request page
+2. Choose the Start Date from the Date picker which is later than the current date</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Start date: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>12/08/2023</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>The list of orders will be reloaded</t>
+  </si>
+  <si>
+    <t>System displays a message to user that There are no proper Orders</t>
+  </si>
+  <si>
+    <t>14/12/2023</t>
+  </si>
+  <si>
+    <t>TC_FHF_ManageOrder_FilterOrderedDate_002</t>
+  </si>
+  <si>
+    <t>System diplays the total number of result
+System displays a list of orders which ordered date is ealier than the chosen End Date.</t>
+  </si>
+  <si>
+    <t>System diplays the total number of result
+System displays a list of orders which ordered date is ealier than the chosen end date.</t>
+  </si>
+  <si>
+    <t>TC_FHF_ManageOrder_FilterOrderedDate_003</t>
+  </si>
+  <si>
+    <t>System diplays the total number of result
+System displays a list of orders which ordered date is later than the chosen Start Date and ealier than the chosen End Date.</t>
+  </si>
+  <si>
+    <t>TC_FHF_ManageOrder_FilterOrderedDate_004</t>
+  </si>
+  <si>
+    <t>User will see no orders</t>
+  </si>
+  <si>
+    <t>TS_FHF_ManageOrder_002</t>
+  </si>
+  <si>
+    <t>Verify the Filter by Order's Status functionality of List Order page</t>
+  </si>
+  <si>
+    <t>TC_FHF_ManageOrder_FilterOrderStatus_001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choose a Status </t>
+  </si>
+  <si>
+    <t>1. Enter the Staff List Landlord Signup Request page
+2. Choose a Status from the dropdown list</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Status: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Chưa xử lý</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">System diplays the total number of result
+System displays a list of orders which status is </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Chưa xử lý</t>
+    </r>
+  </si>
+  <si>
+    <t>TC_FHF_ManageOrder_FilterOrderStatus_002</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Status: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tất cả</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">System diplays the total number of result
+System displays a list of all orders </t>
+  </si>
+  <si>
+    <t>TS_FHF_ManageOrder_003</t>
+  </si>
+  <si>
+    <t>Verify the Order By functionality of List Order page</t>
+  </si>
+  <si>
+    <t>TC_FHF_ManageOrder_ArrangeInOrderedDate_003</t>
+  </si>
+  <si>
+    <t>Choose a way to arrange the list of orders</t>
+  </si>
+  <si>
+    <t>1. Enter the Staff List Landlord Signup Request page
+2. Choose a way to arrange the list of orders from the dropdown list</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Order by: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ngày xa nhất</t>
+    </r>
+  </si>
+  <si>
+    <t>System displays a list of all orders arranged from the ealiest to the latest</t>
+  </si>
+  <si>
+    <t>TS_FHF_ManageOrder_004</t>
+  </si>
+  <si>
+    <t>Verify the combine Filter functionality of List Order page</t>
+  </si>
+  <si>
+    <t>TC_FHF_ManageOrder_CombineFilter_001</t>
+  </si>
+  <si>
+    <t>Choose the Start Date and a Status</t>
+  </si>
+  <si>
+    <t>1. Enter the Staff List Landlord Signup Request page
+2. Choose the Start Date from the Date picker
+3. Choose a Status from the dropdown list</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Start date: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10/09/2022</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Status: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Đang xử lý</t>
+    </r>
+  </si>
+  <si>
+    <t>System diplays the total number of result
+System displays a list of orders which ordered date is later than the chosen Start Date and status is Đang xử lý</t>
+  </si>
+  <si>
+    <t>TC_FHF_ManageOrder_CombineFilter_002</t>
+  </si>
+  <si>
+    <t>Choose the End Date and a way to arrange the list of orders</t>
+  </si>
+  <si>
+    <t>1. Enter the Staff List Landlord Signup Request page
+2. Choose the End Date from the Date picker
+3. Choose a way to arrange the list of orders from the dropdown list</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">End date: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10/09/2022</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Order by: Ngày xa nhất</t>
+    </r>
+  </si>
+  <si>
+    <t>System diplays the total number of result
+System displays a list of orders which ordered date is ealier than the chosen End Date and arranged from the ealiest to the latest</t>
+  </si>
+  <si>
+    <t>14/12/2024</t>
+  </si>
+  <si>
+    <t>TC_FHF_ManageOrder_CombineFilter_003</t>
+  </si>
+  <si>
+    <t>Choose a Status and a way to arrange the list of orders</t>
+  </si>
+  <si>
+    <t>1. Enter the Staff List Landlord Signup Request page
+2. Choose a Status from the dropdown list
+3. Choose a way to arrange the list of orders from the dropdown list</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Status: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Đã xử lý</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Order by: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ngày gần nhất</t>
+    </r>
+  </si>
+  <si>
+    <t>System diplays the total number of result
+System displays a list of orders which status is Đã xử lý and arranged from the latest to the earliest</t>
+  </si>
+  <si>
+    <t>14/12/2025</t>
+  </si>
+  <si>
+    <t>TC_FHF_ManageOrder_CombineFilter_004</t>
+  </si>
+  <si>
+    <t>1. Enter the Staff List Landlord Signup Request page
+2. Choose the Start Date
+3. Choose the EndDate
+4. Choose a Status from the dropdown list
+5. Choose a way to arrange the list of orders from the dropdown list</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Start date: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>12/08/2022</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+End date: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>16/06/2022</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Status: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Đã xử lý</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Order by: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ngày xa nhất</t>
+    </r>
+  </si>
+  <si>
+    <t>System diplays the total number of result
+System displays a list of orders which ordered date is later than the chosen Start Date and ealier than the chosen End Date, status is Đã xử lý and arranged from the earliest to the latest</t>
+  </si>
+  <si>
+    <t>14/12/2026</t>
+  </si>
+  <si>
+    <t>TS_FHF_ManageOrder_005</t>
+  </si>
+  <si>
+    <t>Verify the Clear Filter functionality of List Order page</t>
+  </si>
+  <si>
+    <t>TC_FHF_ManageOrder_ClearFilter_005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click Clear Filter </t>
+  </si>
+  <si>
+    <t>1. Enter the Staff List Landlord Signup Request page
+2. Choose the Start Date
+3. Choose the EndDate
+4. Choose a Status from the dropdown list
+5. Click Clear Filter button</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Start date: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>12/08/2022</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+End date: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>16/06/2022</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Status: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Đã xử lý</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>The list of orders will be reloaded
+User will see filter field empty</t>
+  </si>
+  <si>
+    <t>System displays list of all orders</t>
+  </si>
+  <si>
+    <t>14/12/2027</t>
+  </si>
+  <si>
+    <t>TS_FHF_ManageOrder_006</t>
+  </si>
+  <si>
+    <t>Verify the Numerical Statistics Report functionality of List Order page</t>
+  </si>
+  <si>
+    <t>TC_FHF_ManageOrder_NumericalStatistics_001</t>
+  </si>
+  <si>
+    <t>1. Enter the Staff List Landlord Signup Request page</t>
+  </si>
+  <si>
+    <t>User will see all Numerical Statistics Reports</t>
+  </si>
+  <si>
+    <t>System displays sum of orders which solved by the logged in staff by day, week, month, and year</t>
+  </si>
+  <si>
+    <t>TS_FHF_ManageOrder_007</t>
+  </si>
+  <si>
+    <t>Verify the Graphical Statistics Report functionality of List Order page</t>
+  </si>
+  <si>
+    <t>TC_FHF_ManageOrder_GraphicalStatistics_001</t>
+  </si>
+  <si>
+    <t>User will see a Graphical Statistics Reports</t>
+  </si>
+  <si>
+    <t>System displays a bar graph to show the number of orders solved by the logged in staff every month of the current year</t>
+  </si>
+  <si>
+    <t>TS_FHF_ManageOrder_008</t>
+  </si>
+  <si>
+    <t>Verify the Paging functionality of  List Order page</t>
+  </si>
+  <si>
+    <t>TC_FHF_ManageOrder_Paging_001</t>
+  </si>
+  <si>
+    <t>1. Enter the Staff List Landlord Signup Request page
+2. Click on Number Page button</t>
+  </si>
+  <si>
+    <t>User will see the page 2 of List of Orders</t>
+  </si>
+  <si>
+    <t>System displays the page 2 of List of Orders</t>
+  </si>
+  <si>
+    <t>TC_FHF_ManageOrder_Paging_002</t>
+  </si>
+  <si>
+    <t>1. Enter the Staff List Landlord Signup Request page
+2.Click on Previous Page button</t>
+  </si>
+  <si>
+    <t>User will see the next page of List of Orders</t>
+  </si>
+  <si>
+    <t>System displays the next page of List of Orders</t>
+  </si>
+  <si>
+    <t>TC_FHF_ManageOrder_Paging_003</t>
+  </si>
+  <si>
+    <t>1. Enter the Staff List Landlord Signup Request page
+2.Click on Next Page button</t>
+  </si>
+  <si>
+    <t>User will see the previous page of List of Orders</t>
+  </si>
+  <si>
+    <t>System displays the previous page of List of Orders</t>
+  </si>
+  <si>
+    <t>TS_FHF_ManageOrder_009</t>
+  </si>
+  <si>
+    <t>Verify the Update Order's Status functionality of  List Order page</t>
+  </si>
+  <si>
+    <t>TC_FHF_ManageOrder_UpdateOrderStatus_001</t>
+  </si>
+  <si>
+    <t>Choose a Status to Update an Order's Status</t>
+  </si>
+  <si>
+    <t>1. Enter the Staff List Landlord Signup Request page
+2.Click on an Order which status is Đang xử lý
+3. Choose a Status from the dropdown list 
+4. Click Save button</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Status: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Đã xử lý</t>
+    </r>
+  </si>
+  <si>
+    <t>The chosen Order's status updated</t>
+  </si>
+  <si>
+    <t>System displays a successful alert
+Chosen order has status of Đã xử lý, solved date and solved by information
+The graphical and numerical graph updates the number of solved orders in that day, week, month, year</t>
+  </si>
+  <si>
+    <t>1. Enter the Staff List Landlord Signup Request page
+2.Click on an Order which status is Đã xử lý
+3. Choose a Status from the dropdown list 
+4. Click Save button</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Status: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Đang xử lý</t>
+    </r>
+  </si>
+  <si>
+    <t>System displays a successful alert
+Chosen order has status of Đang xử lý. Solved date and solved by informationare are null
+The graphical and numerical graph updates the number of solved orders in that day, week, month, year</t>
+  </si>
+  <si>
+    <t>TS_FHF_ManageOrder_010</t>
+  </si>
+  <si>
+    <t>Verify the View Order's Details functionality of  List Order page</t>
+  </si>
+  <si>
+    <t>TC_FHF_ManageOrder_OrderDetail_001</t>
+  </si>
+  <si>
+    <t>View an Order's details</t>
+  </si>
+  <si>
+    <t>1. Enter the Staff List Landlord Signup Request page
+2.Click on an Order</t>
+  </si>
+  <si>
+    <t>User will see a popup contained details of the chosen Order</t>
+  </si>
+  <si>
+    <t>System displays a popup to show the chosen Order's details</t>
   </si>
 </sst>
 </file>
@@ -7455,7 +8173,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -7558,11 +8276,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -7646,6 +8377,15 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8219,7 +8959,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -8856,10 +9596,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:Z44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8880,7 +9620,7 @@
     <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -8888,7 +9628,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -8908,7 +9648,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -8916,23 +9656,23 @@
         <v>344</v>
       </c>
       <c r="E3" s="16">
-        <f>COUNTIF(K8:K11,"Pass")</f>
+        <f>COUNTIF(K8:K36,"Pass")</f>
+        <v>21</v>
+      </c>
+      <c r="F3" s="16">
+        <f>COUNTIF(K8:K36,"Fail")</f>
         <v>0</v>
       </c>
-      <c r="F3" s="16">
-        <f>COUNTIF(K8:K11,"Fail")</f>
+      <c r="G3" s="16">
+        <f>COUNTIF(K8:K36,"Untested")</f>
         <v>0</v>
       </c>
-      <c r="G3" s="16">
-        <f>COUNTIF(K8:K11,"Untested")</f>
-        <v>0</v>
-      </c>
       <c r="H3" s="16">
-        <f>COUNTA(K8:K11)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+        <f>COUNTA(K8:K36)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -8940,7 +9680,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -8948,7 +9688,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -8992,229 +9732,1076 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="2"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="2"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="2"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="2"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
+    <row r="8" spans="1:15" ht="105" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
+        <v>870</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>871</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>872</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>832</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>833</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>358</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>834</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>873</v>
+      </c>
+      <c r="I8" s="23" t="s">
+        <v>874</v>
+      </c>
+      <c r="J8" s="23" t="s">
+        <v>875</v>
+      </c>
+      <c r="K8" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="L8" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="33" t="s">
+        <v>344</v>
+      </c>
+      <c r="N8" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="O8" s="26"/>
+    </row>
+    <row r="9" spans="1:15" ht="105" x14ac:dyDescent="0.25">
+      <c r="A9" s="23" t="s">
+        <v>870</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>871</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>872</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>832</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>876</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>358</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>877</v>
+      </c>
+      <c r="H9" s="23" t="s">
+        <v>878</v>
+      </c>
+      <c r="I9" s="23" t="s">
+        <v>879</v>
+      </c>
+      <c r="J9" s="23" t="s">
+        <v>879</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="L9" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="33" t="s">
+        <v>880</v>
+      </c>
+      <c r="N9" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="O9" s="26"/>
+    </row>
+    <row r="10" spans="1:15" ht="105" x14ac:dyDescent="0.25">
+      <c r="A10" s="23" t="s">
+        <v>870</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>871</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>881</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>838</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>839</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>358</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>840</v>
+      </c>
+      <c r="H10" s="23" t="s">
+        <v>873</v>
+      </c>
+      <c r="I10" s="23" t="s">
+        <v>882</v>
+      </c>
+      <c r="J10" s="23" t="s">
+        <v>883</v>
+      </c>
+      <c r="K10" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="L10" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" s="33" t="s">
+        <v>344</v>
+      </c>
+      <c r="N10" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="O10" s="26"/>
+    </row>
+    <row r="11" spans="1:15" ht="135" x14ac:dyDescent="0.25">
+      <c r="A11" s="23" t="s">
+        <v>870</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>871</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>884</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>843</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>844</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>358</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>845</v>
+      </c>
+      <c r="H11" s="23" t="s">
+        <v>873</v>
+      </c>
+      <c r="I11" s="23" t="s">
+        <v>885</v>
+      </c>
+      <c r="J11" s="23" t="s">
+        <v>885</v>
+      </c>
+      <c r="K11" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="L11" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="M11" s="33" t="s">
+        <v>344</v>
+      </c>
+      <c r="N11" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="O11" s="26"/>
+    </row>
+    <row r="12" spans="1:15" ht="135" x14ac:dyDescent="0.25">
+      <c r="A12" s="23" t="s">
+        <v>870</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>871</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>886</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>848</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>849</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>358</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>850</v>
+      </c>
+      <c r="H12" s="23" t="s">
+        <v>887</v>
+      </c>
+      <c r="I12" s="23" t="s">
+        <v>852</v>
+      </c>
+      <c r="J12" s="23" t="s">
+        <v>852</v>
+      </c>
+      <c r="K12" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="L12" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12" s="33" t="s">
+        <v>344</v>
+      </c>
+      <c r="N12" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="O12" s="26"/>
+    </row>
+    <row r="13" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13" s="23" t="s">
+        <v>888</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>889</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>890</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>891</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>892</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>358</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>893</v>
+      </c>
+      <c r="H13" s="23" t="s">
+        <v>873</v>
+      </c>
+      <c r="I13" s="23" t="s">
+        <v>894</v>
+      </c>
+      <c r="J13" s="23" t="s">
+        <v>894</v>
+      </c>
+      <c r="K13" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="L13" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="M13" s="33" t="s">
+        <v>344</v>
+      </c>
+      <c r="N13" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="O13" s="26"/>
+    </row>
+    <row r="14" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+      <c r="A14" s="23" t="s">
+        <v>888</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>889</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>895</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>891</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>892</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>358</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>896</v>
+      </c>
+      <c r="H14" s="23" t="s">
+        <v>873</v>
+      </c>
+      <c r="I14" s="23" t="s">
+        <v>897</v>
+      </c>
+      <c r="J14" s="23" t="s">
+        <v>897</v>
+      </c>
+      <c r="K14" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="L14" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="M14" s="33" t="s">
+        <v>344</v>
+      </c>
+      <c r="N14" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="O14" s="26"/>
+    </row>
+    <row r="15" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+      <c r="A15" s="23" t="s">
+        <v>898</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>899</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>900</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>901</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>902</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>358</v>
+      </c>
+      <c r="G15" s="23" t="s">
+        <v>903</v>
+      </c>
+      <c r="H15" s="23" t="s">
+        <v>873</v>
+      </c>
+      <c r="I15" s="23" t="s">
+        <v>904</v>
+      </c>
+      <c r="J15" s="23" t="s">
+        <v>904</v>
+      </c>
+      <c r="K15" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="L15" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="M15" s="33" t="s">
+        <v>344</v>
+      </c>
+      <c r="N15" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="O15" s="26"/>
+    </row>
+    <row r="16" spans="1:15" ht="120" x14ac:dyDescent="0.25">
+      <c r="A16" s="23" t="s">
+        <v>905</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>906</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>907</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>908</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>909</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>358</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>910</v>
+      </c>
+      <c r="H16" s="23" t="s">
+        <v>873</v>
+      </c>
+      <c r="I16" s="23" t="s">
+        <v>911</v>
+      </c>
+      <c r="J16" s="23" t="s">
+        <v>911</v>
+      </c>
+      <c r="K16" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="L16" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="M16" s="33" t="s">
+        <v>880</v>
+      </c>
+      <c r="N16" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="O16" s="26"/>
+    </row>
+    <row r="17" spans="1:15" ht="135" x14ac:dyDescent="0.25">
+      <c r="A17" s="23" t="s">
+        <v>905</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>906</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>912</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>913</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>914</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>358</v>
+      </c>
+      <c r="G17" s="23" t="s">
+        <v>915</v>
+      </c>
+      <c r="H17" s="23" t="s">
+        <v>873</v>
+      </c>
+      <c r="I17" s="23" t="s">
+        <v>916</v>
+      </c>
+      <c r="J17" s="23" t="s">
+        <v>916</v>
+      </c>
+      <c r="K17" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="L17" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="M17" s="33" t="s">
+        <v>917</v>
+      </c>
+      <c r="N17" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="O17" s="26"/>
+    </row>
+    <row r="18" spans="1:15" ht="120" x14ac:dyDescent="0.25">
+      <c r="A18" s="23" t="s">
+        <v>905</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>906</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>918</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>919</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>920</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>358</v>
+      </c>
+      <c r="G18" s="23" t="s">
+        <v>921</v>
+      </c>
+      <c r="H18" s="23" t="s">
+        <v>873</v>
+      </c>
+      <c r="I18" s="23" t="s">
+        <v>922</v>
+      </c>
+      <c r="J18" s="23" t="s">
+        <v>922</v>
+      </c>
+      <c r="K18" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="L18" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="M18" s="33" t="s">
+        <v>923</v>
+      </c>
+      <c r="N18" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="O18" s="26"/>
+    </row>
+    <row r="19" spans="1:15" ht="165" x14ac:dyDescent="0.25">
+      <c r="A19" s="23" t="s">
+        <v>905</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>906</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>924</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>908</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>925</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>358</v>
+      </c>
+      <c r="G19" s="23" t="s">
+        <v>926</v>
+      </c>
+      <c r="H19" s="23" t="s">
+        <v>873</v>
+      </c>
+      <c r="I19" s="23" t="s">
+        <v>927</v>
+      </c>
+      <c r="J19" s="23" t="s">
+        <v>927</v>
+      </c>
+      <c r="K19" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="L19" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="M19" s="33" t="s">
+        <v>928</v>
+      </c>
+      <c r="N19" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="O19" s="26"/>
+    </row>
+    <row r="20" spans="1:15" ht="120" x14ac:dyDescent="0.25">
+      <c r="A20" s="23" t="s">
+        <v>929</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>930</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>931</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>932</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>933</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>358</v>
+      </c>
+      <c r="G20" s="23" t="s">
+        <v>934</v>
+      </c>
+      <c r="H20" s="23" t="s">
+        <v>935</v>
+      </c>
+      <c r="I20" s="23" t="s">
+        <v>936</v>
+      </c>
+      <c r="J20" s="23" t="s">
+        <v>936</v>
+      </c>
+      <c r="K20" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="L20" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="M20" s="33" t="s">
+        <v>937</v>
+      </c>
+      <c r="N20" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="O20" s="26"/>
+    </row>
+    <row r="21" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+      <c r="A21" s="23" t="s">
+        <v>938</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>939</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>940</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>362</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>941</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>358</v>
+      </c>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23" t="s">
+        <v>942</v>
+      </c>
+      <c r="I21" s="23" t="s">
+        <v>943</v>
+      </c>
+      <c r="J21" s="23" t="s">
+        <v>943</v>
+      </c>
+      <c r="K21" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="L21" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="M21" s="33" t="s">
+        <v>344</v>
+      </c>
+      <c r="N21" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="O21" s="26"/>
+    </row>
+    <row r="22" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+      <c r="A22" s="23" t="s">
+        <v>944</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>945</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>946</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>368</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>941</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>358</v>
+      </c>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23" t="s">
+        <v>947</v>
+      </c>
+      <c r="I22" s="23" t="s">
+        <v>948</v>
+      </c>
+      <c r="J22" s="23" t="s">
+        <v>948</v>
+      </c>
+      <c r="K22" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="L22" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="M22" s="33" t="s">
+        <v>344</v>
+      </c>
+      <c r="N22" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="O22" s="26"/>
+    </row>
+    <row r="23" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+      <c r="A23" s="23" t="s">
+        <v>949</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>950</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>951</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>619</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>952</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>358</v>
+      </c>
+      <c r="G23" s="23" t="s">
+        <v>668</v>
+      </c>
+      <c r="H23" s="23" t="s">
+        <v>953</v>
+      </c>
+      <c r="I23" s="23" t="s">
+        <v>954</v>
+      </c>
+      <c r="J23" s="23" t="s">
+        <v>954</v>
+      </c>
+      <c r="K23" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="L23" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="M23" s="33" t="s">
+        <v>344</v>
+      </c>
+      <c r="N23" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="O23" s="26"/>
+    </row>
+    <row r="24" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+      <c r="A24" s="23" t="s">
+        <v>949</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>950</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>955</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>629</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>956</v>
+      </c>
+      <c r="F24" s="23" t="s">
+        <v>358</v>
+      </c>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23" t="s">
+        <v>957</v>
+      </c>
+      <c r="I24" s="23" t="s">
+        <v>958</v>
+      </c>
+      <c r="J24" s="23" t="s">
+        <v>958</v>
+      </c>
+      <c r="K24" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="L24" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="M24" s="33" t="s">
+        <v>344</v>
+      </c>
+      <c r="N24" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="O24" s="26"/>
+    </row>
+    <row r="25" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A25" s="23" t="s">
+        <v>949</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>950</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>959</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>623</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>960</v>
+      </c>
+      <c r="F25" s="23" t="s">
+        <v>358</v>
+      </c>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23" t="s">
+        <v>961</v>
+      </c>
+      <c r="I25" s="23" t="s">
+        <v>962</v>
+      </c>
+      <c r="J25" s="23" t="s">
+        <v>962</v>
+      </c>
+      <c r="K25" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="L25" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="M25" s="33" t="s">
+        <v>344</v>
+      </c>
+      <c r="N25" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="O25" s="26"/>
+    </row>
+    <row r="26" spans="1:15" ht="165" x14ac:dyDescent="0.25">
+      <c r="A26" s="23" t="s">
+        <v>963</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>964</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>965</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>966</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>967</v>
+      </c>
+      <c r="F26" s="23" t="s">
+        <v>358</v>
+      </c>
+      <c r="G26" s="23" t="s">
+        <v>968</v>
+      </c>
+      <c r="H26" s="23" t="s">
+        <v>969</v>
+      </c>
+      <c r="I26" s="23" t="s">
+        <v>970</v>
+      </c>
+      <c r="J26" s="23" t="s">
+        <v>970</v>
+      </c>
+      <c r="K26" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="L26" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="M26" s="33" t="s">
+        <v>880</v>
+      </c>
+      <c r="N26" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="O26" s="26"/>
+    </row>
+    <row r="27" spans="1:15" ht="180" x14ac:dyDescent="0.25">
+      <c r="A27" s="36" t="s">
+        <v>963</v>
+      </c>
+      <c r="B27" s="36" t="s">
+        <v>964</v>
+      </c>
+      <c r="C27" s="36" t="s">
+        <v>965</v>
+      </c>
+      <c r="D27" s="36" t="s">
+        <v>966</v>
+      </c>
+      <c r="E27" s="36" t="s">
+        <v>971</v>
+      </c>
+      <c r="F27" s="36" t="s">
+        <v>358</v>
+      </c>
+      <c r="G27" s="36" t="s">
+        <v>972</v>
+      </c>
+      <c r="H27" s="36" t="s">
+        <v>969</v>
+      </c>
+      <c r="I27" s="36" t="s">
+        <v>973</v>
+      </c>
+      <c r="J27" s="36" t="s">
+        <v>973</v>
+      </c>
+      <c r="K27" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="L27" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M27" s="38" t="s">
+        <v>917</v>
+      </c>
+      <c r="N27" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="O27" s="26"/>
+    </row>
+    <row r="28" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A28" s="36" t="s">
+        <v>974</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>975</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>976</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>977</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>978</v>
+      </c>
+      <c r="F28" s="23" t="s">
+        <v>358</v>
+      </c>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23" t="s">
+        <v>979</v>
+      </c>
+      <c r="I28" s="23" t="s">
+        <v>980</v>
+      </c>
+      <c r="J28" s="23" t="s">
+        <v>980</v>
+      </c>
+      <c r="K28" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="L28" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="M28" s="33" t="s">
+        <v>923</v>
+      </c>
+      <c r="N28" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="O28" s="26"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="23"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="23"/>
+      <c r="O29" s="26"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="23"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="23"/>
+      <c r="O30" s="26"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="23"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="23"/>
+      <c r="N31" s="23"/>
+      <c r="O31" s="26"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="23"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="23"/>
+      <c r="N32" s="23"/>
+      <c r="O32" s="26"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="23"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="23"/>
+      <c r="L33" s="23"/>
+      <c r="M33" s="23"/>
+      <c r="N33" s="23"/>
+      <c r="O33" s="26"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="23"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="23"/>
+      <c r="N34" s="23"/>
+      <c r="O34" s="26"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="23"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="23"/>
+      <c r="L35" s="23"/>
+      <c r="M35" s="23"/>
+      <c r="N35" s="23"/>
+      <c r="O35" s="26"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="23"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="23"/>
+      <c r="K36" s="23"/>
+      <c r="L36" s="23"/>
+      <c r="M36" s="23"/>
+      <c r="N36" s="23"/>
+      <c r="O36" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation/FHF_TestCases.xlsx
+++ b/Documentation/FHF_TestCases.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="891" firstSheet="5" activeTab="10"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="891" firstSheet="5" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="2" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3012" uniqueCount="981">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3077" uniqueCount="1002">
   <si>
     <t>Project Name</t>
   </si>
@@ -8082,6 +8082,73 @@
   </si>
   <si>
     <t>System displays a popup to show the chosen Order's details</t>
+  </si>
+  <si>
+    <t>TS_FHF_SignUpRequest_002</t>
+  </si>
+  <si>
+    <t>Verify the View Identity Card functionality of List Landlord Signup Request page</t>
+  </si>
+  <si>
+    <t>TC_FHF_SignUpRequest_ViewIdentityCard_001</t>
+  </si>
+  <si>
+    <t>Click on the cell of Identity Card</t>
+  </si>
+  <si>
+    <t>1. Enter the Staff List Landlord Signup Request Page
+2. Click the cell of Identity Card</t>
+  </si>
+  <si>
+    <t>User will see the popup of identity card</t>
+  </si>
+  <si>
+    <t>System displays a popup of two sides of the chosen landlord's identity card with the large size</t>
+  </si>
+  <si>
+    <t>TS_FHF_SignUpRequest_003</t>
+  </si>
+  <si>
+    <t>Verify the Viewlink Facebook functionality of List Landlord Signup Request page</t>
+  </si>
+  <si>
+    <t>TC_FHF_SignUpRequest_ViewLinkFacebook_001</t>
+  </si>
+  <si>
+    <t>Click the Facebook button</t>
+  </si>
+  <si>
+    <t>1. Enter the Staff List Landlord Signup Request Page
+2. Click the button with Facebook icon</t>
+  </si>
+  <si>
+    <t>User will see the landlord's Facebook page</t>
+  </si>
+  <si>
+    <t>System redirects to the chosen landlord's Facebook page</t>
+  </si>
+  <si>
+    <t>TS_FHF_RejectedLandlord_001</t>
+  </si>
+  <si>
+    <t>Verify the update landlord's signup request functionality of List Rejected Landlord page</t>
+  </si>
+  <si>
+    <t>TC_FHF_RejetedLanlord_AcceptSignupRequest_001</t>
+  </si>
+  <si>
+    <t>1. Enter the Staff List Landlord Signup Request page
+2. Click the link to go to List Rejected Landlord page
+3. Click the Accept button</t>
+  </si>
+  <si>
+    <t>16/12/2022</t>
+  </si>
+  <si>
+    <t>TS_FHF_RejectedLandlord_002</t>
+  </si>
+  <si>
+    <t>TS_FHF_RejectedLandlord_003</t>
   </si>
 </sst>
 </file>
@@ -9598,7 +9665,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -10812,8 +10879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10871,7 +10938,7 @@
       </c>
       <c r="E3" s="16">
         <f>COUNTIF(K8:K11,"Pass")</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F3" s="16">
         <f>COUNTIF(K8:K11,"Fail")</f>
@@ -10883,7 +10950,7 @@
       </c>
       <c r="H3" s="16">
         <f>COUNTA(K8:K11)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -11030,85 +11097,215 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="23"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
+    <row r="10" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="23" t="s">
+        <v>981</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>982</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>983</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>984</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>985</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>358</v>
+      </c>
       <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="23"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="23"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
+      <c r="H10" s="23" t="s">
+        <v>986</v>
+      </c>
+      <c r="I10" s="23" t="s">
+        <v>987</v>
+      </c>
+      <c r="J10" s="23" t="s">
+        <v>987</v>
+      </c>
+      <c r="K10" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L10" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" s="33" t="s">
+        <v>341</v>
+      </c>
+      <c r="N10" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="23" t="s">
+        <v>988</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>989</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>990</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>991</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>992</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>358</v>
+      </c>
       <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="23"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
+      <c r="H11" s="23" t="s">
+        <v>993</v>
+      </c>
+      <c r="I11" s="23" t="s">
+        <v>994</v>
+      </c>
+      <c r="J11" s="23" t="s">
+        <v>994</v>
+      </c>
+      <c r="K11" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L11" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="M11" s="33" t="s">
+        <v>341</v>
+      </c>
+      <c r="N11" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="90" x14ac:dyDescent="0.25">
+      <c r="A12" s="23" t="s">
+        <v>995</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>996</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>997</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>824</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>998</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>358</v>
+      </c>
       <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="23"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
+      <c r="H12" s="23" t="s">
+        <v>828</v>
+      </c>
+      <c r="I12" s="23" t="s">
+        <v>820</v>
+      </c>
+      <c r="J12" s="23" t="s">
+        <v>822</v>
+      </c>
+      <c r="K12" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="L12" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12" s="33" t="s">
+        <v>999</v>
+      </c>
+      <c r="N12" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13" s="23" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>982</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>983</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>984</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>985</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>358</v>
+      </c>
       <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="23"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
+      <c r="H13" s="23" t="s">
+        <v>986</v>
+      </c>
+      <c r="I13" s="23" t="s">
+        <v>987</v>
+      </c>
+      <c r="J13" s="23" t="s">
+        <v>987</v>
+      </c>
+      <c r="K13" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L13" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="M13" s="33" t="s">
+        <v>999</v>
+      </c>
+      <c r="N13" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A14" s="23" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>989</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>990</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>991</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>992</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>358</v>
+      </c>
       <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
+      <c r="H14" s="23" t="s">
+        <v>993</v>
+      </c>
+      <c r="I14" s="23" t="s">
+        <v>994</v>
+      </c>
+      <c r="J14" s="23" t="s">
+        <v>994</v>
+      </c>
+      <c r="K14" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L14" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="M14" s="33" t="s">
+        <v>999</v>
+      </c>
+      <c r="N14" s="23" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="23"/>

--- a/Documentation/FHF_TestCases.xlsx
+++ b/Documentation/FHF_TestCases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\FinalProject\fu-house-finder\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{889601A2-E8AF-426E-BF52-DA3C2BF59628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC2557E9-4B95-40FF-B9E1-56A4E093BAB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="891" firstSheet="7" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="891" firstSheet="12" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,10 @@
     <sheet name="(Staff) Manage Orders" sheetId="13" r:id="rId11"/>
     <sheet name="(Staff) Manage Sign up Requests" sheetId="14" r:id="rId12"/>
     <sheet name="Login" sheetId="15" r:id="rId13"/>
-    <sheet name="(Landlord) Upload House Info" sheetId="16" r:id="rId14"/>
+    <sheet name="(Landlord) Add new House" sheetId="18" r:id="rId14"/>
+    <sheet name="(Landlord) Upload House Info" sheetId="16" r:id="rId15"/>
+    <sheet name="(Landlord) Add new Room" sheetId="21" r:id="rId16"/>
+    <sheet name="(Staff) Change Password" sheetId="22" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2903" uniqueCount="970">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3654" uniqueCount="1253">
   <si>
     <t>Project Name</t>
   </si>
@@ -7305,75 +7308,6 @@
     <t>TS_FHF_Login_023</t>
   </si>
   <si>
-    <t>TS_FHF_Login_Facebook_001</t>
-  </si>
-  <si>
-    <t>TS_FHF_Login_Facebook_002</t>
-  </si>
-  <si>
-    <t>TS_FHF_Login_Facebook_003</t>
-  </si>
-  <si>
-    <t>TS_FHF_Login_Facebook_004</t>
-  </si>
-  <si>
-    <t>TS_FHF_Login_Facebook_005</t>
-  </si>
-  <si>
-    <t>TS_FHF_Login_Facebook_006</t>
-  </si>
-  <si>
-    <t>TS_FHF_Login_Facebook_007</t>
-  </si>
-  <si>
-    <t>TS_FHF_Login_Google_001</t>
-  </si>
-  <si>
-    <t>TS_FHF_Login_Google_002</t>
-  </si>
-  <si>
-    <t>TS_FHF_Login_Google_003</t>
-  </si>
-  <si>
-    <t>TS_FHF_Login_Google_004</t>
-  </si>
-  <si>
-    <t>TS_FHF_Login_Google_005</t>
-  </si>
-  <si>
-    <t>TS_FHF_Login_Google_006</t>
-  </si>
-  <si>
-    <t>TS_FHF_Login_Google_007</t>
-  </si>
-  <si>
-    <t>TS_FHF_Login_Email_001</t>
-  </si>
-  <si>
-    <t>TS_FHF_Login_Email_002</t>
-  </si>
-  <si>
-    <t>TS_FHF_Login_Email_003</t>
-  </si>
-  <si>
-    <t>TS_FHF_Login_Email_004</t>
-  </si>
-  <si>
-    <t>TS_FHF_Register_001</t>
-  </si>
-  <si>
-    <t>TS_FHF_Register_002</t>
-  </si>
-  <si>
-    <t>TS_FHF_Register_003</t>
-  </si>
-  <si>
-    <t>TS_FHF_Register_004</t>
-  </si>
-  <si>
-    <t>TS_FHF_Register_005</t>
-  </si>
-  <si>
     <t>Login using Facebook button with deny on Facebook give permission promt</t>
   </si>
   <si>
@@ -7536,18 +7470,6 @@
   </si>
   <si>
     <t>A Staff account</t>
-  </si>
-  <si>
-    <t>Email And Password of Admin Account</t>
-  </si>
-  <si>
-    <t>Email And Password of Staff Account</t>
-  </si>
-  <si>
-    <t>Email (incorrect) And Password of Admin or Staff Account</t>
-  </si>
-  <si>
-    <t>Email And Password (incorrect) of Admin or Staff Account</t>
   </si>
   <si>
     <t>A Staff account and an Admin account</t>
@@ -7614,43 +7536,1433 @@
 6. Click Next button</t>
   </si>
   <si>
+    <t>The alert modal appear and the page is redirected to Landlord dashboard after click OK on modal button</t>
+  </si>
+  <si>
+    <t>The next button is unclickable</t>
+  </si>
+  <si>
+    <t>The back button is clickable</t>
+  </si>
+  <si>
+    <t>TS_FHF_ExcelDataUpload_001</t>
+  </si>
+  <si>
+    <t>TS_FHF_ExcelDataUpload_002</t>
+  </si>
+  <si>
+    <t>TS_FHF_ExcelDataUpload_003</t>
+  </si>
+  <si>
+    <t>TS_FHF_ExcelDataUpload_004</t>
+  </si>
+  <si>
+    <t>TS_FHF_ExcelDataUpload_005</t>
+  </si>
+  <si>
+    <t>TS_FHF_ExcelDataUpload_006</t>
+  </si>
+  <si>
+    <t>TS_FHF_ExcelDataUpload_007</t>
+  </si>
+  <si>
+    <t>TS_FHF_ExcelDataUpload_008</t>
+  </si>
+  <si>
+    <t>Email: Admin
+Password: Admin</t>
+  </si>
+  <si>
+    <t>Email: thanhle@gmail.com
+Password: thanhle</t>
+  </si>
+  <si>
+    <t>Email: incorrectemail@gmail.com
+Password: thanhle</t>
+  </si>
+  <si>
+    <t>Email: thanhle@gmail.com
+Password: incorrectpassword</t>
+  </si>
+  <si>
     <t>A test Google account
-A Phone number
-A Facebook URL to Landlord Facebook or House Fanpage</t>
-  </si>
-  <si>
-    <t>A test Google account
-A Phone number (incorrect)
-A Facebook URL to Landlord Facebook or House Fanpage (incorrect)
-2 images (not of ID card)
-A Phone number
-A Facebook URL to Landlord Facebook or House Fanpage
+phonenumber: 0812312341
+A Facebook URL https://facebook.com/
 An image of ID card front side
 An image of ID card back side</t>
   </si>
   <si>
-    <t>A test Google account
-A Phone number
-A Facebook URL to Landlord Facebook or House Fanpage
+    <t>A test Facebook account
+phonenumber: 0812312341
+A Facebook URL https://facebook.com/
 An image of ID card front side
 An image of ID card back side</t>
   </si>
   <si>
     <t>A test Facebook account
+phonenumber: 0812312341
+A Facebook URL https://facebook.com/</t>
+  </si>
+  <si>
+    <t>A test Google account
+A Phone number (incorrect): 0012488812
+A Facebook URL (incorrect): https://faceb.com/
 2 images (not of ID card)
-A Phone number
-A Facebook URL to Landlord Facebook or House Fanpage
+A Phone number: 0812312341
+A Facebook URL: https://facebook.com/
 An image of ID card front side
 An image of ID card back side</t>
   </si>
   <si>
-    <t>The alert modal appear and the page is redirected to Landlord dashboard after click OK on modal button</t>
-  </si>
-  <si>
-    <t>The next button is unclickable</t>
-  </si>
-  <si>
-    <t>The back button is clickable</t>
+    <t>Upload Correct filled excel file
+Upload Correct folder contains Images of Rooms with correct name</t>
+  </si>
+  <si>
+    <t>Upload excel file contains invalid rows</t>
+  </si>
+  <si>
+    <t>Upload image folder contains invalid files</t>
+  </si>
+  <si>
+    <t>Upload folder contains no images</t>
+  </si>
+  <si>
+    <t>Upload image folder contains image with incorrect name</t>
+  </si>
+  <si>
+    <t>Download Excel template file</t>
+  </si>
+  <si>
+    <t>Upload without select Excel file</t>
+  </si>
+  <si>
+    <t>Upload without select Image file</t>
+  </si>
+  <si>
+    <t>Upload Room Data of a House with excel template correctly filled and a folder contains images for equivalent data in the import file with the correct name</t>
+  </si>
+  <si>
+    <t>Upload Room Data of a House with excel template contains some incorrect rows and a folder contains images for equivalent data in the import file with the correct name</t>
+  </si>
+  <si>
+    <t>Upload Room Data of a House with excel template correctly filled and a folder contains images for equivalent data in the import file with some files that are not images</t>
+  </si>
+  <si>
+    <t>Upload Room Data of a House with excel template correctly filled and a folder contains images for equivalent data in the import file with the incorrect name</t>
+  </si>
+  <si>
+    <t>Upload Room Data of a House without select excel data file and a folder contains images for equivalent data in the import file with the correct name</t>
+  </si>
+  <si>
+    <t>Upload Room Data of a House with excel template correctly filled and not select image folder</t>
+  </si>
+  <si>
+    <t>1. Click Upload Template button
+2. Select Excel Data File
+3. Click Open
+4. Click Upload Image button
+5. Select Folder contains Image files
+6. Click Upload
+7. Click "Thêm mới" Button</t>
+  </si>
+  <si>
+    <t>Logged in as Landlord</t>
+  </si>
+  <si>
+    <t>Excel data file (correctly filled version)
+Folder contains Images for import data with correct name</t>
+  </si>
+  <si>
+    <t>Room data saved and Room images is uploaded</t>
+  </si>
+  <si>
+    <t>Upload Room Data of a House with excel template correctly filled and an empty folder</t>
+  </si>
+  <si>
+    <t>Excel data file (version contains some error)
+Folder contains Images for import data with correct name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excel data file (correctly filled version)
+Folder contains Images for import data with correct name and some non-image files </t>
+  </si>
+  <si>
+    <t>Excel data file (correctly filled version)
+Folder contains Images for import data with incorrect name</t>
+  </si>
+  <si>
+    <t>Folder contains Images for import data with correct name</t>
+  </si>
+  <si>
+    <t>Excel data file (correctly filled version)</t>
+  </si>
+  <si>
+    <t>1. Click Upload Template button
+2. Select Excel Data File
+3. Click Open
+4. Click Upload Image button
+5. Select empty Folder
+6. Click Upload
+7. Click "Thêm mới" Button</t>
+  </si>
+  <si>
+    <t>1. Click Upload Template button
+2. Select Excel Data File
+3. Click Open
+4. Click Upload Image button
+5. Select Folder contains Image files and invalid files
+6. Click Upload
+7. Click "Thêm mới" Button</t>
+  </si>
+  <si>
+    <t>1. Click Upload Image button
+2. Select Folder contains Image files
+3. Click Upload
+4. Click "Thêm mới" Button</t>
+  </si>
+  <si>
+    <t>1. Click Upload Template button
+2. Select Excel Data File
+3. Click Open
+4. Click "Thêm mới" Button</t>
+  </si>
+  <si>
+    <t>1. Click Download Template Button
+2. Select Save location
+3. Click save button</t>
+  </si>
+  <si>
+    <t>Valid data rows is saved
+Invalid data rows is not saved
+Images for valid data are uploaded</t>
+  </si>
+  <